--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-diciembre 2020</t>
+    <t xml:space="preserve">enero 1969-enero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de febrero 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de marzo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -391,7 +391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="49.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="16.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -13591,6 +13591,29 @@
         <v>3.5360772888176</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B633" t="n">
+        <v>110.21</v>
+      </c>
+      <c r="C633" t="n">
+        <v>110.257</v>
+      </c>
+      <c r="D633" t="n">
+        <v>110.817</v>
+      </c>
+      <c r="E633" t="n">
+        <v>3.53509258128457</v>
+      </c>
+      <c r="F633" t="n">
+        <v>4.20774065497849</v>
+      </c>
+      <c r="G633" t="n">
+        <v>4.21400090279866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-enero 2021</t>
+    <t xml:space="preserve">enero 1969-febrero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de marzo 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de abril 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13614,6 +13614,29 @@
         <v>4.21400090279866</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B634" t="n">
+        <v>110.907</v>
+      </c>
+      <c r="C634" t="n">
+        <v>110.926</v>
+      </c>
+      <c r="D634" t="n">
+        <v>111.424</v>
+      </c>
+      <c r="E634" t="n">
+        <v>3.75903975151792</v>
+      </c>
+      <c r="F634" t="n">
+        <v>4.58599686975543</v>
+      </c>
+      <c r="G634" t="n">
+        <v>4.20469848870269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-febrero 2021</t>
+    <t xml:space="preserve">enero 1969-marzo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de abril 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de mayo 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -391,7 +391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="46.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="16.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -13637,6 +13637,29 @@
         <v>4.20469848870269</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B635" t="n">
+        <v>111.824</v>
+      </c>
+      <c r="C635" t="n">
+        <v>111.779</v>
+      </c>
+      <c r="D635" t="n">
+        <v>112.164</v>
+      </c>
+      <c r="E635" t="n">
+        <v>4.66687882588592</v>
+      </c>
+      <c r="F635" t="n">
+        <v>5.26915542831312</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.29359305327388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-marzo 2021</t>
+    <t xml:space="preserve">enero 1969-abril 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de mayo 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de junio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -391,7 +391,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="46.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="47.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="16.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="16.71" hidden="0" customWidth="1"/>
@@ -13660,6 +13660,29 @@
         <v>5.29359305327388</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B636" t="n">
+        <v>112.19</v>
+      </c>
+      <c r="C636" t="n">
+        <v>112.428</v>
+      </c>
+      <c r="D636" t="n">
+        <v>112.512</v>
+      </c>
+      <c r="E636" t="n">
+        <v>6.08481868469577</v>
+      </c>
+      <c r="F636" t="n">
+        <v>6.55571457004482</v>
+      </c>
+      <c r="G636" t="n">
+        <v>6.74965369361848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-mayo 2021</t>
+    <t xml:space="preserve">enero 1969-junio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de julio 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de agosto 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -96,8 +96,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -112,7 +114,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +481,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +564,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>25204</v>
       </c>
       <c r="B15" s="3" t="n">
@@ -577,7 +579,7 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>25235</v>
       </c>
       <c r="B16" s="3" t="n">
@@ -592,7 +594,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>25263</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -607,7 +609,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>25294</v>
       </c>
       <c r="B18" s="3" t="n">
@@ -622,7 +624,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>25324</v>
       </c>
       <c r="B19" s="3" t="n">
@@ -637,7 +639,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>25355</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -652,7 +654,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>25385</v>
       </c>
       <c r="B21" s="3" t="n">
@@ -667,7 +669,7 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>25416</v>
       </c>
       <c r="B22" s="3" t="n">
@@ -682,7 +684,7 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>25447</v>
       </c>
       <c r="B23" s="3" t="n">
@@ -697,7 +699,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>25477</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -712,7 +714,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>25508</v>
       </c>
       <c r="B25" s="3" t="n">
@@ -727,7 +729,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <v>25538</v>
       </c>
       <c r="B26" s="3" t="n">
@@ -742,7 +744,7 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>25569</v>
       </c>
       <c r="B27" s="3" t="n">
@@ -761,7 +763,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <v>25600</v>
       </c>
       <c r="B28" s="3" t="n">
@@ -780,7 +782,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <v>25628</v>
       </c>
       <c r="B29" s="3" t="n">
@@ -799,7 +801,7 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>25659</v>
       </c>
       <c r="B30" s="3" t="n">
@@ -818,7 +820,7 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <v>25689</v>
       </c>
       <c r="B31" s="3" t="n">
@@ -837,7 +839,7 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="5" t="n">
         <v>25720</v>
       </c>
       <c r="B32" s="3" t="n">
@@ -856,7 +858,7 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="5" t="n">
         <v>25750</v>
       </c>
       <c r="B33" s="3" t="n">
@@ -875,7 +877,7 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="5" t="n">
         <v>25781</v>
       </c>
       <c r="B34" s="3" t="n">
@@ -894,7 +896,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="5" t="n">
         <v>25812</v>
       </c>
       <c r="B35" s="3" t="n">
@@ -913,7 +915,7 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="5" t="n">
         <v>25842</v>
       </c>
       <c r="B36" s="3" t="n">
@@ -932,7 +934,7 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <v>25873</v>
       </c>
       <c r="B37" s="3" t="n">
@@ -951,7 +953,7 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>25903</v>
       </c>
       <c r="B38" s="3" t="n">
@@ -970,7 +972,7 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="5" t="n">
         <v>25934</v>
       </c>
       <c r="B39" s="3" t="n">
@@ -989,7 +991,7 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="5" t="n">
         <v>25965</v>
       </c>
       <c r="B40" s="3" t="n">
@@ -1008,7 +1010,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="5" t="n">
         <v>25993</v>
       </c>
       <c r="B41" s="3" t="n">
@@ -1027,7 +1029,7 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="5" t="n">
         <v>26024</v>
       </c>
       <c r="B42" s="3" t="n">
@@ -1046,7 +1048,7 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="5" t="n">
         <v>26054</v>
       </c>
       <c r="B43" s="3" t="n">
@@ -1065,7 +1067,7 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="5" t="n">
         <v>26085</v>
       </c>
       <c r="B44" s="3" t="n">
@@ -1084,7 +1086,7 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="5" t="n">
         <v>26115</v>
       </c>
       <c r="B45" s="3" t="n">
@@ -1103,7 +1105,7 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="5" t="n">
         <v>26146</v>
       </c>
       <c r="B46" s="3" t="n">
@@ -1122,7 +1124,7 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="5" t="n">
         <v>26177</v>
       </c>
       <c r="B47" s="3" t="n">
@@ -1141,7 +1143,7 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="5" t="n">
         <v>26207</v>
       </c>
       <c r="B48" s="3" t="n">
@@ -1160,7 +1162,7 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="5" t="n">
         <v>26238</v>
       </c>
       <c r="B49" s="3" t="n">
@@ -1179,7 +1181,7 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>26268</v>
       </c>
       <c r="B50" s="3" t="n">
@@ -1198,7 +1200,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="5" t="n">
         <v>26299</v>
       </c>
       <c r="B51" s="3" t="n">
@@ -1217,7 +1219,7 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="5" t="n">
         <v>26330</v>
       </c>
       <c r="B52" s="3" t="n">
@@ -1236,7 +1238,7 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="5" t="n">
         <v>26359</v>
       </c>
       <c r="B53" s="3" t="n">
@@ -1255,7 +1257,7 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="5" t="n">
         <v>26390</v>
       </c>
       <c r="B54" s="3" t="n">
@@ -1274,7 +1276,7 @@
       <c r="G54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="5" t="n">
         <v>26420</v>
       </c>
       <c r="B55" s="3" t="n">
@@ -1293,7 +1295,7 @@
       <c r="G55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="5" t="n">
         <v>26451</v>
       </c>
       <c r="B56" s="3" t="n">
@@ -1312,7 +1314,7 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="5" t="n">
         <v>26481</v>
       </c>
       <c r="B57" s="3" t="n">
@@ -1331,7 +1333,7 @@
       <c r="G57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="5" t="n">
         <v>26512</v>
       </c>
       <c r="B58" s="3" t="n">
@@ -1350,7 +1352,7 @@
       <c r="G58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="5" t="n">
         <v>26543</v>
       </c>
       <c r="B59" s="3" t="n">
@@ -1369,7 +1371,7 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="5" t="n">
         <v>26573</v>
       </c>
       <c r="B60" s="3" t="n">
@@ -1388,7 +1390,7 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="5" t="n">
         <v>26604</v>
       </c>
       <c r="B61" s="3" t="n">
@@ -1407,7 +1409,7 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="5" t="n">
         <v>26634</v>
       </c>
       <c r="B62" s="3" t="n">
@@ -1426,7 +1428,7 @@
       <c r="G62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="5" t="n">
         <v>26665</v>
       </c>
       <c r="B63" s="3" t="n">
@@ -1445,7 +1447,7 @@
       <c r="G63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="5" t="n">
         <v>26696</v>
       </c>
       <c r="B64" s="3" t="n">
@@ -1464,7 +1466,7 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="5" t="n">
         <v>26724</v>
       </c>
       <c r="B65" s="3" t="n">
@@ -1483,7 +1485,7 @@
       <c r="G65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="5" t="n">
         <v>26755</v>
       </c>
       <c r="B66" s="3" t="n">
@@ -1502,7 +1504,7 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="5" t="n">
         <v>26785</v>
       </c>
       <c r="B67" s="3" t="n">
@@ -1521,7 +1523,7 @@
       <c r="G67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="5" t="n">
         <v>26816</v>
       </c>
       <c r="B68" s="3" t="n">
@@ -1540,7 +1542,7 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="5" t="n">
         <v>26846</v>
       </c>
       <c r="B69" s="3" t="n">
@@ -1559,7 +1561,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="5" t="n">
         <v>26877</v>
       </c>
       <c r="B70" s="3" t="n">
@@ -1578,7 +1580,7 @@
       <c r="G70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="5" t="n">
         <v>26908</v>
       </c>
       <c r="B71" s="3" t="n">
@@ -1597,7 +1599,7 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="5" t="n">
         <v>26938</v>
       </c>
       <c r="B72" s="3" t="n">
@@ -1616,7 +1618,7 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="5" t="n">
         <v>26969</v>
       </c>
       <c r="B73" s="3" t="n">
@@ -1635,7 +1637,7 @@
       <c r="G73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="5" t="n">
         <v>26999</v>
       </c>
       <c r="B74" s="3" t="n">
@@ -1654,7 +1656,7 @@
       <c r="G74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="5" t="n">
         <v>27030</v>
       </c>
       <c r="B75" s="3" t="n">
@@ -1673,7 +1675,7 @@
       <c r="G75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="5" t="n">
         <v>27061</v>
       </c>
       <c r="B76" s="3" t="n">
@@ -1692,7 +1694,7 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="5" t="n">
         <v>27089</v>
       </c>
       <c r="B77" s="3" t="n">
@@ -1711,7 +1713,7 @@
       <c r="G77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="5" t="n">
         <v>27120</v>
       </c>
       <c r="B78" s="3" t="n">
@@ -1730,7 +1732,7 @@
       <c r="G78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="5" t="n">
         <v>27150</v>
       </c>
       <c r="B79" s="3" t="n">
@@ -1749,7 +1751,7 @@
       <c r="G79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="5" t="n">
         <v>27181</v>
       </c>
       <c r="B80" s="3" t="n">
@@ -1768,7 +1770,7 @@
       <c r="G80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="5" t="n">
         <v>27211</v>
       </c>
       <c r="B81" s="3" t="n">
@@ -1787,7 +1789,7 @@
       <c r="G81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="5" t="n">
         <v>27242</v>
       </c>
       <c r="B82" s="3" t="n">
@@ -1806,7 +1808,7 @@
       <c r="G82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="5" t="n">
         <v>27273</v>
       </c>
       <c r="B83" s="3" t="n">
@@ -1825,7 +1827,7 @@
       <c r="G83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="5" t="n">
         <v>27303</v>
       </c>
       <c r="B84" s="3" t="n">
@@ -1844,7 +1846,7 @@
       <c r="G84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="5" t="n">
         <v>27334</v>
       </c>
       <c r="B85" s="3" t="n">
@@ -1863,7 +1865,7 @@
       <c r="G85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="5" t="n">
         <v>27364</v>
       </c>
       <c r="B86" s="3" t="n">
@@ -1882,7 +1884,7 @@
       <c r="G86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="5" t="n">
         <v>27395</v>
       </c>
       <c r="B87" s="3" t="n">
@@ -1901,7 +1903,7 @@
       <c r="G87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="5" t="n">
         <v>27426</v>
       </c>
       <c r="B88" s="3" t="n">
@@ -1920,7 +1922,7 @@
       <c r="G88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="5" t="n">
         <v>27454</v>
       </c>
       <c r="B89" s="3" t="n">
@@ -1939,7 +1941,7 @@
       <c r="G89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="5" t="n">
         <v>27485</v>
       </c>
       <c r="B90" s="3" t="n">
@@ -1958,7 +1960,7 @@
       <c r="G90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="5" t="n">
         <v>27515</v>
       </c>
       <c r="B91" s="3" t="n">
@@ -1977,7 +1979,7 @@
       <c r="G91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="5" t="n">
         <v>27546</v>
       </c>
       <c r="B92" s="3" t="n">
@@ -1996,7 +1998,7 @@
       <c r="G92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="5" t="n">
         <v>27576</v>
       </c>
       <c r="B93" s="3" t="n">
@@ -2015,7 +2017,7 @@
       <c r="G93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="5" t="n">
         <v>27607</v>
       </c>
       <c r="B94" s="3" t="n">
@@ -2034,7 +2036,7 @@
       <c r="G94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="5" t="n">
         <v>27638</v>
       </c>
       <c r="B95" s="3" t="n">
@@ -2053,7 +2055,7 @@
       <c r="G95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="5" t="n">
         <v>27668</v>
       </c>
       <c r="B96" s="3" t="n">
@@ -2072,7 +2074,7 @@
       <c r="G96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="5" t="n">
         <v>27699</v>
       </c>
       <c r="B97" s="3" t="n">
@@ -2091,7 +2093,7 @@
       <c r="G97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="5" t="n">
         <v>27729</v>
       </c>
       <c r="B98" s="3" t="n">
@@ -2110,7 +2112,7 @@
       <c r="G98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="5" t="n">
         <v>27760</v>
       </c>
       <c r="B99" s="3" t="n">
@@ -2129,7 +2131,7 @@
       <c r="G99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="5" t="n">
         <v>27791</v>
       </c>
       <c r="B100" s="3" t="n">
@@ -2148,7 +2150,7 @@
       <c r="G100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="5" t="n">
         <v>27820</v>
       </c>
       <c r="B101" s="3" t="n">
@@ -2167,7 +2169,7 @@
       <c r="G101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="5" t="n">
         <v>27851</v>
       </c>
       <c r="B102" s="3" t="n">
@@ -2186,7 +2188,7 @@
       <c r="G102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="5" t="n">
         <v>27881</v>
       </c>
       <c r="B103" s="3" t="n">
@@ -2205,7 +2207,7 @@
       <c r="G103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="5" t="n">
         <v>27912</v>
       </c>
       <c r="B104" s="3" t="n">
@@ -2224,7 +2226,7 @@
       <c r="G104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="5" t="n">
         <v>27942</v>
       </c>
       <c r="B105" s="3" t="n">
@@ -2243,7 +2245,7 @@
       <c r="G105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="5" t="n">
         <v>27973</v>
       </c>
       <c r="B106" s="3" t="n">
@@ -2262,7 +2264,7 @@
       <c r="G106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="5" t="n">
         <v>28004</v>
       </c>
       <c r="B107" s="3" t="n">
@@ -2281,7 +2283,7 @@
       <c r="G107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="5" t="n">
         <v>28034</v>
       </c>
       <c r="B108" s="3" t="n">
@@ -2300,7 +2302,7 @@
       <c r="G108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="5" t="n">
         <v>28065</v>
       </c>
       <c r="B109" s="3" t="n">
@@ -2319,7 +2321,7 @@
       <c r="G109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="5" t="n">
         <v>28095</v>
       </c>
       <c r="B110" s="3" t="n">
@@ -2338,7 +2340,7 @@
       <c r="G110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="5" t="n">
         <v>28126</v>
       </c>
       <c r="B111" s="3" t="n">
@@ -2357,7 +2359,7 @@
       <c r="G111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="5" t="n">
         <v>28157</v>
       </c>
       <c r="B112" s="3" t="n">
@@ -2376,7 +2378,7 @@
       <c r="G112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="5" t="n">
         <v>28185</v>
       </c>
       <c r="B113" s="3" t="n">
@@ -2395,7 +2397,7 @@
       <c r="G113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="5" t="n">
         <v>28216</v>
       </c>
       <c r="B114" s="3" t="n">
@@ -2414,7 +2416,7 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="5" t="n">
         <v>28246</v>
       </c>
       <c r="B115" s="3" t="n">
@@ -2433,7 +2435,7 @@
       <c r="G115" s="3"/>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="5" t="n">
         <v>28277</v>
       </c>
       <c r="B116" s="3" t="n">
@@ -2452,7 +2454,7 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="5" t="n">
         <v>28307</v>
       </c>
       <c r="B117" s="3" t="n">
@@ -2471,7 +2473,7 @@
       <c r="G117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="5" t="n">
         <v>28338</v>
       </c>
       <c r="B118" s="3" t="n">
@@ -2490,7 +2492,7 @@
       <c r="G118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="5" t="n">
         <v>28369</v>
       </c>
       <c r="B119" s="3" t="n">
@@ -2509,7 +2511,7 @@
       <c r="G119" s="3"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="5" t="n">
         <v>28399</v>
       </c>
       <c r="B120" s="3" t="n">
@@ -2528,7 +2530,7 @@
       <c r="G120" s="3"/>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="5" t="n">
         <v>28430</v>
       </c>
       <c r="B121" s="3" t="n">
@@ -2547,7 +2549,7 @@
       <c r="G121" s="3"/>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="5" t="n">
         <v>28460</v>
       </c>
       <c r="B122" s="3" t="n">
@@ -2566,7 +2568,7 @@
       <c r="G122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="5" t="n">
         <v>28491</v>
       </c>
       <c r="B123" s="3" t="n">
@@ -2585,7 +2587,7 @@
       <c r="G123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="5" t="n">
         <v>28522</v>
       </c>
       <c r="B124" s="3" t="n">
@@ -2604,7 +2606,7 @@
       <c r="G124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="5" t="n">
         <v>28550</v>
       </c>
       <c r="B125" s="3" t="n">
@@ -2623,7 +2625,7 @@
       <c r="G125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="5" t="n">
         <v>28581</v>
       </c>
       <c r="B126" s="3" t="n">
@@ -2642,7 +2644,7 @@
       <c r="G126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="5" t="n">
         <v>28611</v>
       </c>
       <c r="B127" s="3" t="n">
@@ -2661,7 +2663,7 @@
       <c r="G127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="5" t="n">
         <v>28642</v>
       </c>
       <c r="B128" s="3" t="n">
@@ -2680,7 +2682,7 @@
       <c r="G128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="5" t="n">
         <v>28672</v>
       </c>
       <c r="B129" s="3" t="n">
@@ -2699,7 +2701,7 @@
       <c r="G129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="5" t="n">
         <v>28703</v>
       </c>
       <c r="B130" s="3" t="n">
@@ -2718,7 +2720,7 @@
       <c r="G130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="n">
+      <c r="A131" s="5" t="n">
         <v>28734</v>
       </c>
       <c r="B131" s="3" t="n">
@@ -2737,7 +2739,7 @@
       <c r="G131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="5" t="n">
         <v>28764</v>
       </c>
       <c r="B132" s="3" t="n">
@@ -2756,7 +2758,7 @@
       <c r="G132" s="3"/>
     </row>
     <row r="133">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="5" t="n">
         <v>28795</v>
       </c>
       <c r="B133" s="3" t="n">
@@ -2775,7 +2777,7 @@
       <c r="G133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="5" t="n">
         <v>28825</v>
       </c>
       <c r="B134" s="3" t="n">
@@ -2794,7 +2796,7 @@
       <c r="G134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="5" t="n">
         <v>28856</v>
       </c>
       <c r="B135" s="3" t="n">
@@ -2813,7 +2815,7 @@
       <c r="G135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="5" t="n">
         <v>28887</v>
       </c>
       <c r="B136" s="3" t="n">
@@ -2832,7 +2834,7 @@
       <c r="G136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="5" t="n">
         <v>28915</v>
       </c>
       <c r="B137" s="3" t="n">
@@ -2851,7 +2853,7 @@
       <c r="G137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="5" t="n">
         <v>28946</v>
       </c>
       <c r="B138" s="3" t="n">
@@ -2870,7 +2872,7 @@
       <c r="G138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="5" t="n">
         <v>28976</v>
       </c>
       <c r="B139" s="3" t="n">
@@ -2889,7 +2891,7 @@
       <c r="G139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="5" t="n">
         <v>29007</v>
       </c>
       <c r="B140" s="3" t="n">
@@ -2908,7 +2910,7 @@
       <c r="G140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="5" t="n">
         <v>29037</v>
       </c>
       <c r="B141" s="3" t="n">
@@ -2927,7 +2929,7 @@
       <c r="G141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="5" t="n">
         <v>29068</v>
       </c>
       <c r="B142" s="3" t="n">
@@ -2946,7 +2948,7 @@
       <c r="G142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="5" t="n">
         <v>29099</v>
       </c>
       <c r="B143" s="3" t="n">
@@ -2965,7 +2967,7 @@
       <c r="G143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="5" t="n">
         <v>29129</v>
       </c>
       <c r="B144" s="3" t="n">
@@ -2984,7 +2986,7 @@
       <c r="G144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="n">
+      <c r="A145" s="5" t="n">
         <v>29160</v>
       </c>
       <c r="B145" s="3" t="n">
@@ -3003,7 +3005,7 @@
       <c r="G145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="5" t="n">
         <v>29190</v>
       </c>
       <c r="B146" s="3" t="n">
@@ -3022,7 +3024,7 @@
       <c r="G146" s="3"/>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="5" t="n">
         <v>29221</v>
       </c>
       <c r="B147" s="3" t="n">
@@ -3041,7 +3043,7 @@
       <c r="G147" s="3"/>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="5" t="n">
         <v>29252</v>
       </c>
       <c r="B148" s="3" t="n">
@@ -3060,7 +3062,7 @@
       <c r="G148" s="3"/>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="5" t="n">
         <v>29281</v>
       </c>
       <c r="B149" s="3" t="n">
@@ -3079,7 +3081,7 @@
       <c r="G149" s="3"/>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="5" t="n">
         <v>29312</v>
       </c>
       <c r="B150" s="3" t="n">
@@ -3098,7 +3100,7 @@
       <c r="G150" s="3"/>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="5" t="n">
         <v>29342</v>
       </c>
       <c r="B151" s="3" t="n">
@@ -3117,7 +3119,7 @@
       <c r="G151" s="3"/>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="n">
+      <c r="A152" s="5" t="n">
         <v>29373</v>
       </c>
       <c r="B152" s="3" t="n">
@@ -3136,7 +3138,7 @@
       <c r="G152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="5" t="n">
         <v>29403</v>
       </c>
       <c r="B153" s="3" t="n">
@@ -3155,7 +3157,7 @@
       <c r="G153" s="3"/>
     </row>
     <row r="154">
-      <c r="A154" s="4" t="n">
+      <c r="A154" s="5" t="n">
         <v>29434</v>
       </c>
       <c r="B154" s="3" t="n">
@@ -3174,7 +3176,7 @@
       <c r="G154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="4" t="n">
+      <c r="A155" s="5" t="n">
         <v>29465</v>
       </c>
       <c r="B155" s="3" t="n">
@@ -3193,7 +3195,7 @@
       <c r="G155" s="3"/>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="5" t="n">
         <v>29495</v>
       </c>
       <c r="B156" s="3" t="n">
@@ -3212,7 +3214,7 @@
       <c r="G156" s="3"/>
     </row>
     <row r="157">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="5" t="n">
         <v>29526</v>
       </c>
       <c r="B157" s="3" t="n">
@@ -3231,7 +3233,7 @@
       <c r="G157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="n">
+      <c r="A158" s="5" t="n">
         <v>29556</v>
       </c>
       <c r="B158" s="3" t="n">
@@ -3250,7 +3252,7 @@
       <c r="G158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="n">
+      <c r="A159" s="5" t="n">
         <v>29587</v>
       </c>
       <c r="B159" s="3" t="n">
@@ -3269,7 +3271,7 @@
       <c r="G159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="n">
+      <c r="A160" s="5" t="n">
         <v>29618</v>
       </c>
       <c r="B160" s="3" t="n">
@@ -3288,7 +3290,7 @@
       <c r="G160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="5" t="n">
         <v>29646</v>
       </c>
       <c r="B161" s="3" t="n">
@@ -3307,7 +3309,7 @@
       <c r="G161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="n">
+      <c r="A162" s="5" t="n">
         <v>29677</v>
       </c>
       <c r="B162" s="3" t="n">
@@ -3326,7 +3328,7 @@
       <c r="G162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="n">
+      <c r="A163" s="5" t="n">
         <v>29707</v>
       </c>
       <c r="B163" s="3" t="n">
@@ -3345,7 +3347,7 @@
       <c r="G163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="4" t="n">
+      <c r="A164" s="5" t="n">
         <v>29738</v>
       </c>
       <c r="B164" s="3" t="n">
@@ -3364,7 +3366,7 @@
       <c r="G164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="4" t="n">
+      <c r="A165" s="5" t="n">
         <v>29768</v>
       </c>
       <c r="B165" s="3" t="n">
@@ -3383,7 +3385,7 @@
       <c r="G165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="4" t="n">
+      <c r="A166" s="5" t="n">
         <v>29799</v>
       </c>
       <c r="B166" s="3" t="n">
@@ -3402,7 +3404,7 @@
       <c r="G166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="4" t="n">
+      <c r="A167" s="5" t="n">
         <v>29830</v>
       </c>
       <c r="B167" s="3" t="n">
@@ -3421,7 +3423,7 @@
       <c r="G167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="4" t="n">
+      <c r="A168" s="5" t="n">
         <v>29860</v>
       </c>
       <c r="B168" s="3" t="n">
@@ -3440,7 +3442,7 @@
       <c r="G168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="4" t="n">
+      <c r="A169" s="5" t="n">
         <v>29891</v>
       </c>
       <c r="B169" s="3" t="n">
@@ -3459,7 +3461,7 @@
       <c r="G169" s="3"/>
     </row>
     <row r="170">
-      <c r="A170" s="4" t="n">
+      <c r="A170" s="5" t="n">
         <v>29921</v>
       </c>
       <c r="B170" s="3" t="n">
@@ -3478,7 +3480,7 @@
       <c r="G170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="4" t="n">
+      <c r="A171" s="5" t="n">
         <v>29952</v>
       </c>
       <c r="B171" s="3" t="n">
@@ -3497,7 +3499,7 @@
       <c r="G171" s="3"/>
     </row>
     <row r="172">
-      <c r="A172" s="4" t="n">
+      <c r="A172" s="5" t="n">
         <v>29983</v>
       </c>
       <c r="B172" s="3" t="n">
@@ -3516,7 +3518,7 @@
       <c r="G172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="n">
+      <c r="A173" s="5" t="n">
         <v>30011</v>
       </c>
       <c r="B173" s="3" t="n">
@@ -3535,7 +3537,7 @@
       <c r="G173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="4" t="n">
+      <c r="A174" s="5" t="n">
         <v>30042</v>
       </c>
       <c r="B174" s="3" t="n">
@@ -3554,7 +3556,7 @@
       <c r="G174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="4" t="n">
+      <c r="A175" s="5" t="n">
         <v>30072</v>
       </c>
       <c r="B175" s="3" t="n">
@@ -3573,7 +3575,7 @@
       <c r="G175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="4" t="n">
+      <c r="A176" s="5" t="n">
         <v>30103</v>
       </c>
       <c r="B176" s="3" t="n">
@@ -3592,7 +3594,7 @@
       <c r="G176" s="3"/>
     </row>
     <row r="177">
-      <c r="A177" s="4" t="n">
+      <c r="A177" s="5" t="n">
         <v>30133</v>
       </c>
       <c r="B177" s="3" t="n">
@@ -3611,7 +3613,7 @@
       <c r="G177" s="3"/>
     </row>
     <row r="178">
-      <c r="A178" s="4" t="n">
+      <c r="A178" s="5" t="n">
         <v>30164</v>
       </c>
       <c r="B178" s="3" t="n">
@@ -3630,7 +3632,7 @@
       <c r="G178" s="3"/>
     </row>
     <row r="179">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="5" t="n">
         <v>30195</v>
       </c>
       <c r="B179" s="3" t="n">
@@ -3649,7 +3651,7 @@
       <c r="G179" s="3"/>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="5" t="n">
         <v>30225</v>
       </c>
       <c r="B180" s="3" t="n">
@@ -3668,7 +3670,7 @@
       <c r="G180" s="3"/>
     </row>
     <row r="181">
-      <c r="A181" s="4" t="n">
+      <c r="A181" s="5" t="n">
         <v>30256</v>
       </c>
       <c r="B181" s="3" t="n">
@@ -3687,7 +3689,7 @@
       <c r="G181" s="3"/>
     </row>
     <row r="182">
-      <c r="A182" s="4" t="n">
+      <c r="A182" s="5" t="n">
         <v>30286</v>
       </c>
       <c r="B182" s="3" t="n">
@@ -3706,7 +3708,7 @@
       <c r="G182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="4" t="n">
+      <c r="A183" s="5" t="n">
         <v>30317</v>
       </c>
       <c r="B183" s="3" t="n">
@@ -3725,7 +3727,7 @@
       <c r="G183" s="3"/>
     </row>
     <row r="184">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="5" t="n">
         <v>30348</v>
       </c>
       <c r="B184" s="3" t="n">
@@ -3744,7 +3746,7 @@
       <c r="G184" s="3"/>
     </row>
     <row r="185">
-      <c r="A185" s="4" t="n">
+      <c r="A185" s="5" t="n">
         <v>30376</v>
       </c>
       <c r="B185" s="3" t="n">
@@ -3763,7 +3765,7 @@
       <c r="G185" s="3"/>
     </row>
     <row r="186">
-      <c r="A186" s="4" t="n">
+      <c r="A186" s="5" t="n">
         <v>30407</v>
       </c>
       <c r="B186" s="3" t="n">
@@ -3782,7 +3784,7 @@
       <c r="G186" s="3"/>
     </row>
     <row r="187">
-      <c r="A187" s="4" t="n">
+      <c r="A187" s="5" t="n">
         <v>30437</v>
       </c>
       <c r="B187" s="3" t="n">
@@ -3801,7 +3803,7 @@
       <c r="G187" s="3"/>
     </row>
     <row r="188">
-      <c r="A188" s="4" t="n">
+      <c r="A188" s="5" t="n">
         <v>30468</v>
       </c>
       <c r="B188" s="3" t="n">
@@ -3820,7 +3822,7 @@
       <c r="G188" s="3"/>
     </row>
     <row r="189">
-      <c r="A189" s="4" t="n">
+      <c r="A189" s="5" t="n">
         <v>30498</v>
       </c>
       <c r="B189" s="3" t="n">
@@ -3839,7 +3841,7 @@
       <c r="G189" s="3"/>
     </row>
     <row r="190">
-      <c r="A190" s="4" t="n">
+      <c r="A190" s="5" t="n">
         <v>30529</v>
       </c>
       <c r="B190" s="3" t="n">
@@ -3858,7 +3860,7 @@
       <c r="G190" s="3"/>
     </row>
     <row r="191">
-      <c r="A191" s="4" t="n">
+      <c r="A191" s="5" t="n">
         <v>30560</v>
       </c>
       <c r="B191" s="3" t="n">
@@ -3877,7 +3879,7 @@
       <c r="G191" s="3"/>
     </row>
     <row r="192">
-      <c r="A192" s="4" t="n">
+      <c r="A192" s="5" t="n">
         <v>30590</v>
       </c>
       <c r="B192" s="3" t="n">
@@ -3896,7 +3898,7 @@
       <c r="G192" s="3"/>
     </row>
     <row r="193">
-      <c r="A193" s="4" t="n">
+      <c r="A193" s="5" t="n">
         <v>30621</v>
       </c>
       <c r="B193" s="3" t="n">
@@ -3915,7 +3917,7 @@
       <c r="G193" s="3"/>
     </row>
     <row r="194">
-      <c r="A194" s="4" t="n">
+      <c r="A194" s="5" t="n">
         <v>30651</v>
       </c>
       <c r="B194" s="3" t="n">
@@ -3934,7 +3936,7 @@
       <c r="G194" s="3"/>
     </row>
     <row r="195">
-      <c r="A195" s="4" t="n">
+      <c r="A195" s="5" t="n">
         <v>30682</v>
       </c>
       <c r="B195" s="3" t="n">
@@ -3953,7 +3955,7 @@
       <c r="G195" s="3"/>
     </row>
     <row r="196">
-      <c r="A196" s="4" t="n">
+      <c r="A196" s="5" t="n">
         <v>30713</v>
       </c>
       <c r="B196" s="3" t="n">
@@ -3972,7 +3974,7 @@
       <c r="G196" s="3"/>
     </row>
     <row r="197">
-      <c r="A197" s="4" t="n">
+      <c r="A197" s="5" t="n">
         <v>30742</v>
       </c>
       <c r="B197" s="3" t="n">
@@ -3991,7 +3993,7 @@
       <c r="G197" s="3"/>
     </row>
     <row r="198">
-      <c r="A198" s="4" t="n">
+      <c r="A198" s="5" t="n">
         <v>30773</v>
       </c>
       <c r="B198" s="3" t="n">
@@ -4010,7 +4012,7 @@
       <c r="G198" s="3"/>
     </row>
     <row r="199">
-      <c r="A199" s="4" t="n">
+      <c r="A199" s="5" t="n">
         <v>30803</v>
       </c>
       <c r="B199" s="3" t="n">
@@ -4029,7 +4031,7 @@
       <c r="G199" s="3"/>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="n">
+      <c r="A200" s="5" t="n">
         <v>30834</v>
       </c>
       <c r="B200" s="3" t="n">
@@ -4048,7 +4050,7 @@
       <c r="G200" s="3"/>
     </row>
     <row r="201">
-      <c r="A201" s="4" t="n">
+      <c r="A201" s="5" t="n">
         <v>30864</v>
       </c>
       <c r="B201" s="3" t="n">
@@ -4067,7 +4069,7 @@
       <c r="G201" s="3"/>
     </row>
     <row r="202">
-      <c r="A202" s="4" t="n">
+      <c r="A202" s="5" t="n">
         <v>30895</v>
       </c>
       <c r="B202" s="3" t="n">
@@ -4086,7 +4088,7 @@
       <c r="G202" s="3"/>
     </row>
     <row r="203">
-      <c r="A203" s="4" t="n">
+      <c r="A203" s="5" t="n">
         <v>30926</v>
       </c>
       <c r="B203" s="3" t="n">
@@ -4105,7 +4107,7 @@
       <c r="G203" s="3"/>
     </row>
     <row r="204">
-      <c r="A204" s="4" t="n">
+      <c r="A204" s="5" t="n">
         <v>30956</v>
       </c>
       <c r="B204" s="3" t="n">
@@ -4124,7 +4126,7 @@
       <c r="G204" s="3"/>
     </row>
     <row r="205">
-      <c r="A205" s="4" t="n">
+      <c r="A205" s="5" t="n">
         <v>30987</v>
       </c>
       <c r="B205" s="3" t="n">
@@ -4143,7 +4145,7 @@
       <c r="G205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="4" t="n">
+      <c r="A206" s="5" t="n">
         <v>31017</v>
       </c>
       <c r="B206" s="3" t="n">
@@ -4162,7 +4164,7 @@
       <c r="G206" s="3"/>
     </row>
     <row r="207">
-      <c r="A207" s="4" t="n">
+      <c r="A207" s="5" t="n">
         <v>31048</v>
       </c>
       <c r="B207" s="3" t="n">
@@ -4181,7 +4183,7 @@
       <c r="G207" s="3"/>
     </row>
     <row r="208">
-      <c r="A208" s="4" t="n">
+      <c r="A208" s="5" t="n">
         <v>31079</v>
       </c>
       <c r="B208" s="3" t="n">
@@ -4200,7 +4202,7 @@
       <c r="G208" s="3"/>
     </row>
     <row r="209">
-      <c r="A209" s="4" t="n">
+      <c r="A209" s="5" t="n">
         <v>31107</v>
       </c>
       <c r="B209" s="3" t="n">
@@ -4219,7 +4221,7 @@
       <c r="G209" s="3"/>
     </row>
     <row r="210">
-      <c r="A210" s="4" t="n">
+      <c r="A210" s="5" t="n">
         <v>31138</v>
       </c>
       <c r="B210" s="3" t="n">
@@ -4238,7 +4240,7 @@
       <c r="G210" s="3"/>
     </row>
     <row r="211">
-      <c r="A211" s="4" t="n">
+      <c r="A211" s="5" t="n">
         <v>31168</v>
       </c>
       <c r="B211" s="3" t="n">
@@ -4257,7 +4259,7 @@
       <c r="G211" s="3"/>
     </row>
     <row r="212">
-      <c r="A212" s="4" t="n">
+      <c r="A212" s="5" t="n">
         <v>31199</v>
       </c>
       <c r="B212" s="3" t="n">
@@ -4276,7 +4278,7 @@
       <c r="G212" s="3"/>
     </row>
     <row r="213">
-      <c r="A213" s="4" t="n">
+      <c r="A213" s="5" t="n">
         <v>31229</v>
       </c>
       <c r="B213" s="3" t="n">
@@ -4295,7 +4297,7 @@
       <c r="G213" s="3"/>
     </row>
     <row r="214">
-      <c r="A214" s="4" t="n">
+      <c r="A214" s="5" t="n">
         <v>31260</v>
       </c>
       <c r="B214" s="3" t="n">
@@ -4314,7 +4316,7 @@
       <c r="G214" s="3"/>
     </row>
     <row r="215">
-      <c r="A215" s="4" t="n">
+      <c r="A215" s="5" t="n">
         <v>31291</v>
       </c>
       <c r="B215" s="3" t="n">
@@ -4333,7 +4335,7 @@
       <c r="G215" s="3"/>
     </row>
     <row r="216">
-      <c r="A216" s="4" t="n">
+      <c r="A216" s="5" t="n">
         <v>31321</v>
       </c>
       <c r="B216" s="3" t="n">
@@ -4352,7 +4354,7 @@
       <c r="G216" s="3"/>
     </row>
     <row r="217">
-      <c r="A217" s="4" t="n">
+      <c r="A217" s="5" t="n">
         <v>31352</v>
       </c>
       <c r="B217" s="3" t="n">
@@ -4371,7 +4373,7 @@
       <c r="G217" s="3"/>
     </row>
     <row r="218">
-      <c r="A218" s="4" t="n">
+      <c r="A218" s="5" t="n">
         <v>31382</v>
       </c>
       <c r="B218" s="3" t="n">
@@ -4390,7 +4392,7 @@
       <c r="G218" s="3"/>
     </row>
     <row r="219">
-      <c r="A219" s="4" t="n">
+      <c r="A219" s="5" t="n">
         <v>31413</v>
       </c>
       <c r="B219" s="3" t="n">
@@ -4409,7 +4411,7 @@
       <c r="G219" s="3"/>
     </row>
     <row r="220">
-      <c r="A220" s="4" t="n">
+      <c r="A220" s="5" t="n">
         <v>31444</v>
       </c>
       <c r="B220" s="3" t="n">
@@ -4428,7 +4430,7 @@
       <c r="G220" s="3"/>
     </row>
     <row r="221">
-      <c r="A221" s="4" t="n">
+      <c r="A221" s="5" t="n">
         <v>31472</v>
       </c>
       <c r="B221" s="3" t="n">
@@ -4447,7 +4449,7 @@
       <c r="G221" s="3"/>
     </row>
     <row r="222">
-      <c r="A222" s="4" t="n">
+      <c r="A222" s="5" t="n">
         <v>31503</v>
       </c>
       <c r="B222" s="3" t="n">
@@ -4466,7 +4468,7 @@
       <c r="G222" s="3"/>
     </row>
     <row r="223">
-      <c r="A223" s="4" t="n">
+      <c r="A223" s="5" t="n">
         <v>31533</v>
       </c>
       <c r="B223" s="3" t="n">
@@ -4485,7 +4487,7 @@
       <c r="G223" s="3"/>
     </row>
     <row r="224">
-      <c r="A224" s="4" t="n">
+      <c r="A224" s="5" t="n">
         <v>31564</v>
       </c>
       <c r="B224" s="3" t="n">
@@ -4504,7 +4506,7 @@
       <c r="G224" s="3"/>
     </row>
     <row r="225">
-      <c r="A225" s="4" t="n">
+      <c r="A225" s="5" t="n">
         <v>31594</v>
       </c>
       <c r="B225" s="3" t="n">
@@ -4523,7 +4525,7 @@
       <c r="G225" s="3"/>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="n">
+      <c r="A226" s="5" t="n">
         <v>31625</v>
       </c>
       <c r="B226" s="3" t="n">
@@ -4542,7 +4544,7 @@
       <c r="G226" s="3"/>
     </row>
     <row r="227">
-      <c r="A227" s="4" t="n">
+      <c r="A227" s="5" t="n">
         <v>31656</v>
       </c>
       <c r="B227" s="3" t="n">
@@ -4561,7 +4563,7 @@
       <c r="G227" s="3"/>
     </row>
     <row r="228">
-      <c r="A228" s="4" t="n">
+      <c r="A228" s="5" t="n">
         <v>31686</v>
       </c>
       <c r="B228" s="3" t="n">
@@ -4580,7 +4582,7 @@
       <c r="G228" s="3"/>
     </row>
     <row r="229">
-      <c r="A229" s="4" t="n">
+      <c r="A229" s="5" t="n">
         <v>31717</v>
       </c>
       <c r="B229" s="3" t="n">
@@ -4599,7 +4601,7 @@
       <c r="G229" s="3"/>
     </row>
     <row r="230">
-      <c r="A230" s="4" t="n">
+      <c r="A230" s="5" t="n">
         <v>31747</v>
       </c>
       <c r="B230" s="3" t="n">
@@ -4618,7 +4620,7 @@
       <c r="G230" s="3"/>
     </row>
     <row r="231">
-      <c r="A231" s="4" t="n">
+      <c r="A231" s="5" t="n">
         <v>31778</v>
       </c>
       <c r="B231" s="3" t="n">
@@ -4637,7 +4639,7 @@
       <c r="G231" s="3"/>
     </row>
     <row r="232">
-      <c r="A232" s="4" t="n">
+      <c r="A232" s="5" t="n">
         <v>31809</v>
       </c>
       <c r="B232" s="3" t="n">
@@ -4656,7 +4658,7 @@
       <c r="G232" s="3"/>
     </row>
     <row r="233">
-      <c r="A233" s="4" t="n">
+      <c r="A233" s="5" t="n">
         <v>31837</v>
       </c>
       <c r="B233" s="3" t="n">
@@ -4675,7 +4677,7 @@
       <c r="G233" s="3"/>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="n">
+      <c r="A234" s="5" t="n">
         <v>31868</v>
       </c>
       <c r="B234" s="3" t="n">
@@ -4694,7 +4696,7 @@
       <c r="G234" s="3"/>
     </row>
     <row r="235">
-      <c r="A235" s="4" t="n">
+      <c r="A235" s="5" t="n">
         <v>31898</v>
       </c>
       <c r="B235" s="3" t="n">
@@ -4713,7 +4715,7 @@
       <c r="G235" s="3"/>
     </row>
     <row r="236">
-      <c r="A236" s="4" t="n">
+      <c r="A236" s="5" t="n">
         <v>31929</v>
       </c>
       <c r="B236" s="3" t="n">
@@ -4732,7 +4734,7 @@
       <c r="G236" s="3"/>
     </row>
     <row r="237">
-      <c r="A237" s="4" t="n">
+      <c r="A237" s="5" t="n">
         <v>31959</v>
       </c>
       <c r="B237" s="3" t="n">
@@ -4751,7 +4753,7 @@
       <c r="G237" s="3"/>
     </row>
     <row r="238">
-      <c r="A238" s="4" t="n">
+      <c r="A238" s="5" t="n">
         <v>31990</v>
       </c>
       <c r="B238" s="3" t="n">
@@ -4770,7 +4772,7 @@
       <c r="G238" s="3"/>
     </row>
     <row r="239">
-      <c r="A239" s="4" t="n">
+      <c r="A239" s="5" t="n">
         <v>32021</v>
       </c>
       <c r="B239" s="3" t="n">
@@ -4789,7 +4791,7 @@
       <c r="G239" s="3"/>
     </row>
     <row r="240">
-      <c r="A240" s="4" t="n">
+      <c r="A240" s="5" t="n">
         <v>32051</v>
       </c>
       <c r="B240" s="3" t="n">
@@ -4808,7 +4810,7 @@
       <c r="G240" s="3"/>
     </row>
     <row r="241">
-      <c r="A241" s="4" t="n">
+      <c r="A241" s="5" t="n">
         <v>32082</v>
       </c>
       <c r="B241" s="3" t="n">
@@ -4827,7 +4829,7 @@
       <c r="G241" s="3"/>
     </row>
     <row r="242">
-      <c r="A242" s="4" t="n">
+      <c r="A242" s="5" t="n">
         <v>32112</v>
       </c>
       <c r="B242" s="3" t="n">
@@ -4846,7 +4848,7 @@
       <c r="G242" s="3"/>
     </row>
     <row r="243">
-      <c r="A243" s="4" t="n">
+      <c r="A243" s="5" t="n">
         <v>32143</v>
       </c>
       <c r="B243" s="3" t="n">
@@ -4865,7 +4867,7 @@
       <c r="G243" s="3"/>
     </row>
     <row r="244">
-      <c r="A244" s="4" t="n">
+      <c r="A244" s="5" t="n">
         <v>32174</v>
       </c>
       <c r="B244" s="3" t="n">
@@ -4884,7 +4886,7 @@
       <c r="G244" s="3"/>
     </row>
     <row r="245">
-      <c r="A245" s="4" t="n">
+      <c r="A245" s="5" t="n">
         <v>32203</v>
       </c>
       <c r="B245" s="3" t="n">
@@ -4903,7 +4905,7 @@
       <c r="G245" s="3"/>
     </row>
     <row r="246">
-      <c r="A246" s="4" t="n">
+      <c r="A246" s="5" t="n">
         <v>32234</v>
       </c>
       <c r="B246" s="3" t="n">
@@ -4922,7 +4924,7 @@
       <c r="G246" s="3"/>
     </row>
     <row r="247">
-      <c r="A247" s="4" t="n">
+      <c r="A247" s="5" t="n">
         <v>32264</v>
       </c>
       <c r="B247" s="3" t="n">
@@ -4941,7 +4943,7 @@
       <c r="G247" s="3"/>
     </row>
     <row r="248">
-      <c r="A248" s="4" t="n">
+      <c r="A248" s="5" t="n">
         <v>32295</v>
       </c>
       <c r="B248" s="3" t="n">
@@ -4960,7 +4962,7 @@
       <c r="G248" s="3"/>
     </row>
     <row r="249">
-      <c r="A249" s="4" t="n">
+      <c r="A249" s="5" t="n">
         <v>32325</v>
       </c>
       <c r="B249" s="3" t="n">
@@ -4979,7 +4981,7 @@
       <c r="G249" s="3"/>
     </row>
     <row r="250">
-      <c r="A250" s="4" t="n">
+      <c r="A250" s="5" t="n">
         <v>32356</v>
       </c>
       <c r="B250" s="3" t="n">
@@ -4998,7 +5000,7 @@
       <c r="G250" s="3"/>
     </row>
     <row r="251">
-      <c r="A251" s="4" t="n">
+      <c r="A251" s="5" t="n">
         <v>32387</v>
       </c>
       <c r="B251" s="3" t="n">
@@ -5017,7 +5019,7 @@
       <c r="G251" s="3"/>
     </row>
     <row r="252">
-      <c r="A252" s="4" t="n">
+      <c r="A252" s="5" t="n">
         <v>32417</v>
       </c>
       <c r="B252" s="3" t="n">
@@ -5036,7 +5038,7 @@
       <c r="G252" s="3"/>
     </row>
     <row r="253">
-      <c r="A253" s="4" t="n">
+      <c r="A253" s="5" t="n">
         <v>32448</v>
       </c>
       <c r="B253" s="3" t="n">
@@ -5055,7 +5057,7 @@
       <c r="G253" s="3"/>
     </row>
     <row r="254">
-      <c r="A254" s="4" t="n">
+      <c r="A254" s="5" t="n">
         <v>32478</v>
       </c>
       <c r="B254" s="3" t="n">
@@ -5074,7 +5076,7 @@
       <c r="G254" s="3"/>
     </row>
     <row r="255">
-      <c r="A255" s="4" t="n">
+      <c r="A255" s="5" t="n">
         <v>32509</v>
       </c>
       <c r="B255" s="3" t="n">
@@ -5093,7 +5095,7 @@
       <c r="G255" s="3"/>
     </row>
     <row r="256">
-      <c r="A256" s="4" t="n">
+      <c r="A256" s="5" t="n">
         <v>32540</v>
       </c>
       <c r="B256" s="3" t="n">
@@ -5112,7 +5114,7 @@
       <c r="G256" s="3"/>
     </row>
     <row r="257">
-      <c r="A257" s="4" t="n">
+      <c r="A257" s="5" t="n">
         <v>32568</v>
       </c>
       <c r="B257" s="3" t="n">
@@ -5131,7 +5133,7 @@
       <c r="G257" s="3"/>
     </row>
     <row r="258">
-      <c r="A258" s="4" t="n">
+      <c r="A258" s="5" t="n">
         <v>32599</v>
       </c>
       <c r="B258" s="3" t="n">
@@ -5150,7 +5152,7 @@
       <c r="G258" s="3"/>
     </row>
     <row r="259">
-      <c r="A259" s="4" t="n">
+      <c r="A259" s="5" t="n">
         <v>32629</v>
       </c>
       <c r="B259" s="3" t="n">
@@ -5169,7 +5171,7 @@
       <c r="G259" s="3"/>
     </row>
     <row r="260">
-      <c r="A260" s="4" t="n">
+      <c r="A260" s="5" t="n">
         <v>32660</v>
       </c>
       <c r="B260" s="3" t="n">
@@ -5188,7 +5190,7 @@
       <c r="G260" s="3"/>
     </row>
     <row r="261">
-      <c r="A261" s="4" t="n">
+      <c r="A261" s="5" t="n">
         <v>32690</v>
       </c>
       <c r="B261" s="3" t="n">
@@ -5207,7 +5209,7 @@
       <c r="G261" s="3"/>
     </row>
     <row r="262">
-      <c r="A262" s="4" t="n">
+      <c r="A262" s="5" t="n">
         <v>32721</v>
       </c>
       <c r="B262" s="3" t="n">
@@ -5226,7 +5228,7 @@
       <c r="G262" s="3"/>
     </row>
     <row r="263">
-      <c r="A263" s="4" t="n">
+      <c r="A263" s="5" t="n">
         <v>32752</v>
       </c>
       <c r="B263" s="3" t="n">
@@ -5245,7 +5247,7 @@
       <c r="G263" s="3"/>
     </row>
     <row r="264">
-      <c r="A264" s="4" t="n">
+      <c r="A264" s="5" t="n">
         <v>32782</v>
       </c>
       <c r="B264" s="3" t="n">
@@ -5264,7 +5266,7 @@
       <c r="G264" s="3"/>
     </row>
     <row r="265">
-      <c r="A265" s="4" t="n">
+      <c r="A265" s="5" t="n">
         <v>32813</v>
       </c>
       <c r="B265" s="3" t="n">
@@ -5283,7 +5285,7 @@
       <c r="G265" s="3"/>
     </row>
     <row r="266">
-      <c r="A266" s="4" t="n">
+      <c r="A266" s="5" t="n">
         <v>32843</v>
       </c>
       <c r="B266" s="3" t="n">
@@ -5302,7 +5304,7 @@
       <c r="G266" s="3"/>
     </row>
     <row r="267">
-      <c r="A267" s="4" t="n">
+      <c r="A267" s="5" t="n">
         <v>32874</v>
       </c>
       <c r="B267" s="3" t="n">
@@ -5321,7 +5323,7 @@
       <c r="G267" s="3"/>
     </row>
     <row r="268">
-      <c r="A268" s="4" t="n">
+      <c r="A268" s="5" t="n">
         <v>32905</v>
       </c>
       <c r="B268" s="3" t="n">
@@ -5340,7 +5342,7 @@
       <c r="G268" s="3"/>
     </row>
     <row r="269">
-      <c r="A269" s="4" t="n">
+      <c r="A269" s="5" t="n">
         <v>32933</v>
       </c>
       <c r="B269" s="3" t="n">
@@ -5359,7 +5361,7 @@
       <c r="G269" s="3"/>
     </row>
     <row r="270">
-      <c r="A270" s="4" t="n">
+      <c r="A270" s="5" t="n">
         <v>32964</v>
       </c>
       <c r="B270" s="3" t="n">
@@ -5378,7 +5380,7 @@
       <c r="G270" s="3"/>
     </row>
     <row r="271">
-      <c r="A271" s="4" t="n">
+      <c r="A271" s="5" t="n">
         <v>32994</v>
       </c>
       <c r="B271" s="3" t="n">
@@ -5397,7 +5399,7 @@
       <c r="G271" s="3"/>
     </row>
     <row r="272">
-      <c r="A272" s="4" t="n">
+      <c r="A272" s="5" t="n">
         <v>33025</v>
       </c>
       <c r="B272" s="3" t="n">
@@ -5416,7 +5418,7 @@
       <c r="G272" s="3"/>
     </row>
     <row r="273">
-      <c r="A273" s="4" t="n">
+      <c r="A273" s="5" t="n">
         <v>33055</v>
       </c>
       <c r="B273" s="3" t="n">
@@ -5435,7 +5437,7 @@
       <c r="G273" s="3"/>
     </row>
     <row r="274">
-      <c r="A274" s="4" t="n">
+      <c r="A274" s="5" t="n">
         <v>33086</v>
       </c>
       <c r="B274" s="3" t="n">
@@ -5454,7 +5456,7 @@
       <c r="G274" s="3"/>
     </row>
     <row r="275">
-      <c r="A275" s="4" t="n">
+      <c r="A275" s="5" t="n">
         <v>33117</v>
       </c>
       <c r="B275" s="3" t="n">
@@ -5473,7 +5475,7 @@
       <c r="G275" s="3"/>
     </row>
     <row r="276">
-      <c r="A276" s="4" t="n">
+      <c r="A276" s="5" t="n">
         <v>33147</v>
       </c>
       <c r="B276" s="3" t="n">
@@ -5492,7 +5494,7 @@
       <c r="G276" s="3"/>
     </row>
     <row r="277">
-      <c r="A277" s="4" t="n">
+      <c r="A277" s="5" t="n">
         <v>33178</v>
       </c>
       <c r="B277" s="3" t="n">
@@ -5511,7 +5513,7 @@
       <c r="G277" s="3"/>
     </row>
     <row r="278">
-      <c r="A278" s="4" t="n">
+      <c r="A278" s="5" t="n">
         <v>33208</v>
       </c>
       <c r="B278" s="3" t="n">
@@ -5530,7 +5532,7 @@
       <c r="G278" s="3"/>
     </row>
     <row r="279">
-      <c r="A279" s="4" t="n">
+      <c r="A279" s="5" t="n">
         <v>33239</v>
       </c>
       <c r="B279" s="3" t="n">
@@ -5549,7 +5551,7 @@
       <c r="G279" s="3"/>
     </row>
     <row r="280">
-      <c r="A280" s="4" t="n">
+      <c r="A280" s="5" t="n">
         <v>33270</v>
       </c>
       <c r="B280" s="3" t="n">
@@ -5568,7 +5570,7 @@
       <c r="G280" s="3"/>
     </row>
     <row r="281">
-      <c r="A281" s="4" t="n">
+      <c r="A281" s="5" t="n">
         <v>33298</v>
       </c>
       <c r="B281" s="3" t="n">
@@ -5587,7 +5589,7 @@
       <c r="G281" s="3"/>
     </row>
     <row r="282">
-      <c r="A282" s="4" t="n">
+      <c r="A282" s="5" t="n">
         <v>33329</v>
       </c>
       <c r="B282" s="3" t="n">
@@ -5606,7 +5608,7 @@
       <c r="G282" s="3"/>
     </row>
     <row r="283">
-      <c r="A283" s="4" t="n">
+      <c r="A283" s="5" t="n">
         <v>33359</v>
       </c>
       <c r="B283" s="3" t="n">
@@ -5625,7 +5627,7 @@
       <c r="G283" s="3"/>
     </row>
     <row r="284">
-      <c r="A284" s="4" t="n">
+      <c r="A284" s="5" t="n">
         <v>33390</v>
       </c>
       <c r="B284" s="3" t="n">
@@ -5644,7 +5646,7 @@
       <c r="G284" s="3"/>
     </row>
     <row r="285">
-      <c r="A285" s="4" t="n">
+      <c r="A285" s="5" t="n">
         <v>33420</v>
       </c>
       <c r="B285" s="3" t="n">
@@ -5663,7 +5665,7 @@
       <c r="G285" s="3"/>
     </row>
     <row r="286">
-      <c r="A286" s="4" t="n">
+      <c r="A286" s="5" t="n">
         <v>33451</v>
       </c>
       <c r="B286" s="3" t="n">
@@ -5682,7 +5684,7 @@
       <c r="G286" s="3"/>
     </row>
     <row r="287">
-      <c r="A287" s="4" t="n">
+      <c r="A287" s="5" t="n">
         <v>33482</v>
       </c>
       <c r="B287" s="3" t="n">
@@ -5701,7 +5703,7 @@
       <c r="G287" s="3"/>
     </row>
     <row r="288">
-      <c r="A288" s="4" t="n">
+      <c r="A288" s="5" t="n">
         <v>33512</v>
       </c>
       <c r="B288" s="3" t="n">
@@ -5720,7 +5722,7 @@
       <c r="G288" s="3"/>
     </row>
     <row r="289">
-      <c r="A289" s="4" t="n">
+      <c r="A289" s="5" t="n">
         <v>33543</v>
       </c>
       <c r="B289" s="3" t="n">
@@ -5739,7 +5741,7 @@
       <c r="G289" s="3"/>
     </row>
     <row r="290">
-      <c r="A290" s="4" t="n">
+      <c r="A290" s="5" t="n">
         <v>33573</v>
       </c>
       <c r="B290" s="3" t="n">
@@ -5758,7 +5760,7 @@
       <c r="G290" s="3"/>
     </row>
     <row r="291">
-      <c r="A291" s="4" t="n">
+      <c r="A291" s="5" t="n">
         <v>33604</v>
       </c>
       <c r="B291" s="3" t="n">
@@ -5777,7 +5779,7 @@
       <c r="G291" s="3"/>
     </row>
     <row r="292">
-      <c r="A292" s="4" t="n">
+      <c r="A292" s="5" t="n">
         <v>33635</v>
       </c>
       <c r="B292" s="3" t="n">
@@ -5796,7 +5798,7 @@
       <c r="G292" s="3"/>
     </row>
     <row r="293">
-      <c r="A293" s="4" t="n">
+      <c r="A293" s="5" t="n">
         <v>33664</v>
       </c>
       <c r="B293" s="3" t="n">
@@ -5815,7 +5817,7 @@
       <c r="G293" s="3"/>
     </row>
     <row r="294">
-      <c r="A294" s="4" t="n">
+      <c r="A294" s="5" t="n">
         <v>33695</v>
       </c>
       <c r="B294" s="3" t="n">
@@ -5834,7 +5836,7 @@
       <c r="G294" s="3"/>
     </row>
     <row r="295">
-      <c r="A295" s="4" t="n">
+      <c r="A295" s="5" t="n">
         <v>33725</v>
       </c>
       <c r="B295" s="3" t="n">
@@ -5853,7 +5855,7 @@
       <c r="G295" s="3"/>
     </row>
     <row r="296">
-      <c r="A296" s="4" t="n">
+      <c r="A296" s="5" t="n">
         <v>33756</v>
       </c>
       <c r="B296" s="3" t="n">
@@ -5872,7 +5874,7 @@
       <c r="G296" s="3"/>
     </row>
     <row r="297">
-      <c r="A297" s="4" t="n">
+      <c r="A297" s="5" t="n">
         <v>33786</v>
       </c>
       <c r="B297" s="3" t="n">
@@ -5891,7 +5893,7 @@
       <c r="G297" s="3"/>
     </row>
     <row r="298">
-      <c r="A298" s="4" t="n">
+      <c r="A298" s="5" t="n">
         <v>33817</v>
       </c>
       <c r="B298" s="3" t="n">
@@ -5910,7 +5912,7 @@
       <c r="G298" s="3"/>
     </row>
     <row r="299">
-      <c r="A299" s="4" t="n">
+      <c r="A299" s="5" t="n">
         <v>33848</v>
       </c>
       <c r="B299" s="3" t="n">
@@ -5929,7 +5931,7 @@
       <c r="G299" s="3"/>
     </row>
     <row r="300">
-      <c r="A300" s="4" t="n">
+      <c r="A300" s="5" t="n">
         <v>33878</v>
       </c>
       <c r="B300" s="3" t="n">
@@ -5948,7 +5950,7 @@
       <c r="G300" s="3"/>
     </row>
     <row r="301">
-      <c r="A301" s="4" t="n">
+      <c r="A301" s="5" t="n">
         <v>33909</v>
       </c>
       <c r="B301" s="3" t="n">
@@ -5967,7 +5969,7 @@
       <c r="G301" s="3"/>
     </row>
     <row r="302">
-      <c r="A302" s="4" t="n">
+      <c r="A302" s="5" t="n">
         <v>33939</v>
       </c>
       <c r="B302" s="3" t="n">
@@ -5986,7 +5988,7 @@
       <c r="G302" s="3"/>
     </row>
     <row r="303">
-      <c r="A303" s="4" t="n">
+      <c r="A303" s="5" t="n">
         <v>33970</v>
       </c>
       <c r="B303" s="3" t="n">
@@ -6005,7 +6007,7 @@
       <c r="G303" s="3"/>
     </row>
     <row r="304">
-      <c r="A304" s="4" t="n">
+      <c r="A304" s="5" t="n">
         <v>34001</v>
       </c>
       <c r="B304" s="3" t="n">
@@ -6024,7 +6026,7 @@
       <c r="G304" s="3"/>
     </row>
     <row r="305">
-      <c r="A305" s="4" t="n">
+      <c r="A305" s="5" t="n">
         <v>34029</v>
       </c>
       <c r="B305" s="3" t="n">
@@ -6043,7 +6045,7 @@
       <c r="G305" s="3"/>
     </row>
     <row r="306">
-      <c r="A306" s="4" t="n">
+      <c r="A306" s="5" t="n">
         <v>34060</v>
       </c>
       <c r="B306" s="3" t="n">
@@ -6062,7 +6064,7 @@
       <c r="G306" s="3"/>
     </row>
     <row r="307">
-      <c r="A307" s="4" t="n">
+      <c r="A307" s="5" t="n">
         <v>34090</v>
       </c>
       <c r="B307" s="3" t="n">
@@ -6081,7 +6083,7 @@
       <c r="G307" s="3"/>
     </row>
     <row r="308">
-      <c r="A308" s="4" t="n">
+      <c r="A308" s="5" t="n">
         <v>34121</v>
       </c>
       <c r="B308" s="3" t="n">
@@ -6100,7 +6102,7 @@
       <c r="G308" s="3"/>
     </row>
     <row r="309">
-      <c r="A309" s="4" t="n">
+      <c r="A309" s="5" t="n">
         <v>34151</v>
       </c>
       <c r="B309" s="3" t="n">
@@ -6119,7 +6121,7 @@
       <c r="G309" s="3"/>
     </row>
     <row r="310">
-      <c r="A310" s="4" t="n">
+      <c r="A310" s="5" t="n">
         <v>34182</v>
       </c>
       <c r="B310" s="3" t="n">
@@ -6138,7 +6140,7 @@
       <c r="G310" s="3"/>
     </row>
     <row r="311">
-      <c r="A311" s="4" t="n">
+      <c r="A311" s="5" t="n">
         <v>34213</v>
       </c>
       <c r="B311" s="3" t="n">
@@ -6157,7 +6159,7 @@
       <c r="G311" s="3"/>
     </row>
     <row r="312">
-      <c r="A312" s="4" t="n">
+      <c r="A312" s="5" t="n">
         <v>34243</v>
       </c>
       <c r="B312" s="3" t="n">
@@ -6176,7 +6178,7 @@
       <c r="G312" s="3"/>
     </row>
     <row r="313">
-      <c r="A313" s="4" t="n">
+      <c r="A313" s="5" t="n">
         <v>34274</v>
       </c>
       <c r="B313" s="3" t="n">
@@ -6195,7 +6197,7 @@
       <c r="G313" s="3"/>
     </row>
     <row r="314">
-      <c r="A314" s="4" t="n">
+      <c r="A314" s="5" t="n">
         <v>34304</v>
       </c>
       <c r="B314" s="3" t="n">
@@ -6214,7 +6216,7 @@
       <c r="G314" s="3"/>
     </row>
     <row r="315">
-      <c r="A315" s="4" t="n">
+      <c r="A315" s="5" t="n">
         <v>34335</v>
       </c>
       <c r="B315" s="3" t="n">
@@ -6233,7 +6235,7 @@
       <c r="G315" s="3"/>
     </row>
     <row r="316">
-      <c r="A316" s="4" t="n">
+      <c r="A316" s="5" t="n">
         <v>34366</v>
       </c>
       <c r="B316" s="3" t="n">
@@ -6252,7 +6254,7 @@
       <c r="G316" s="3"/>
     </row>
     <row r="317">
-      <c r="A317" s="4" t="n">
+      <c r="A317" s="5" t="n">
         <v>34394</v>
       </c>
       <c r="B317" s="3" t="n">
@@ -6271,7 +6273,7 @@
       <c r="G317" s="3"/>
     </row>
     <row r="318">
-      <c r="A318" s="4" t="n">
+      <c r="A318" s="5" t="n">
         <v>34425</v>
       </c>
       <c r="B318" s="3" t="n">
@@ -6290,7 +6292,7 @@
       <c r="G318" s="3"/>
     </row>
     <row r="319">
-      <c r="A319" s="4" t="n">
+      <c r="A319" s="5" t="n">
         <v>34455</v>
       </c>
       <c r="B319" s="3" t="n">
@@ -6309,7 +6311,7 @@
       <c r="G319" s="3"/>
     </row>
     <row r="320">
-      <c r="A320" s="4" t="n">
+      <c r="A320" s="5" t="n">
         <v>34486</v>
       </c>
       <c r="B320" s="3" t="n">
@@ -6328,7 +6330,7 @@
       <c r="G320" s="3"/>
     </row>
     <row r="321">
-      <c r="A321" s="4" t="n">
+      <c r="A321" s="5" t="n">
         <v>34516</v>
       </c>
       <c r="B321" s="3" t="n">
@@ -6347,7 +6349,7 @@
       <c r="G321" s="3"/>
     </row>
     <row r="322">
-      <c r="A322" s="4" t="n">
+      <c r="A322" s="5" t="n">
         <v>34547</v>
       </c>
       <c r="B322" s="3" t="n">
@@ -6366,7 +6368,7 @@
       <c r="G322" s="3"/>
     </row>
     <row r="323">
-      <c r="A323" s="4" t="n">
+      <c r="A323" s="5" t="n">
         <v>34578</v>
       </c>
       <c r="B323" s="3" t="n">
@@ -6385,7 +6387,7 @@
       <c r="G323" s="3"/>
     </row>
     <row r="324">
-      <c r="A324" s="4" t="n">
+      <c r="A324" s="5" t="n">
         <v>34608</v>
       </c>
       <c r="B324" s="3" t="n">
@@ -6404,7 +6406,7 @@
       <c r="G324" s="3"/>
     </row>
     <row r="325">
-      <c r="A325" s="4" t="n">
+      <c r="A325" s="5" t="n">
         <v>34639</v>
       </c>
       <c r="B325" s="3" t="n">
@@ -6423,7 +6425,7 @@
       <c r="G325" s="3"/>
     </row>
     <row r="326">
-      <c r="A326" s="4" t="n">
+      <c r="A326" s="5" t="n">
         <v>34669</v>
       </c>
       <c r="B326" s="3" t="n">
@@ -6442,7 +6444,7 @@
       <c r="G326" s="3"/>
     </row>
     <row r="327">
-      <c r="A327" s="4" t="n">
+      <c r="A327" s="5" t="n">
         <v>34700</v>
       </c>
       <c r="B327" s="3" t="n">
@@ -6463,7 +6465,7 @@
       <c r="G327" s="3"/>
     </row>
     <row r="328">
-      <c r="A328" s="4" t="n">
+      <c r="A328" s="5" t="n">
         <v>34731</v>
       </c>
       <c r="B328" s="3" t="n">
@@ -6484,7 +6486,7 @@
       <c r="G328" s="3"/>
     </row>
     <row r="329">
-      <c r="A329" s="4" t="n">
+      <c r="A329" s="5" t="n">
         <v>34759</v>
       </c>
       <c r="B329" s="3" t="n">
@@ -6505,7 +6507,7 @@
       <c r="G329" s="3"/>
     </row>
     <row r="330">
-      <c r="A330" s="4" t="n">
+      <c r="A330" s="5" t="n">
         <v>34790</v>
       </c>
       <c r="B330" s="3" t="n">
@@ -6526,7 +6528,7 @@
       <c r="G330" s="3"/>
     </row>
     <row r="331">
-      <c r="A331" s="4" t="n">
+      <c r="A331" s="5" t="n">
         <v>34820</v>
       </c>
       <c r="B331" s="3" t="n">
@@ -6547,7 +6549,7 @@
       <c r="G331" s="3"/>
     </row>
     <row r="332">
-      <c r="A332" s="4" t="n">
+      <c r="A332" s="5" t="n">
         <v>34851</v>
       </c>
       <c r="B332" s="3" t="n">
@@ -6568,7 +6570,7 @@
       <c r="G332" s="3"/>
     </row>
     <row r="333">
-      <c r="A333" s="4" t="n">
+      <c r="A333" s="5" t="n">
         <v>34881</v>
       </c>
       <c r="B333" s="3" t="n">
@@ -6589,7 +6591,7 @@
       <c r="G333" s="3"/>
     </row>
     <row r="334">
-      <c r="A334" s="4" t="n">
+      <c r="A334" s="5" t="n">
         <v>34912</v>
       </c>
       <c r="B334" s="3" t="n">
@@ -6610,7 +6612,7 @@
       <c r="G334" s="3"/>
     </row>
     <row r="335">
-      <c r="A335" s="4" t="n">
+      <c r="A335" s="5" t="n">
         <v>34943</v>
       </c>
       <c r="B335" s="3" t="n">
@@ -6631,7 +6633,7 @@
       <c r="G335" s="3"/>
     </row>
     <row r="336">
-      <c r="A336" s="4" t="n">
+      <c r="A336" s="5" t="n">
         <v>34973</v>
       </c>
       <c r="B336" s="3" t="n">
@@ -6652,7 +6654,7 @@
       <c r="G336" s="3"/>
     </row>
     <row r="337">
-      <c r="A337" s="4" t="n">
+      <c r="A337" s="5" t="n">
         <v>35004</v>
       </c>
       <c r="B337" s="3" t="n">
@@ -6673,7 +6675,7 @@
       <c r="G337" s="3"/>
     </row>
     <row r="338">
-      <c r="A338" s="4" t="n">
+      <c r="A338" s="5" t="n">
         <v>35034</v>
       </c>
       <c r="B338" s="3" t="n">
@@ -6694,7 +6696,7 @@
       <c r="G338" s="3"/>
     </row>
     <row r="339">
-      <c r="A339" s="4" t="n">
+      <c r="A339" s="5" t="n">
         <v>35065</v>
       </c>
       <c r="B339" s="3" t="n">
@@ -6717,7 +6719,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="4" t="n">
+      <c r="A340" s="5" t="n">
         <v>35096</v>
       </c>
       <c r="B340" s="3" t="n">
@@ -6740,7 +6742,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="4" t="n">
+      <c r="A341" s="5" t="n">
         <v>35125</v>
       </c>
       <c r="B341" s="3" t="n">
@@ -6763,7 +6765,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="4" t="n">
+      <c r="A342" s="5" t="n">
         <v>35156</v>
       </c>
       <c r="B342" s="3" t="n">
@@ -6786,7 +6788,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="4" t="n">
+      <c r="A343" s="5" t="n">
         <v>35186</v>
       </c>
       <c r="B343" s="3" t="n">
@@ -6809,7 +6811,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="4" t="n">
+      <c r="A344" s="5" t="n">
         <v>35217</v>
       </c>
       <c r="B344" s="3" t="n">
@@ -6832,7 +6834,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="4" t="n">
+      <c r="A345" s="5" t="n">
         <v>35247</v>
       </c>
       <c r="B345" s="3" t="n">
@@ -6855,7 +6857,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="4" t="n">
+      <c r="A346" s="5" t="n">
         <v>35278</v>
       </c>
       <c r="B346" s="3" t="n">
@@ -6878,7 +6880,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="4" t="n">
+      <c r="A347" s="5" t="n">
         <v>35309</v>
       </c>
       <c r="B347" s="3" t="n">
@@ -6901,7 +6903,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="4" t="n">
+      <c r="A348" s="5" t="n">
         <v>35339</v>
       </c>
       <c r="B348" s="3" t="n">
@@ -6924,7 +6926,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="4" t="n">
+      <c r="A349" s="5" t="n">
         <v>35370</v>
       </c>
       <c r="B349" s="3" t="n">
@@ -6947,7 +6949,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="4" t="n">
+      <c r="A350" s="5" t="n">
         <v>35400</v>
       </c>
       <c r="B350" s="3" t="n">
@@ -6970,7 +6972,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="4" t="n">
+      <c r="A351" s="5" t="n">
         <v>35431</v>
       </c>
       <c r="B351" s="3" t="n">
@@ -6993,7 +6995,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="4" t="n">
+      <c r="A352" s="5" t="n">
         <v>35462</v>
       </c>
       <c r="B352" s="3" t="n">
@@ -7016,7 +7018,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="4" t="n">
+      <c r="A353" s="5" t="n">
         <v>35490</v>
       </c>
       <c r="B353" s="3" t="n">
@@ -7039,7 +7041,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="4" t="n">
+      <c r="A354" s="5" t="n">
         <v>35521</v>
       </c>
       <c r="B354" s="3" t="n">
@@ -7062,7 +7064,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="4" t="n">
+      <c r="A355" s="5" t="n">
         <v>35551</v>
       </c>
       <c r="B355" s="3" t="n">
@@ -7085,7 +7087,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="4" t="n">
+      <c r="A356" s="5" t="n">
         <v>35582</v>
       </c>
       <c r="B356" s="3" t="n">
@@ -7108,7 +7110,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="4" t="n">
+      <c r="A357" s="5" t="n">
         <v>35612</v>
       </c>
       <c r="B357" s="3" t="n">
@@ -7131,7 +7133,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="4" t="n">
+      <c r="A358" s="5" t="n">
         <v>35643</v>
       </c>
       <c r="B358" s="3" t="n">
@@ -7154,7 +7156,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="4" t="n">
+      <c r="A359" s="5" t="n">
         <v>35674</v>
       </c>
       <c r="B359" s="3" t="n">
@@ -7177,7 +7179,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="4" t="n">
+      <c r="A360" s="5" t="n">
         <v>35704</v>
       </c>
       <c r="B360" s="3" t="n">
@@ -7200,7 +7202,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="4" t="n">
+      <c r="A361" s="5" t="n">
         <v>35735</v>
       </c>
       <c r="B361" s="3" t="n">
@@ -7223,7 +7225,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="4" t="n">
+      <c r="A362" s="5" t="n">
         <v>35765</v>
       </c>
       <c r="B362" s="3" t="n">
@@ -7246,7 +7248,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="4" t="n">
+      <c r="A363" s="5" t="n">
         <v>35796</v>
       </c>
       <c r="B363" s="3" t="n">
@@ -7269,7 +7271,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="4" t="n">
+      <c r="A364" s="5" t="n">
         <v>35827</v>
       </c>
       <c r="B364" s="3" t="n">
@@ -7292,7 +7294,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="4" t="n">
+      <c r="A365" s="5" t="n">
         <v>35855</v>
       </c>
       <c r="B365" s="3" t="n">
@@ -7315,7 +7317,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="4" t="n">
+      <c r="A366" s="5" t="n">
         <v>35886</v>
       </c>
       <c r="B366" s="3" t="n">
@@ -7338,7 +7340,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="4" t="n">
+      <c r="A367" s="5" t="n">
         <v>35916</v>
       </c>
       <c r="B367" s="3" t="n">
@@ -7361,7 +7363,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="4" t="n">
+      <c r="A368" s="5" t="n">
         <v>35947</v>
       </c>
       <c r="B368" s="3" t="n">
@@ -7384,7 +7386,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="4" t="n">
+      <c r="A369" s="5" t="n">
         <v>35977</v>
       </c>
       <c r="B369" s="3" t="n">
@@ -7407,7 +7409,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="4" t="n">
+      <c r="A370" s="5" t="n">
         <v>36008</v>
       </c>
       <c r="B370" s="3" t="n">
@@ -7430,7 +7432,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="4" t="n">
+      <c r="A371" s="5" t="n">
         <v>36039</v>
       </c>
       <c r="B371" s="3" t="n">
@@ -7453,7 +7455,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="4" t="n">
+      <c r="A372" s="5" t="n">
         <v>36069</v>
       </c>
       <c r="B372" s="3" t="n">
@@ -7476,7 +7478,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="4" t="n">
+      <c r="A373" s="5" t="n">
         <v>36100</v>
       </c>
       <c r="B373" s="3" t="n">
@@ -7499,7 +7501,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="4" t="n">
+      <c r="A374" s="5" t="n">
         <v>36130</v>
       </c>
       <c r="B374" s="3" t="n">
@@ -7522,7 +7524,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="4" t="n">
+      <c r="A375" s="5" t="n">
         <v>36161</v>
       </c>
       <c r="B375" s="3" t="n">
@@ -7545,7 +7547,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="4" t="n">
+      <c r="A376" s="5" t="n">
         <v>36192</v>
       </c>
       <c r="B376" s="3" t="n">
@@ -7568,7 +7570,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="4" t="n">
+      <c r="A377" s="5" t="n">
         <v>36220</v>
       </c>
       <c r="B377" s="3" t="n">
@@ -7591,7 +7593,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="4" t="n">
+      <c r="A378" s="5" t="n">
         <v>36251</v>
       </c>
       <c r="B378" s="3" t="n">
@@ -7614,7 +7616,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="4" t="n">
+      <c r="A379" s="5" t="n">
         <v>36281</v>
       </c>
       <c r="B379" s="3" t="n">
@@ -7637,7 +7639,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="4" t="n">
+      <c r="A380" s="5" t="n">
         <v>36312</v>
       </c>
       <c r="B380" s="3" t="n">
@@ -7660,7 +7662,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="4" t="n">
+      <c r="A381" s="5" t="n">
         <v>36342</v>
       </c>
       <c r="B381" s="3" t="n">
@@ -7683,7 +7685,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="4" t="n">
+      <c r="A382" s="5" t="n">
         <v>36373</v>
       </c>
       <c r="B382" s="3" t="n">
@@ -7706,7 +7708,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="4" t="n">
+      <c r="A383" s="5" t="n">
         <v>36404</v>
       </c>
       <c r="B383" s="3" t="n">
@@ -7729,7 +7731,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="4" t="n">
+      <c r="A384" s="5" t="n">
         <v>36434</v>
       </c>
       <c r="B384" s="3" t="n">
@@ -7752,7 +7754,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="4" t="n">
+      <c r="A385" s="5" t="n">
         <v>36465</v>
       </c>
       <c r="B385" s="3" t="n">
@@ -7775,7 +7777,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="4" t="n">
+      <c r="A386" s="5" t="n">
         <v>36495</v>
       </c>
       <c r="B386" s="3" t="n">
@@ -7798,7 +7800,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="4" t="n">
+      <c r="A387" s="5" t="n">
         <v>36526</v>
       </c>
       <c r="B387" s="3" t="n">
@@ -7821,7 +7823,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="4" t="n">
+      <c r="A388" s="5" t="n">
         <v>36557</v>
       </c>
       <c r="B388" s="3" t="n">
@@ -7844,7 +7846,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="4" t="n">
+      <c r="A389" s="5" t="n">
         <v>36586</v>
       </c>
       <c r="B389" s="3" t="n">
@@ -7867,7 +7869,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="4" t="n">
+      <c r="A390" s="5" t="n">
         <v>36617</v>
       </c>
       <c r="B390" s="3" t="n">
@@ -7890,7 +7892,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="4" t="n">
+      <c r="A391" s="5" t="n">
         <v>36647</v>
       </c>
       <c r="B391" s="3" t="n">
@@ -7913,7 +7915,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="4" t="n">
+      <c r="A392" s="5" t="n">
         <v>36678</v>
       </c>
       <c r="B392" s="3" t="n">
@@ -7936,7 +7938,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="4" t="n">
+      <c r="A393" s="5" t="n">
         <v>36708</v>
       </c>
       <c r="B393" s="3" t="n">
@@ -7959,7 +7961,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="4" t="n">
+      <c r="A394" s="5" t="n">
         <v>36739</v>
       </c>
       <c r="B394" s="3" t="n">
@@ -7982,7 +7984,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="4" t="n">
+      <c r="A395" s="5" t="n">
         <v>36770</v>
       </c>
       <c r="B395" s="3" t="n">
@@ -8005,7 +8007,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="4" t="n">
+      <c r="A396" s="5" t="n">
         <v>36800</v>
       </c>
       <c r="B396" s="3" t="n">
@@ -8028,7 +8030,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="4" t="n">
+      <c r="A397" s="5" t="n">
         <v>36831</v>
       </c>
       <c r="B397" s="3" t="n">
@@ -8051,7 +8053,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="4" t="n">
+      <c r="A398" s="5" t="n">
         <v>36861</v>
       </c>
       <c r="B398" s="3" t="n">
@@ -8074,7 +8076,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="4" t="n">
+      <c r="A399" s="5" t="n">
         <v>36892</v>
       </c>
       <c r="B399" s="3" t="n">
@@ -8097,7 +8099,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="4" t="n">
+      <c r="A400" s="5" t="n">
         <v>36923</v>
       </c>
       <c r="B400" s="3" t="n">
@@ -8120,7 +8122,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="4" t="n">
+      <c r="A401" s="5" t="n">
         <v>36951</v>
       </c>
       <c r="B401" s="3" t="n">
@@ -8143,7 +8145,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="4" t="n">
+      <c r="A402" s="5" t="n">
         <v>36982</v>
       </c>
       <c r="B402" s="3" t="n">
@@ -8166,7 +8168,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="4" t="n">
+      <c r="A403" s="5" t="n">
         <v>37012</v>
       </c>
       <c r="B403" s="3" t="n">
@@ -8189,7 +8191,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="4" t="n">
+      <c r="A404" s="5" t="n">
         <v>37043</v>
       </c>
       <c r="B404" s="3" t="n">
@@ -8212,7 +8214,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="4" t="n">
+      <c r="A405" s="5" t="n">
         <v>37073</v>
       </c>
       <c r="B405" s="3" t="n">
@@ -8235,7 +8237,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="4" t="n">
+      <c r="A406" s="5" t="n">
         <v>37104</v>
       </c>
       <c r="B406" s="3" t="n">
@@ -8258,7 +8260,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="4" t="n">
+      <c r="A407" s="5" t="n">
         <v>37135</v>
       </c>
       <c r="B407" s="3" t="n">
@@ -8281,7 +8283,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="4" t="n">
+      <c r="A408" s="5" t="n">
         <v>37165</v>
       </c>
       <c r="B408" s="3" t="n">
@@ -8304,7 +8306,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="4" t="n">
+      <c r="A409" s="5" t="n">
         <v>37196</v>
       </c>
       <c r="B409" s="3" t="n">
@@ -8327,7 +8329,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="4" t="n">
+      <c r="A410" s="5" t="n">
         <v>37226</v>
       </c>
       <c r="B410" s="3" t="n">
@@ -8350,7 +8352,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="4" t="n">
+      <c r="A411" s="5" t="n">
         <v>37257</v>
       </c>
       <c r="B411" s="3" t="n">
@@ -8373,7 +8375,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="4" t="n">
+      <c r="A412" s="5" t="n">
         <v>37288</v>
       </c>
       <c r="B412" s="3" t="n">
@@ -8396,7 +8398,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="4" t="n">
+      <c r="A413" s="5" t="n">
         <v>37316</v>
       </c>
       <c r="B413" s="3" t="n">
@@ -8419,7 +8421,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="4" t="n">
+      <c r="A414" s="5" t="n">
         <v>37347</v>
       </c>
       <c r="B414" s="3" t="n">
@@ -8442,7 +8444,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="4" t="n">
+      <c r="A415" s="5" t="n">
         <v>37377</v>
       </c>
       <c r="B415" s="3" t="n">
@@ -8465,7 +8467,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="4" t="n">
+      <c r="A416" s="5" t="n">
         <v>37408</v>
       </c>
       <c r="B416" s="3" t="n">
@@ -8488,7 +8490,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="4" t="n">
+      <c r="A417" s="5" t="n">
         <v>37438</v>
       </c>
       <c r="B417" s="3" t="n">
@@ -8511,7 +8513,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="4" t="n">
+      <c r="A418" s="5" t="n">
         <v>37469</v>
       </c>
       <c r="B418" s="3" t="n">
@@ -8534,7 +8536,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="4" t="n">
+      <c r="A419" s="5" t="n">
         <v>37500</v>
       </c>
       <c r="B419" s="3" t="n">
@@ -8557,7 +8559,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="4" t="n">
+      <c r="A420" s="5" t="n">
         <v>37530</v>
       </c>
       <c r="B420" s="3" t="n">
@@ -8580,7 +8582,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="4" t="n">
+      <c r="A421" s="5" t="n">
         <v>37561</v>
       </c>
       <c r="B421" s="3" t="n">
@@ -8603,7 +8605,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="4" t="n">
+      <c r="A422" s="5" t="n">
         <v>37591</v>
       </c>
       <c r="B422" s="3" t="n">
@@ -8626,7 +8628,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="4" t="n">
+      <c r="A423" s="5" t="n">
         <v>37622</v>
       </c>
       <c r="B423" s="3" t="n">
@@ -8649,7 +8651,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="4" t="n">
+      <c r="A424" s="5" t="n">
         <v>37653</v>
       </c>
       <c r="B424" s="3" t="n">
@@ -8672,7 +8674,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="4" t="n">
+      <c r="A425" s="5" t="n">
         <v>37681</v>
       </c>
       <c r="B425" s="3" t="n">
@@ -8695,7 +8697,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="4" t="n">
+      <c r="A426" s="5" t="n">
         <v>37712</v>
       </c>
       <c r="B426" s="3" t="n">
@@ -8718,7 +8720,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="4" t="n">
+      <c r="A427" s="5" t="n">
         <v>37742</v>
       </c>
       <c r="B427" s="3" t="n">
@@ -8741,7 +8743,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="4" t="n">
+      <c r="A428" s="5" t="n">
         <v>37773</v>
       </c>
       <c r="B428" s="3" t="n">
@@ -8764,7 +8766,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="4" t="n">
+      <c r="A429" s="5" t="n">
         <v>37803</v>
       </c>
       <c r="B429" s="3" t="n">
@@ -8787,7 +8789,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="4" t="n">
+      <c r="A430" s="5" t="n">
         <v>37834</v>
       </c>
       <c r="B430" s="3" t="n">
@@ -8810,7 +8812,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="4" t="n">
+      <c r="A431" s="5" t="n">
         <v>37865</v>
       </c>
       <c r="B431" s="3" t="n">
@@ -8833,7 +8835,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="4" t="n">
+      <c r="A432" s="5" t="n">
         <v>37895</v>
       </c>
       <c r="B432" s="3" t="n">
@@ -8856,7 +8858,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="4" t="n">
+      <c r="A433" s="5" t="n">
         <v>37926</v>
       </c>
       <c r="B433" s="3" t="n">
@@ -8879,7 +8881,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="4" t="n">
+      <c r="A434" s="5" t="n">
         <v>37956</v>
       </c>
       <c r="B434" s="3" t="n">
@@ -8902,7 +8904,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="4" t="n">
+      <c r="A435" s="5" t="n">
         <v>37987</v>
       </c>
       <c r="B435" s="3" t="n">
@@ -8925,7 +8927,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="4" t="n">
+      <c r="A436" s="5" t="n">
         <v>38018</v>
       </c>
       <c r="B436" s="3" t="n">
@@ -8948,7 +8950,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="4" t="n">
+      <c r="A437" s="5" t="n">
         <v>38047</v>
       </c>
       <c r="B437" s="3" t="n">
@@ -8971,7 +8973,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="4" t="n">
+      <c r="A438" s="5" t="n">
         <v>38078</v>
       </c>
       <c r="B438" s="3" t="n">
@@ -8994,7 +8996,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="4" t="n">
+      <c r="A439" s="5" t="n">
         <v>38108</v>
       </c>
       <c r="B439" s="3" t="n">
@@ -9017,7 +9019,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="4" t="n">
+      <c r="A440" s="5" t="n">
         <v>38139</v>
       </c>
       <c r="B440" s="3" t="n">
@@ -9040,7 +9042,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="4" t="n">
+      <c r="A441" s="5" t="n">
         <v>38169</v>
       </c>
       <c r="B441" s="3" t="n">
@@ -9063,7 +9065,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="4" t="n">
+      <c r="A442" s="5" t="n">
         <v>38200</v>
       </c>
       <c r="B442" s="3" t="n">
@@ -9086,7 +9088,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="4" t="n">
+      <c r="A443" s="5" t="n">
         <v>38231</v>
       </c>
       <c r="B443" s="3" t="n">
@@ -9109,7 +9111,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="4" t="n">
+      <c r="A444" s="5" t="n">
         <v>38261</v>
       </c>
       <c r="B444" s="3" t="n">
@@ -9132,7 +9134,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="4" t="n">
+      <c r="A445" s="5" t="n">
         <v>38292</v>
       </c>
       <c r="B445" s="3" t="n">
@@ -9155,7 +9157,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="4" t="n">
+      <c r="A446" s="5" t="n">
         <v>38322</v>
       </c>
       <c r="B446" s="3" t="n">
@@ -9178,7 +9180,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="4" t="n">
+      <c r="A447" s="5" t="n">
         <v>38353</v>
       </c>
       <c r="B447" s="3" t="n">
@@ -9201,7 +9203,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="4" t="n">
+      <c r="A448" s="5" t="n">
         <v>38384</v>
       </c>
       <c r="B448" s="3" t="n">
@@ -9224,7 +9226,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="4" t="n">
+      <c r="A449" s="5" t="n">
         <v>38412</v>
       </c>
       <c r="B449" s="3" t="n">
@@ -9247,7 +9249,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="4" t="n">
+      <c r="A450" s="5" t="n">
         <v>38443</v>
       </c>
       <c r="B450" s="3" t="n">
@@ -9270,7 +9272,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="4" t="n">
+      <c r="A451" s="5" t="n">
         <v>38473</v>
       </c>
       <c r="B451" s="3" t="n">
@@ -9293,7 +9295,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="4" t="n">
+      <c r="A452" s="5" t="n">
         <v>38504</v>
       </c>
       <c r="B452" s="3" t="n">
@@ -9316,7 +9318,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="4" t="n">
+      <c r="A453" s="5" t="n">
         <v>38534</v>
       </c>
       <c r="B453" s="3" t="n">
@@ -9339,7 +9341,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="4" t="n">
+      <c r="A454" s="5" t="n">
         <v>38565</v>
       </c>
       <c r="B454" s="3" t="n">
@@ -9362,7 +9364,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="4" t="n">
+      <c r="A455" s="5" t="n">
         <v>38596</v>
       </c>
       <c r="B455" s="3" t="n">
@@ -9385,7 +9387,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="4" t="n">
+      <c r="A456" s="5" t="n">
         <v>38626</v>
       </c>
       <c r="B456" s="3" t="n">
@@ -9408,7 +9410,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="4" t="n">
+      <c r="A457" s="5" t="n">
         <v>38657</v>
       </c>
       <c r="B457" s="3" t="n">
@@ -9431,7 +9433,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="4" t="n">
+      <c r="A458" s="5" t="n">
         <v>38687</v>
       </c>
       <c r="B458" s="3" t="n">
@@ -9454,7 +9456,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="4" t="n">
+      <c r="A459" s="5" t="n">
         <v>38718</v>
       </c>
       <c r="B459" s="3" t="n">
@@ -9477,7 +9479,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="4" t="n">
+      <c r="A460" s="5" t="n">
         <v>38749</v>
       </c>
       <c r="B460" s="3" t="n">
@@ -9500,7 +9502,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="4" t="n">
+      <c r="A461" s="5" t="n">
         <v>38777</v>
       </c>
       <c r="B461" s="3" t="n">
@@ -9523,7 +9525,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="4" t="n">
+      <c r="A462" s="5" t="n">
         <v>38808</v>
       </c>
       <c r="B462" s="3" t="n">
@@ -9546,7 +9548,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="4" t="n">
+      <c r="A463" s="5" t="n">
         <v>38838</v>
       </c>
       <c r="B463" s="3" t="n">
@@ -9569,7 +9571,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="4" t="n">
+      <c r="A464" s="5" t="n">
         <v>38869</v>
       </c>
       <c r="B464" s="3" t="n">
@@ -9592,7 +9594,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="4" t="n">
+      <c r="A465" s="5" t="n">
         <v>38899</v>
       </c>
       <c r="B465" s="3" t="n">
@@ -9615,7 +9617,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="4" t="n">
+      <c r="A466" s="5" t="n">
         <v>38930</v>
       </c>
       <c r="B466" s="3" t="n">
@@ -9638,7 +9640,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="4" t="n">
+      <c r="A467" s="5" t="n">
         <v>38961</v>
       </c>
       <c r="B467" s="3" t="n">
@@ -9661,7 +9663,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="4" t="n">
+      <c r="A468" s="5" t="n">
         <v>38991</v>
       </c>
       <c r="B468" s="3" t="n">
@@ -9684,7 +9686,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="4" t="n">
+      <c r="A469" s="5" t="n">
         <v>39022</v>
       </c>
       <c r="B469" s="3" t="n">
@@ -9707,7 +9709,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="4" t="n">
+      <c r="A470" s="5" t="n">
         <v>39052</v>
       </c>
       <c r="B470" s="3" t="n">
@@ -9730,7 +9732,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="4" t="n">
+      <c r="A471" s="5" t="n">
         <v>39083</v>
       </c>
       <c r="B471" s="3" t="n">
@@ -9753,7 +9755,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="4" t="n">
+      <c r="A472" s="5" t="n">
         <v>39114</v>
       </c>
       <c r="B472" s="3" t="n">
@@ -9776,7 +9778,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="4" t="n">
+      <c r="A473" s="5" t="n">
         <v>39142</v>
       </c>
       <c r="B473" s="3" t="n">
@@ -9799,7 +9801,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="4" t="n">
+      <c r="A474" s="5" t="n">
         <v>39173</v>
       </c>
       <c r="B474" s="3" t="n">
@@ -9822,7 +9824,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="4" t="n">
+      <c r="A475" s="5" t="n">
         <v>39203</v>
       </c>
       <c r="B475" s="3" t="n">
@@ -9845,7 +9847,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="4" t="n">
+      <c r="A476" s="5" t="n">
         <v>39234</v>
       </c>
       <c r="B476" s="3" t="n">
@@ -9868,7 +9870,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="4" t="n">
+      <c r="A477" s="5" t="n">
         <v>39264</v>
       </c>
       <c r="B477" s="3" t="n">
@@ -9891,7 +9893,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="4" t="n">
+      <c r="A478" s="5" t="n">
         <v>39295</v>
       </c>
       <c r="B478" s="3" t="n">
@@ -9914,7 +9916,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="4" t="n">
+      <c r="A479" s="5" t="n">
         <v>39326</v>
       </c>
       <c r="B479" s="3" t="n">
@@ -9937,7 +9939,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="4" t="n">
+      <c r="A480" s="5" t="n">
         <v>39356</v>
       </c>
       <c r="B480" s="3" t="n">
@@ -9960,7 +9962,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="4" t="n">
+      <c r="A481" s="5" t="n">
         <v>39387</v>
       </c>
       <c r="B481" s="3" t="n">
@@ -9983,7 +9985,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="4" t="n">
+      <c r="A482" s="5" t="n">
         <v>39417</v>
       </c>
       <c r="B482" s="3" t="n">
@@ -10006,7 +10008,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="4" t="n">
+      <c r="A483" s="5" t="n">
         <v>39448</v>
       </c>
       <c r="B483" s="3" t="n">
@@ -10029,7 +10031,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="4" t="n">
+      <c r="A484" s="5" t="n">
         <v>39479</v>
       </c>
       <c r="B484" s="3" t="n">
@@ -10052,7 +10054,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="4" t="n">
+      <c r="A485" s="5" t="n">
         <v>39508</v>
       </c>
       <c r="B485" s="3" t="n">
@@ -10075,7 +10077,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="4" t="n">
+      <c r="A486" s="5" t="n">
         <v>39539</v>
       </c>
       <c r="B486" s="3" t="n">
@@ -10098,7 +10100,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="4" t="n">
+      <c r="A487" s="5" t="n">
         <v>39569</v>
       </c>
       <c r="B487" s="3" t="n">
@@ -10121,7 +10123,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="4" t="n">
+      <c r="A488" s="5" t="n">
         <v>39600</v>
       </c>
       <c r="B488" s="3" t="n">
@@ -10144,7 +10146,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="4" t="n">
+      <c r="A489" s="5" t="n">
         <v>39630</v>
       </c>
       <c r="B489" s="3" t="n">
@@ -10167,7 +10169,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="4" t="n">
+      <c r="A490" s="5" t="n">
         <v>39661</v>
       </c>
       <c r="B490" s="3" t="n">
@@ -10190,7 +10192,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="4" t="n">
+      <c r="A491" s="5" t="n">
         <v>39692</v>
       </c>
       <c r="B491" s="3" t="n">
@@ -10213,7 +10215,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="4" t="n">
+      <c r="A492" s="5" t="n">
         <v>39722</v>
       </c>
       <c r="B492" s="3" t="n">
@@ -10236,7 +10238,7 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="4" t="n">
+      <c r="A493" s="5" t="n">
         <v>39753</v>
       </c>
       <c r="B493" s="3" t="n">
@@ -10259,7 +10261,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="4" t="n">
+      <c r="A494" s="5" t="n">
         <v>39783</v>
       </c>
       <c r="B494" s="3" t="n">
@@ -10282,7 +10284,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="4" t="n">
+      <c r="A495" s="5" t="n">
         <v>39814</v>
       </c>
       <c r="B495" s="3" t="n">
@@ -10305,7 +10307,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="4" t="n">
+      <c r="A496" s="5" t="n">
         <v>39845</v>
       </c>
       <c r="B496" s="3" t="n">
@@ -10328,7 +10330,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="4" t="n">
+      <c r="A497" s="5" t="n">
         <v>39873</v>
       </c>
       <c r="B497" s="3" t="n">
@@ -10351,7 +10353,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="4" t="n">
+      <c r="A498" s="5" t="n">
         <v>39904</v>
       </c>
       <c r="B498" s="3" t="n">
@@ -10374,7 +10376,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="4" t="n">
+      <c r="A499" s="5" t="n">
         <v>39934</v>
       </c>
       <c r="B499" s="3" t="n">
@@ -10397,7 +10399,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="4" t="n">
+      <c r="A500" s="5" t="n">
         <v>39965</v>
       </c>
       <c r="B500" s="3" t="n">
@@ -10420,7 +10422,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="4" t="n">
+      <c r="A501" s="5" t="n">
         <v>39995</v>
       </c>
       <c r="B501" s="3" t="n">
@@ -10443,7 +10445,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="4" t="n">
+      <c r="A502" s="5" t="n">
         <v>40026</v>
       </c>
       <c r="B502" s="3" t="n">
@@ -10466,7 +10468,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="4" t="n">
+      <c r="A503" s="5" t="n">
         <v>40057</v>
       </c>
       <c r="B503" s="3" t="n">
@@ -10489,7 +10491,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="4" t="n">
+      <c r="A504" s="5" t="n">
         <v>40087</v>
       </c>
       <c r="B504" s="3" t="n">
@@ -10512,7 +10514,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="4" t="n">
+      <c r="A505" s="5" t="n">
         <v>40118</v>
       </c>
       <c r="B505" s="3" t="n">
@@ -10535,7 +10537,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="4" t="n">
+      <c r="A506" s="5" t="n">
         <v>40148</v>
       </c>
       <c r="B506" s="3" t="n">
@@ -10558,7 +10560,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="4" t="n">
+      <c r="A507" s="5" t="n">
         <v>40179</v>
       </c>
       <c r="B507" s="3" t="n">
@@ -10581,7 +10583,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="4" t="n">
+      <c r="A508" s="5" t="n">
         <v>40210</v>
       </c>
       <c r="B508" s="3" t="n">
@@ -10604,7 +10606,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="4" t="n">
+      <c r="A509" s="5" t="n">
         <v>40238</v>
       </c>
       <c r="B509" s="3" t="n">
@@ -10627,7 +10629,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="4" t="n">
+      <c r="A510" s="5" t="n">
         <v>40269</v>
       </c>
       <c r="B510" s="3" t="n">
@@ -10650,7 +10652,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="4" t="n">
+      <c r="A511" s="5" t="n">
         <v>40299</v>
       </c>
       <c r="B511" s="3" t="n">
@@ -10673,7 +10675,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="4" t="n">
+      <c r="A512" s="5" t="n">
         <v>40330</v>
       </c>
       <c r="B512" s="3" t="n">
@@ -10696,7 +10698,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="4" t="n">
+      <c r="A513" s="5" t="n">
         <v>40360</v>
       </c>
       <c r="B513" s="3" t="n">
@@ -10719,7 +10721,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="4" t="n">
+      <c r="A514" s="5" t="n">
         <v>40391</v>
       </c>
       <c r="B514" s="3" t="n">
@@ -10742,7 +10744,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="4" t="n">
+      <c r="A515" s="5" t="n">
         <v>40422</v>
       </c>
       <c r="B515" s="3" t="n">
@@ -10765,7 +10767,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="4" t="n">
+      <c r="A516" s="5" t="n">
         <v>40452</v>
       </c>
       <c r="B516" s="3" t="n">
@@ -10788,7 +10790,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="4" t="n">
+      <c r="A517" s="5" t="n">
         <v>40483</v>
       </c>
       <c r="B517" s="3" t="n">
@@ -10811,7 +10813,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="4" t="n">
+      <c r="A518" s="5" t="n">
         <v>40513</v>
       </c>
       <c r="B518" s="3" t="n">
@@ -10834,7 +10836,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="4" t="n">
+      <c r="A519" s="5" t="n">
         <v>40544</v>
       </c>
       <c r="B519" s="3" t="n">
@@ -10857,7 +10859,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="4" t="n">
+      <c r="A520" s="5" t="n">
         <v>40575</v>
       </c>
       <c r="B520" s="3" t="n">
@@ -10880,7 +10882,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="4" t="n">
+      <c r="A521" s="5" t="n">
         <v>40603</v>
       </c>
       <c r="B521" s="3" t="n">
@@ -10903,7 +10905,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="4" t="n">
+      <c r="A522" s="5" t="n">
         <v>40634</v>
       </c>
       <c r="B522" s="3" t="n">
@@ -10926,7 +10928,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="4" t="n">
+      <c r="A523" s="5" t="n">
         <v>40664</v>
       </c>
       <c r="B523" s="3" t="n">
@@ -10949,7 +10951,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="4" t="n">
+      <c r="A524" s="5" t="n">
         <v>40695</v>
       </c>
       <c r="B524" s="3" t="n">
@@ -10972,7 +10974,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="4" t="n">
+      <c r="A525" s="5" t="n">
         <v>40725</v>
       </c>
       <c r="B525" s="3" t="n">
@@ -10995,7 +10997,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="4" t="n">
+      <c r="A526" s="5" t="n">
         <v>40756</v>
       </c>
       <c r="B526" s="3" t="n">
@@ -11018,7 +11020,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="4" t="n">
+      <c r="A527" s="5" t="n">
         <v>40787</v>
       </c>
       <c r="B527" s="3" t="n">
@@ -11041,7 +11043,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="4" t="n">
+      <c r="A528" s="5" t="n">
         <v>40817</v>
       </c>
       <c r="B528" s="3" t="n">
@@ -11064,7 +11066,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="4" t="n">
+      <c r="A529" s="5" t="n">
         <v>40848</v>
       </c>
       <c r="B529" s="3" t="n">
@@ -11087,7 +11089,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="4" t="n">
+      <c r="A530" s="5" t="n">
         <v>40878</v>
       </c>
       <c r="B530" s="3" t="n">
@@ -11110,7 +11112,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="4" t="n">
+      <c r="A531" s="5" t="n">
         <v>40909</v>
       </c>
       <c r="B531" s="3" t="n">
@@ -11133,7 +11135,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="4" t="n">
+      <c r="A532" s="5" t="n">
         <v>40940</v>
       </c>
       <c r="B532" s="3" t="n">
@@ -11156,7 +11158,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="4" t="n">
+      <c r="A533" s="5" t="n">
         <v>40969</v>
       </c>
       <c r="B533" s="3" t="n">
@@ -11179,7 +11181,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="4" t="n">
+      <c r="A534" s="5" t="n">
         <v>41000</v>
       </c>
       <c r="B534" s="3" t="n">
@@ -11202,7 +11204,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="4" t="n">
+      <c r="A535" s="5" t="n">
         <v>41030</v>
       </c>
       <c r="B535" s="3" t="n">
@@ -11225,7 +11227,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="4" t="n">
+      <c r="A536" s="5" t="n">
         <v>41061</v>
       </c>
       <c r="B536" s="3" t="n">
@@ -11248,7 +11250,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="4" t="n">
+      <c r="A537" s="5" t="n">
         <v>41091</v>
       </c>
       <c r="B537" s="3" t="n">
@@ -11271,7 +11273,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="4" t="n">
+      <c r="A538" s="5" t="n">
         <v>41122</v>
       </c>
       <c r="B538" s="3" t="n">
@@ -11294,7 +11296,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="4" t="n">
+      <c r="A539" s="5" t="n">
         <v>41153</v>
       </c>
       <c r="B539" s="3" t="n">
@@ -11317,7 +11319,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="4" t="n">
+      <c r="A540" s="5" t="n">
         <v>41183</v>
       </c>
       <c r="B540" s="3" t="n">
@@ -11340,7 +11342,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="4" t="n">
+      <c r="A541" s="5" t="n">
         <v>41214</v>
       </c>
       <c r="B541" s="3" t="n">
@@ -11363,7 +11365,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="4" t="n">
+      <c r="A542" s="5" t="n">
         <v>41244</v>
       </c>
       <c r="B542" s="3" t="n">
@@ -11386,7 +11388,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="4" t="n">
+      <c r="A543" s="5" t="n">
         <v>41275</v>
       </c>
       <c r="B543" s="3" t="n">
@@ -11409,7 +11411,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="4" t="n">
+      <c r="A544" s="5" t="n">
         <v>41306</v>
       </c>
       <c r="B544" s="3" t="n">
@@ -11432,7 +11434,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="4" t="n">
+      <c r="A545" s="5" t="n">
         <v>41334</v>
       </c>
       <c r="B545" s="3" t="n">
@@ -11455,7 +11457,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="4" t="n">
+      <c r="A546" s="5" t="n">
         <v>41365</v>
       </c>
       <c r="B546" s="3" t="n">
@@ -11478,7 +11480,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="4" t="n">
+      <c r="A547" s="5" t="n">
         <v>41395</v>
       </c>
       <c r="B547" s="3" t="n">
@@ -11501,7 +11503,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="4" t="n">
+      <c r="A548" s="5" t="n">
         <v>41426</v>
       </c>
       <c r="B548" s="3" t="n">
@@ -11524,7 +11526,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="4" t="n">
+      <c r="A549" s="5" t="n">
         <v>41456</v>
       </c>
       <c r="B549" s="3" t="n">
@@ -11547,7 +11549,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="4" t="n">
+      <c r="A550" s="5" t="n">
         <v>41487</v>
       </c>
       <c r="B550" s="3" t="n">
@@ -11570,7 +11572,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="4" t="n">
+      <c r="A551" s="5" t="n">
         <v>41518</v>
       </c>
       <c r="B551" s="3" t="n">
@@ -11593,7 +11595,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="4" t="n">
+      <c r="A552" s="5" t="n">
         <v>41548</v>
       </c>
       <c r="B552" s="3" t="n">
@@ -11616,7 +11618,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="4" t="n">
+      <c r="A553" s="5" t="n">
         <v>41579</v>
       </c>
       <c r="B553" s="3" t="n">
@@ -11639,7 +11641,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="4" t="n">
+      <c r="A554" s="5" t="n">
         <v>41609</v>
       </c>
       <c r="B554" s="3" t="n">
@@ -11662,7 +11664,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="4" t="n">
+      <c r="A555" s="5" t="n">
         <v>41640</v>
       </c>
       <c r="B555" s="3" t="n">
@@ -11685,7 +11687,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="4" t="n">
+      <c r="A556" s="5" t="n">
         <v>41671</v>
       </c>
       <c r="B556" s="3" t="n">
@@ -11708,7 +11710,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="4" t="n">
+      <c r="A557" s="5" t="n">
         <v>41699</v>
       </c>
       <c r="B557" s="3" t="n">
@@ -11731,7 +11733,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="4" t="n">
+      <c r="A558" s="5" t="n">
         <v>41730</v>
       </c>
       <c r="B558" s="3" t="n">
@@ -11754,7 +11756,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="4" t="n">
+      <c r="A559" s="5" t="n">
         <v>41760</v>
       </c>
       <c r="B559" s="3" t="n">
@@ -11777,7 +11779,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="4" t="n">
+      <c r="A560" s="5" t="n">
         <v>41791</v>
       </c>
       <c r="B560" s="3" t="n">
@@ -11800,7 +11802,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="4" t="n">
+      <c r="A561" s="5" t="n">
         <v>41821</v>
       </c>
       <c r="B561" s="3" t="n">
@@ -11823,7 +11825,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="4" t="n">
+      <c r="A562" s="5" t="n">
         <v>41852</v>
       </c>
       <c r="B562" s="3" t="n">
@@ -11846,7 +11848,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="4" t="n">
+      <c r="A563" s="5" t="n">
         <v>41883</v>
       </c>
       <c r="B563" s="3" t="n">
@@ -11869,7 +11871,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="4" t="n">
+      <c r="A564" s="5" t="n">
         <v>41913</v>
       </c>
       <c r="B564" s="3" t="n">
@@ -11892,7 +11894,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="4" t="n">
+      <c r="A565" s="5" t="n">
         <v>41944</v>
       </c>
       <c r="B565" s="3" t="n">
@@ -11915,7 +11917,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="4" t="n">
+      <c r="A566" s="5" t="n">
         <v>41974</v>
       </c>
       <c r="B566" s="3" t="n">
@@ -11938,7 +11940,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="4" t="n">
+      <c r="A567" s="5" t="n">
         <v>42005</v>
       </c>
       <c r="B567" s="3" t="n">
@@ -11961,7 +11963,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="4" t="n">
+      <c r="A568" s="5" t="n">
         <v>42036</v>
       </c>
       <c r="B568" s="3" t="n">
@@ -11984,7 +11986,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="4" t="n">
+      <c r="A569" s="5" t="n">
         <v>42064</v>
       </c>
       <c r="B569" s="3" t="n">
@@ -12007,7 +12009,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="4" t="n">
+      <c r="A570" s="5" t="n">
         <v>42095</v>
       </c>
       <c r="B570" s="3" t="n">
@@ -12030,7 +12032,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="4" t="n">
+      <c r="A571" s="5" t="n">
         <v>42125</v>
       </c>
       <c r="B571" s="3" t="n">
@@ -12053,7 +12055,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="4" t="n">
+      <c r="A572" s="5" t="n">
         <v>42156</v>
       </c>
       <c r="B572" s="3" t="n">
@@ -12076,7 +12078,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="4" t="n">
+      <c r="A573" s="5" t="n">
         <v>42186</v>
       </c>
       <c r="B573" s="3" t="n">
@@ -12099,7 +12101,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="4" t="n">
+      <c r="A574" s="5" t="n">
         <v>42217</v>
       </c>
       <c r="B574" s="3" t="n">
@@ -12122,7 +12124,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="4" t="n">
+      <c r="A575" s="5" t="n">
         <v>42248</v>
       </c>
       <c r="B575" s="3" t="n">
@@ -12145,7 +12147,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="4" t="n">
+      <c r="A576" s="5" t="n">
         <v>42278</v>
       </c>
       <c r="B576" s="3" t="n">
@@ -12168,7 +12170,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="4" t="n">
+      <c r="A577" s="5" t="n">
         <v>42309</v>
       </c>
       <c r="B577" s="3" t="n">
@@ -12191,7 +12193,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="4" t="n">
+      <c r="A578" s="5" t="n">
         <v>42339</v>
       </c>
       <c r="B578" s="3" t="n">
@@ -12214,7 +12216,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="4" t="n">
+      <c r="A579" s="5" t="n">
         <v>42370</v>
       </c>
       <c r="B579" s="3" t="n">
@@ -12237,7 +12239,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="4" t="n">
+      <c r="A580" s="5" t="n">
         <v>42401</v>
       </c>
       <c r="B580" s="3" t="n">
@@ -12260,7 +12262,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="4" t="n">
+      <c r="A581" s="5" t="n">
         <v>42430</v>
       </c>
       <c r="B581" s="3" t="n">
@@ -12283,7 +12285,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="4" t="n">
+      <c r="A582" s="5" t="n">
         <v>42461</v>
       </c>
       <c r="B582" s="3" t="n">
@@ -12306,7 +12308,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="4" t="n">
+      <c r="A583" s="5" t="n">
         <v>42491</v>
       </c>
       <c r="B583" s="3" t="n">
@@ -12329,7 +12331,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="4" t="n">
+      <c r="A584" s="5" t="n">
         <v>42522</v>
       </c>
       <c r="B584" s="3" t="n">
@@ -12352,7 +12354,7 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="4" t="n">
+      <c r="A585" s="5" t="n">
         <v>42552</v>
       </c>
       <c r="B585" s="3" t="n">
@@ -12375,7 +12377,7 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="4" t="n">
+      <c r="A586" s="5" t="n">
         <v>42583</v>
       </c>
       <c r="B586" s="3" t="n">
@@ -12398,7 +12400,7 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="4" t="n">
+      <c r="A587" s="5" t="n">
         <v>42614</v>
       </c>
       <c r="B587" s="3" t="n">
@@ -12421,7 +12423,7 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="4" t="n">
+      <c r="A588" s="5" t="n">
         <v>42644</v>
       </c>
       <c r="B588" s="3" t="n">
@@ -12444,7 +12446,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="4" t="n">
+      <c r="A589" s="5" t="n">
         <v>42675</v>
       </c>
       <c r="B589" s="3" t="n">
@@ -12467,7 +12469,7 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="4" t="n">
+      <c r="A590" s="5" t="n">
         <v>42705</v>
       </c>
       <c r="B590" s="3" t="n">
@@ -12490,7 +12492,7 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="4" t="n">
+      <c r="A591" s="5" t="n">
         <v>42736</v>
       </c>
       <c r="B591" s="3" t="n">
@@ -12513,7 +12515,7 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="4" t="n">
+      <c r="A592" s="5" t="n">
         <v>42767</v>
       </c>
       <c r="B592" s="3" t="n">
@@ -12536,7 +12538,7 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="4" t="n">
+      <c r="A593" s="5" t="n">
         <v>42795</v>
       </c>
       <c r="B593" s="3" t="n">
@@ -12559,7 +12561,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="4" t="n">
+      <c r="A594" s="5" t="n">
         <v>42826</v>
       </c>
       <c r="B594" s="3" t="n">
@@ -12582,7 +12584,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="4" t="n">
+      <c r="A595" s="5" t="n">
         <v>42856</v>
       </c>
       <c r="B595" s="3" t="n">
@@ -12605,7 +12607,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="4" t="n">
+      <c r="A596" s="5" t="n">
         <v>42887</v>
       </c>
       <c r="B596" s="3" t="n">
@@ -12628,7 +12630,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="4" t="n">
+      <c r="A597" s="5" t="n">
         <v>42917</v>
       </c>
       <c r="B597" s="3" t="n">
@@ -12651,7 +12653,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="4" t="n">
+      <c r="A598" s="5" t="n">
         <v>42948</v>
       </c>
       <c r="B598" s="3" t="n">
@@ -12674,7 +12676,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="4" t="n">
+      <c r="A599" s="5" t="n">
         <v>42979</v>
       </c>
       <c r="B599" s="3" t="n">
@@ -12697,7 +12699,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="4" t="n">
+      <c r="A600" s="5" t="n">
         <v>43009</v>
       </c>
       <c r="B600" s="3" t="n">
@@ -12720,7 +12722,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="4" t="n">
+      <c r="A601" s="5" t="n">
         <v>43040</v>
       </c>
       <c r="B601" s="3" t="n">
@@ -12743,7 +12745,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="4" t="n">
+      <c r="A602" s="5" t="n">
         <v>43070</v>
       </c>
       <c r="B602" s="3" t="n">
@@ -12766,7 +12768,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="4" t="n">
+      <c r="A603" s="5" t="n">
         <v>43101</v>
       </c>
       <c r="B603" s="3" t="n">
@@ -12789,7 +12791,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="4" t="n">
+      <c r="A604" s="5" t="n">
         <v>43132</v>
       </c>
       <c r="B604" s="3" t="n">
@@ -12812,7 +12814,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="4" t="n">
+      <c r="A605" s="5" t="n">
         <v>43160</v>
       </c>
       <c r="B605" s="3" t="n">
@@ -12835,7 +12837,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="4" t="n">
+      <c r="A606" s="5" t="n">
         <v>43191</v>
       </c>
       <c r="B606" s="3" t="n">
@@ -12858,7 +12860,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="4" t="n">
+      <c r="A607" s="5" t="n">
         <v>43221</v>
       </c>
       <c r="B607" s="3" t="n">
@@ -12881,7 +12883,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="4" t="n">
+      <c r="A608" s="5" t="n">
         <v>43252</v>
       </c>
       <c r="B608" s="3" t="n">
@@ -12904,7 +12906,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="4" t="n">
+      <c r="A609" s="5" t="n">
         <v>43282</v>
       </c>
       <c r="B609" s="3" t="n">
@@ -12927,7 +12929,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="4" t="n">
+      <c r="A610" s="5" t="n">
         <v>43313</v>
       </c>
       <c r="B610" s="3" t="n">
@@ -12950,7 +12952,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="4" t="n">
+      <c r="A611" s="5" t="n">
         <v>43344</v>
       </c>
       <c r="B611" s="3" t="n">
@@ -12973,7 +12975,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="4" t="n">
+      <c r="A612" s="5" t="n">
         <v>43374</v>
       </c>
       <c r="B612" s="3" t="n">
@@ -12996,7 +12998,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="4" t="n">
+      <c r="A613" s="5" t="n">
         <v>43405</v>
       </c>
       <c r="B613" s="3" t="n">
@@ -13019,7 +13021,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="4" t="n">
+      <c r="A614" s="5" t="n">
         <v>43435</v>
       </c>
       <c r="B614" s="3" t="n">
@@ -13042,7 +13044,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="4" t="n">
+      <c r="A615" s="5" t="n">
         <v>43466</v>
       </c>
       <c r="B615" s="3" t="n">
@@ -13065,7 +13067,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="4" t="n">
+      <c r="A616" s="5" t="n">
         <v>43497</v>
       </c>
       <c r="B616" s="3" t="n">
@@ -13088,7 +13090,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="4" t="n">
+      <c r="A617" s="5" t="n">
         <v>43525</v>
       </c>
       <c r="B617" s="3" t="n">
@@ -13111,7 +13113,7 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="4" t="n">
+      <c r="A618" s="5" t="n">
         <v>43556</v>
       </c>
       <c r="B618" s="3" t="n">
@@ -13134,7 +13136,7 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="4" t="n">
+      <c r="A619" s="5" t="n">
         <v>43586</v>
       </c>
       <c r="B619" s="3" t="n">
@@ -13157,7 +13159,7 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="4" t="n">
+      <c r="A620" s="5" t="n">
         <v>43617</v>
       </c>
       <c r="B620" s="3" t="n">
@@ -13180,7 +13182,7 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="4" t="n">
+      <c r="A621" s="5" t="n">
         <v>43647</v>
       </c>
       <c r="B621" s="3" t="n">
@@ -13203,7 +13205,7 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="4" t="n">
+      <c r="A622" s="5" t="n">
         <v>43678</v>
       </c>
       <c r="B622" s="3" t="n">
@@ -13226,7 +13228,7 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="4" t="n">
+      <c r="A623" s="5" t="n">
         <v>43709</v>
       </c>
       <c r="B623" s="3" t="n">
@@ -13249,7 +13251,7 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="4" t="n">
+      <c r="A624" s="5" t="n">
         <v>43739</v>
       </c>
       <c r="B624" s="3" t="n">
@@ -13272,7 +13274,7 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="4" t="n">
+      <c r="A625" s="5" t="n">
         <v>43770</v>
       </c>
       <c r="B625" s="3" t="n">
@@ -13295,7 +13297,7 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="4" t="n">
+      <c r="A626" s="5" t="n">
         <v>43800</v>
       </c>
       <c r="B626" s="3" t="n">
@@ -13318,7 +13320,7 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="4" t="n">
+      <c r="A627" s="5" t="n">
         <v>43831</v>
       </c>
       <c r="B627" s="3" t="n">
@@ -13341,7 +13343,7 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="4" t="n">
+      <c r="A628" s="5" t="n">
         <v>43862</v>
       </c>
       <c r="B628" s="3" t="n">
@@ -13364,7 +13366,7 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="4" t="n">
+      <c r="A629" s="5" t="n">
         <v>43891</v>
       </c>
       <c r="B629" s="3" t="n">
@@ -13387,7 +13389,7 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="4" t="n">
+      <c r="A630" s="5" t="n">
         <v>43922</v>
       </c>
       <c r="B630" s="3" t="n">
@@ -13410,7 +13412,7 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="4" t="n">
+      <c r="A631" s="5" t="n">
         <v>43952</v>
       </c>
       <c r="B631" s="3" t="n">
@@ -13433,7 +13435,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="4" t="n">
+      <c r="A632" s="5" t="n">
         <v>43983</v>
       </c>
       <c r="B632" s="3" t="n">
@@ -13456,7 +13458,7 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="4" t="n">
+      <c r="A633" s="5" t="n">
         <v>44013</v>
       </c>
       <c r="B633" s="3" t="n">
@@ -13479,7 +13481,7 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="4" t="n">
+      <c r="A634" s="5" t="n">
         <v>44044</v>
       </c>
       <c r="B634" s="3" t="n">
@@ -13502,7 +13504,7 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="4" t="n">
+      <c r="A635" s="5" t="n">
         <v>44075</v>
       </c>
       <c r="B635" s="3" t="n">
@@ -13525,7 +13527,7 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="4" t="n">
+      <c r="A636" s="5" t="n">
         <v>44105</v>
       </c>
       <c r="B636" s="3" t="n">
@@ -13548,7 +13550,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="4" t="n">
+      <c r="A637" s="5" t="n">
         <v>44136</v>
       </c>
       <c r="B637" s="3" t="n">
@@ -13571,7 +13573,7 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="4" t="n">
+      <c r="A638" s="5" t="n">
         <v>44166</v>
       </c>
       <c r="B638" s="3" t="n">
@@ -13594,7 +13596,7 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="4" t="n">
+      <c r="A639" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="B639" s="3" t="n">
@@ -13617,7 +13619,7 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="4" t="n">
+      <c r="A640" s="5" t="n">
         <v>44228</v>
       </c>
       <c r="B640" s="3" t="n">
@@ -13640,7 +13642,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="4" t="n">
+      <c r="A641" s="5" t="n">
         <v>44256</v>
       </c>
       <c r="B641" s="3" t="n">
@@ -13663,7 +13665,7 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="4" t="n">
+      <c r="A642" s="5" t="n">
         <v>44287</v>
       </c>
       <c r="B642" s="3" t="n">
@@ -13686,7 +13688,7 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="4" t="n">
+      <c r="A643" s="5" t="n">
         <v>44317</v>
       </c>
       <c r="B643" s="3" t="n">
@@ -13709,13 +13711,27 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="4"/>
-      <c r="B644" s="3"/>
-      <c r="C644" s="3"/>
-      <c r="D644" s="3"/>
-      <c r="E644" s="3"/>
-      <c r="F644" s="3"/>
-      <c r="G644" s="3"/>
+      <c r="A644" s="5" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B644" s="3" t="n">
+        <v>113.018</v>
+      </c>
+      <c r="C644" s="3" t="n">
+        <v>114.016</v>
+      </c>
+      <c r="D644" s="3" t="n">
+        <v>113.902</v>
+      </c>
+      <c r="E644" s="3" t="n">
+        <v>5.87860562285116</v>
+      </c>
+      <c r="F644" s="3" t="n">
+        <v>6.50524978515115</v>
+      </c>
+      <c r="G644" s="3" t="n">
+        <v>7.29579773354561</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-junio 2021</t>
+    <t xml:space="preserve">enero 1969-julio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de agosto 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de septiembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13734,13 +13734,27 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="4"/>
-      <c r="B645" s="3"/>
-      <c r="C645" s="3"/>
-      <c r="D645" s="3"/>
-      <c r="E645" s="3"/>
-      <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
+      <c r="A645" s="5" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B645" s="3" t="n">
+        <v>113.682</v>
+      </c>
+      <c r="C645" s="3" t="n">
+        <v>114.381</v>
+      </c>
+      <c r="D645" s="3" t="n">
+        <v>114.825</v>
+      </c>
+      <c r="E645" s="3" t="n">
+        <v>5.80581512229628</v>
+      </c>
+      <c r="F645" s="3" t="n">
+        <v>6.48314512600425</v>
+      </c>
+      <c r="G645" s="3" t="n">
+        <v>7.46272847235872</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -54,19 +54,19 @@
     <t>Inflación anual Tepatitlán</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice Nacional de Precios al Consumidor</t>
+    <t xml:space="preserve">índice Nacional de Precios al Consumidor</t>
   </si>
   <si>
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-julio 2021</t>
+    <t xml:space="preserve">enero 1969-agosto 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de septiembre 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de octubre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13757,13 +13757,27 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="4"/>
-      <c r="B646" s="3"/>
-      <c r="C646" s="3"/>
-      <c r="D646" s="3"/>
-      <c r="E646" s="3"/>
-      <c r="F646" s="3"/>
-      <c r="G646" s="3"/>
+      <c r="A646" s="5" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B646" s="3" t="n">
+        <v>113.899</v>
+      </c>
+      <c r="C646" s="3" t="n">
+        <v>114.886</v>
+      </c>
+      <c r="D646" s="3" t="n">
+        <v>114.941</v>
+      </c>
+      <c r="E646" s="3" t="n">
+        <v>5.59207171794895</v>
+      </c>
+      <c r="F646" s="3" t="n">
+        <v>6.43111242866672</v>
+      </c>
+      <c r="G646" s="3" t="n">
+        <v>6.80859367740256</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-agosto 2021</t>
+    <t xml:space="preserve">enero 1969-septiembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de octubre 2021</t>
+    <t xml:space="preserve">Proxima fecha de actualización 9 de noviembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13780,13 +13780,27 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="4"/>
-      <c r="B647" s="3"/>
-      <c r="C647" s="3"/>
-      <c r="D647" s="3"/>
-      <c r="E647" s="3"/>
-      <c r="F647" s="3"/>
-      <c r="G647" s="3"/>
+      <c r="A647" s="5" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B647" s="3" t="n">
+        <v>114.601</v>
+      </c>
+      <c r="C647" s="3" t="n">
+        <v>115.61</v>
+      </c>
+      <c r="D647" s="3" t="n">
+        <v>115.378</v>
+      </c>
+      <c r="E647" s="3" t="n">
+        <v>6.00014799193442</v>
+      </c>
+      <c r="F647" s="3" t="n">
+        <v>6.65030765398844</v>
+      </c>
+      <c r="G647" s="3" t="n">
+        <v>7.22862453531599</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -13803,13 +13803,27 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="4"/>
-      <c r="B648" s="3"/>
-      <c r="C648" s="3"/>
-      <c r="D648" s="3"/>
-      <c r="E648" s="3"/>
-      <c r="F648" s="3"/>
-      <c r="G648" s="3"/>
+      <c r="A648" s="5" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B648" s="3" t="n">
+        <v>115.561</v>
+      </c>
+      <c r="C648" s="3" t="n">
+        <v>116.289</v>
+      </c>
+      <c r="D648" s="3" t="n">
+        <v>116.323</v>
+      </c>
+      <c r="E648" s="3" t="n">
+        <v>6.2395425377388</v>
+      </c>
+      <c r="F648" s="3" t="n">
+        <v>6.79983468797354</v>
+      </c>
+      <c r="G648" s="3" t="n">
+        <v>7.17655296957633</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -27,9 +27,6 @@
     <t>Periodicidad Mensual</t>
   </si>
   <si>
-    <t>Proxima fecha de actualización 9 de febrero 2021</t>
-  </si>
-  <si>
     <t>Fuente: INEGI, INPC</t>
   </si>
   <si>
@@ -54,19 +51,22 @@
     <t>Inflación anual Tepatitlán</t>
   </si>
   <si>
+    <t>Próxima fecha de actualización 9 de febrero 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">índice Nacional de Precios al Consumidor</t>
   </si>
   <si>
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-septiembre 2021</t>
+    <t xml:space="preserve">enero 1969-noviembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Proxima fecha de actualización 9 de noviembre 2021</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -485,7 +485,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -13826,13 +13826,27 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="4"/>
-      <c r="B649" s="3"/>
-      <c r="C649" s="3"/>
-      <c r="D649" s="3"/>
-      <c r="E649" s="3"/>
-      <c r="F649" s="3"/>
-      <c r="G649" s="3"/>
+      <c r="A649" s="5" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B649" s="3" t="n">
+        <v>116.884</v>
+      </c>
+      <c r="C649" s="3" t="n">
+        <v>116.854</v>
+      </c>
+      <c r="D649" s="3" t="n">
+        <v>117.282</v>
+      </c>
+      <c r="E649" s="3" t="n">
+        <v>7.37488057617404</v>
+      </c>
+      <c r="F649" s="3" t="n">
+        <v>7.41343334344464</v>
+      </c>
+      <c r="G649" s="3" t="n">
+        <v>8.24365482233502</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-diciembre 2021</t>
+    <t xml:space="preserve">enero 1969-enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2021</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13886,13 +13886,27 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="4"/>
-      <c r="B651" s="3"/>
-      <c r="C651" s="3"/>
-      <c r="D651" s="3"/>
-      <c r="E651" s="3"/>
-      <c r="F651" s="3"/>
-      <c r="G651" s="3"/>
+      <c r="A651" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B651" s="3" t="n">
+        <v>118.002</v>
+      </c>
+      <c r="C651" s="3" t="n">
+        <v>117.821</v>
+      </c>
+      <c r="D651" s="3" t="n">
+        <v>118.729</v>
+      </c>
+      <c r="E651" s="3" t="n">
+        <v>7.07013882587788</v>
+      </c>
+      <c r="F651" s="3" t="n">
+        <v>6.86033539820601</v>
+      </c>
+      <c r="G651" s="3" t="n">
+        <v>7.13969878267775</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-enero 2022</t>
+    <t xml:space="preserve">febrero 1969-febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13909,13 +13909,27 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="4"/>
-      <c r="B652" s="3"/>
-      <c r="C652" s="3"/>
-      <c r="D652" s="3"/>
-      <c r="E652" s="3"/>
-      <c r="F652" s="3"/>
-      <c r="G652" s="3"/>
+      <c r="A652" s="5" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B652" s="3" t="n">
+        <v>118.981</v>
+      </c>
+      <c r="C652" s="3" t="n">
+        <v>119.065</v>
+      </c>
+      <c r="D652" s="3" t="n">
+        <v>119.912</v>
+      </c>
+      <c r="E652" s="3" t="n">
+        <v>7.27997331097225</v>
+      </c>
+      <c r="F652" s="3" t="n">
+        <v>7.3373239817536</v>
+      </c>
+      <c r="G652" s="3" t="n">
+        <v>7.61774842044802</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 1969-febrero 2022</t>
+    <t xml:space="preserve">enero 1969-marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13932,13 +13932,27 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="4"/>
-      <c r="B653" s="3"/>
-      <c r="C653" s="3"/>
-      <c r="D653" s="3"/>
-      <c r="E653" s="3"/>
-      <c r="F653" s="3"/>
-      <c r="G653" s="3"/>
+      <c r="A653" s="5" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B653" s="3" t="n">
+        <v>120.159</v>
+      </c>
+      <c r="C653" s="3" t="n">
+        <v>120.323</v>
+      </c>
+      <c r="D653" s="3" t="n">
+        <v>121.344</v>
+      </c>
+      <c r="E653" s="3" t="n">
+        <v>7.45367720703964</v>
+      </c>
+      <c r="F653" s="3" t="n">
+        <v>7.64365399583107</v>
+      </c>
+      <c r="G653" s="3" t="n">
+        <v>8.18444420669733</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-marzo 2022</t>
+    <t xml:space="preserve">enero 1969-abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13955,13 +13955,27 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="4"/>
-      <c r="B654" s="3"/>
-      <c r="C654" s="3"/>
-      <c r="D654" s="3"/>
-      <c r="E654" s="3"/>
-      <c r="F654" s="3"/>
-      <c r="G654" s="3"/>
+      <c r="A654" s="5" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B654" s="3" t="n">
+        <v>120.809</v>
+      </c>
+      <c r="C654" s="3" t="n">
+        <v>121.176</v>
+      </c>
+      <c r="D654" s="3" t="n">
+        <v>123.338</v>
+      </c>
+      <c r="E654" s="3" t="n">
+        <v>7.68250289687138</v>
+      </c>
+      <c r="F654" s="3" t="n">
+        <v>7.78097982708934</v>
+      </c>
+      <c r="G654" s="3" t="n">
+        <v>9.62208475540387</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-abril 2022</t>
+    <t xml:space="preserve">enero 1969-mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -13978,13 +13978,27 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="4"/>
-      <c r="B655" s="3"/>
-      <c r="C655" s="3"/>
-      <c r="D655" s="3"/>
-      <c r="E655" s="3"/>
-      <c r="F655" s="3"/>
-      <c r="G655" s="3"/>
+      <c r="A655" s="5" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B655" s="3" t="n">
+        <v>121.022</v>
+      </c>
+      <c r="C655" s="3" t="n">
+        <v>121.646</v>
+      </c>
+      <c r="D655" s="3" t="n">
+        <v>123.672</v>
+      </c>
+      <c r="E655" s="3" t="n">
+        <v>7.65262099822985</v>
+      </c>
+      <c r="F655" s="3" t="n">
+        <v>7.31418993427726</v>
+      </c>
+      <c r="G655" s="3" t="n">
+        <v>9.11015827642792</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-mayo 2022</t>
+    <t xml:space="preserve">enero 1969-junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14001,13 +14001,27 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="4"/>
-      <c r="B656" s="3"/>
-      <c r="C656" s="3"/>
-      <c r="D656" s="3"/>
-      <c r="E656" s="3"/>
-      <c r="F656" s="3"/>
-      <c r="G656" s="3"/>
+      <c r="A656" s="5" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B656" s="3" t="n">
+        <v>122.044</v>
+      </c>
+      <c r="C656" s="3" t="n">
+        <v>122.735</v>
+      </c>
+      <c r="D656" s="3" t="n">
+        <v>125.381</v>
+      </c>
+      <c r="E656" s="3" t="n">
+        <v>7.98633845936045</v>
+      </c>
+      <c r="F656" s="3" t="n">
+        <v>7.64717232669099</v>
+      </c>
+      <c r="G656" s="3" t="n">
+        <v>10.0779617565978</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-junio 2022</t>
+    <t xml:space="preserve">enero 1969-julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14024,13 +14024,27 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="4"/>
-      <c r="B657" s="3"/>
-      <c r="C657" s="3"/>
-      <c r="D657" s="3"/>
-      <c r="E657" s="3"/>
-      <c r="F657" s="3"/>
-      <c r="G657" s="3"/>
+      <c r="A657" s="5" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B657" s="3" t="n">
+        <v>122.948</v>
+      </c>
+      <c r="C657" s="3" t="n">
+        <v>123.373</v>
+      </c>
+      <c r="D657" s="3" t="n">
+        <v>126.582</v>
+      </c>
+      <c r="E657" s="3" t="n">
+        <v>8.15080663605494</v>
+      </c>
+      <c r="F657" s="3" t="n">
+        <v>7.86144551979788</v>
+      </c>
+      <c r="G657" s="3" t="n">
+        <v>10.2390594382756</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-julio 2022</t>
+    <t xml:space="preserve">enero 1969-agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14047,13 +14047,27 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="4"/>
-      <c r="B658" s="3"/>
-      <c r="C658" s="3"/>
-      <c r="D658" s="3"/>
-      <c r="E658" s="3"/>
-      <c r="F658" s="3"/>
-      <c r="G658" s="3"/>
+      <c r="A658" s="5" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B658" s="3" t="n">
+        <v>123.803</v>
+      </c>
+      <c r="C658" s="3" t="n">
+        <v>124.163</v>
+      </c>
+      <c r="D658" s="3" t="n">
+        <v>126.296</v>
+      </c>
+      <c r="E658" s="3" t="n">
+        <v>8.69542313804335</v>
+      </c>
+      <c r="F658" s="3" t="n">
+        <v>8.0749612659506</v>
+      </c>
+      <c r="G658" s="3" t="n">
+        <v>9.87898139045249</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-agosto 2022</t>
+    <t xml:space="preserve">enero 1969-septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14070,13 +14070,27 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="4"/>
-      <c r="B659" s="3"/>
-      <c r="C659" s="3"/>
-      <c r="D659" s="3"/>
-      <c r="E659" s="3"/>
-      <c r="F659" s="3"/>
-      <c r="G659" s="3"/>
+      <c r="A659" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B659" s="3" t="n">
+        <v>124.571</v>
+      </c>
+      <c r="C659" s="3" t="n">
+        <v>124.766</v>
+      </c>
+      <c r="D659" s="3" t="n">
+        <v>127.105</v>
+      </c>
+      <c r="E659" s="3" t="n">
+        <v>8.69974956588511</v>
+      </c>
+      <c r="F659" s="3" t="n">
+        <v>7.91973012715164</v>
+      </c>
+      <c r="G659" s="3" t="n">
+        <v>10.1639827350101</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-septiembre 2022</t>
+    <t xml:space="preserve">enero 1969-octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14093,13 +14093,27 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="4"/>
-      <c r="B660" s="3"/>
-      <c r="C660" s="3"/>
-      <c r="D660" s="3"/>
-      <c r="E660" s="3"/>
-      <c r="F660" s="3"/>
-      <c r="G660" s="3"/>
+      <c r="A660" s="5" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B660" s="3" t="n">
+        <v>125.276</v>
+      </c>
+      <c r="C660" s="3" t="n">
+        <v>125.509</v>
+      </c>
+      <c r="D660" s="3" t="n">
+        <v>127.642</v>
+      </c>
+      <c r="E660" s="3" t="n">
+        <v>8.4068154481183</v>
+      </c>
+      <c r="F660" s="3" t="n">
+        <v>7.92852290414399</v>
+      </c>
+      <c r="G660" s="3" t="n">
+        <v>9.73066375523328</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-octubre 2022</t>
+    <t xml:space="preserve">enero 1969-noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 2022</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14116,13 +14116,27 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="4"/>
-      <c r="B661" s="3"/>
-      <c r="C661" s="3"/>
-      <c r="D661" s="3"/>
-      <c r="E661" s="3"/>
-      <c r="F661" s="3"/>
-      <c r="G661" s="3"/>
+      <c r="A661" s="5" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B661" s="3" t="n">
+        <v>125.997</v>
+      </c>
+      <c r="C661" s="3" t="n">
+        <v>125.881</v>
+      </c>
+      <c r="D661" s="3" t="n">
+        <v>127.888</v>
+      </c>
+      <c r="E661" s="3" t="n">
+        <v>7.79661886999077</v>
+      </c>
+      <c r="F661" s="3" t="n">
+        <v>7.72502438940901</v>
+      </c>
+      <c r="G661" s="3" t="n">
+        <v>9.04316092836071</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-noviembre 2022</t>
+    <t xml:space="preserve">enero 1969-diciembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14139,13 +14139,27 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="4"/>
-      <c r="B662" s="3"/>
-      <c r="C662" s="3"/>
-      <c r="D662" s="3"/>
-      <c r="E662" s="3"/>
-      <c r="F662" s="3"/>
-      <c r="G662" s="3"/>
+      <c r="A662" s="5" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B662" s="3" t="n">
+        <v>126.478</v>
+      </c>
+      <c r="C662" s="3" t="n">
+        <v>126.522</v>
+      </c>
+      <c r="D662" s="3" t="n">
+        <v>128.352</v>
+      </c>
+      <c r="E662" s="3" t="n">
+        <v>7.81702867664609</v>
+      </c>
+      <c r="F662" s="3" t="n">
+        <v>7.92261630584985</v>
+      </c>
+      <c r="G662" s="3" t="n">
+        <v>8.59618248273997</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-diciembre 2022</t>
+    <t xml:space="preserve">enero 1969-enero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14162,13 +14162,27 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="4"/>
-      <c r="B663" s="3"/>
-      <c r="C663" s="3"/>
-      <c r="D663" s="3"/>
-      <c r="E663" s="3"/>
-      <c r="F663" s="3"/>
-      <c r="G663" s="3"/>
+      <c r="A663" s="5" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B663" s="3" t="n">
+        <v>127.336</v>
+      </c>
+      <c r="C663" s="3" t="n">
+        <v>127.507</v>
+      </c>
+      <c r="D663" s="3" t="n">
+        <v>129.261</v>
+      </c>
+      <c r="E663" s="3" t="n">
+        <v>7.91003542312843</v>
+      </c>
+      <c r="F663" s="3" t="n">
+        <v>8.22094533232616</v>
+      </c>
+      <c r="G663" s="3" t="n">
+        <v>8.87062133093011</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-enero 2023</t>
+    <t xml:space="preserve">enero 1969-febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14185,13 +14185,27 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="4"/>
-      <c r="B664" s="3"/>
-      <c r="C664" s="3"/>
-      <c r="D664" s="3"/>
-      <c r="E664" s="3"/>
-      <c r="F664" s="3"/>
-      <c r="G664" s="3"/>
+      <c r="A664" s="5" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B664" s="3" t="n">
+        <v>128.046</v>
+      </c>
+      <c r="C664" s="3" t="n">
+        <v>128.443</v>
+      </c>
+      <c r="D664" s="3" t="n">
+        <v>129.884</v>
+      </c>
+      <c r="E664" s="3" t="n">
+        <v>7.61886351602357</v>
+      </c>
+      <c r="F664" s="3" t="n">
+        <v>7.87637004997273</v>
+      </c>
+      <c r="G664" s="3" t="n">
+        <v>8.31609847221293</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-febrero 2023</t>
+    <t xml:space="preserve">enero 1969-marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -14208,13 +14208,27 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="4"/>
-      <c r="B665" s="3"/>
-      <c r="C665" s="3"/>
-      <c r="D665" s="3"/>
-      <c r="E665" s="3"/>
-      <c r="F665" s="3"/>
-      <c r="G665" s="3"/>
+      <c r="A665" s="5" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B665" s="3" t="n">
+        <v>128.389</v>
+      </c>
+      <c r="C665" s="3" t="n">
+        <v>128.721</v>
+      </c>
+      <c r="D665" s="3" t="n">
+        <v>130.576</v>
+      </c>
+      <c r="E665" s="3" t="n">
+        <v>6.84925806639536</v>
+      </c>
+      <c r="F665" s="3" t="n">
+        <v>6.97954672007846</v>
+      </c>
+      <c r="G665" s="3" t="n">
+        <v>7.60812236286921</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-marzo 2023</t>
+    <t xml:space="preserve">enero 1969-abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14231,13 +14231,27 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="4"/>
-      <c r="B666" s="3"/>
-      <c r="C666" s="3"/>
-      <c r="D666" s="3"/>
-      <c r="E666" s="3"/>
-      <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
+      <c r="A666" s="5" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B666" s="3" t="n">
+        <v>128.363</v>
+      </c>
+      <c r="C666" s="3" t="n">
+        <v>128.915</v>
+      </c>
+      <c r="D666" s="3" t="n">
+        <v>131.148</v>
+      </c>
+      <c r="E666" s="3" t="n">
+        <v>6.25284540059101</v>
+      </c>
+      <c r="F666" s="3" t="n">
+        <v>6.38657820030368</v>
+      </c>
+      <c r="G666" s="3" t="n">
+        <v>6.33219283594675</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-abril 2023</t>
+    <t xml:space="preserve">enero 1969-mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14254,13 +14254,27 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="4"/>
-      <c r="B667" s="3"/>
-      <c r="C667" s="3"/>
-      <c r="D667" s="3"/>
-      <c r="E667" s="3"/>
-      <c r="F667" s="3"/>
-      <c r="G667" s="3"/>
+      <c r="A667" s="5" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B667" s="3" t="n">
+        <v>128.084</v>
+      </c>
+      <c r="C667" s="3" t="n">
+        <v>129.135</v>
+      </c>
+      <c r="D667" s="3" t="n">
+        <v>131.107</v>
+      </c>
+      <c r="E667" s="3" t="n">
+        <v>5.83530267224142</v>
+      </c>
+      <c r="F667" s="3" t="n">
+        <v>6.156388208408</v>
+      </c>
+      <c r="G667" s="3" t="n">
+        <v>6.01187010802768</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-mayo 2023</t>
+    <t xml:space="preserve">enero 1969-junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 2023</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14277,13 +14277,27 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="4"/>
-      <c r="B668" s="3"/>
-      <c r="C668" s="3"/>
-      <c r="D668" s="3"/>
-      <c r="E668" s="3"/>
-      <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
+      <c r="A668" s="5" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B668" s="3" t="n">
+        <v>128.214</v>
+      </c>
+      <c r="C668" s="3" t="n">
+        <v>129.527</v>
+      </c>
+      <c r="D668" s="3" t="n">
+        <v>131.47</v>
+      </c>
+      <c r="E668" s="3" t="n">
+        <v>5.05555373471862</v>
+      </c>
+      <c r="F668" s="3" t="n">
+        <v>5.53387379313153</v>
+      </c>
+      <c r="G668" s="3" t="n">
+        <v>4.85639769981097</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -595,12 +595,8 @@
         <v>0.012396113724463</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="n">
-        <v>-4.94172440225126</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>-4.81843861617645</v>
-      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16">
@@ -614,12 +610,8 @@
         <v>0.012406826930406</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="n">
-        <v>-4.58932345226293</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>-4.45543923886927</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17">
@@ -633,12 +625,8 @@
         <v>0.012393049758201</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="n">
-        <v>-4.77529814669509</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>-4.88667885011673</v>
-      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18">
@@ -652,12 +640,8 @@
         <v>0.012417540137108</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="n">
-        <v>-4.64026278618664</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>-4.62026055604894</v>
-      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19">
@@ -671,12 +655,8 @@
         <v>0.01244508914372</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="n">
-        <v>-4.84098962122232</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>-4.57692868482015</v>
-      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20">
@@ -690,12 +670,8 @@
         <v>0.012477234100865</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="n">
-        <v>-5.07905928263916</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>-5.35236486050226</v>
-      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21">
@@ -709,12 +685,8 @@
         <v>0.012478766083616</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="n">
-        <v>-5.18159873222916</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>-6.19031453276962</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22">
@@ -728,12 +700,8 @@
         <v>0.012573658294425</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="n">
-        <v>-5.51459145041627</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>-5.75888475594599</v>
-      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23">
@@ -747,12 +715,8 @@
         <v>0.012674678437759</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="n">
-        <v>-4.85816448470558</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>-5.07794573178915</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24">
@@ -766,12 +730,8 @@
         <v>0.012697636833155</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="n">
-        <v>-3.89207262369224</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>-4.40193160758986</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25">
@@ -785,12 +745,8 @@
         <v>0.012761921408128</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="n">
-        <v>-4.39649675260492</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>-4.22697703936314</v>
-      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26">
@@ -804,12 +760,8 @@
         <v>0.012928752772147</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="n">
-        <v>-4.48420320257781</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>-3.93496290877762</v>
-      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27">
@@ -824,10 +776,10 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="n">
-        <v>-4.69837232961371</v>
+        <v>5.19862618081017</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-3.71165226341552</v>
+        <v>5.06236559489279</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -843,10 +795,10 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="n">
-        <v>-5.10329410159105</v>
+        <v>4.81007327305423</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-4.66346848824442</v>
+        <v>4.6632055277414</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -862,10 +814,10 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="n">
-        <v>-5.18410214606797</v>
+        <v>5.01476828360305</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-4.77627730691157</v>
+        <v>5.13774389437638</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -881,10 +833,10 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="n">
-        <v>-5.54512359746041</v>
+        <v>4.86606079438154</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-5.64616213172063</v>
+        <v>4.84406917337405</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -900,10 +852,10 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="n">
-        <v>-5.54452974875824</v>
+        <v>5.08726352024145</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>-5.53218077252877</v>
+        <v>4.796459201887</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -919,10 +871,10 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="n">
-        <v>-5.39856501762636</v>
+        <v>5.35083116987083</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>-5.57993275052774</v>
+        <v>5.65504341721121</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -938,10 +890,10 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="n">
-        <v>-4.86357452681431</v>
+        <v>5.46476070356441</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>-4.11516236768505</v>
+        <v>6.59880107468436</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -957,10 +909,10 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="n">
-        <v>-5.28841233492517</v>
+        <v>5.83644769607188</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>-4.78425884279177</v>
+        <v>6.11079860529276</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -976,10 +928,10 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="n">
-        <v>-5.36897321955764</v>
+        <v>5.10623371768417</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>-4.77020024874616</v>
+        <v>5.34959527681624</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -995,10 +947,10 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="n">
-        <v>-5.42890322476894</v>
+        <v>4.04968947925903</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>-5.44781206458207</v>
+        <v>4.60462400717225</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -1014,10 +966,10 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="n">
-        <v>-5.07315618670023</v>
+        <v>4.59867745769527</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>-5.57482775038905</v>
+        <v>4.41353620121236</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -1033,10 +985,10 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="n">
-        <v>-4.72545172626013</v>
+        <v>4.6947241743565</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>-4.47582105700394</v>
+        <v>4.09614468273303</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -1052,10 +1004,10 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="n">
-        <v>-4.21053080061419</v>
+        <v>4.93000218827706</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>-3.92477886668118</v>
+        <v>3.85472629935397</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -1071,10 +1023,10 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="n">
-        <v>-4.11180383351107</v>
+        <v>5.37773577415253</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>-3.34525641901635</v>
+        <v>4.89158606286131</v>
       </c>
       <c r="G40" s="3"/>
     </row>
@@ -1090,10 +1042,10 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="n">
-        <v>-4.27053144606374</v>
+        <v>5.46754527817086</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>-3.62224138745004</v>
+        <v>5.01584812253748</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -1109,10 +1061,10 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="n">
-        <v>-4.38143030084767</v>
+        <v>5.8706588888314</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>-2.96015881356516</v>
+        <v>5.98403017755658</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -1128,10 +1080,10 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="n">
-        <v>-4.37260074053154</v>
+        <v>5.86999327197288</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>-2.78077656035866</v>
+        <v>5.85615378630442</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1147,10 +1099,10 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="n">
-        <v>-4.64455923406337</v>
+        <v>5.70664178469622</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>-2.08244735159102</v>
+        <v>5.90968944746111</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -1166,10 +1118,10 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="n">
-        <v>-5.07624854094336</v>
+        <v>5.1122107043901</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>-3.3070150195265</v>
+        <v>4.29177591504641</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -1185,10 +1137,10 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="n">
-        <v>-4.8355548771825</v>
+        <v>5.5837014934502</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>-3.76325558676651</v>
+        <v>5.02465116024524</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -1204,10 +1156,10 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="n">
-        <v>-4.95817416863156</v>
+        <v>5.67358656269727</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>-3.9123325543293</v>
+        <v>5.00914657093285</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -1223,10 +1175,10 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="n">
-        <v>-4.93391318863592</v>
+        <v>5.74055225104548</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>-3.79453547246262</v>
+        <v>5.76169857465709</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -1242,10 +1194,10 @@
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="n">
-        <v>-5.39430883912856</v>
+        <v>5.34427985057422</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>-3.73771645149571</v>
+        <v>5.90396354867335</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -1261,10 +1213,10 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="n">
-        <v>-5.26369770905835</v>
+        <v>4.95982590511279</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>-4.24424392477469</v>
+        <v>4.68553732314714</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1280,10 +1232,10 @@
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="n">
-        <v>-6.20591542867056</v>
+        <v>4.39560928336491</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>-6.38166534985171</v>
+        <v>4.08511041700852</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -1299,10 +1251,10 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="n">
-        <v>-6.68465254695614</v>
+        <v>4.28812304110073</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>-7.25295256255265</v>
+        <v>3.46103698078044</v>
       </c>
       <c r="G52" s="3"/>
     </row>
@@ -1318,10 +1270,10 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="n">
-        <v>-6.99286072668986</v>
+        <v>4.4610416317705</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>-7.04478361268106</v>
+        <v>3.75837894509654</v>
       </c>
       <c r="G53" s="3"/>
     </row>
@@ -1337,10 +1289,10 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="n">
-        <v>-7.86854654530815</v>
+        <v>4.58219602597392</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>-7.94691573587484</v>
+        <v>3.05045719095731</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -1356,10 +1308,10 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="n">
-        <v>-8.65414150288938</v>
+        <v>4.57253964281434</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>-8.56409105667494</v>
+        <v>2.86031554457447</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -1375,10 +1327,10 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="n">
-        <v>-8.72727498624378</v>
+        <v>4.87078576403845</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>-8.52314872182395</v>
+        <v>2.12673549865816</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -1394,10 +1346,10 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="n">
-        <v>-10.6736139066547</v>
+        <v>5.3477116769167</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>-10.7408096139985</v>
+        <v>3.42011886404618</v>
       </c>
       <c r="G57" s="3"/>
     </row>
@@ -1413,10 +1365,10 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="n">
-        <v>-11.5059624386037</v>
+        <v>5.08126209420106</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>-11.6631296932736</v>
+        <v>3.91041447807852</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -1432,10 +1384,10 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="n">
-        <v>-13.1670939875548</v>
+        <v>5.21683387841136</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>-13.0030209972884</v>
+        <v>4.07162818947748</v>
       </c>
       <c r="G59" s="3"/>
     </row>
@@ -1451,10 +1403,10 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="n">
-        <v>-14.2047563268172</v>
+        <v>5.18998241552331</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>-14.5237932311194</v>
+        <v>3.94419952244656</v>
       </c>
       <c r="G60" s="3"/>
     </row>
@@ -1470,10 +1422,10 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="n">
-        <v>-14.696900273457</v>
+        <v>5.70188618986553</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>-15.0133080076646</v>
+        <v>3.88284623396904</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -1489,10 +1441,10 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="n">
-        <v>-17.6084005973449</v>
+        <v>5.55615701876686</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>-17.6616608543309</v>
+        <v>4.43236427629523</v>
       </c>
       <c r="G62" s="3"/>
     </row>
@@ -1508,10 +1460,10 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="n">
-        <v>-19.3008137312784</v>
+        <v>6.61653179625739</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>-19.9136020497807</v>
+        <v>6.81668326370042</v>
       </c>
       <c r="G63" s="3"/>
     </row>
@@ -1527,10 +1479,10 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="n">
-        <v>-20.4324901085995</v>
+        <v>7.16350817888756</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>-19.9241841326463</v>
+        <v>7.82014388915653</v>
       </c>
       <c r="G64" s="3"/>
     </row>
@@ -1546,10 +1498,10 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="n">
-        <v>-20.3471443803396</v>
+        <v>7.51862790461784</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>-19.8795674935817</v>
+        <v>7.57868561493888</v>
       </c>
       <c r="G65" s="3"/>
     </row>
@@ -1565,10 +1517,10 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="n">
-        <v>-20.1681295612088</v>
+        <v>8.54056486710886</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>-19.8602273984965</v>
+        <v>8.63297063797774</v>
       </c>
       <c r="G66" s="3"/>
     </row>
@@ -1584,10 +1536,10 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="n">
-        <v>-19.9490273537253</v>
+        <v>9.47403817236345</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>-19.8182626392072</v>
+        <v>9.36622291575102</v>
       </c>
       <c r="G67" s="3"/>
     </row>
@@ -1603,10 +1555,10 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="n">
-        <v>-20.0826118678862</v>
+        <v>9.56175569966651</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>-20.1442923366596</v>
+        <v>9.31727382691117</v>
       </c>
       <c r="G68" s="3"/>
     </row>
@@ -1622,10 +1574,10 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="n">
-        <v>-19.200912366315</v>
+        <v>11.9490045141879</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>-18.4120574497407</v>
+        <v>12.0332814666477</v>
       </c>
       <c r="G69" s="3"/>
     </row>
@@ -1641,10 +1593,10 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="n">
-        <v>-18.7616631268194</v>
+        <v>13.0019634719695</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>-16.8802002719981</v>
+        <v>13.2030143843408</v>
       </c>
       <c r="G70" s="3"/>
     </row>
@@ -1660,10 +1612,10 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="n">
-        <v>-17.7620625528421</v>
+        <v>15.1637145319859</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>-15.7518244643114</v>
+        <v>14.9465201508699</v>
       </c>
       <c r="G71" s="3"/>
     </row>
@@ -1679,10 +1631,10 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="n">
-        <v>-18.3277827920986</v>
+        <v>16.5565778691962</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>-15.5173824722599</v>
+        <v>16.9916211541655</v>
       </c>
       <c r="G72" s="3"/>
     </row>
@@ -1698,10 +1650,10 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="n">
-        <v>-19.5566418754829</v>
+        <v>17.2290342561654</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>-17.3268975731369</v>
+        <v>17.6654810955798</v>
       </c>
       <c r="G73" s="3"/>
     </row>
@@ -1717,10 +1669,10 @@
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="n">
-        <v>-17.0798268302086</v>
+        <v>21.371597013539</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>-14.4249985541168</v>
+        <v>21.450105792254</v>
       </c>
       <c r="G74" s="3"/>
     </row>
@@ -1736,10 +1688,10 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="n">
-        <v>-15.1958208952817</v>
+        <v>23.9169868045612</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>-11.3903822270905</v>
+        <v>24.8651488385815</v>
       </c>
       <c r="G75" s="3"/>
     </row>
@@ -1755,10 +1707,10 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="n">
-        <v>-13.7548026138395</v>
+        <v>25.6794389273803</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>-11.3866982789839</v>
+        <v>24.8816498674842</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -1774,10 +1726,10 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="n">
-        <v>-13.6344876487666</v>
+        <v>25.5447770479146</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>-11.9974678261036</v>
+        <v>24.8121070639367</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -1793,10 +1745,10 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="n">
-        <v>-13.1959427185981</v>
+        <v>25.263255702711</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>-11.8754417390607</v>
+        <v>24.7819862145752</v>
       </c>
       <c r="G78" s="3"/>
     </row>
@@ -1812,10 +1764,10 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="n">
-        <v>-13.6684798522158</v>
+        <v>24.9204059541851</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>-13.0300261692933</v>
+        <v>24.7166789988987</v>
       </c>
       <c r="G79" s="3"/>
     </row>
@@ -1831,10 +1783,10 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="n">
-        <v>-14.2725901439501</v>
+        <v>25.1292144766882</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>-12.7104602764332</v>
+        <v>25.2258641568677</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -1850,10 +1802,10 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="n">
-        <v>-13.7235700954873</v>
+        <v>23.7637737363635</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>-12.5424774620221</v>
+        <v>22.5671304781323</v>
       </c>
       <c r="G81" s="3"/>
     </row>
@@ -1869,10 +1821,10 @@
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="n">
-        <v>-13.5607391247276</v>
+        <v>23.0945928350402</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>-12.5067563848672</v>
+        <v>20.3082783250637</v>
       </c>
       <c r="G82" s="3"/>
     </row>
@@ -1888,10 +1840,10 @@
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="n">
-        <v>-13.212964438078</v>
+        <v>21.5983803877075</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>-12.4335420765015</v>
+        <v>18.6969324429331</v>
       </c>
       <c r="G83" s="3"/>
     </row>
@@ -1907,10 +1859,10 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="n">
-        <v>-11.9419232549368</v>
+        <v>22.4406578132245</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>-11.5433401850448</v>
+        <v>18.3675446220221</v>
       </c>
       <c r="G84" s="3"/>
     </row>
@@ -1926,10 +1878,10 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="n">
-        <v>-10.1258696297902</v>
+        <v>24.3110709590361</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>-8.90135818764992</v>
+        <v>20.9583250954749</v>
       </c>
       <c r="G85" s="3"/>
     </row>
@@ -1945,10 +1897,10 @@
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="n">
-        <v>-10.1568331184913</v>
+        <v>20.5979150516668</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>-9.52916724632522</v>
+        <v>16.8565565999307</v>
       </c>
       <c r="G86" s="3"/>
     </row>
@@ -1964,10 +1916,10 @@
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="n">
-        <v>-10.7336216977387</v>
+        <v>17.9187170440239</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>-11.5618031341647</v>
+        <v>12.8545664831577</v>
       </c>
       <c r="G87" s="3"/>
     </row>
@@ -1983,10 +1935,10 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="n">
-        <v>-11.8898088048303</v>
+        <v>15.9484852846388</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>-11.2196971284509</v>
+        <v>12.849874745479</v>
       </c>
       <c r="G88" s="3"/>
     </row>
@@ -2002,10 +1954,10 @@
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="n">
-        <v>-12.1933720864482</v>
+        <v>15.786958564337</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>-10.981825535909</v>
+        <v>13.6330938777945</v>
       </c>
       <c r="G89" s="3"/>
     </row>
@@ -2021,10 +1973,10 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="n">
-        <v>-12.0670249695378</v>
+        <v>15.2019883999425</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>-11.374336542493</v>
+        <v>13.4757461182355</v>
       </c>
       <c r="G90" s="3"/>
     </row>
@@ -2040,10 +1992,10 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="n">
-        <v>-11.5110011220814</v>
+        <v>15.832548562585</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>-10.0790955077717</v>
+        <v>14.9822123606214</v>
       </c>
       <c r="G91" s="3"/>
     </row>
@@ -2059,10 +2011,10 @@
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="n">
-        <v>-10.3661056159103</v>
+        <v>16.6488059862255</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>-9.7981142737709</v>
+        <v>14.5612639460414</v>
       </c>
       <c r="G92" s="3"/>
     </row>
@@ -2078,10 +2030,10 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="n">
-        <v>-10.4073252876563</v>
+        <v>15.9065113272257</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>-9.30490098074714</v>
+        <v>14.3412219990288</v>
       </c>
       <c r="G93" s="3"/>
     </row>
@@ -2097,10 +2049,10 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="n">
-        <v>-10.4877204197409</v>
+        <v>15.688171078065</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>-9.55289661733157</v>
+        <v>14.2945396331198</v>
       </c>
       <c r="G94" s="3"/>
     </row>
@@ -2116,10 +2068,10 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="n">
-        <v>-12.8097900564107</v>
+        <v>15.2245832024654</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>-14.8564139919967</v>
+        <v>14.198977977805</v>
       </c>
       <c r="G95" s="3"/>
     </row>
@@ -2135,10 +2087,10 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="n">
-        <v>-17.0356678355155</v>
+        <v>13.5614173013452</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>-21.1165842144636</v>
+        <v>13.0497129432568</v>
       </c>
       <c r="G96" s="3"/>
     </row>
@@ -2154,10 +2106,10 @@
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="n">
-        <v>-20.0657151558815</v>
+        <v>11.266723347508</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>-23.7697306179284</v>
+        <v>9.77112063425207</v>
       </c>
       <c r="G97" s="3"/>
     </row>
@@ -2173,10 +2125,10 @@
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="n">
-        <v>-21.3848810016389</v>
+        <v>11.3050702363229</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>-24.8067816150316</v>
+        <v>10.5328612065176</v>
       </c>
       <c r="G98" s="3"/>
     </row>
@@ -2192,10 +2144,10 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="n">
-        <v>-22.3401256230646</v>
+        <v>12.0242603115297</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>-23.8088303229814</v>
+        <v>13.0733139569823</v>
       </c>
       <c r="G99" s="3"/>
     </row>
@@ -2211,10 +2163,10 @@
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="n">
-        <v>-22.5963362024023</v>
+        <v>13.494249238994</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>-24.4619120964491</v>
+        <v>12.6375972660107</v>
       </c>
       <c r="G100" s="3"/>
     </row>
@@ -2230,10 +2182,10 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="n">
-        <v>-23.178751582592</v>
+        <v>13.8866192406944</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>-24.692115461404</v>
+        <v>12.336610587694</v>
       </c>
       <c r="G101" s="3"/>
     </row>
@@ -2249,10 +2201,10 @@
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="n">
-        <v>-23.7933575084402</v>
+        <v>13.7229804465929</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>-24.6295610104341</v>
+        <v>12.8341341534178</v>
       </c>
       <c r="G102" s="3"/>
     </row>
@@ -2268,10 +2220,10 @@
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="n">
-        <v>-23.9272866536741</v>
+        <v>13.0083979568605</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>-24.601628294381</v>
+        <v>11.2088457791734</v>
       </c>
       <c r="G103" s="3"/>
     </row>
@@ -2287,10 +2239,10 @@
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="n">
-        <v>-24.5466252622688</v>
+        <v>11.5649394541429</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>-25.2699158806884</v>
+        <v>10.8624273149999</v>
       </c>
       <c r="G104" s="3"/>
     </row>
@@ -2306,10 +2258,10 @@
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="n">
-        <v>-24.7588614252833</v>
+        <v>11.6162680945415</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>-25.9096907586182</v>
+        <v>10.2595411233543</v>
       </c>
       <c r="G105" s="3"/>
     </row>
@@ -2325,10 +2277,10 @@
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="n">
-        <v>-25.5671141323288</v>
+        <v>11.7165158444405</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>-26.8225083718339</v>
+        <v>10.5618602034326</v>
       </c>
       <c r="G106" s="3"/>
     </row>
@@ -2344,10 +2296,10 @@
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="n">
-        <v>-24.3699631497099</v>
+        <v>14.6917756760746</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>-23.7289572336937</v>
+        <v>17.4486590106743</v>
       </c>
       <c r="G107" s="3"/>
     </row>
@@ -2363,10 +2315,10 @@
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="n">
-        <v>-20.716386086065</v>
+        <v>20.5337250250393</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>-17.5571497776125</v>
+        <v>26.7693583045061</v>
       </c>
       <c r="G108" s="3"/>
     </row>
@@ -2382,10 +2334,10 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="n">
-        <v>-18.0307490704637</v>
+        <v>25.1027643457524</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>-15.5299315449381</v>
+        <v>31.1814857937767</v>
       </c>
       <c r="G109" s="3"/>
     </row>
@@ -2401,10 +2353,10 @@
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="n">
-        <v>-17.1224247366894</v>
+        <v>27.2019953338551</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>-16.2385655326959</v>
+        <v>32.9907166468494</v>
       </c>
       <c r="G110" s="3"/>
     </row>
@@ -2420,10 +2372,10 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="n">
-        <v>-16.3421120444119</v>
+        <v>28.7666260115655</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>-16.4586319669039</v>
+        <v>31.2488053719469</v>
       </c>
       <c r="G111" s="3"/>
     </row>
@@ -2439,10 +2391,10 @@
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="n">
-        <v>-15.7048252864021</v>
+        <v>29.1928509501685</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>-16.4021809562285</v>
+        <v>32.3835468640439</v>
       </c>
       <c r="G112" s="3"/>
     </row>
@@ -2458,10 +2410,10 @@
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="n">
-        <v>-15.1178173605393</v>
+        <v>30.1723182844548</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>-16.2554581709749</v>
+        <v>32.7882207987785</v>
       </c>
       <c r="G113" s="3"/>
     </row>
@@ -2477,10 +2429,10 @@
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="n">
-        <v>-14.7818042721032</v>
+        <v>31.2221569282171</v>
       </c>
       <c r="F114" s="3" t="n">
-        <v>-15.7158560190564</v>
+        <v>32.6780118845318</v>
       </c>
       <c r="G114" s="3"/>
     </row>
@@ -2496,10 +2448,10 @@
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="n">
-        <v>-14.8676034560398</v>
+        <v>31.4531789404482</v>
       </c>
       <c r="F115" s="3" t="n">
-        <v>-16.229497998882</v>
+        <v>32.6288588703667</v>
       </c>
       <c r="G115" s="3"/>
     </row>
@@ -2515,10 +2467,10 @@
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="n">
-        <v>-14.9937843203599</v>
+        <v>32.5321767881033</v>
       </c>
       <c r="F116" s="3" t="n">
-        <v>-16.5582276503288</v>
+        <v>33.8149169487663</v>
       </c>
       <c r="G116" s="3"/>
     </row>
@@ -2534,10 +2486,10 @@
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="n">
-        <v>-15.4664368416133</v>
+        <v>32.9060164350079</v>
       </c>
       <c r="F117" s="3" t="n">
-        <v>-16.9523001512737</v>
+        <v>34.9704178912332</v>
       </c>
       <c r="G117" s="3"/>
     </row>
@@ -2553,10 +2505,10 @@
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="n">
-        <v>-14.5834906359717</v>
+        <v>34.3492178682722</v>
       </c>
       <c r="F118" s="3" t="n">
-        <v>-15.2762573403633</v>
+        <v>36.6540418030807</v>
       </c>
       <c r="G118" s="3"/>
     </row>
@@ -2572,10 +2524,10 @@
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="n">
-        <v>-14.0488334253768</v>
+        <v>32.2225985397182</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>-14.8678846498514</v>
+        <v>31.111358089595</v>
       </c>
       <c r="G119" s="3"/>
     </row>
@@ -2591,10 +2543,10 @@
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="n">
-        <v>-14.4291050839792</v>
+        <v>26.1294674439959</v>
       </c>
       <c r="F120" s="3" t="n">
-        <v>-16.0359695914946</v>
+        <v>21.2961460335887</v>
       </c>
       <c r="G120" s="3"/>
     </row>
@@ -2610,10 +2562,10 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="n">
-        <v>-14.3744220186461</v>
+        <v>21.9969669918829</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>-15.5682289593192</v>
+        <v>18.3851295837412</v>
       </c>
       <c r="G121" s="3"/>
     </row>
@@ -2629,10 +2581,10 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="n">
-        <v>-13.9192849583243</v>
+        <v>20.6599006815652</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>-13.4256657780514</v>
+        <v>19.3866850967488</v>
       </c>
       <c r="G122" s="3"/>
     </row>
@@ -2648,10 +2600,10 @@
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="n">
-        <v>-15.0220830732876</v>
+        <v>19.5344544833448</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>-11.9311065773423</v>
+        <v>19.7011760214216</v>
       </c>
       <c r="G123" s="3"/>
     </row>
@@ -2667,10 +2619,10 @@
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="n">
-        <v>-15.0236111011083</v>
+        <v>18.6307524004322</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>-12.9290901887345</v>
+        <v>19.6203455351393</v>
       </c>
       <c r="G124" s="3"/>
     </row>
@@ -2686,10 +2638,10 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="n">
-        <v>-15.2885191209941</v>
+        <v>17.8103541761558</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>-13.1031161580415</v>
+        <v>19.4107673359327</v>
       </c>
       <c r="G125" s="3"/>
     </row>
@@ -2705,10 +2657,10 @@
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="n">
-        <v>-15.1069413127219</v>
+        <v>17.3458310702819</v>
       </c>
       <c r="F126" s="3" t="n">
-        <v>-13.4263796565263</v>
+        <v>18.646278263928</v>
       </c>
       <c r="G126" s="3"/>
     </row>
@@ -2724,10 +2676,10 @@
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="n">
-        <v>-15.3836269531674</v>
+        <v>17.464095995891</v>
       </c>
       <c r="F127" s="3" t="n">
-        <v>-14.1866679869058</v>
+        <v>19.3737623760037</v>
       </c>
       <c r="G127" s="3"/>
     </row>
@@ -2743,10 +2695,10 @@
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="n">
-        <v>-15.1605287177881</v>
+        <v>17.6384564357817</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>-13.9937592070766</v>
+        <v>19.844050748275</v>
       </c>
       <c r="G128" s="3"/>
     </row>
@@ -2762,10 +2714,10 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="n">
-        <v>-14.7546629822864</v>
+        <v>18.2962083505632</v>
       </c>
       <c r="F129" s="3" t="n">
-        <v>-13.4063545296199</v>
+        <v>20.4127268812415</v>
       </c>
       <c r="G129" s="3"/>
     </row>
@@ -2781,10 +2733,10 @@
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="n">
-        <v>-15.1882931788237</v>
+        <v>17.073386333103</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>-14.1782696273646</v>
+        <v>18.0306686895703</v>
       </c>
       <c r="G130" s="3"/>
     </row>
@@ -2800,10 +2752,10 @@
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="n">
-        <v>-15.259499300583</v>
+        <v>16.3451340863181</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>-13.6984148574876</v>
+        <v>17.4644839831594</v>
       </c>
       <c r="G131" s="3"/>
     </row>
@@ -2819,10 +2771,10 @@
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="n">
-        <v>-15.7047034915091</v>
+        <v>16.8621645223413</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>-14.5489570747381</v>
+        <v>19.0986181981448</v>
       </c>
       <c r="G132" s="3"/>
     </row>
@@ -2838,10 +2790,10 @@
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="n">
-        <v>-15.9198103566323</v>
+        <v>16.7875328348456</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>-15.3987604580523</v>
+        <v>18.4388279049815</v>
       </c>
       <c r="G133" s="3"/>
     </row>
@@ -2857,10 +2809,10 @@
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="n">
-        <v>-16.6808361774029</v>
+        <v>16.1700387265432</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>-16.4175819751645</v>
+        <v>15.5076742994434</v>
       </c>
       <c r="G134" s="3"/>
     </row>
@@ -2876,10 +2828,10 @@
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="n">
-        <v>-17.733554080336</v>
+        <v>17.6776315736748</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>-19.2448133743881</v>
+        <v>13.5474696157279</v>
       </c>
       <c r="G135" s="3"/>
     </row>
@@ -2895,10 +2847,10 @@
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="n">
-        <v>-18.4366567782425</v>
+        <v>17.6797476284665</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>-19.0437647749713</v>
+        <v>14.8489205140494</v>
       </c>
       <c r="G136" s="3"/>
     </row>
@@ -2914,10 +2866,10 @@
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="n">
-        <v>-18.9966338391133</v>
+        <v>18.0477533415227</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>-19.2393697788657</v>
+        <v>15.0789252487724</v>
       </c>
       <c r="G137" s="3"/>
     </row>
@@ -2933,10 +2885,10 @@
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="n">
-        <v>-19.6753253895632</v>
+        <v>17.7952609392619</v>
       </c>
       <c r="F138" s="3" t="n">
-        <v>-20.375445935774</v>
+        <v>15.5086267655877</v>
       </c>
       <c r="G138" s="3"/>
     </row>
@@ -2952,10 +2904,10 @@
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="n">
-        <v>-19.9290642352899</v>
+        <v>18.1804376614595</v>
       </c>
       <c r="F139" s="3" t="n">
-        <v>-20.0120589582442</v>
+        <v>16.5320092508948</v>
       </c>
       <c r="G139" s="3"/>
     </row>
@@ -2971,10 +2923,10 @@
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="n">
-        <v>-20.6153380373508</v>
+        <v>17.8696643067915</v>
       </c>
       <c r="F140" s="3" t="n">
-        <v>-20.5807900389655</v>
+        <v>16.2706323146588</v>
       </c>
       <c r="G140" s="3"/>
     </row>
@@ -2990,10 +2942,10 @@
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="n">
-        <v>-21.8358761172832</v>
+        <v>17.3084692940102</v>
       </c>
       <c r="F141" s="3" t="n">
-        <v>-22.1242634362822</v>
+        <v>15.4819149335913</v>
       </c>
       <c r="G141" s="3"/>
     </row>
@@ -3009,10 +2961,10 @@
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="n">
-        <v>-22.2636184378738</v>
+        <v>17.9082508159491</v>
       </c>
       <c r="F142" s="3" t="n">
-        <v>-22.7726927012684</v>
+        <v>16.520605638925</v>
       </c>
       <c r="G142" s="3"/>
     </row>
@@ -3028,10 +2980,10 @@
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="n">
-        <v>-22.1746336693299</v>
+        <v>18.0073272810955</v>
       </c>
       <c r="F143" s="3" t="n">
-        <v>-22.5932678375966</v>
+        <v>15.8727268275165</v>
       </c>
       <c r="G143" s="3"/>
     </row>
@@ -3047,10 +2999,10 @@
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="n">
-        <v>-21.9969774121365</v>
+        <v>18.630580995616</v>
       </c>
       <c r="F144" s="3" t="n">
-        <v>-21.6384337565572</v>
+        <v>17.0260731486484</v>
       </c>
       <c r="G144" s="3"/>
     </row>
@@ -3066,10 +3018,10 @@
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="n">
-        <v>-22.3401296957151</v>
+        <v>18.934079982642</v>
       </c>
       <c r="F145" s="3" t="n">
-        <v>-22.1360898656136</v>
+        <v>18.2015778272577</v>
       </c>
       <c r="G145" s="3"/>
     </row>
@@ -3085,10 +3037,10 @@
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="n">
-        <v>-22.9860949243426</v>
+        <v>20.0204075654427</v>
       </c>
       <c r="F146" s="3" t="n">
-        <v>-22.9662623906525</v>
+        <v>19.6423869554554</v>
       </c>
       <c r="G146" s="3"/>
     </row>
@@ -3104,10 +3056,10 @@
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="n">
-        <v>-21.7524447586517</v>
+        <v>21.5562418943605</v>
       </c>
       <c r="F147" s="3" t="n">
-        <v>-22.719736056031</v>
+        <v>23.8310555377808</v>
       </c>
       <c r="G147" s="3"/>
     </row>
@@ -3123,10 +3075,10 @@
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="n">
-        <v>-21.8628605233852</v>
+        <v>22.6040964604849</v>
       </c>
       <c r="F148" s="3" t="n">
-        <v>-23.1606870388952</v>
+        <v>23.5235306113688</v>
       </c>
       <c r="G148" s="3"/>
     </row>
@@ -3142,10 +3094,10 @@
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="n">
-        <v>-21.9254192581551</v>
+        <v>23.451659775944</v>
       </c>
       <c r="F149" s="3" t="n">
-        <v>-23.6103325092659</v>
+        <v>23.8227088201089</v>
       </c>
       <c r="G149" s="3"/>
     </row>
@@ -3161,10 +3113,10 @@
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="n">
-        <v>-22.3126152726186</v>
+        <v>24.4947464586514</v>
       </c>
       <c r="F150" s="3" t="n">
-        <v>-22.9409839554608</v>
+        <v>25.5894003743355</v>
       </c>
       <c r="G150" s="3"/>
     </row>
@@ -3180,10 +3132,10 @@
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="n">
-        <v>-22.221769968908</v>
+        <v>24.8892610595332</v>
       </c>
       <c r="F151" s="3" t="n">
-        <v>-22.9840703700869</v>
+        <v>25.0188449628892</v>
       </c>
       <c r="G151" s="3"/>
     </row>
@@ -3199,10 +3151,10 @@
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="n">
-        <v>-21.7725416303018</v>
+        <v>25.9689183372103</v>
       </c>
       <c r="F152" s="3" t="n">
-        <v>-22.4483185848518</v>
+        <v>25.9141208393575</v>
       </c>
       <c r="G152" s="3"/>
     </row>
@@ -3218,10 +3170,10 @@
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="n">
-        <v>-20.9800150344228</v>
+        <v>27.9359315151377</v>
       </c>
       <c r="F153" s="3" t="n">
-        <v>-21.6905758777353</v>
+        <v>28.4097003925994</v>
       </c>
       <c r="G153" s="3"/>
     </row>
@@ -3237,10 +3189,10 @@
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="n">
-        <v>-20.9713227827111</v>
+        <v>28.6398954909946</v>
       </c>
       <c r="F154" s="3" t="n">
-        <v>-21.8219451412841</v>
+        <v>29.4878761124984</v>
       </c>
       <c r="G154" s="3"/>
     </row>
@@ -3256,10 +3208,10 @@
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="n">
-        <v>-21.5531293018342</v>
+        <v>28.4928098829792</v>
       </c>
       <c r="F155" s="3" t="n">
-        <v>-22.515033574487</v>
+        <v>29.1877298090749</v>
       </c>
       <c r="G155" s="3"/>
     </row>
@@ -3275,10 +3227,10 @@
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="n">
-        <v>-22.0934751662577</v>
+        <v>28.2001603045047</v>
       </c>
       <c r="F156" s="3" t="n">
-        <v>-23.052594206695</v>
+        <v>27.6135799651247</v>
       </c>
       <c r="G156" s="3"/>
     </row>
@@ -3294,10 +3246,10 @@
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="n">
-        <v>-22.2384334700634</v>
+        <v>28.7666327643641</v>
       </c>
       <c r="F157" s="3" t="n">
-        <v>-22.7450032362658</v>
+        <v>28.429204014297</v>
       </c>
       <c r="G157" s="3"/>
     </row>
@@ -3313,10 +3265,10 @@
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="n">
-        <v>-22.2906436852453</v>
+        <v>29.8466814554611</v>
       </c>
       <c r="F158" s="3" t="n">
-        <v>-22.4680731212453</v>
+        <v>29.813252093672</v>
       </c>
       <c r="G158" s="3"/>
     </row>
@@ -3332,10 +3284,10 @@
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="n">
-        <v>-23.5838767502688</v>
+        <v>27.7995199869926</v>
       </c>
       <c r="F159" s="3" t="n">
-        <v>-23.2087192738987</v>
+        <v>29.3991439683794</v>
       </c>
       <c r="G159" s="3"/>
     </row>
@@ -3351,10 +3303,10 @@
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="n">
-        <v>-24.6670943945051</v>
+        <v>27.9801137715419</v>
       </c>
       <c r="F160" s="3" t="n">
-        <v>-24.1576038767568</v>
+        <v>30.1417154141122</v>
       </c>
       <c r="G160" s="3"/>
     </row>
@@ -3370,10 +3322,10 @@
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="n">
-        <v>-25.7668630915257</v>
+        <v>28.0826602587235</v>
       </c>
       <c r="F161" s="3" t="n">
-        <v>-25.8505212321889</v>
+        <v>30.9077566179088</v>
       </c>
       <c r="G161" s="3"/>
     </row>
@@ -3389,10 +3341,10 @@
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="n">
-        <v>-27.9951129271832</v>
+        <v>28.7210276815437</v>
       </c>
       <c r="F162" s="3" t="n">
-        <v>-28.0226448633835</v>
+        <v>29.7706681619204</v>
       </c>
       <c r="G162" s="3"/>
     </row>
@@ -3408,10 +3360,10 @@
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="n">
-        <v>-30.7958166485382</v>
+        <v>28.5706809733583</v>
       </c>
       <c r="F163" s="3" t="n">
-        <v>-30.2362061388161</v>
+        <v>29.8432681141849</v>
       </c>
       <c r="G163" s="3"/>
     </row>
@@ -3427,10 +3379,10 @@
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="n">
-        <v>-33.053708698801</v>
+        <v>27.832352071834</v>
       </c>
       <c r="F164" s="3" t="n">
-        <v>-32.9209823587213</v>
+        <v>28.9462693460918</v>
       </c>
       <c r="G164" s="3"/>
     </row>
@@ -3446,10 +3398,10 @@
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="n">
-        <v>-35.2129079557011</v>
+        <v>26.5502645230344</v>
       </c>
       <c r="F165" s="3" t="n">
-        <v>-35.3469019575267</v>
+        <v>27.6985511269624</v>
       </c>
       <c r="G165" s="3"/>
     </row>
@@ -3465,10 +3417,10 @@
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="n">
-        <v>-40.5492645295968</v>
+        <v>26.5363454395809</v>
       </c>
       <c r="F166" s="3" t="n">
-        <v>-40.6026387945585</v>
+        <v>27.9131339104316</v>
       </c>
       <c r="G166" s="3"/>
     </row>
@@ -3484,10 +3436,10 @@
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="n">
-        <v>-42.5119785768802</v>
+        <v>27.4748107987157</v>
       </c>
       <c r="F167" s="3" t="n">
-        <v>-42.8998546806218</v>
+        <v>29.0572928054772</v>
       </c>
       <c r="G167" s="3"/>
     </row>
@@ -3503,10 +3455,10 @@
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="n">
-        <v>-44.1326739586959</v>
+        <v>28.3589535194987</v>
       </c>
       <c r="F168" s="3" t="n">
-        <v>-44.2362593147882</v>
+        <v>29.9588972091126</v>
       </c>
       <c r="G168" s="3"/>
     </row>
@@ -3522,10 +3474,10 @@
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="n">
-        <v>-45.7978531288009</v>
+        <v>28.5982323433544</v>
       </c>
       <c r="F169" s="3" t="n">
-        <v>-45.7714613937517</v>
+        <v>29.4414655220632</v>
       </c>
       <c r="G169" s="3"/>
     </row>
@@ -3541,10 +3493,10 @@
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="n">
-        <v>-49.7092700316697</v>
+        <v>28.6846330253452</v>
       </c>
       <c r="F170" s="3" t="n">
-        <v>-49.5576297225973</v>
+        <v>28.9791238600081</v>
       </c>
       <c r="G170" s="3"/>
     </row>
@@ -3560,10 +3512,10 @@
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="n">
-        <v>-52.3908432065227</v>
+        <v>30.8624355009422</v>
       </c>
       <c r="F171" s="3" t="n">
-        <v>-51.8321505164829</v>
+        <v>30.2231178519857</v>
       </c>
       <c r="G171" s="3"/>
     </row>
@@ -3579,10 +3531,10 @@
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="n">
-        <v>-53.040154435534</v>
+        <v>32.7441165268233</v>
       </c>
       <c r="F172" s="3" t="n">
-        <v>-52.521544892561</v>
+        <v>31.8523742808718</v>
       </c>
       <c r="G172" s="3"/>
     </row>
@@ -3598,10 +3550,10 @@
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="n">
-        <v>-53.5722531320616</v>
+        <v>34.7107291495642</v>
       </c>
       <c r="F173" s="3" t="n">
-        <v>-52.4152876360152</v>
+        <v>34.8627146970732</v>
       </c>
       <c r="G173" s="3"/>
     </row>
@@ -3617,10 +3569,10 @@
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="n">
-        <v>-53.9702861237401</v>
+        <v>38.8794623049299</v>
       </c>
       <c r="F174" s="3" t="n">
-        <v>-53.1894483585556</v>
+        <v>38.9325848528264</v>
       </c>
       <c r="G174" s="3"/>
     </row>
@@ -3636,10 +3588,10 @@
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="n">
-        <v>-53.4039769130295</v>
+        <v>44.4999350575931</v>
       </c>
       <c r="F175" s="3" t="n">
-        <v>-53.6258248811935</v>
+        <v>43.3408283370886</v>
       </c>
       <c r="G175" s="3"/>
     </row>
@@ -3655,10 +3607,10 @@
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="n">
-        <v>-52.9413247192425</v>
+        <v>49.3734724603168</v>
       </c>
       <c r="F176" s="3" t="n">
-        <v>-53.3998003763909</v>
+        <v>49.0779136551674</v>
       </c>
       <c r="G176" s="3"/>
     </row>
@@ -3674,10 +3626,10 @@
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="n">
-        <v>-52.8477568504376</v>
+        <v>54.3517340331062</v>
       </c>
       <c r="F177" s="3" t="n">
-        <v>-53.3808292747744</v>
+        <v>54.6716290908533</v>
       </c>
       <c r="G177" s="3"/>
     </row>
@@ -3693,10 +3645,10 @@
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="n">
-        <v>-49.5159452997785</v>
+        <v>68.2064977140337</v>
       </c>
       <c r="F178" s="3" t="n">
-        <v>-50.2959292118038</v>
+        <v>68.3576474956917</v>
       </c>
       <c r="G178" s="3"/>
     </row>
@@ -3712,10 +3664,10 @@
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="n">
-        <v>-48.4088630364649</v>
+        <v>73.9492811276042</v>
       </c>
       <c r="F179" s="3" t="n">
-        <v>-48.5841675287638</v>
+        <v>75.1309028036094</v>
       </c>
       <c r="G179" s="3"/>
     </row>
@@ -3731,10 +3683,10 @@
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="n">
-        <v>-47.4770976032915</v>
+        <v>78.9955007441516</v>
       </c>
       <c r="F180" s="3" t="n">
-        <v>-47.7372273172506</v>
+        <v>79.3279983932632</v>
       </c>
       <c r="G180" s="3"/>
     </row>
@@ -3750,10 +3702,10 @@
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="n">
-        <v>-47.8824704409696</v>
+        <v>84.4945371585202</v>
       </c>
       <c r="F181" s="3" t="n">
-        <v>-48.1914792664718</v>
+        <v>84.4047480720378</v>
       </c>
       <c r="G181" s="3"/>
     </row>
@@ -3769,10 +3721,10 @@
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="n">
-        <v>-44.6836030077971</v>
+        <v>98.8438029493173</v>
       </c>
       <c r="F182" s="3" t="n">
-        <v>-45.0410161727057</v>
+        <v>98.2460369131349</v>
       </c>
       <c r="G182" s="3"/>
     </row>
@@ -3788,10 +3740,10 @@
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="n">
-        <v>-42.3283975699446</v>
+        <v>110.043627602538</v>
       </c>
       <c r="F183" s="3" t="n">
-        <v>-43.2176247397067</v>
+        <v>107.607358585149</v>
       </c>
       <c r="G183" s="3"/>
     </row>
@@ -3807,10 +3759,10 @@
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="n">
-        <v>-42.2796763771227</v>
+        <v>112.947889410584</v>
       </c>
       <c r="F184" s="3" t="n">
-        <v>-43.6026492623784</v>
+        <v>110.621848949613</v>
       </c>
       <c r="G184" s="3"/>
     </row>
@@ -3826,10 +3778,10 @@
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="n">
-        <v>-41.9663380432473</v>
+        <v>115.388440633239</v>
       </c>
       <c r="F185" s="3" t="n">
-        <v>-44.3114373232345</v>
+        <v>110.151527732437</v>
       </c>
       <c r="G185" s="3"/>
     </row>
@@ -3845,10 +3797,10 @@
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="n">
-        <v>-40.8508785606767</v>
+        <v>117.250970251144</v>
       </c>
       <c r="F186" s="3" t="n">
-        <v>-43.1330676619402</v>
+        <v>113.627048802953</v>
       </c>
       <c r="G186" s="3"/>
     </row>
@@ -3864,10 +3816,10 @@
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="n">
-        <v>-40.266222738058</v>
+        <v>114.610589863758</v>
       </c>
       <c r="F187" s="3" t="n">
-        <v>-41.5329799571758</v>
+        <v>115.637258762682</v>
       </c>
       <c r="G187" s="3"/>
     </row>
@@ -3883,10 +3835,10 @@
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="n">
-        <v>-40.1695609208299</v>
+        <v>112.500669437439</v>
       </c>
       <c r="F188" s="3" t="n">
-        <v>-41.1320560278377</v>
+        <v>114.591355418437</v>
       </c>
       <c r="G188" s="3"/>
     </row>
@@ -3902,10 +3854,10 @@
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="n">
-        <v>-39.2044020308377</v>
+        <v>112.078987807239</v>
       </c>
       <c r="F189" s="3" t="n">
-        <v>-40.1089327083117</v>
+        <v>114.504030089686</v>
       </c>
       <c r="G189" s="3"/>
     </row>
@@ -3921,10 +3873,10 @@
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="n">
-        <v>-38.5902221495435</v>
+        <v>98.0823461859558</v>
       </c>
       <c r="F190" s="3" t="n">
-        <v>-39.5127981209627</v>
+        <v>101.190764487137</v>
       </c>
       <c r="G190" s="3"/>
     </row>
@@ -3940,10 +3892,10 @@
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="n">
-        <v>-38.5313496312166</v>
+        <v>93.8317429807384</v>
       </c>
       <c r="F191" s="3" t="n">
-        <v>-39.8260616376989</v>
+        <v>94.492620645486</v>
       </c>
       <c r="G191" s="3"/>
     </row>
@@ -3959,10 +3911,10 @@
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="n">
-        <v>-38.6358232689847</v>
+        <v>90.3931341126091</v>
       </c>
       <c r="F192" s="3" t="n">
-        <v>-39.8845102966442</v>
+        <v>91.3407859300344</v>
       </c>
       <c r="G192" s="3"/>
     </row>
@@ -3978,10 +3930,10 @@
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="n">
-        <v>-37.1876225814609</v>
+        <v>91.8740217468214</v>
       </c>
       <c r="F193" s="3" t="n">
-        <v>-38.6654944581062</v>
+        <v>93.0184428818952</v>
       </c>
       <c r="G193" s="3"/>
     </row>
@@ -3997,10 +3949,10 @@
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="n">
-        <v>-37.1688013342485</v>
+        <v>80.7782238855786</v>
       </c>
       <c r="F194" s="3" t="n">
-        <v>-38.745660824932</v>
+        <v>81.9538736637576</v>
       </c>
       <c r="G194" s="3"/>
     </row>
@@ -4016,10 +3968,10 @@
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="n">
-        <v>-37.7918048020273</v>
+        <v>73.3955634773298</v>
       </c>
       <c r="F195" s="3" t="n">
-        <v>-38.5854079645539</v>
+        <v>76.1109843355351</v>
       </c>
       <c r="G195" s="3"/>
     </row>
@@ -4035,10 +3987,10 @@
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="n">
-        <v>-37.120952384247</v>
+        <v>73.2492018814067</v>
       </c>
       <c r="F196" s="3" t="n">
-        <v>-37.6455488767262</v>
+        <v>77.3132934297424</v>
       </c>
       <c r="G196" s="3"/>
     </row>
@@ -4054,10 +4006,10 @@
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="n">
-        <v>-36.8792981785984</v>
+        <v>72.3137858757233</v>
       </c>
       <c r="F197" s="3" t="n">
-        <v>-36.6753496224087</v>
+        <v>79.5700861960337</v>
       </c>
       <c r="G197" s="3"/>
     </row>
@@ -4073,10 +4025,10 @@
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="n">
-        <v>-36.1145033330252</v>
+        <v>69.0642186504537</v>
       </c>
       <c r="F198" s="3" t="n">
-        <v>-36.1170450654718</v>
+        <v>75.8491198461786</v>
       </c>
       <c r="G198" s="3"/>
     </row>
@@ -4092,10 +4044,10 @@
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="n">
-        <v>-35.5235683856416</v>
+        <v>67.4094701252263</v>
       </c>
       <c r="F199" s="3" t="n">
-        <v>-35.9684595945666</v>
+        <v>71.0365945224418</v>
       </c>
       <c r="G199" s="3"/>
     </row>
@@ -4111,10 +4063,10 @@
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="n">
-        <v>-34.8224913069744</v>
+        <v>67.1390040572423</v>
       </c>
       <c r="F200" s="3" t="n">
-        <v>-34.9000671143224</v>
+        <v>69.8717387637801</v>
       </c>
       <c r="G200" s="3"/>
     </row>
@@ -4130,10 +4082,10 @@
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="n">
-        <v>-34.9512338205767</v>
+        <v>64.4855932673342</v>
       </c>
       <c r="F201" s="3" t="n">
-        <v>-34.5780421500102</v>
+        <v>66.9698078896618</v>
       </c>
       <c r="G201" s="3"/>
     </row>
@@ -4149,10 +4101,10 @@
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="n">
-        <v>-35.9043633054524</v>
+        <v>62.840517423003</v>
       </c>
       <c r="F202" s="3" t="n">
-        <v>-35.2604513038737</v>
+        <v>65.3242287516962</v>
       </c>
       <c r="G202" s="3"/>
     </row>
@@ -4168,10 +4120,10 @@
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="n">
-        <v>-36.529857142563</v>
+        <v>62.6845544843531</v>
       </c>
       <c r="F203" s="3" t="n">
-        <v>-35.5414548671711</v>
+        <v>66.1849011741767</v>
       </c>
       <c r="G203" s="3"/>
     </row>
@@ -4187,10 +4139,10 @@
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="n">
-        <v>-36.7161555554468</v>
+        <v>62.9615279258802</v>
       </c>
       <c r="F204" s="3" t="n">
-        <v>-35.5049802178561</v>
+        <v>66.3464782428907</v>
       </c>
       <c r="G204" s="3"/>
     </row>
@@ -4206,10 +4158,10 @@
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="n">
-        <v>-37.4310155465157</v>
+        <v>59.2042907939431</v>
       </c>
       <c r="F205" s="3" t="n">
-        <v>-36.3812138561958</v>
+        <v>63.0403622177995</v>
       </c>
       <c r="G205" s="3"/>
     </row>
@@ -4225,10 +4177,10 @@
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="n">
-        <v>-38.9310572663978</v>
+        <v>59.156600739035</v>
       </c>
       <c r="F206" s="3" t="n">
-        <v>-39.1881562620334</v>
+        <v>63.253740627574</v>
       </c>
       <c r="G206" s="3"/>
     </row>
@@ -4244,10 +4196,10 @@
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="n">
-        <v>-39.729513403834</v>
+        <v>60.7505243991693</v>
       </c>
       <c r="F207" s="3" t="n">
-        <v>-40.6451030463473</v>
+        <v>62.8277526329311</v>
       </c>
       <c r="G207" s="3"/>
     </row>
@@ -4263,10 +4215,10 @@
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="n">
-        <v>-39.8976628280757</v>
+        <v>59.0354876414305</v>
       </c>
       <c r="F208" s="3" t="n">
-        <v>-40.5768888928503</v>
+        <v>60.3734748659747</v>
       </c>
       <c r="G208" s="3"/>
     </row>
@@ -4282,10 +4234,10 @@
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="n">
-        <v>-40.3416413493834</v>
+        <v>58.4266288466618</v>
       </c>
       <c r="F209" s="3" t="n">
-        <v>-40.5019320165828</v>
+        <v>57.9163870684188</v>
       </c>
       <c r="G209" s="3"/>
     </row>
@@ -4301,10 +4253,10 @@
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="n">
-        <v>-41.5571123845692</v>
+        <v>56.5300501947797</v>
       </c>
       <c r="F210" s="3" t="n">
-        <v>-41.2665477074985</v>
+        <v>56.5362781081231</v>
       </c>
       <c r="G210" s="3"/>
     </row>
@@ -4320,10 +4272,10 @@
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="n">
-        <v>-43.3222211879935</v>
+        <v>55.0954317666222</v>
       </c>
       <c r="F211" s="3" t="n">
-        <v>-43.1710641563577</v>
+        <v>56.1730349868554</v>
       </c>
       <c r="G211" s="3"/>
     </row>
@@ -4339,10 +4291,10 @@
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="n">
-        <v>-45.4070338457671</v>
+        <v>53.4271591615784</v>
       </c>
       <c r="F212" s="3" t="n">
-        <v>-45.8057623296037</v>
+        <v>53.6099893921713</v>
       </c>
       <c r="G212" s="3"/>
     </row>
@@ -4358,10 +4310,10 @@
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="n">
-        <v>-46.1906546074426</v>
+        <v>53.7308174672691</v>
       </c>
       <c r="F213" s="3" t="n">
-        <v>-47.1507485466309</v>
+        <v>52.8538785545005</v>
       </c>
       <c r="G213" s="3"/>
     </row>
@@ -4377,10 +4329,10 @@
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="n">
-        <v>-47.9852148387881</v>
+        <v>56.0168603622073</v>
       </c>
       <c r="F214" s="3" t="n">
-        <v>-48.4633685269791</v>
+        <v>54.465086664998</v>
       </c>
       <c r="G214" s="3"/>
     </row>
@@ -4396,10 +4348,10 @@
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="n">
-        <v>-48.9692339169698</v>
+        <v>57.5543956543697</v>
       </c>
       <c r="F215" s="3" t="n">
-        <v>-49.9023669943848</v>
+        <v>55.1384689088642</v>
       </c>
       <c r="G215" s="3"/>
     </row>
@@ -4415,10 +4367,10 @@
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="n">
-        <v>-49.8947849863138</v>
+        <v>58.0182128277875</v>
       </c>
       <c r="F216" s="3" t="n">
-        <v>-51.4308923360797</v>
+        <v>55.0507315724337</v>
       </c>
       <c r="G216" s="3"/>
     </row>
@@ -4434,10 +4386,10 @@
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="n">
-        <v>-50.9003625707737</v>
+        <v>59.8235945068649</v>
       </c>
       <c r="F217" s="3" t="n">
-        <v>-51.6548567669534</v>
+        <v>57.1862747804706</v>
       </c>
       <c r="G217" s="3"/>
     </row>
@@ -4453,10 +4405,10 @@
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="n">
-        <v>-51.3970126603498</v>
+        <v>63.7493552757654</v>
       </c>
       <c r="F218" s="3" t="n">
-        <v>-51.3058412801099</v>
+        <v>64.441651252825</v>
       </c>
       <c r="G218" s="3"/>
     </row>
@@ -4472,10 +4424,10 @@
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="n">
-        <v>-51.0624502040373</v>
+        <v>65.9186869852837</v>
       </c>
       <c r="F219" s="3" t="n">
-        <v>-51.5005352737054</v>
+        <v>68.4780955446439</v>
       </c>
       <c r="G219" s="3"/>
     </row>
@@ -4491,10 +4443,10 @@
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3" t="n">
-        <v>-52.3267502618819</v>
+        <v>66.3828807754139</v>
       </c>
       <c r="F220" s="3" t="n">
-        <v>-52.5552229166359</v>
+        <v>68.2846928355594</v>
       </c>
       <c r="G220" s="3"/>
     </row>
@@ -4510,10 +4462,10 @@
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="n">
-        <v>-53.2035288054138</v>
+        <v>67.6211050083364</v>
       </c>
       <c r="F221" s="3" t="n">
-        <v>-53.4515767468271</v>
+        <v>68.0726843565259</v>
       </c>
       <c r="G221" s="3"/>
     </row>
@@ -4529,10 +4481,10 @@
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3" t="n">
-        <v>-54.7219774086047</v>
+        <v>71.1072195097986</v>
       </c>
       <c r="F222" s="3" t="n">
-        <v>-55.460226654376</v>
+        <v>70.2607221213302</v>
       </c>
       <c r="G222" s="3"/>
     </row>
@@ -4548,10 +4500,10 @@
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3" t="n">
-        <v>-55.5563814400046</v>
+        <v>76.4359897230415</v>
       </c>
       <c r="F223" s="3" t="n">
-        <v>-56.4876740147423</v>
+        <v>75.9666946344684</v>
       </c>
       <c r="G223" s="3"/>
     </row>
@@ -4567,10 +4519,10 @@
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3" t="n">
-        <v>-55.8942952166845</v>
+        <v>83.1737805150314</v>
       </c>
       <c r="F224" s="3" t="n">
-        <v>-56.8303696425966</v>
+        <v>84.5214626104522</v>
       </c>
       <c r="G224" s="3"/>
     </row>
@@ -4586,10 +4538,10 @@
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="n">
-        <v>-57.1630567509614</v>
+        <v>85.8413241611957</v>
       </c>
       <c r="F225" s="3" t="n">
-        <v>-57.6274719858006</v>
+        <v>89.2174387526261</v>
       </c>
       <c r="G225" s="3"/>
     </row>
@@ -4605,10 +4557,10 @@
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3" t="n">
-        <v>-57.2423463051683</v>
+        <v>92.2530289994764</v>
       </c>
       <c r="F226" s="3" t="n">
-        <v>-58.3047817562062</v>
+        <v>94.0367407449773</v>
       </c>
       <c r="G226" s="3"/>
     </row>
@@ -4624,10 +4576,10 @@
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3" t="n">
-        <v>-57.4785859063389</v>
+        <v>95.9602170919675</v>
       </c>
       <c r="F227" s="3" t="n">
-        <v>-58.1305085026445</v>
+        <v>99.6102290676915</v>
       </c>
       <c r="G227" s="3"/>
     </row>
@@ -4643,10 +4595,10 @@
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3" t="n">
-        <v>-58.505956432757</v>
+        <v>99.5800237014952</v>
       </c>
       <c r="F228" s="3" t="n">
-        <v>-59.0996114967737</v>
+        <v>105.892191168019</v>
       </c>
       <c r="G228" s="3"/>
     </row>
@@ -4662,10 +4614,10 @@
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3" t="n">
-        <v>-58.9580217314072</v>
+        <v>103.667491728718</v>
       </c>
       <c r="F229" s="3" t="n">
-        <v>-59.7278092570077</v>
+        <v>106.846010400574</v>
       </c>
       <c r="G229" s="3"/>
     </row>
@@ -4681,10 +4633,10 @@
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3" t="n">
-        <v>-61.4149976577697</v>
+        <v>105.748669934986</v>
       </c>
       <c r="F230" s="3" t="n">
-        <v>-61.8324351827127</v>
+        <v>105.363441178321</v>
       </c>
       <c r="G230" s="3"/>
     </row>
@@ -4700,10 +4652,10 @@
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3" t="n">
-        <v>-63.8763787212253</v>
+        <v>104.342065381152</v>
       </c>
       <c r="F231" s="3" t="n">
-        <v>-63.7183703476308</v>
+        <v>106.187842617124</v>
       </c>
       <c r="G231" s="3"/>
     </row>
@@ -4719,10 +4671,10 @@
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3" t="n">
-        <v>-64.2514876749396</v>
+        <v>109.761240421676</v>
       </c>
       <c r="F232" s="3" t="n">
-        <v>-63.7541859864761</v>
+        <v>110.771355979379</v>
       </c>
       <c r="G232" s="3"/>
     </row>
@@ -4738,10 +4690,10 @@
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3" t="n">
-        <v>-63.7455009681563</v>
+        <v>113.691326391228</v>
       </c>
       <c r="F233" s="3" t="n">
-        <v>-63.7140892182848</v>
+        <v>114.830047961257</v>
       </c>
       <c r="G233" s="3"/>
     </row>
@@ -4757,10 +4709,10 @@
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3" t="n">
-        <v>-61.7506927696269</v>
+        <v>120.857701544157</v>
       </c>
       <c r="F234" s="3" t="n">
-        <v>-61.459755248337</v>
+        <v>124.518430356639</v>
       </c>
       <c r="G234" s="3"/>
     </row>
@@ -4776,10 +4728,10 @@
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3" t="n">
-        <v>-59.6478710444009</v>
+        <v>125.004181117718</v>
       </c>
       <c r="F235" s="3" t="n">
-        <v>-59.1876850939144</v>
+        <v>129.819936617226</v>
       </c>
       <c r="G235" s="3"/>
     </row>
@@ -4795,10 +4747,10 @@
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3" t="n">
-        <v>-57.5937884262398</v>
+        <v>126.728040037642</v>
       </c>
       <c r="F236" s="3" t="n">
-        <v>-56.8041103268109</v>
+        <v>131.644327672244</v>
       </c>
       <c r="G236" s="3"/>
     </row>
@@ -4814,10 +4766,10 @@
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="n">
-        <v>-54.9118033219031</v>
+        <v>133.44336083608</v>
       </c>
       <c r="F237" s="3" t="n">
-        <v>-54.280857667502</v>
+        <v>136.001967988526</v>
       </c>
       <c r="G237" s="3"/>
     </row>
@@ -4833,10 +4785,10 @@
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3" t="n">
-        <v>-51.671364984164</v>
+        <v>133.876256900615</v>
       </c>
       <c r="F238" s="3" t="n">
-        <v>-50.9238892045294</v>
+        <v>139.835655530799</v>
       </c>
       <c r="G238" s="3"/>
     </row>
@@ -4852,10 +4804,10 @@
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3" t="n">
-        <v>-48.7803164317268</v>
+        <v>135.17562181665</v>
       </c>
       <c r="F239" s="3" t="n">
-        <v>-48.2977964371345</v>
+        <v>138.837388331588</v>
       </c>
       <c r="G239" s="3"/>
     </row>
@@ -4871,10 +4823,10 @@
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3" t="n">
-        <v>-44.9319409559079</v>
+        <v>140.998445567122</v>
       </c>
       <c r="F240" s="3" t="n">
-        <v>-44.7072830317606</v>
+        <v>144.496455069398</v>
       </c>
       <c r="G240" s="3"/>
     </row>
@@ -4890,10 +4842,10 @@
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3" t="n">
-        <v>-41.3488032852339</v>
+        <v>143.652972440962</v>
       </c>
       <c r="F241" s="3" t="n">
-        <v>-41.4184476499579</v>
+        <v>148.310305834059</v>
       </c>
       <c r="G241" s="3"/>
     </row>
@@ -4909,10 +4861,10 @@
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3" t="n">
-        <v>-34.0619035036152</v>
+        <v>159.168054761403</v>
       </c>
       <c r="F242" s="3" t="n">
-        <v>-34.8126168140808</v>
+        <v>162.002568093385</v>
       </c>
       <c r="G242" s="3"/>
     </row>
@@ -4928,10 +4880,10 @@
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="3" t="n">
-        <v>-25.6854897775011</v>
+        <v>176.827174186873</v>
       </c>
       <c r="F243" s="3" t="n">
-        <v>-27.8358896120965</v>
+        <v>175.621577525997</v>
       </c>
       <c r="G243" s="3"/>
     </row>
@@ -4947,10 +4899,10 @@
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3" t="n">
-        <v>-20.5650778053955</v>
+        <v>179.731920284409</v>
       </c>
       <c r="F244" s="3" t="n">
-        <v>-23.4929731054303</v>
+        <v>175.893927951758</v>
       </c>
       <c r="G244" s="3"/>
     </row>
@@ -4966,10 +4918,10 @@
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3" t="n">
-        <v>-17.3928832732548</v>
+        <v>175.827835635423</v>
       </c>
       <c r="F245" s="3" t="n">
-        <v>-19.963141875265</v>
+        <v>175.589058799072</v>
       </c>
       <c r="G245" s="3"/>
     </row>
@@ -4985,10 +4937,10 @@
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="3" t="n">
-        <v>-16.1049312517099</v>
+        <v>161.442643647652</v>
       </c>
       <c r="F246" s="3" t="n">
-        <v>-18.9121099816288</v>
+        <v>159.46903203225</v>
       </c>
       <c r="G246" s="3"/>
     </row>
@@ -5004,10 +4956,10 @@
       </c>
       <c r="D247" s="3"/>
       <c r="E247" s="3" t="n">
-        <v>-15.6428302800477</v>
+        <v>147.818399148242</v>
       </c>
       <c r="F247" s="3" t="n">
-        <v>-18.0581617084137</v>
+        <v>145.02408214313</v>
       </c>
       <c r="G247" s="3"/>
     </row>
@@ -5023,10 +4975,10 @@
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3" t="n">
-        <v>-14.9547531547195</v>
+        <v>135.814509924007</v>
       </c>
       <c r="F248" s="3" t="n">
-        <v>-17.1937082127526</v>
+        <v>131.503508219367</v>
       </c>
       <c r="G248" s="3"/>
     </row>
@@ -5042,10 +4994,10 @@
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3" t="n">
-        <v>-14.3915571999263</v>
+        <v>121.787535025943</v>
       </c>
       <c r="F249" s="3" t="n">
-        <v>-16.6450751655025</v>
+        <v>118.726762791694</v>
       </c>
       <c r="G249" s="3"/>
     </row>
@@ -5061,10 +5013,10 @@
       </c>
       <c r="D250" s="3"/>
       <c r="E250" s="3" t="n">
-        <v>-14.4193057631987</v>
+        <v>106.91666538323</v>
       </c>
       <c r="F250" s="3" t="n">
-        <v>-16.49410081753</v>
+        <v>103.765128041135</v>
       </c>
       <c r="G250" s="3"/>
     </row>
@@ -5080,10 +5032,10 @@
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3" t="n">
-        <v>-14.7453872619908</v>
+        <v>95.2374420015798</v>
       </c>
       <c r="F251" s="3" t="n">
-        <v>-16.5698182216242</v>
+        <v>93.4153539092553</v>
       </c>
       <c r="G251" s="3"/>
     </row>
@@ -5099,10 +5051,10 @@
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="3" t="n">
-        <v>-15.3470598889289</v>
+        <v>81.5934713078076</v>
       </c>
       <c r="F252" s="3" t="n">
-        <v>-16.2751224064679</v>
+        <v>80.8556451610813</v>
       </c>
       <c r="G252" s="3"/>
     </row>
@@ -5118,10 +5070,10 @@
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3" t="n">
-        <v>-15.4016632621641</v>
+        <v>70.4995048716948</v>
       </c>
       <c r="F253" s="3" t="n">
-        <v>-16.2374497946583</v>
+        <v>70.702202294795</v>
       </c>
       <c r="G253" s="3"/>
     </row>
@@ -5137,10 +5089,10 @@
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3" t="n">
-        <v>-16.4560302713539</v>
+        <v>51.6573958204612</v>
       </c>
       <c r="F254" s="3" t="n">
-        <v>-16.4609202347594</v>
+        <v>53.4039182318343</v>
       </c>
       <c r="G254" s="3"/>
     </row>
@@ -5156,10 +5108,10 @@
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3" t="n">
-        <v>-18.3514231400062</v>
+        <v>34.5632228492098</v>
       </c>
       <c r="F255" s="3" t="n">
-        <v>-16.5754751063626</v>
+        <v>38.5730378473044</v>
       </c>
       <c r="G255" s="3"/>
     </row>
@@ -5175,10 +5127,10 @@
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="3" t="n">
-        <v>-19.0758733414486</v>
+        <v>25.8892150168083</v>
       </c>
       <c r="F256" s="3" t="n">
-        <v>-17.3112402602159</v>
+        <v>30.7069481837331</v>
       </c>
       <c r="G256" s="3"/>
     </row>
@@ -5194,10 +5146,10 @@
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3" t="n">
-        <v>-19.6157220446395</v>
+        <v>21.054945339381</v>
       </c>
       <c r="F257" s="3" t="n">
-        <v>-17.7013401960092</v>
+        <v>24.9424357015028</v>
       </c>
       <c r="G257" s="3"/>
     </row>
@@ -5213,10 +5165,10 @@
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3" t="n">
-        <v>-19.636695167019</v>
+        <v>19.196517139797</v>
       </c>
       <c r="F258" s="3" t="n">
-        <v>-17.7265191998487</v>
+        <v>23.3229770528547</v>
       </c>
       <c r="G258" s="3"/>
     </row>
@@ -5232,10 +5184,10 @@
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3" t="n">
-        <v>-19.9278771900346</v>
+        <v>18.5435693634323</v>
       </c>
       <c r="F259" s="3" t="n">
-        <v>-18.0174104183086</v>
+        <v>22.0377795823356</v>
       </c>
       <c r="G259" s="3"/>
     </row>
@@ -5251,10 +5203,10 @@
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3" t="n">
-        <v>-20.7019392008866</v>
+        <v>17.5844667508887</v>
       </c>
       <c r="F260" s="3" t="n">
-        <v>-18.7239009548347</v>
+        <v>20.7637702904606</v>
       </c>
       <c r="G260" s="3"/>
     </row>
@@ -5270,10 +5222,10 @@
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3" t="n">
-        <v>-21.3431798026934</v>
+        <v>16.8109087482595</v>
       </c>
       <c r="F261" s="3" t="n">
-        <v>-19.0223685392356</v>
+        <v>19.9689162920506</v>
       </c>
       <c r="G261" s="3"/>
     </row>
@@ -5289,10 +5241,10 @@
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3" t="n">
-        <v>-21.9241384775546</v>
+        <v>16.8487833521197</v>
       </c>
       <c r="F262" s="3" t="n">
-        <v>-19.5943300028801</v>
+        <v>19.7520186944979</v>
       </c>
       <c r="G262" s="3"/>
     </row>
@@ -5308,10 +5260,10 @@
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3" t="n">
-        <v>-22.2852434808643</v>
+        <v>17.295706107192</v>
       </c>
       <c r="F263" s="3" t="n">
-        <v>-20.070531971574</v>
+        <v>19.8607001308475</v>
       </c>
       <c r="G263" s="3"/>
     </row>
@@ -5327,10 +5279,10 @@
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3" t="n">
-        <v>-22.2535876211153</v>
+        <v>18.1293879087866</v>
       </c>
       <c r="F264" s="3" t="n">
-        <v>-19.9487463188398</v>
+        <v>19.4388130198057</v>
       </c>
       <c r="G264" s="3"/>
     </row>
@@ -5346,10 +5298,10 @@
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3" t="n">
-        <v>-23.2013260848468</v>
+        <v>18.2056336519862</v>
       </c>
       <c r="F265" s="3" t="n">
-        <v>-21.0050412104322</v>
+        <v>19.385094836359</v>
       </c>
       <c r="G265" s="3"/>
     </row>
@@ -5365,10 +5317,10 @@
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3" t="n">
-        <v>-23.0352260881252</v>
+        <v>19.6974483314639</v>
       </c>
       <c r="F266" s="3" t="n">
-        <v>-21.5799198591811</v>
+        <v>19.7044548264327</v>
       </c>
       <c r="G266" s="3"/>
     </row>
@@ -5384,10 +5336,10 @@
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3" t="n">
-        <v>-21.3260644150701</v>
+        <v>22.4761090098044</v>
       </c>
       <c r="F267" s="3" t="n">
-        <v>-20.3238743105577</v>
+        <v>19.8688276948483</v>
       </c>
       <c r="G267" s="3"/>
     </row>
@@ -5403,10 +5355,10 @@
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3" t="n">
-        <v>-20.9249800632335</v>
+        <v>23.5725415016669</v>
       </c>
       <c r="F268" s="3" t="n">
-        <v>-20.2615047830053</v>
+        <v>20.9354213495199</v>
       </c>
       <c r="G268" s="3"/>
     </row>
@@ -5422,10 +5374,10 @@
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3" t="n">
-        <v>-20.6623809562783</v>
+        <v>24.4024360777771</v>
       </c>
       <c r="F269" s="3" t="n">
-        <v>-20.2507763847013</v>
+        <v>21.5086615482781</v>
       </c>
       <c r="G269" s="3"/>
     </row>
@@ -5441,10 +5393,10 @@
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3" t="n">
-        <v>-20.2898942208095</v>
+        <v>24.4349024817109</v>
       </c>
       <c r="F270" s="3" t="n">
-        <v>-19.840243458205</v>
+        <v>21.5458481000795</v>
       </c>
       <c r="G270" s="3"/>
     </row>
@@ -5460,10 +5412,10 @@
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3" t="n">
-        <v>-19.6840305252441</v>
+        <v>24.887409613617</v>
       </c>
       <c r="F271" s="3" t="n">
-        <v>-19.2016393387329</v>
+        <v>21.9771179591188</v>
       </c>
       <c r="G271" s="3"/>
     </row>
@@ -5479,10 +5431,10 @@
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3" t="n">
-        <v>-18.7674729835519</v>
+        <v>26.106488597913</v>
       </c>
       <c r="F272" s="3" t="n">
-        <v>-18.494288779289</v>
+        <v>23.0374011238283</v>
       </c>
       <c r="G272" s="3"/>
     </row>
@@ -5498,10 +5450,10 @@
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3" t="n">
-        <v>-18.0105967118015</v>
+        <v>27.1345571167957</v>
       </c>
       <c r="F273" s="3" t="n">
-        <v>-17.5638494112952</v>
+        <v>23.4908927269037</v>
       </c>
       <c r="G273" s="3"/>
     </row>
@@ -5517,10 +5469,10 @@
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3" t="n">
-        <v>-17.1899262961591</v>
+        <v>28.0805591511172</v>
       </c>
       <c r="F274" s="3" t="n">
-        <v>-16.6421085339609</v>
+        <v>24.3693386344297</v>
       </c>
       <c r="G274" s="3"/>
     </row>
@@ -5536,10 +5488,10 @@
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="3" t="n">
-        <v>-16.8379443882924</v>
+        <v>28.6756910515148</v>
       </c>
       <c r="F275" s="3" t="n">
-        <v>-16.4105984943706</v>
+        <v>25.1103034545859</v>
       </c>
       <c r="G275" s="3"/>
     </row>
@@ -5555,10 +5507,10 @@
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="3" t="n">
-        <v>-16.6122392522508</v>
+        <v>28.6232984136503</v>
       </c>
       <c r="F276" s="3" t="n">
-        <v>-16.1625067821647</v>
+        <v>24.9199673977556</v>
       </c>
       <c r="G276" s="3"/>
     </row>
@@ -5574,10 +5526,10 @@
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="3" t="n">
-        <v>-16.4722811714154</v>
+        <v>30.2105816442606</v>
       </c>
       <c r="F277" s="3" t="n">
-        <v>-16.1885775512418</v>
+        <v>26.5903565648878</v>
       </c>
       <c r="G277" s="3"/>
     </row>
@@ -5593,10 +5545,10 @@
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3" t="n">
-        <v>-15.8211053412317</v>
+        <v>29.9295702661334</v>
       </c>
       <c r="F278" s="3" t="n">
-        <v>-15.3583598037067</v>
+        <v>27.5183598645016</v>
       </c>
       <c r="G278" s="3"/>
     </row>
@@ -5612,10 +5564,10 @@
       </c>
       <c r="D279" s="3"/>
       <c r="E279" s="3" t="n">
-        <v>-15.216437470093</v>
+        <v>27.1068991992249</v>
       </c>
       <c r="F279" s="3" t="n">
-        <v>-14.9020754604158</v>
+        <v>25.5081106601181</v>
       </c>
       <c r="G279" s="3"/>
     </row>
@@ -5631,10 +5583,10 @@
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="3" t="n">
-        <v>-14.7464428233525</v>
+        <v>26.4621875277003</v>
       </c>
       <c r="F280" s="3" t="n">
-        <v>-14.294335542939</v>
+        <v>25.4099412433945</v>
       </c>
       <c r="G280" s="3"/>
     </row>
@@ -5650,10 +5602,10 @@
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3" t="n">
-        <v>-14.4017758115775</v>
+        <v>26.0436110956287</v>
       </c>
       <c r="F281" s="3" t="n">
-        <v>-14.0375726479775</v>
+        <v>25.393070260331</v>
       </c>
       <c r="G281" s="3"/>
     </row>
@@ -5669,10 +5621,10 @@
       </c>
       <c r="D282" s="3"/>
       <c r="E282" s="3" t="n">
-        <v>-14.2693339067612</v>
+        <v>25.4546070695424</v>
       </c>
       <c r="F282" s="3" t="n">
-        <v>-13.8105621118932</v>
+        <v>24.750877889531</v>
       </c>
       <c r="G282" s="3"/>
     </row>
@@ -5688,10 +5640,10 @@
       </c>
       <c r="D283" s="3"/>
       <c r="E283" s="3" t="n">
-        <v>-13.9983052907559</v>
+        <v>24.5082399602124</v>
       </c>
       <c r="F283" s="3" t="n">
-        <v>-13.5075230264084</v>
+        <v>23.7648872843255</v>
       </c>
       <c r="G283" s="3"/>
     </row>
@@ -5707,10 +5659,10 @@
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3" t="n">
-        <v>-13.6801312153433</v>
+        <v>23.103396721552</v>
       </c>
       <c r="F284" s="3" t="n">
-        <v>-13.1578575691597</v>
+        <v>22.6907887831418</v>
       </c>
       <c r="G284" s="3"/>
     </row>
@@ -5726,10 +5678,10 @@
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3" t="n">
-        <v>-13.4637150745783</v>
+        <v>21.9669810847299</v>
       </c>
       <c r="F285" s="3" t="n">
-        <v>-13.2790018259503</v>
+        <v>21.3060038415983</v>
       </c>
       <c r="G285" s="3"/>
     </row>
@@ -5745,10 +5697,10 @@
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3" t="n">
-        <v>-13.3935138507906</v>
+        <v>20.7582550374687</v>
       </c>
       <c r="F286" s="3" t="n">
-        <v>-13.4208929532213</v>
+        <v>19.9646467074338</v>
       </c>
       <c r="G286" s="3"/>
     </row>
@@ -5764,10 +5716,10 @@
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3" t="n">
-        <v>-13.2850590451863</v>
+        <v>20.2471478902717</v>
       </c>
       <c r="F287" s="3" t="n">
-        <v>-13.3196880794249</v>
+        <v>19.6323914261611</v>
       </c>
       <c r="G287" s="3"/>
     </row>
@@ -5783,10 +5735,10 @@
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3" t="n">
-        <v>-12.9036635393508</v>
+        <v>19.9216756791244</v>
       </c>
       <c r="F288" s="3" t="n">
-        <v>-13.0275462644623</v>
+        <v>19.2783755355967</v>
       </c>
       <c r="G288" s="3"/>
     </row>
@@ -5802,10 +5754,10 @@
       </c>
       <c r="D289" s="3"/>
       <c r="E289" s="3" t="n">
-        <v>-11.4765356939149</v>
+        <v>19.7207363045791</v>
       </c>
       <c r="F289" s="3" t="n">
-        <v>-11.5414530519524</v>
+        <v>19.3154788192975</v>
       </c>
       <c r="G289" s="3"/>
     </row>
@@ -5821,10 +5773,10 @@
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3" t="n">
-        <v>-10.6649078209269</v>
+        <v>18.7946223401541</v>
       </c>
       <c r="F290" s="3" t="n">
-        <v>-10.6386110282126</v>
+        <v>18.1451585390937</v>
       </c>
       <c r="G290" s="3"/>
     </row>
@@ -5840,10 +5792,10 @@
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3" t="n">
-        <v>-10.1680572143409</v>
+        <v>17.9473909989634</v>
       </c>
       <c r="F291" s="3" t="n">
-        <v>-10.1220535560903</v>
+        <v>17.5116790932827</v>
       </c>
       <c r="G291" s="3"/>
     </row>
@@ -5859,10 +5811,10 @@
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="3" t="n">
-        <v>-9.84033399065392</v>
+        <v>17.2971583963324</v>
       </c>
       <c r="F292" s="3" t="n">
-        <v>-9.76175946184812</v>
+        <v>16.6784023360562</v>
       </c>
       <c r="G292" s="3"/>
     </row>
@@ -5878,10 +5830,10 @@
       </c>
       <c r="D293" s="3"/>
       <c r="E293" s="3" t="n">
-        <v>-9.45048911454733</v>
+        <v>16.8248534921422</v>
       </c>
       <c r="F293" s="3" t="n">
-        <v>-9.23553015503288</v>
+        <v>16.3298932805754</v>
       </c>
       <c r="G293" s="3"/>
     </row>
@@ -5897,10 +5849,10 @@
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="3" t="n">
-        <v>-9.16709516302514</v>
+        <v>16.644375410827</v>
       </c>
       <c r="F294" s="3" t="n">
-        <v>-9.07788189149159</v>
+        <v>16.0234971364152</v>
       </c>
       <c r="G294" s="3"/>
     </row>
@@ -5916,10 +5868,10 @@
       </c>
       <c r="D295" s="3"/>
       <c r="E295" s="3" t="n">
-        <v>-9.08787546436774</v>
+        <v>16.2767784263805</v>
       </c>
       <c r="F295" s="3" t="n">
-        <v>-9.21703797470369</v>
+        <v>15.6169917882368</v>
       </c>
       <c r="G295" s="3"/>
     </row>
@@ -5935,10 +5887,10 @@
       </c>
       <c r="D296" s="3"/>
       <c r="E296" s="3" t="n">
-        <v>-8.98304314631181</v>
+        <v>15.8481835155141</v>
       </c>
       <c r="F296" s="3" t="n">
-        <v>-9.13347876078749</v>
+        <v>15.1514658676672</v>
       </c>
       <c r="G296" s="3"/>
     </row>
@@ -5954,10 +5906,10 @@
       </c>
       <c r="D297" s="3"/>
       <c r="E297" s="3" t="n">
-        <v>-8.84639483921022</v>
+        <v>15.5584620788626</v>
       </c>
       <c r="F297" s="3" t="n">
-        <v>-8.97389363384777</v>
+        <v>15.3123258559585</v>
       </c>
       <c r="G297" s="3"/>
     </row>
@@ -5973,10 +5925,10 @@
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3" t="n">
-        <v>-8.77466438937537</v>
+        <v>15.464793049929</v>
       </c>
       <c r="F298" s="3" t="n">
-        <v>-8.77692917205413</v>
+        <v>15.501306736705</v>
       </c>
       <c r="G298" s="3"/>
     </row>
@@ -5992,10 +5944,10 @@
       </c>
       <c r="D299" s="3"/>
       <c r="E299" s="3" t="n">
-        <v>-8.65762428191044</v>
+        <v>15.3203806620925</v>
       </c>
       <c r="F299" s="3" t="n">
-        <v>-8.62855595078502</v>
+        <v>15.3664514862726</v>
       </c>
       <c r="G299" s="3"/>
     </row>
@@ -6011,10 +5963,10 @@
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3" t="n">
-        <v>-8.37462893907476</v>
+        <v>14.8153918565574</v>
       </c>
       <c r="F300" s="3" t="n">
-        <v>-8.34445864772759</v>
+        <v>14.9789337944585</v>
       </c>
       <c r="G300" s="3"/>
     </row>
@@ -6030,10 +5982,10 @@
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3" t="n">
-        <v>-8.01905495362554</v>
+        <v>12.9643996468922</v>
       </c>
       <c r="F301" s="3" t="n">
-        <v>-8.04623273352718</v>
+        <v>13.0473011937792</v>
       </c>
       <c r="G301" s="3"/>
     </row>
@@ -6049,10 +6001,10 @@
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="3" t="n">
-        <v>-7.41528097167077</v>
+        <v>11.9380946062595</v>
       </c>
       <c r="F302" s="3" t="n">
-        <v>-7.47553564236139</v>
+        <v>11.9051540610804</v>
       </c>
       <c r="G302" s="3"/>
     </row>
@@ -6068,10 +6020,10 @@
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3" t="n">
-        <v>-6.97511871942436</v>
+        <v>11.3189773025416</v>
       </c>
       <c r="F303" s="3" t="n">
-        <v>-7.03830225376105</v>
+        <v>11.2619991405869</v>
       </c>
       <c r="G303" s="3"/>
     </row>
@@ -6087,10 +6039,10 @@
       </c>
       <c r="D304" s="3"/>
       <c r="E304" s="3" t="n">
-        <v>-6.69498249402848</v>
+        <v>10.9143416631932</v>
       </c>
       <c r="F304" s="3" t="n">
-        <v>-6.75529468321402</v>
+        <v>10.8177635153701</v>
       </c>
       <c r="G304" s="3"/>
     </row>
@@ -6106,10 +6058,10 @@
       </c>
       <c r="D305" s="3"/>
       <c r="E305" s="3" t="n">
-        <v>-6.63130529892648</v>
+        <v>10.4368196162897</v>
       </c>
       <c r="F305" s="3" t="n">
-        <v>-6.62418970783627</v>
+        <v>10.175270313161</v>
       </c>
       <c r="G305" s="3"/>
     </row>
@@ -6125,10 +6077,10 @@
       </c>
       <c r="D306" s="3"/>
       <c r="E306" s="3" t="n">
-        <v>-6.55055030404307</v>
+        <v>10.0922624675255</v>
       </c>
       <c r="F306" s="3" t="n">
-        <v>-6.34761158463368</v>
+        <v>9.98423934719366</v>
       </c>
       <c r="G306" s="3"/>
     </row>
@@ -6144,10 +6096,10 @@
       </c>
       <c r="D307" s="3"/>
       <c r="E307" s="3" t="n">
-        <v>-6.46827787976386</v>
+        <v>9.99632943437134</v>
       </c>
       <c r="F307" s="3" t="n">
-        <v>-6.15650086353533</v>
+        <v>10.1528279856471</v>
       </c>
       <c r="G307" s="3"/>
     </row>
@@ -6163,10 +6115,10 @@
       </c>
       <c r="D308" s="3"/>
       <c r="E308" s="3" t="n">
-        <v>-6.4119709566355</v>
+        <v>9.86963688618183</v>
       </c>
       <c r="F308" s="3" t="n">
-        <v>-6.12478718189675</v>
+        <v>10.0515334319259</v>
       </c>
       <c r="G308" s="3"/>
     </row>
@@ -6182,10 +6134,10 @@
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="3" t="n">
-        <v>-6.37743623769078</v>
+        <v>9.7049313887319</v>
       </c>
       <c r="F309" s="3" t="n">
-        <v>-6.03009781983308</v>
+        <v>9.85859331140708</v>
       </c>
       <c r="G309" s="3"/>
     </row>
@@ -6201,10 +6153,10 @@
       </c>
       <c r="D310" s="3"/>
       <c r="E310" s="3" t="n">
-        <v>-6.31300737644046</v>
+        <v>9.61867043912901</v>
       </c>
       <c r="F310" s="3" t="n">
-        <v>-5.92727798845181</v>
+        <v>9.62139192683846</v>
       </c>
       <c r="G310" s="3"/>
     </row>
@@ -6220,10 +6172,10 @@
       </c>
       <c r="D311" s="3"/>
       <c r="E311" s="3" t="n">
-        <v>-6.28563535092168</v>
+        <v>9.47821229067931</v>
       </c>
       <c r="F311" s="3" t="n">
-        <v>-5.91745132840957</v>
+        <v>9.44338358725891</v>
       </c>
       <c r="G311" s="3"/>
     </row>
@@ -6239,10 +6191,10 @@
       </c>
       <c r="D312" s="3"/>
       <c r="E312" s="3" t="n">
-        <v>-6.39376262573363</v>
+        <v>9.14007642436301</v>
       </c>
       <c r="F312" s="3" t="n">
-        <v>-6.13345296145248</v>
+        <v>9.10415074158604</v>
       </c>
       <c r="G312" s="3"/>
     </row>
@@ -6258,10 +6210,10 @@
       </c>
       <c r="D313" s="3"/>
       <c r="E313" s="3" t="n">
-        <v>-6.48083807751949</v>
+        <v>8.71816977916735</v>
       </c>
       <c r="F313" s="3" t="n">
-        <v>-6.25208291314756</v>
+        <v>8.75030243210155</v>
       </c>
       <c r="G313" s="3"/>
     </row>
@@ -6277,10 +6229,10 @@
       </c>
       <c r="D314" s="3"/>
       <c r="E314" s="3" t="n">
-        <v>-6.58705721834013</v>
+        <v>8.00918450635664</v>
       </c>
       <c r="F314" s="3" t="n">
-        <v>-6.40119079647931</v>
+        <v>8.07952328528581</v>
       </c>
       <c r="G314" s="3"/>
     </row>
@@ -6296,10 +6248,10 @@
       </c>
       <c r="D315" s="3"/>
       <c r="E315" s="3" t="n">
-        <v>-9.27760163806086</v>
+        <v>7.49812160295744</v>
       </c>
       <c r="F315" s="3" t="n">
-        <v>-8.77569944288553</v>
+        <v>7.57118514871982</v>
       </c>
       <c r="G315" s="3"/>
     </row>
@@ -6315,10 +6267,10 @@
       </c>
       <c r="D316" s="3"/>
       <c r="E316" s="3" t="n">
-        <v>-12.5186844017522</v>
+        <v>7.17537242153135</v>
       </c>
       <c r="F316" s="3" t="n">
-        <v>-11.7582249252201</v>
+        <v>7.24469519235846</v>
       </c>
       <c r="G316" s="3"/>
     </row>
@@ -6334,10 +6286,10 @@
       </c>
       <c r="D317" s="3"/>
       <c r="E317" s="3" t="n">
-        <v>-16.9639294061088</v>
+        <v>7.10227910988481</v>
       </c>
       <c r="F317" s="3" t="n">
-        <v>-15.885640908123</v>
+        <v>7.09411750978099</v>
       </c>
       <c r="G317" s="3"/>
     </row>
@@ -6353,10 +6305,10 @@
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3" t="n">
-        <v>-22.7155499328966</v>
+        <v>7.00972592707143</v>
       </c>
       <c r="F318" s="3" t="n">
-        <v>-22.0586678618803</v>
+        <v>6.77784271393145</v>
       </c>
       <c r="G318" s="3"/>
     </row>
@@ -6372,10 +6324,10 @@
       </c>
       <c r="D319" s="3"/>
       <c r="E319" s="3" t="n">
-        <v>-25.4577047254474</v>
+        <v>6.91559797375356</v>
       </c>
       <c r="F319" s="3" t="n">
-        <v>-25.1176492830188</v>
+        <v>6.56039141782503</v>
       </c>
       <c r="G319" s="3"/>
     </row>
@@ -6391,10 +6343,10 @@
       </c>
       <c r="D320" s="3"/>
       <c r="E320" s="3" t="n">
-        <v>-27.3891920637819</v>
+        <v>6.85127256357165</v>
       </c>
       <c r="F320" s="3" t="n">
-        <v>-27.2403775412797</v>
+        <v>6.52439232682691</v>
       </c>
       <c r="G320" s="3"/>
     </row>
@@ -6410,10 +6362,10 @@
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3" t="n">
-        <v>-28.5242736521837</v>
+        <v>6.81185814765972</v>
       </c>
       <c r="F321" s="3" t="n">
-        <v>-28.3309103046803</v>
+        <v>6.41705235392465</v>
       </c>
       <c r="G321" s="3"/>
     </row>
@@ -6429,10 +6381,10 @@
       </c>
       <c r="D322" s="3"/>
       <c r="E322" s="3" t="n">
-        <v>-29.3627960709491</v>
+        <v>6.73840327205992</v>
       </c>
       <c r="F322" s="3" t="n">
-        <v>-29.1471485801991</v>
+        <v>6.30074038648971</v>
       </c>
       <c r="G322" s="3"/>
     </row>
@@ -6448,10 +6400,10 @@
       </c>
       <c r="D323" s="3"/>
       <c r="E323" s="3" t="n">
-        <v>-30.3021394639459</v>
+        <v>6.70722719452754</v>
       </c>
       <c r="F323" s="3" t="n">
-        <v>-30.1026349571932</v>
+        <v>6.28963757036956</v>
       </c>
       <c r="G323" s="3"/>
     </row>
@@ -6467,10 +6419,10 @@
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="3" t="n">
-        <v>-31.348796740138</v>
+        <v>6.83048780197137</v>
       </c>
       <c r="F324" s="3" t="n">
-        <v>-31.0712010898616</v>
+        <v>6.53422668134762</v>
       </c>
       <c r="G324" s="3"/>
     </row>
@@ -6486,10 +6438,10 @@
       </c>
       <c r="D325" s="3"/>
       <c r="E325" s="3" t="n">
-        <v>-32.6427114253418</v>
+        <v>6.92995739513957</v>
       </c>
       <c r="F325" s="3" t="n">
-        <v>-32.282035168713</v>
+        <v>6.66903661161382</v>
       </c>
       <c r="G325" s="3"/>
     </row>
@@ -6505,10 +6457,10 @@
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="3" t="n">
-        <v>-34.1958512576591</v>
+        <v>7.05154662961052</v>
       </c>
       <c r="F326" s="3" t="n">
-        <v>-33.8138669860613</v>
+        <v>6.83896606265642</v>
       </c>
       <c r="G326" s="3"/>
     </row>
@@ -6526,14 +6478,12 @@
         <v>13.9783573983716</v>
       </c>
       <c r="E327" s="3" t="n">
-        <v>-34.0884987401301</v>
+        <v>10.2263628448706</v>
       </c>
       <c r="F327" s="3" t="n">
-        <v>-33.842493047222</v>
-      </c>
-      <c r="G327" s="3" t="n">
-        <v>-33.4294382626134</v>
-      </c>
+        <v>9.61991419971609</v>
+      </c>
+      <c r="G327" s="3"/>
     </row>
     <row r="328">
       <c r="A328" s="5" t="n">
@@ -6549,14 +6499,12 @@
         <v>14.6060454053502</v>
       </c>
       <c r="E328" s="3" t="n">
-        <v>-32.8619777675263</v>
+        <v>14.3101236145596</v>
       </c>
       <c r="F328" s="3" t="n">
-        <v>-32.7657381869787</v>
-      </c>
-      <c r="G328" s="3" t="n">
-        <v>-32.1354594471133</v>
-      </c>
+        <v>13.3250095153409</v>
+      </c>
+      <c r="G328" s="3"/>
     </row>
     <row r="329">
       <c r="A329" s="5" t="n">
@@ -6572,14 +6520,12 @@
         <v>15.316827226528</v>
       </c>
       <c r="E329" s="3" t="n">
-        <v>-30.435498654041</v>
+        <v>20.4295907607131</v>
       </c>
       <c r="F329" s="3" t="n">
-        <v>-30.6211287139629</v>
-      </c>
-      <c r="G329" s="3" t="n">
-        <v>-30.3732882510219</v>
-      </c>
+        <v>18.8857658545212</v>
+      </c>
+      <c r="G329" s="3"/>
     </row>
     <row r="330">
       <c r="A330" s="5" t="n">
@@ -6595,14 +6541,12 @@
         <v>16.3367707817402</v>
       </c>
       <c r="E330" s="3" t="n">
-        <v>-26.9684577653793</v>
+        <v>29.3921350455019</v>
       </c>
       <c r="F330" s="3" t="n">
-        <v>-26.8493261545376</v>
-      </c>
-      <c r="G330" s="3" t="n">
-        <v>-27.7814704605445</v>
-      </c>
+        <v>28.3016305428167</v>
+      </c>
+      <c r="G330" s="3"/>
     </row>
     <row r="331">
       <c r="A331" s="5" t="n">
@@ -6618,14 +6562,12 @@
         <v>16.9941351512671</v>
       </c>
       <c r="E331" s="3" t="n">
-        <v>-25.2780398993798</v>
+        <v>34.1520268884693</v>
       </c>
       <c r="F331" s="3" t="n">
-        <v>-24.9028561709225</v>
-      </c>
-      <c r="G331" s="3" t="n">
-        <v>-26.2105341433928</v>
-      </c>
+        <v>33.5428162210762</v>
+      </c>
+      <c r="G331" s="3"/>
     </row>
     <row r="332">
       <c r="A332" s="5" t="n">
@@ -6641,14 +6583,12 @@
         <v>17.5640531742958</v>
       </c>
       <c r="E332" s="3" t="n">
-        <v>-24.1417999166629</v>
+        <v>37.7205444234152</v>
       </c>
       <c r="F332" s="3" t="n">
-        <v>-23.5072418409159</v>
-      </c>
-      <c r="G332" s="3" t="n">
-        <v>-25.0780630340241</v>
-      </c>
+        <v>37.4388659819317</v>
+      </c>
+      <c r="G332" s="3"/>
     </row>
     <row r="333">
       <c r="A333" s="5" t="n">
@@ -6664,14 +6604,12 @@
         <v>18.0135511260982</v>
       </c>
       <c r="E333" s="3" t="n">
-        <v>-23.6802668049594</v>
+        <v>39.9076373332373</v>
       </c>
       <c r="F333" s="3" t="n">
-        <v>-23.0964536878839</v>
-      </c>
-      <c r="G333" s="3" t="n">
-        <v>-24.2890404057406</v>
-      </c>
+        <v>39.5301662475706</v>
+      </c>
+      <c r="G333" s="3"/>
     </row>
     <row r="334">
       <c r="A334" s="5" t="n">
@@ -6687,14 +6625,12 @@
         <v>18.4097635154976</v>
       </c>
       <c r="E334" s="3" t="n">
-        <v>-23.4320379410572</v>
+        <v>41.5684574667502</v>
       </c>
       <c r="F334" s="3" t="n">
-        <v>-22.8694602842454</v>
-      </c>
-      <c r="G334" s="3" t="n">
-        <v>-23.7048090796757</v>
-      </c>
+        <v>41.137580204787</v>
+      </c>
+      <c r="G334" s="3"/>
     </row>
     <row r="335">
       <c r="A335" s="5" t="n">
@@ -6710,14 +6646,12 @@
         <v>18.8133620255616</v>
       </c>
       <c r="E335" s="3" t="n">
-        <v>-23.0781039042929</v>
+        <v>43.4764270106553</v>
       </c>
       <c r="F335" s="3" t="n">
-        <v>-22.503171374999</v>
-      </c>
-      <c r="G335" s="3" t="n">
-        <v>-23.3325629322447</v>
-      </c>
+        <v>43.0669095161994</v>
+      </c>
+      <c r="G335" s="3"/>
     </row>
     <row r="336">
       <c r="A336" s="5" t="n">
@@ -6733,14 +6667,12 @@
         <v>19.1838549076145</v>
       </c>
       <c r="E336" s="3" t="n">
-        <v>-22.4631808978839</v>
+        <v>45.6638707721916</v>
       </c>
       <c r="F336" s="3" t="n">
-        <v>-21.8212157335633</v>
-      </c>
-      <c r="G336" s="3" t="n">
-        <v>-22.8417132666015</v>
-      </c>
+        <v>45.0772414159845</v>
+      </c>
+      <c r="G336" s="3"/>
     </row>
     <row r="337">
       <c r="A337" s="5" t="n">
@@ -6756,14 +6688,12 @@
         <v>19.6506310900138</v>
       </c>
       <c r="E337" s="3" t="n">
-        <v>-21.7370256033244</v>
+        <v>48.4620330124496</v>
       </c>
       <c r="F337" s="3" t="n">
-        <v>-21.0564826706738</v>
-      </c>
-      <c r="G337" s="3" t="n">
-        <v>-22.1829330785609</v>
-      </c>
+        <v>47.6713014768542</v>
+      </c>
+      <c r="G337" s="3"/>
     </row>
     <row r="338">
       <c r="A338" s="5" t="n">
@@ -6779,14 +6709,12 @@
         <v>20.2630192893188</v>
       </c>
       <c r="E338" s="3" t="n">
-        <v>-21.6944128476519</v>
+        <v>51.9661023069449</v>
       </c>
       <c r="F338" s="3" t="n">
-        <v>-20.3813686905915</v>
-      </c>
-      <c r="G338" s="3" t="n">
-        <v>-21.5789366206717</v>
-      </c>
+        <v>51.0890506005846</v>
+      </c>
+      <c r="G338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -6802,13 +6730,13 @@
         <v>20.9978059874493</v>
       </c>
       <c r="E339" s="3" t="n">
-        <v>-20.9131024864156</v>
+        <v>51.7185894548648</v>
       </c>
       <c r="F339" s="3" t="n">
-        <v>-19.5969308896406</v>
+        <v>51.1544261656929</v>
       </c>
       <c r="G339" s="3" t="n">
-        <v>-20.8317585947028</v>
+        <v>50.2165482612101</v>
       </c>
     </row>
     <row r="340">
@@ -6825,13 +6753,13 @@
         <v>21.5223521537993</v>
       </c>
       <c r="E340" s="3" t="n">
-        <v>-20.4047943702226</v>
+        <v>48.9468957750015</v>
       </c>
       <c r="F340" s="3" t="n">
-        <v>-19.1827396475553</v>
+        <v>48.7336921733451</v>
       </c>
       <c r="G340" s="3" t="n">
-        <v>-20.2492546811063</v>
+        <v>47.3523568940547</v>
       </c>
     </row>
     <row r="341">
@@ -6848,13 +6776,13 @@
         <v>21.9984928797859</v>
       </c>
       <c r="E341" s="3" t="n">
-        <v>-19.6525454200415</v>
+        <v>43.7514796558072</v>
       </c>
       <c r="F341" s="3" t="n">
-        <v>-18.5091442357946</v>
+        <v>44.1361010151308</v>
       </c>
       <c r="G341" s="3" t="n">
-        <v>-19.5372577032837</v>
+        <v>43.6230399053244</v>
       </c>
     </row>
     <row r="342">
@@ -6871,13 +6799,13 @@
         <v>22.621300774083</v>
       </c>
       <c r="E342" s="3" t="n">
-        <v>-18.2516527865205</v>
+        <v>36.9271371522467</v>
       </c>
       <c r="F342" s="3" t="n">
-        <v>-17.5532218977664</v>
+        <v>36.7041405678085</v>
       </c>
       <c r="G342" s="3" t="n">
-        <v>-18.1563099494278</v>
+        <v>38.4686182863451</v>
       </c>
     </row>
     <row r="343">
@@ -6894,13 +6822,13 @@
         <v>23.0305707650619</v>
       </c>
       <c r="E343" s="3" t="n">
-        <v>-17.5143860488016</v>
+        <v>33.8294657492129</v>
       </c>
       <c r="F343" s="3" t="n">
-        <v>-16.7819293287405</v>
+        <v>33.1608565934303</v>
       </c>
       <c r="G343" s="3" t="n">
-        <v>-17.4613453954415</v>
+        <v>35.5206991121564</v>
       </c>
     </row>
     <row r="344">
@@ -6917,13 +6845,13 @@
         <v>23.4431381322564</v>
       </c>
       <c r="E344" s="3" t="n">
-        <v>-16.9084588308375</v>
+        <v>31.8249047435096</v>
       </c>
       <c r="F344" s="3" t="n">
-        <v>-16.2075418758124</v>
+        <v>30.7313298757345</v>
       </c>
       <c r="G344" s="3" t="n">
-        <v>-16.7719459320524</v>
+        <v>33.472256657503</v>
       </c>
     </row>
     <row r="345">
@@ -6940,13 +6868,13 @@
         <v>23.792527822437</v>
       </c>
       <c r="E345" s="3" t="n">
-        <v>-16.4551141255057</v>
+        <v>31.0277117248861</v>
       </c>
       <c r="F345" s="3" t="n">
-        <v>-15.7718214286793</v>
+        <v>30.0330151149935</v>
       </c>
       <c r="G345" s="3" t="n">
-        <v>-16.2511490503184</v>
+        <v>32.0812740135739</v>
       </c>
     </row>
     <row r="346">
@@ -6963,13 +6891,13 @@
         <v>24.1296512839493</v>
       </c>
       <c r="E346" s="3" t="n">
-        <v>-16.0907765758277</v>
+        <v>30.6029275312551</v>
       </c>
       <c r="F346" s="3" t="n">
-        <v>-15.4229907976093</v>
+        <v>29.6503309435214</v>
       </c>
       <c r="G346" s="3" t="n">
-        <v>-15.8242000919908</v>
+        <v>31.0698600969894</v>
       </c>
     </row>
     <row r="347">
@@ -6986,13 +6914,13 @@
         <v>24.5389212749282</v>
       </c>
       <c r="E347" s="3" t="n">
-        <v>-15.7978953459089</v>
+        <v>30.0019956288894</v>
       </c>
       <c r="F347" s="3" t="n">
-        <v>-15.1526849391058</v>
+        <v>29.037538405461</v>
       </c>
       <c r="G347" s="3" t="n">
-        <v>-15.4215081966649</v>
+        <v>30.4334719205813</v>
       </c>
     </row>
     <row r="348">
@@ -7009,13 +6937,13 @@
         <v>24.8629871395403</v>
       </c>
       <c r="E348" s="3" t="n">
-        <v>-15.4228129839568</v>
+        <v>28.9709858593758</v>
       </c>
       <c r="F348" s="3" t="n">
-        <v>-14.8346318839154</v>
+        <v>27.9119404814427</v>
       </c>
       <c r="G348" s="3" t="n">
-        <v>-14.8911001922064</v>
+        <v>29.603707176036</v>
       </c>
     </row>
     <row r="349">
@@ -7032,13 +6960,13 @@
         <v>25.2523409933354</v>
       </c>
       <c r="E349" s="3" t="n">
-        <v>-15.0912621037297</v>
+        <v>27.7743412780997</v>
       </c>
       <c r="F349" s="3" t="n">
-        <v>-14.4758133053842</v>
+        <v>26.6728458308149</v>
       </c>
       <c r="G349" s="3" t="n">
-        <v>-14.316530026622</v>
+        <v>28.506514002842</v>
       </c>
     </row>
     <row r="350">
@@ -7055,13 +6983,13 @@
         <v>25.8387458880851</v>
       </c>
       <c r="E350" s="3" t="n">
-        <v>-13.5833987381249</v>
+        <v>27.7048083496828</v>
       </c>
       <c r="F350" s="3" t="n">
-        <v>-13.6576482844666</v>
+        <v>25.598742851264</v>
       </c>
       <c r="G350" s="3" t="n">
-        <v>-13.5261115763563</v>
+        <v>27.5167610470835</v>
       </c>
     </row>
     <row r="351">
@@ -7078,13 +7006,13 @@
         <v>26.5230168243251</v>
       </c>
       <c r="E351" s="3" t="n">
-        <v>-13.2485829203498</v>
+        <v>26.4431949461963</v>
       </c>
       <c r="F351" s="3" t="n">
-        <v>-13.2466275081265</v>
+        <v>24.3733617466049</v>
       </c>
       <c r="G351" s="3" t="n">
-        <v>-13.0051826849798</v>
+        <v>26.3132769213045</v>
       </c>
     </row>
     <row r="352">
@@ -7101,13 +7029,13 @@
         <v>26.9870232155692</v>
       </c>
       <c r="E352" s="3" t="n">
-        <v>-13.3085005314972</v>
+        <v>25.6357078404091</v>
       </c>
       <c r="F352" s="3" t="n">
-        <v>-13.2702791115989</v>
+        <v>23.7359439851081</v>
       </c>
       <c r="G352" s="3" t="n">
-        <v>-13.0188959934782</v>
+        <v>25.3906776671955</v>
       </c>
     </row>
     <row r="353">
@@ -7124,13 +7052,13 @@
         <v>27.339974069817</v>
       </c>
       <c r="E353" s="3" t="n">
-        <v>-13.245839535339</v>
+        <v>24.4594499262999</v>
       </c>
       <c r="F353" s="3" t="n">
-        <v>-13.1856127841517</v>
+        <v>22.7131548223656</v>
       </c>
       <c r="G353" s="3" t="n">
-        <v>-12.8794183104575</v>
+        <v>24.2811233443147</v>
       </c>
     </row>
     <row r="354">
@@ -7147,13 +7075,13 @@
         <v>27.6396393663397</v>
       </c>
       <c r="E354" s="3" t="n">
-        <v>-13.1214330701702</v>
+        <v>22.3266321689144</v>
       </c>
       <c r="F354" s="3" t="n">
-        <v>-12.6390276346874</v>
+        <v>21.2903673155068</v>
       </c>
       <c r="G354" s="3" t="n">
-        <v>-12.7619539246598</v>
+        <v>22.1841292080169</v>
       </c>
     </row>
     <row r="355">
@@ -7170,13 +7098,13 @@
         <v>27.9027697693899</v>
       </c>
       <c r="E355" s="3" t="n">
-        <v>-13.0213664617404</v>
+        <v>21.2332614256393</v>
       </c>
       <c r="F355" s="3" t="n">
-        <v>-12.5840795551604</v>
+        <v>20.1662081244769</v>
       </c>
       <c r="G355" s="3" t="n">
-        <v>-12.7231396837667</v>
+        <v>21.1553550019667</v>
       </c>
     </row>
     <row r="356">
@@ -7193,13 +7121,13 @@
         <v>28.1673510149803</v>
       </c>
       <c r="E356" s="3" t="n">
-        <v>-13.2747063625962</v>
+        <v>20.3491939046049</v>
       </c>
       <c r="F356" s="3" t="n">
-        <v>-12.8310535740495</v>
+        <v>19.342482890037</v>
       </c>
       <c r="G356" s="3" t="n">
-        <v>-12.9708869119978</v>
+        <v>20.1517939111729</v>
       </c>
     </row>
     <row r="357">
@@ -7216,13 +7144,13 @@
         <v>28.4093782214781</v>
       </c>
       <c r="E357" s="3" t="n">
-        <v>-13.3546351148971</v>
+        <v>19.6961357398051</v>
       </c>
       <c r="F357" s="3" t="n">
-        <v>-12.9229277697367</v>
+        <v>18.7251127784087</v>
       </c>
       <c r="G357" s="3" t="n">
-        <v>-13.0441452545349</v>
+        <v>19.4046233065126</v>
       </c>
     </row>
     <row r="358">
@@ -7239,13 +7167,13 @@
         <v>28.6657819828492</v>
       </c>
       <c r="E358" s="3" t="n">
-        <v>-13.4165829962903</v>
+        <v>19.1764098381494</v>
       </c>
       <c r="F358" s="3" t="n">
-        <v>-13.0232911482933</v>
+        <v>18.2354412186679</v>
       </c>
       <c r="G358" s="3" t="n">
-        <v>-13.1089406534644</v>
+        <v>18.7989898632197</v>
       </c>
     </row>
     <row r="359">
@@ -7262,13 +7190,13 @@
         <v>29.0131932501078</v>
       </c>
       <c r="E359" s="3" t="n">
-        <v>-13.7372735359719</v>
+        <v>18.7618770466699</v>
       </c>
       <c r="F359" s="3" t="n">
-        <v>-13.3467397585867</v>
+        <v>17.8587677503181</v>
       </c>
       <c r="G359" s="3" t="n">
-        <v>-13.4643073479649</v>
+        <v>18.2333686352832</v>
       </c>
     </row>
     <row r="360">
@@ -7285,13 +7213,13 @@
         <v>29.2131459761433</v>
       </c>
       <c r="E360" s="3" t="n">
-        <v>-14.2762920905914</v>
+        <v>18.2351926424691</v>
       </c>
       <c r="F360" s="3" t="n">
-        <v>-13.9266312265429</v>
+        <v>17.4186200471711</v>
       </c>
       <c r="G360" s="3" t="n">
-        <v>-14.0259760427604</v>
+        <v>17.4965253056211</v>
       </c>
     </row>
     <row r="361">
@@ -7308,13 +7236,13 @@
         <v>29.4716600543621</v>
       </c>
       <c r="E361" s="3" t="n">
-        <v>-14.825671264215</v>
+        <v>17.7735089198547</v>
       </c>
       <c r="F361" s="3" t="n">
-        <v>-14.444257473138</v>
+        <v>16.9259876823775</v>
       </c>
       <c r="G361" s="3" t="n">
-        <v>-14.5053355688193</v>
+        <v>16.7086253988898</v>
       </c>
     </row>
     <row r="362">
@@ -7331,13 +7259,13 @@
         <v>29.8804024649599</v>
       </c>
       <c r="E362" s="3" t="n">
-        <v>-15.6894683591092</v>
+        <v>15.7185060969501</v>
       </c>
       <c r="F362" s="3" t="n">
-        <v>-15.3111101972158</v>
+        <v>15.8180174770587</v>
       </c>
       <c r="G362" s="3" t="n">
-        <v>-15.3092161083493</v>
+        <v>15.6418449811007</v>
       </c>
     </row>
     <row r="363">
@@ -7354,13 +7282,13 @@
         <v>30.4880424408291</v>
       </c>
       <c r="E363" s="3" t="n">
-        <v>-15.9769776918884</v>
+        <v>15.2718922253289</v>
       </c>
       <c r="F363" s="3" t="n">
-        <v>-15.7203172197</v>
+        <v>15.2692940085612</v>
       </c>
       <c r="G363" s="3" t="n">
-        <v>-15.7368658985936</v>
+        <v>14.9493763954768</v>
       </c>
     </row>
     <row r="364">
@@ -7377,13 +7305,13 @@
         <v>31.0263056830662</v>
       </c>
       <c r="E364" s="3" t="n">
-        <v>-15.639686037783</v>
+        <v>15.3515634325053</v>
       </c>
       <c r="F364" s="3" t="n">
-        <v>-15.3774795899126</v>
+        <v>15.3007284880743</v>
       </c>
       <c r="G364" s="3" t="n">
-        <v>-15.397396849915</v>
+        <v>14.9674991392407</v>
       </c>
     </row>
     <row r="365">
@@ -7400,13 +7328,13 @@
         <v>31.3817625406176</v>
       </c>
       <c r="E365" s="3" t="n">
-        <v>-15.4371281562426</v>
+        <v>15.268247037829</v>
       </c>
       <c r="F365" s="3" t="n">
-        <v>-15.2128610742148</v>
+        <v>15.1882806606329</v>
       </c>
       <c r="G365" s="3" t="n">
-        <v>-15.2082108330063</v>
+        <v>14.7834392983667</v>
       </c>
     </row>
     <row r="366">
@@ -7423,13 +7351,13 @@
         <v>31.6830105782856</v>
       </c>
       <c r="E366" s="3" t="n">
-        <v>-15.4221420508902</v>
+        <v>15.1031877410779</v>
       </c>
       <c r="F366" s="3" t="n">
-        <v>-15.2287595517996</v>
+        <v>14.4675903810176</v>
       </c>
       <c r="G366" s="3" t="n">
-        <v>-15.2259685608791</v>
+        <v>14.6288855594477</v>
       </c>
     </row>
     <row r="367">
@@ -7446,13 +7374,13 @@
         <v>31.9704096461408</v>
       </c>
       <c r="E367" s="3" t="n">
-        <v>-15.2582079400213</v>
+        <v>14.9707645798007</v>
       </c>
       <c r="F367" s="3" t="n">
-        <v>-15.105378216011</v>
+        <v>14.3956381070208</v>
       </c>
       <c r="G367" s="3" t="n">
-        <v>-15.0850925281043</v>
+        <v>14.5779071768467</v>
       </c>
     </row>
     <row r="368">
@@ -7469,13 +7397,13 @@
         <v>32.3654349855295</v>
       </c>
       <c r="E368" s="3" t="n">
-        <v>-14.8162849843086</v>
+        <v>15.3066144902287</v>
       </c>
       <c r="F368" s="3" t="n">
-        <v>-14.6479255708787</v>
+        <v>14.7197529626555</v>
       </c>
       <c r="G368" s="3" t="n">
-        <v>-14.6197365442486</v>
+        <v>14.9040780168377</v>
       </c>
     </row>
     <row r="369">
@@ -7492,13 +7420,13 @@
         <v>32.671035555498</v>
       </c>
       <c r="E369" s="3" t="n">
-        <v>-14.5595858452177</v>
+        <v>15.4129827170861</v>
       </c>
       <c r="F369" s="3" t="n">
-        <v>-14.3992282266852</v>
+        <v>14.8407926894507</v>
       </c>
       <c r="G369" s="3" t="n">
-        <v>-14.367448538639</v>
+        <v>15.0008821058885</v>
       </c>
     </row>
     <row r="370">
@@ -7515,13 +7443,13 @@
         <v>32.9904850952794</v>
       </c>
       <c r="E370" s="3" t="n">
-        <v>-14.2210290567492</v>
+        <v>15.4955573025207</v>
       </c>
       <c r="F370" s="3" t="n">
-        <v>-13.9910844543071</v>
+        <v>14.9733087400418</v>
       </c>
       <c r="G370" s="3" t="n">
-        <v>-13.9936869050201</v>
+        <v>15.0866392377423</v>
       </c>
     </row>
     <row r="371">
@@ -7538,13 +7466,13 @@
         <v>33.5274293889014</v>
       </c>
       <c r="E371" s="3" t="n">
-        <v>-13.6640210303592</v>
+        <v>15.9249238913175</v>
       </c>
       <c r="F371" s="3" t="n">
-        <v>-13.4182658169064</v>
+        <v>15.4024669370813</v>
       </c>
       <c r="G371" s="3" t="n">
-        <v>-13.4253125620254</v>
+        <v>15.5592529918327</v>
       </c>
     </row>
     <row r="372">
@@ -7561,13 +7489,13 @@
         <v>33.9790376575521</v>
       </c>
       <c r="E372" s="3" t="n">
-        <v>-12.9780082444906</v>
+        <v>16.6538434217968</v>
       </c>
       <c r="F372" s="3" t="n">
-        <v>-12.802584217607</v>
+        <v>16.1799537127418</v>
       </c>
       <c r="G372" s="3" t="n">
-        <v>-12.7934844418397</v>
+        <v>16.3142021242794</v>
       </c>
     </row>
     <row r="373">
@@ -7584,13 +7512,13 @@
         <v>34.4719290384319</v>
       </c>
       <c r="E373" s="3" t="n">
-        <v>-12.2175540690098</v>
+        <v>17.4062672219055</v>
       </c>
       <c r="F373" s="3" t="n">
-        <v>-12.2650087450442</v>
+        <v>16.8828614497769</v>
       </c>
       <c r="G373" s="3" t="n">
-        <v>-12.1390800413404</v>
+        <v>16.9663635331248</v>
       </c>
     </row>
     <row r="374">
@@ -7607,13 +7535,13 @@
         <v>35.2817639557894</v>
       </c>
       <c r="E374" s="3" t="n">
-        <v>-10.9675999288158</v>
+        <v>18.6091441410148</v>
       </c>
       <c r="F374" s="3" t="n">
-        <v>-11.0535772969955</v>
+        <v>18.0792430186191</v>
       </c>
       <c r="G374" s="3" t="n">
-        <v>-10.9313452887259</v>
+        <v>18.0766022049521</v>
       </c>
     </row>
     <row r="375">
@@ -7630,13 +7558,13 @@
         <v>36.1819469047262</v>
       </c>
       <c r="E375" s="3" t="n">
-        <v>-9.92872783405659</v>
+        <v>19.0150000000011</v>
       </c>
       <c r="F375" s="3" t="n">
-        <v>-9.98842520454629</v>
+        <v>18.6525586014362</v>
       </c>
       <c r="G375" s="3" t="n">
-        <v>-9.80486281887293</v>
+        <v>18.6758611181671</v>
       </c>
     </row>
     <row r="376">
@@ -7653,13 +7581,13 @@
         <v>36.6729917612884</v>
       </c>
       <c r="E376" s="3" t="n">
-        <v>-9.52083940308142</v>
+        <v>18.5391510571993</v>
       </c>
       <c r="F376" s="3" t="n">
-        <v>-9.57326093748256</v>
+        <v>18.1718524990654</v>
       </c>
       <c r="G376" s="3" t="n">
-        <v>-9.38932864738625</v>
+        <v>18.199672677447</v>
       </c>
     </row>
     <row r="377">
@@ -7676,13 +7604,13 @@
         <v>37.0103790106523</v>
       </c>
       <c r="E377" s="3" t="n">
-        <v>-9.18370881511343</v>
+        <v>18.2552080122882</v>
       </c>
       <c r="F377" s="3" t="n">
-        <v>-9.24101052819064</v>
+        <v>17.9424158745712</v>
       </c>
       <c r="G377" s="3" t="n">
-        <v>-9.09959668948813</v>
+        <v>17.9359475515422</v>
       </c>
     </row>
     <row r="378">
@@ -7699,13 +7627,13 @@
         <v>37.3734857720412</v>
       </c>
       <c r="E378" s="3" t="n">
-        <v>-8.86876099899009</v>
+        <v>18.234254714951</v>
       </c>
       <c r="F378" s="3" t="n">
-        <v>-8.89486831470387</v>
+        <v>17.9645354618883</v>
       </c>
       <c r="G378" s="3" t="n">
-        <v>-8.7346244659456</v>
+        <v>17.9606517496025</v>
       </c>
     </row>
     <row r="379">
@@ -7722,13 +7650,13 @@
         <v>37.6499375645225</v>
       </c>
       <c r="E379" s="3" t="n">
-        <v>-8.6619920489497</v>
+        <v>18.0055289947394</v>
       </c>
       <c r="F379" s="3" t="n">
-        <v>-8.75912175563135</v>
+        <v>17.79309206942</v>
       </c>
       <c r="G379" s="3" t="n">
-        <v>-8.5584503364232</v>
+        <v>17.7649519704146</v>
       </c>
     </row>
     <row r="380">
@@ -7745,13 +7673,13 @@
         <v>37.9073964819785</v>
       </c>
       <c r="E380" s="3" t="n">
-        <v>-8.60323415888862</v>
+        <v>17.3933303819624</v>
       </c>
       <c r="F380" s="3" t="n">
-        <v>-8.65928182135569</v>
+        <v>17.1617686727026</v>
       </c>
       <c r="G380" s="3" t="n">
-        <v>-8.44755912871371</v>
+        <v>17.1230867094071</v>
       </c>
     </row>
     <row r="381">
@@ -7768,13 +7696,13 @@
         <v>38.1525891707662</v>
       </c>
       <c r="E381" s="3" t="n">
-        <v>-8.35667931843794</v>
+        <v>17.0406311688071</v>
       </c>
       <c r="F381" s="3" t="n">
-        <v>-8.42645219077568</v>
+        <v>16.8213766399405</v>
       </c>
       <c r="G381" s="3" t="n">
-        <v>-8.22257687143513</v>
+        <v>16.7780222514121</v>
       </c>
     </row>
     <row r="382">
@@ -7791,13 +7719,13 @@
         <v>38.3582133777166</v>
       </c>
       <c r="E382" s="3" t="n">
-        <v>-8.3444945569185</v>
+        <v>16.5786892759036</v>
       </c>
       <c r="F382" s="3" t="n">
-        <v>-8.41943450779766</v>
+        <v>16.2670164663037</v>
       </c>
       <c r="G382" s="3" t="n">
-        <v>-8.15977869172274</v>
+        <v>16.2705345706034</v>
       </c>
     </row>
     <row r="383">
@@ -7814,13 +7742,13 @@
         <v>38.7265959382432</v>
       </c>
       <c r="E383" s="3" t="n">
-        <v>-8.12997469214408</v>
+        <v>15.8265663903156</v>
       </c>
       <c r="F383" s="3" t="n">
-        <v>-8.22620741521826</v>
+        <v>15.4978020982242</v>
       </c>
       <c r="G383" s="3" t="n">
-        <v>-8.1177751861937</v>
+        <v>15.5072030397382</v>
       </c>
     </row>
     <row r="384">
@@ -7837,13 +7765,13 @@
         <v>38.9638749353431</v>
       </c>
       <c r="E384" s="3" t="n">
-        <v>-8.18038089746173</v>
+        <v>14.9134810439098</v>
       </c>
       <c r="F384" s="3" t="n">
-        <v>-8.08705448399917</v>
+        <v>14.6822977524434</v>
       </c>
       <c r="G384" s="3" t="n">
-        <v>-8.18718357400463</v>
+        <v>14.6703309494202</v>
       </c>
     </row>
     <row r="385">
@@ -7860,13 +7788,13 @@
         <v>39.2346552422302</v>
       </c>
       <c r="E385" s="3" t="n">
-        <v>-8.14916919310256</v>
+        <v>13.9179923040816</v>
       </c>
       <c r="F385" s="3" t="n">
-        <v>-7.88091771129232</v>
+        <v>13.9796090130133</v>
       </c>
       <c r="G385" s="3" t="n">
-        <v>-8.23446300710487</v>
+        <v>13.8162450917338</v>
       </c>
     </row>
     <row r="386">
@@ -7883,13 +7811,13 @@
         <v>39.6118747612829</v>
       </c>
       <c r="E386" s="3" t="n">
-        <v>-8.22261701938263</v>
+        <v>12.3186614311721</v>
       </c>
       <c r="F386" s="3" t="n">
-        <v>-7.99162668378609</v>
+        <v>12.427230866725</v>
       </c>
       <c r="G386" s="3" t="n">
-        <v>-8.47869279899301</v>
+        <v>12.2729430731395</v>
       </c>
     </row>
     <row r="387">
@@ -7906,13 +7834,13 @@
         <v>40.1151858465127</v>
       </c>
       <c r="E387" s="3" t="n">
-        <v>-7.50305794832266</v>
+        <v>11.0231904083295</v>
       </c>
       <c r="F387" s="3" t="n">
-        <v>-7.15940466497138</v>
+        <v>11.096823077748</v>
       </c>
       <c r="G387" s="3" t="n">
-        <v>-7.81501474360569</v>
+        <v>10.8707222199608</v>
       </c>
     </row>
     <row r="388">
@@ -7929,13 +7857,13 @@
         <v>40.4731487073686</v>
       </c>
       <c r="E388" s="3" t="n">
-        <v>-6.62078181882968</v>
+        <v>10.5226875893516</v>
       </c>
       <c r="F388" s="3" t="n">
-        <v>-6.57256031507439</v>
+        <v>10.5867590015206</v>
       </c>
       <c r="G388" s="3" t="n">
-        <v>-7.66020191440323</v>
+        <v>10.3622768788981</v>
       </c>
     </row>
     <row r="389">
@@ -7952,13 +7880,13 @@
         <v>40.7153078124708</v>
       </c>
       <c r="E389" s="3" t="n">
-        <v>-6.69426319190133</v>
+        <v>10.1124024063226</v>
       </c>
       <c r="F389" s="3" t="n">
-        <v>-6.23937141973442</v>
+        <v>10.1819231152425</v>
       </c>
       <c r="G389" s="3" t="n">
-        <v>-7.48882175730914</v>
+        <v>10.0105129989405</v>
       </c>
     </row>
     <row r="390">
@@ -7975,13 +7903,13 @@
         <v>40.9503445894394</v>
       </c>
       <c r="E390" s="3" t="n">
-        <v>-6.63435624369892</v>
+        <v>9.73185605310578</v>
       </c>
       <c r="F390" s="3" t="n">
-        <v>-6.01722747095409</v>
+        <v>9.76330108981058</v>
       </c>
       <c r="G390" s="3" t="n">
-        <v>-7.32915065504873</v>
+        <v>9.57057856260768</v>
       </c>
     </row>
     <row r="391">
@@ -7998,13 +7926,13 @@
         <v>41.1737746167258</v>
       </c>
       <c r="E391" s="3" t="n">
-        <v>-6.49988479928232</v>
+        <v>9.48344751901291</v>
       </c>
       <c r="F391" s="3" t="n">
-        <v>-5.93295507472744</v>
+        <v>9.59999719881255</v>
       </c>
       <c r="G391" s="3" t="n">
-        <v>-7.37974863677138</v>
+        <v>9.35947648296716</v>
       </c>
     </row>
     <row r="392">
@@ -8021,13 +7949,13 @@
         <v>41.4051183357007</v>
       </c>
       <c r="E392" s="3" t="n">
-        <v>-6.16798663802789</v>
+        <v>9.41306191714146</v>
       </c>
       <c r="F392" s="3" t="n">
-        <v>-5.57425281679295</v>
+        <v>9.48019896714611</v>
       </c>
       <c r="G392" s="3" t="n">
-        <v>-6.98380716489615</v>
+        <v>9.22701683135914</v>
       </c>
     </row>
     <row r="393">
@@ -8044,13 +7972,13 @@
         <v>41.5707783790364</v>
       </c>
       <c r="E393" s="3" t="n">
-        <v>-5.5565765519457</v>
+        <v>9.11869982044338</v>
       </c>
       <c r="F393" s="3" t="n">
-        <v>-5.03489605996962</v>
+        <v>9.20184091625515</v>
       </c>
       <c r="G393" s="3" t="n">
-        <v>-6.52191320795426</v>
+        <v>8.95925881457433</v>
       </c>
     </row>
     <row r="394">
@@ -8067,13 +7995,13 @@
         <v>41.7662466741677</v>
       </c>
       <c r="E394" s="3" t="n">
-        <v>-5.59692836263422</v>
+        <v>9.10419348688276</v>
       </c>
       <c r="F394" s="3" t="n">
-        <v>-4.97776021454156</v>
+        <v>9.19347294106252</v>
       </c>
       <c r="G394" s="3" t="n">
-        <v>-6.58881000301052</v>
+        <v>8.88475504031405</v>
       </c>
     </row>
     <row r="395">
@@ -8090,13 +8018,13 @@
         <v>42.1480825227298</v>
       </c>
       <c r="E395" s="3" t="n">
-        <v>-5.78435935672708</v>
+        <v>8.84943120990833</v>
       </c>
       <c r="F395" s="3" t="n">
-        <v>-4.99511302876988</v>
+        <v>8.96356921026096</v>
       </c>
       <c r="G395" s="3" t="n">
-        <v>-6.81103716947573</v>
+        <v>8.83497891201901</v>
       </c>
     </row>
     <row r="396">
@@ -8113,13 +8041,13 @@
         <v>42.4383832803446</v>
       </c>
       <c r="E396" s="3" t="n">
-        <v>-5.56240436104567</v>
+        <v>8.9091862691419</v>
       </c>
       <c r="F396" s="3" t="n">
-        <v>-4.65683511411047</v>
+        <v>8.79860224106441</v>
       </c>
       <c r="G396" s="3" t="n">
-        <v>-6.51513874483816</v>
+        <v>8.917255665067</v>
       </c>
     </row>
     <row r="397">
@@ -8136,13 +8064,13 @@
         <v>42.7553268121429</v>
       </c>
       <c r="E397" s="3" t="n">
-        <v>-5.11238644543315</v>
+        <v>8.87217798849851</v>
       </c>
       <c r="F397" s="3" t="n">
-        <v>-3.96014034815196</v>
+        <v>8.55514136212623</v>
       </c>
       <c r="G397" s="3" t="n">
-        <v>-5.98795275070737</v>
+        <v>8.9733720053776</v>
       </c>
     </row>
     <row r="398">
@@ -8159,13 +8087,13 @@
         <v>43.281587613564</v>
       </c>
       <c r="E398" s="3" t="n">
-        <v>-4.21776915507708</v>
+        <v>8.95930647872054</v>
       </c>
       <c r="F398" s="3" t="n">
-        <v>-3.32596724262039</v>
+        <v>8.68576021480187</v>
       </c>
       <c r="G398" s="3" t="n">
-        <v>-5.41071074173651</v>
+        <v>9.26417362065357</v>
       </c>
     </row>
     <row r="399">
@@ -8182,13 +8110,13 @@
         <v>43.5159649209036</v>
       </c>
       <c r="E399" s="3" t="n">
-        <v>-4.56772927633756</v>
+        <v>8.11168216148244</v>
       </c>
       <c r="F399" s="3" t="n">
-        <v>-3.17568862922563</v>
+        <v>7.71150232194833</v>
       </c>
       <c r="G399" s="3" t="n">
-        <v>-4.85680751856623</v>
+        <v>8.4775353837393</v>
       </c>
     </row>
     <row r="400">
@@ -8205,13 +8133,13 @@
         <v>43.8306662419285</v>
       </c>
       <c r="E400" s="3" t="n">
-        <v>-4.56953904273714</v>
+        <v>7.0902090934027</v>
       </c>
       <c r="F400" s="3" t="n">
-        <v>-3.59016110114158</v>
+        <v>7.03493570758191</v>
       </c>
       <c r="G400" s="3" t="n">
-        <v>-4.7827120893422</v>
+        <v>8.29566673657052</v>
       </c>
     </row>
     <row r="401">
@@ -8228,13 +8156,13 @@
         <v>44.0112304111613</v>
       </c>
       <c r="E401" s="3" t="n">
-        <v>-4.45365153902847</v>
+        <v>7.17454619716404</v>
       </c>
       <c r="F401" s="3" t="n">
-        <v>-4.13826169943579</v>
+        <v>6.65457507507332</v>
       </c>
       <c r="G401" s="3" t="n">
-        <v>-4.61838378185178</v>
+        <v>8.09504526865197</v>
       </c>
     </row>
     <row r="402">
@@ -8251,13 +8179,13 @@
         <v>44.1890247892396</v>
       </c>
       <c r="E402" s="3" t="n">
-        <v>-4.49338763582969</v>
+        <v>7.10577893193307</v>
       </c>
       <c r="F402" s="3" t="n">
-        <v>-4.29564045379198</v>
+        <v>6.40247920872352</v>
       </c>
       <c r="G402" s="3" t="n">
-        <v>-5.04597036498479</v>
+        <v>7.90879840516756</v>
       </c>
     </row>
     <row r="403">
@@ -8274,13 +8202,13 @@
         <v>44.4543974030633</v>
       </c>
       <c r="E403" s="3" t="n">
-        <v>-4.4678604381829</v>
+        <v>6.95173988323858</v>
       </c>
       <c r="F403" s="3" t="n">
-        <v>-4.37439080865027</v>
+        <v>6.30715579450871</v>
       </c>
       <c r="G403" s="3" t="n">
-        <v>-4.4410673967252</v>
+        <v>7.96774844394477</v>
       </c>
     </row>
     <row r="404">
@@ -8297,13 +8225,13 @@
         <v>44.5138820174057</v>
       </c>
       <c r="E404" s="3" t="n">
-        <v>-4.70653147321323</v>
+        <v>6.57343524563827</v>
       </c>
       <c r="F404" s="3" t="n">
-        <v>-4.43530802252142</v>
+        <v>5.90331872722982</v>
       </c>
       <c r="G404" s="3" t="n">
-        <v>-4.73482015787228</v>
+        <v>7.50816277470829</v>
       </c>
     </row>
     <row r="405">
@@ -8320,13 +8248,13 @@
         <v>44.4711480579572</v>
       </c>
       <c r="E405" s="3" t="n">
-        <v>-5.22619466288799</v>
+        <v>5.88349760002287</v>
       </c>
       <c r="F405" s="3" t="n">
-        <v>-4.75959421505756</v>
+        <v>5.30183809744378</v>
       </c>
       <c r="G405" s="3" t="n">
-        <v>-4.90892571731463</v>
+        <v>6.97694340114503</v>
       </c>
     </row>
     <row r="406">
@@ -8343,13 +8271,13 @@
         <v>44.7122520069745</v>
       </c>
       <c r="E406" s="3" t="n">
-        <v>-5.02580140179953</v>
+        <v>5.92875662365513</v>
       </c>
       <c r="F406" s="3" t="n">
-        <v>-4.82136101423852</v>
+        <v>5.238521240691</v>
       </c>
       <c r="G406" s="3" t="n">
-        <v>-4.572863706264</v>
+        <v>7.05355536442995</v>
       </c>
     </row>
     <row r="407">
@@ -8366,13 +8294,13 @@
         <v>45.228620689106</v>
       </c>
       <c r="E407" s="3" t="n">
-        <v>-4.71482047633194</v>
+        <v>6.13948949158909</v>
       </c>
       <c r="F407" s="3" t="n">
-        <v>-4.83254674173372</v>
+        <v>5.25774324670532</v>
       </c>
       <c r="G407" s="3" t="n">
-        <v>-4.25288886907919</v>
+        <v>7.30884534240654</v>
       </c>
     </row>
     <row r="408">
@@ -8389,13 +8317,13 @@
         <v>45.3959953628335</v>
       </c>
       <c r="E408" s="3" t="n">
-        <v>-4.70419353378662</v>
+        <v>5.89003174361975</v>
       </c>
       <c r="F408" s="3" t="n">
-        <v>-5.08043759147485</v>
+        <v>4.88428836999899</v>
       </c>
       <c r="G408" s="3" t="n">
-        <v>-4.7897277125232</v>
+        <v>6.96919122236856</v>
       </c>
     </row>
     <row r="409">
@@ -8412,13 +8340,13 @@
         <v>45.4785615919715</v>
       </c>
       <c r="E409" s="3" t="n">
-        <v>-5.11263333268298</v>
+        <v>5.38783330502159</v>
       </c>
       <c r="F409" s="3" t="n">
-        <v>-5.49338299204646</v>
+        <v>4.12343412673424</v>
       </c>
       <c r="G409" s="3" t="n">
-        <v>-5.13599479822341</v>
+        <v>6.36934619116321</v>
       </c>
     </row>
     <row r="410">
@@ -8435,13 +8363,13 @@
         <v>45.7573874938307</v>
       </c>
       <c r="E410" s="3" t="n">
-        <v>-5.3930497162403</v>
+        <v>4.40349855904472</v>
       </c>
       <c r="F410" s="3" t="n">
-        <v>-5.40932281423397</v>
+        <v>3.44039360700663</v>
       </c>
       <c r="G410" s="3" t="n">
-        <v>-5.45220894642193</v>
+        <v>5.72021503086177</v>
       </c>
     </row>
     <row r="411">
@@ -8458,13 +8386,13 @@
         <v>45.7373394627212</v>
       </c>
       <c r="E411" s="3" t="n">
-        <v>-4.90415143244242</v>
+        <v>4.78635711138433</v>
       </c>
       <c r="F411" s="3" t="n">
-        <v>-5.26236092634591</v>
+        <v>3.27984633638632</v>
       </c>
       <c r="G411" s="3" t="n">
-        <v>-5.81233381508424</v>
+        <v>5.10473465509789</v>
       </c>
     </row>
     <row r="412">
@@ -8481,13 +8409,13 @@
         <v>46.0322565404874</v>
       </c>
       <c r="E412" s="3" t="n">
-        <v>-5.22853933614553</v>
+        <v>4.788344305267</v>
       </c>
       <c r="F412" s="3" t="n">
-        <v>-4.75488396548557</v>
+        <v>3.72385343876358</v>
       </c>
       <c r="G412" s="3" t="n">
-        <v>-5.2360499605097</v>
+        <v>5.0229450914731</v>
       </c>
     </row>
     <row r="413">
@@ -8504,13 +8432,13 @@
         <v>46.1422569213996</v>
       </c>
       <c r="E413" s="3" t="n">
-        <v>-5.34128021983206</v>
+        <v>4.66124724886547</v>
       </c>
       <c r="F413" s="3" t="n">
-        <v>-4.59695056512255</v>
+        <v>4.31690659151278</v>
       </c>
       <c r="G413" s="3" t="n">
-        <v>-5.06811830275459</v>
+        <v>4.84200621143704</v>
       </c>
     </row>
     <row r="414">
@@ -8527,13 +8455,13 @@
         <v>46.5372822607883</v>
       </c>
       <c r="E414" s="3" t="n">
-        <v>-4.98641906758898</v>
+        <v>4.70479218621664</v>
       </c>
       <c r="F414" s="3" t="n">
-        <v>-3.88433719419943</v>
+        <v>4.48844804370481</v>
       </c>
       <c r="G414" s="3" t="n">
-        <v>-4.54392360844563</v>
+        <v>5.31411924736687</v>
       </c>
     </row>
     <row r="415">
@@ -8550,13 +8478,13 @@
         <v>46.52039970729</v>
       </c>
       <c r="E415" s="3" t="n">
-        <v>-4.48563941134698</v>
+        <v>4.67681395881627</v>
       </c>
       <c r="F415" s="3" t="n">
-        <v>-3.51598249806432</v>
+        <v>4.57449719342127</v>
       </c>
       <c r="G415" s="3" t="n">
-        <v>-3.58198644337394</v>
+        <v>4.64746442403543</v>
       </c>
     </row>
     <row r="416">
@@ -8573,13 +8501,13 @@
         <v>46.7262877067713</v>
       </c>
       <c r="E416" s="3" t="n">
-        <v>-4.099160008831</v>
+        <v>4.93898642370252</v>
       </c>
       <c r="F416" s="3" t="n">
-        <v>-3.40687942782518</v>
+        <v>4.64115766057895</v>
       </c>
       <c r="G416" s="3" t="n">
-        <v>-3.80728805070131</v>
+        <v>4.97014771369639</v>
       </c>
     </row>
     <row r="417">
@@ -8596,13 +8524,13 @@
         <v>46.7669004619235</v>
       </c>
       <c r="E417" s="3" t="n">
-        <v>-3.96304354076625</v>
+        <v>5.5143872764192</v>
       </c>
       <c r="F417" s="3" t="n">
-        <v>-3.58979297063138</v>
+        <v>4.99745268390073</v>
       </c>
       <c r="G417" s="3" t="n">
-        <v>-4.10882683064906</v>
+        <v>5.16234121272146</v>
       </c>
     </row>
     <row r="418">
@@ -8619,13 +8547,13 @@
         <v>46.8548609374014</v>
       </c>
       <c r="E418" s="3" t="n">
-        <v>-3.88621335473712</v>
+        <v>5.29175447224544</v>
       </c>
       <c r="F418" s="3" t="n">
-        <v>-3.16351565882559</v>
+        <v>5.06559146633709</v>
       </c>
       <c r="G418" s="3" t="n">
-        <v>-4.20508896116247</v>
+        <v>4.79199511152486</v>
       </c>
     </row>
     <row r="419">
@@ -8642,13 +8570,13 @@
         <v>47.2375825807028</v>
       </c>
       <c r="E419" s="3" t="n">
-        <v>-3.88031346473545</v>
+        <v>4.94811522620977</v>
       </c>
       <c r="F419" s="3" t="n">
-        <v>-3.32116336043761</v>
+        <v>5.07794059447941</v>
       </c>
       <c r="G419" s="3" t="n">
-        <v>-3.59137916217148</v>
+        <v>4.44179340644957</v>
       </c>
     </row>
     <row r="420">
@@ -8665,13 +8593,13 @@
         <v>47.679724332439</v>
       </c>
       <c r="E420" s="3" t="n">
-        <v>-3.80935255203002</v>
+        <v>4.93641190334484</v>
       </c>
       <c r="F420" s="3" t="n">
-        <v>-3.0963848540806</v>
+        <v>5.35236094916778</v>
       </c>
       <c r="G420" s="3" t="n">
-        <v>-3.02606411830145</v>
+        <v>5.03068376704265</v>
       </c>
     </row>
     <row r="421">
@@ -8688,13 +8616,13 @@
         <v>47.9407985096541</v>
       </c>
       <c r="E421" s="3" t="n">
-        <v>-3.82961947849607</v>
+        <v>5.38810751341461</v>
       </c>
       <c r="F421" s="3" t="n">
-        <v>-3.28438144622505</v>
+        <v>5.81269668301019</v>
       </c>
       <c r="G421" s="3" t="n">
-        <v>-2.95128858412124</v>
+        <v>5.41406067274843</v>
       </c>
     </row>
     <row r="422">
@@ -8711,13 +8639,13 @@
         <v>48.3960407577381</v>
       </c>
       <c r="E422" s="3" t="n">
-        <v>-3.82444203521684</v>
+        <v>5.70047940459411</v>
       </c>
       <c r="F422" s="3" t="n">
-        <v>-3.2493187368577</v>
+        <v>5.71866379982737</v>
       </c>
       <c r="G422" s="3" t="n">
-        <v>-2.57323160968266</v>
+        <v>5.76661695177234</v>
       </c>
     </row>
     <row r="423">
@@ -8734,13 +8662,13 @@
         <v>48.5597969620847</v>
       </c>
       <c r="E423" s="3" t="n">
-        <v>-4.03210076072186</v>
+        <v>5.15706153981941</v>
       </c>
       <c r="F423" s="3" t="n">
-        <v>-3.71964369432741</v>
+        <v>5.55466758281222</v>
       </c>
       <c r="G423" s="3" t="n">
-        <v>-2.28038791074211</v>
+        <v>6.17101373302218</v>
       </c>
     </row>
     <row r="424">
@@ -8757,13 +8685,13 @@
         <v>48.5757047076496</v>
       </c>
       <c r="E424" s="3" t="n">
-        <v>-4.33774987304325</v>
+        <v>5.5169977327781</v>
       </c>
       <c r="F424" s="3" t="n">
-        <v>-4.16985177589279</v>
+        <v>4.99226014251746</v>
       </c>
       <c r="G424" s="3" t="n">
-        <v>-2.76289663956797</v>
+        <v>5.52536060213586</v>
       </c>
     </row>
     <row r="425">
@@ -8780,13 +8708,13 @@
         <v>48.6056486993015</v>
       </c>
       <c r="E425" s="3" t="n">
-        <v>-4.05900323910516</v>
+        <v>5.6426710948938</v>
       </c>
       <c r="F425" s="3" t="n">
-        <v>-3.73503843934396</v>
+        <v>4.81845244187971</v>
       </c>
       <c r="G425" s="3" t="n">
-        <v>-3.32498906559738</v>
+        <v>5.33868939722244</v>
       </c>
     </row>
     <row r="426">
@@ -8803,13 +8731,13 @@
         <v>48.752561408344</v>
       </c>
       <c r="E426" s="3" t="n">
-        <v>-4.04002352162954</v>
+        <v>5.2481119211117</v>
       </c>
       <c r="F426" s="3" t="n">
-        <v>-4.09830732192513</v>
+        <v>4.04131551591924</v>
       </c>
       <c r="G426" s="3" t="n">
-        <v>-4.23938316193823</v>
+        <v>4.76022457680616</v>
       </c>
     </row>
     <row r="427">
@@ -8826,13 +8754,13 @@
         <v>48.248660173826</v>
       </c>
       <c r="E427" s="3" t="n">
-        <v>-4.10913478809418</v>
+        <v>4.6962984243438</v>
       </c>
       <c r="F427" s="3" t="n">
-        <v>-4.34677994021743</v>
+        <v>3.64410872297454</v>
       </c>
       <c r="G427" s="3" t="n">
-        <v>-5.10007822205817</v>
+        <v>3.7150593662358</v>
       </c>
     </row>
     <row r="428">
@@ -8849,13 +8777,13 @@
         <v>48.5757047076496</v>
       </c>
       <c r="E428" s="3" t="n">
-        <v>-4.18348860093534</v>
+        <v>4.27437341446484</v>
       </c>
       <c r="F428" s="3" t="n">
-        <v>-4.73450145939082</v>
+        <v>3.52704147836238</v>
       </c>
       <c r="G428" s="3" t="n">
-        <v>-4.76356464706664</v>
+        <v>3.95797974040701</v>
       </c>
     </row>
     <row r="429">
@@ -8872,13 +8800,13 @@
         <v>48.770808528257</v>
       </c>
       <c r="E429" s="3" t="n">
-        <v>-4.29546330098461</v>
+        <v>4.12658177318281</v>
       </c>
       <c r="F429" s="3" t="n">
-        <v>-4.58208146126751</v>
+        <v>3.72345738199469</v>
       </c>
       <c r="G429" s="3" t="n">
-        <v>-4.82803327033531</v>
+        <v>4.28488534955409</v>
       </c>
     </row>
     <row r="430">
@@ -8895,13 +8823,13 @@
         <v>48.9116388639949</v>
       </c>
       <c r="E430" s="3" t="n">
-        <v>-4.59729249282174</v>
+        <v>4.04334642342246</v>
       </c>
       <c r="F430" s="3" t="n">
-        <v>-5.49817242821512</v>
+        <v>3.26686339384223</v>
       </c>
       <c r="G430" s="3" t="n">
-        <v>-4.89014238275086</v>
+        <v>4.38967886243731</v>
       </c>
     </row>
     <row r="431">
@@ -8918,13 +8846,13 @@
         <v>48.9972599651253</v>
       </c>
       <c r="E431" s="3" t="n">
-        <v>-4.81636860092993</v>
+        <v>4.03696017393049</v>
       </c>
       <c r="F431" s="3" t="n">
-        <v>-5.49790101435966</v>
+        <v>3.43525374929734</v>
       </c>
       <c r="G431" s="3" t="n">
-        <v>-5.15595565860002</v>
+        <v>3.72516392306104</v>
       </c>
     </row>
     <row r="432">
@@ -8941,13 +8869,13 @@
         <v>49.1675664176454</v>
       </c>
       <c r="E432" s="3" t="n">
-        <v>-5.12445226636029</v>
+        <v>3.96021094887682</v>
       </c>
       <c r="F432" s="3" t="n">
-        <v>-5.88393385053646</v>
+        <v>3.19532439467609</v>
       </c>
       <c r="G432" s="3" t="n">
-        <v>-5.85205027817833</v>
+        <v>3.1204922134882</v>
       </c>
     </row>
     <row r="433">
@@ -8964,13 +8892,13 @@
         <v>49.3986966032093</v>
       </c>
       <c r="E433" s="3" t="n">
-        <v>-5.14610302889932</v>
+        <v>3.98211950262561</v>
       </c>
       <c r="F433" s="3" t="n">
-        <v>-5.78155785569708</v>
+        <v>3.39591629080975</v>
       </c>
       <c r="G433" s="3" t="n">
-        <v>-5.88754390030823</v>
+        <v>3.0410384033583</v>
       </c>
     </row>
     <row r="434">
@@ -8987,13 +8915,13 @@
         <v>49.6742749013811</v>
       </c>
       <c r="E434" s="3" t="n">
-        <v>-4.9346956908041</v>
+        <v>3.97652180673311</v>
       </c>
       <c r="F434" s="3" t="n">
-        <v>-5.40779192978682</v>
+        <v>3.35844533024032</v>
       </c>
       <c r="G434" s="3" t="n">
-        <v>-5.33214444939825</v>
+        <v>2.6411956921055</v>
       </c>
     </row>
     <row r="435">
@@ -9010,13 +8938,13 @@
         <v>49.6929898961631</v>
       </c>
       <c r="E435" s="3" t="n">
-        <v>-4.3472466549389</v>
+        <v>4.20150987224235</v>
       </c>
       <c r="F435" s="3" t="n">
-        <v>-4.56461239720495</v>
+        <v>3.86334641566781</v>
       </c>
       <c r="G435" s="3" t="n">
-        <v>-5.11711840483229</v>
+        <v>2.33360311403936</v>
       </c>
     </row>
     <row r="436">
@@ -9033,13 +8961,13 @@
         <v>49.9559355728568</v>
       </c>
       <c r="E436" s="3" t="n">
-        <v>-4.09460811660446</v>
+        <v>4.53444265348815</v>
       </c>
       <c r="F436" s="3" t="n">
-        <v>-4.50713503600804</v>
+        <v>4.35129429847194</v>
       </c>
       <c r="G436" s="3" t="n">
-        <v>-4.81318700912022</v>
+        <v>2.84140162971191</v>
       </c>
     </row>
     <row r="437">
@@ -9056,13 +8984,13 @@
         <v>50.2773656082461</v>
       </c>
       <c r="E437" s="3" t="n">
-        <v>-4.20141398825801</v>
+        <v>4.23072865213299</v>
       </c>
       <c r="F437" s="3" t="n">
-        <v>-4.92531502194463</v>
+        <v>3.87995629852356</v>
       </c>
       <c r="G437" s="3" t="n">
-        <v>-4.83700994500583</v>
+        <v>3.43934697649375</v>
       </c>
     </row>
     <row r="438">
@@ -9079,13 +9007,13 @@
         <v>50.9108681816327</v>
       </c>
       <c r="E438" s="3" t="n">
-        <v>-4.39732260501406</v>
+        <v>4.21011308036343</v>
       </c>
       <c r="F438" s="3" t="n">
-        <v>-5.6033764159808</v>
+        <v>4.27344628387574</v>
       </c>
       <c r="G438" s="3" t="n">
-        <v>-4.33517372344961</v>
+        <v>4.42706333973113</v>
       </c>
     </row>
     <row r="439">
@@ -9102,13 +9030,13 @@
         <v>50.8416227009375</v>
       </c>
       <c r="E439" s="3" t="n">
-        <v>-4.3969495227033</v>
+        <v>4.28522026473903</v>
       </c>
       <c r="F439" s="3" t="n">
-        <v>-5.47103953250316</v>
+        <v>4.54431114551159</v>
       </c>
       <c r="G439" s="3" t="n">
-        <v>-5.14329111272195</v>
+        <v>5.37416483228716</v>
       </c>
     </row>
     <row r="440">
@@ -9125,13 +9053,13 @@
         <v>51.0053789052841</v>
       </c>
       <c r="E440" s="3" t="n">
-        <v>-4.15171842358117</v>
+        <v>4.36614581333648</v>
       </c>
       <c r="F440" s="3" t="n">
-        <v>-4.73237311626045</v>
+        <v>4.9697965495584</v>
       </c>
       <c r="G440" s="3" t="n">
-        <v>-5.09789241845282</v>
+        <v>5.00183005528663</v>
       </c>
     </row>
     <row r="441">
@@ -9148,13 +9076,13 @@
         <v>51.2449308385001</v>
       </c>
       <c r="E441" s="3" t="n">
-        <v>-4.27514026569311</v>
+        <v>4.48825463153704</v>
       </c>
       <c r="F441" s="3" t="n">
-        <v>-4.94585152838406</v>
+        <v>4.80211844005749</v>
       </c>
       <c r="G441" s="3" t="n">
-        <v>-5.26001660784725</v>
+        <v>5.07295733842434</v>
       </c>
     </row>
     <row r="442">
@@ -9171,13 +9099,13 @@
         <v>51.4264662878901</v>
       </c>
       <c r="E442" s="3" t="n">
-        <v>-3.799100213107</v>
+        <v>4.81882811604255</v>
       </c>
       <c r="F442" s="3" t="n">
-        <v>-3.86356881872649</v>
+        <v>5.81805936402513</v>
       </c>
       <c r="G442" s="3" t="n">
-        <v>-4.99096716195992</v>
+        <v>5.14157260378865</v>
       </c>
     </row>
     <row r="443">
@@ -9194,13 +9122,13 @@
         <v>51.6608715975408</v>
       </c>
       <c r="E443" s="3" t="n">
-        <v>-3.39086684602111</v>
+        <v>5.06008074091717</v>
       </c>
       <c r="F443" s="3" t="n">
-        <v>-3.13443515593738</v>
+        <v>5.81775545027321</v>
       </c>
       <c r="G443" s="3" t="n">
-        <v>-4.83266248933371</v>
+        <v>5.43624609684576</v>
       </c>
     </row>
     <row r="444">
@@ -9217,13 +9145,13 @@
         <v>52.2237250656233</v>
       </c>
       <c r="E444" s="3" t="n">
-        <v>-2.95996166078493</v>
+        <v>5.40123602843068</v>
       </c>
       <c r="F444" s="3" t="n">
-        <v>-2.71735341281496</v>
+        <v>6.25178472843555</v>
       </c>
       <c r="G444" s="3" t="n">
-        <v>-3.65379967544767</v>
+        <v>6.21580214488935</v>
       </c>
     </row>
     <row r="445">
@@ -9240,13 +9168,13 @@
         <v>52.4890101166652</v>
       </c>
       <c r="E445" s="3" t="n">
-        <v>-2.83153532714548</v>
+        <v>5.42529426120173</v>
       </c>
       <c r="F445" s="3" t="n">
-        <v>-2.22286147650337</v>
+        <v>6.13633352888829</v>
       </c>
       <c r="G445" s="3" t="n">
-        <v>-3.31043636394879</v>
+        <v>6.25586042943314</v>
       </c>
     </row>
     <row r="446">
@@ -9263,13 +9191,13 @@
         <v>52.472166621361</v>
       </c>
       <c r="E446" s="3" t="n">
-        <v>-3.22525171752551</v>
+        <v>5.19084825600959</v>
       </c>
       <c r="F446" s="3" t="n">
-        <v>-2.83143964015535</v>
+        <v>5.71695284433233</v>
       </c>
       <c r="G446" s="3" t="n">
-        <v>-3.96060800684985</v>
+        <v>5.63247621738734</v>
       </c>
     </row>
     <row r="447">
@@ -9286,13 +9214,13 @@
         <v>52.3729771490139</v>
       </c>
       <c r="E447" s="3" t="n">
-        <v>-3.78602019096774</v>
+        <v>4.54482124446172</v>
       </c>
       <c r="F447" s="3" t="n">
-        <v>-3.58313776918753</v>
+        <v>4.78293483356824</v>
       </c>
       <c r="G447" s="3" t="n">
-        <v>-4.67601699750505</v>
+        <v>5.39308916298016</v>
       </c>
     </row>
     <row r="448">
@@ -9309,13 +9237,13 @@
         <v>52.4819919936213</v>
       </c>
       <c r="E448" s="3" t="n">
-        <v>-3.61294617708836</v>
+        <v>4.26942431097388</v>
       </c>
       <c r="F448" s="3" t="n">
-        <v>-3.24961672954053</v>
+        <v>4.7198657592979</v>
       </c>
       <c r="G448" s="3" t="n">
-        <v>-4.51093896313988</v>
+        <v>5.0565691379765</v>
       </c>
     </row>
     <row r="449">
@@ -9332,13 +9260,13 @@
         <v>52.8328981457929</v>
       </c>
       <c r="E449" s="3" t="n">
-        <v>-3.2998320674459</v>
+        <v>4.38567432273274</v>
       </c>
       <c r="F449" s="3" t="n">
-        <v>-2.6741191770084</v>
+        <v>5.18046946259298</v>
       </c>
       <c r="G449" s="3" t="n">
-        <v>-3.98690587535094</v>
+        <v>5.082868815083</v>
       </c>
     </row>
     <row r="450">
@@ -9355,13 +9283,13 @@
         <v>53.2179591634424</v>
       </c>
       <c r="E450" s="3" t="n">
-        <v>-3.09752215251775</v>
+        <v>4.59958102098581</v>
       </c>
       <c r="F450" s="3" t="n">
-        <v>-1.93856479091287</v>
+        <v>5.93599241501834</v>
       </c>
       <c r="G450" s="3" t="n">
-        <v>-3.62311472631697</v>
+        <v>4.53162765478441</v>
       </c>
     </row>
     <row r="451">
@@ -9378,13 +9306,13 @@
         <v>53.5983414323963</v>
       </c>
       <c r="E451" s="3" t="n">
-        <v>-2.90873646950163</v>
+        <v>4.59917283052329</v>
       </c>
       <c r="F451" s="3" t="n">
-        <v>-1.89833766724196</v>
+        <v>5.787686128617</v>
       </c>
       <c r="G451" s="3" t="n">
-        <v>-3.20980769880655</v>
+        <v>5.42216905167343</v>
       </c>
     </row>
     <row r="452">
@@ -9401,13 +9329,13 @@
         <v>53.7452541414387</v>
       </c>
       <c r="E452" s="3" t="n">
-        <v>-3.08562348901</v>
+        <v>4.33155227751376</v>
       </c>
       <c r="F452" s="3" t="n">
-        <v>-2.21219581235471</v>
+        <v>4.96745145340465</v>
       </c>
       <c r="G452" s="3" t="n">
-        <v>-2.99450247852839</v>
+        <v>5.37173783424389</v>
       </c>
     </row>
     <row r="453">
@@ -9424,13 +9352,13 @@
         <v>54.0900779203057</v>
       </c>
       <c r="E453" s="3" t="n">
-        <v>-2.97239734196613</v>
+        <v>4.4660710682253</v>
       </c>
       <c r="F453" s="3" t="n">
-        <v>-1.93895378712584</v>
+        <v>5.20319376682536</v>
       </c>
       <c r="G453" s="3" t="n">
-        <v>-2.61227034176013</v>
+        <v>5.55205565750916</v>
       </c>
     </row>
     <row r="454">
@@ -9447,13 +9375,13 @@
         <v>54.1279757847401</v>
       </c>
       <c r="E454" s="3" t="n">
-        <v>-3.34974868408796</v>
+        <v>3.94913168330324</v>
       </c>
       <c r="F454" s="3" t="n">
-        <v>-2.42983002277172</v>
+        <v>4.01883944645438</v>
       </c>
       <c r="G454" s="3" t="n">
-        <v>-3.10235943480813</v>
+        <v>5.25315016148826</v>
       </c>
     </row>
     <row r="455">
@@ -9470,13 +9398,13 @@
         <v>54.2842459911739</v>
       </c>
       <c r="E455" s="3" t="n">
-        <v>-3.9321977007641</v>
+        <v>3.50988228060864</v>
       </c>
       <c r="F455" s="3" t="n">
-        <v>-3.26670493297734</v>
+        <v>3.23586112462493</v>
       </c>
       <c r="G455" s="3" t="n">
-        <v>-4.10212751888627</v>
+        <v>5.07806839588432</v>
       </c>
     </row>
     <row r="456">
@@ -9493,13 +9421,13 @@
         <v>54.2042393884784</v>
       </c>
       <c r="E456" s="3" t="n">
-        <v>-4.11559766398523</v>
+        <v>3.05024782702374</v>
       </c>
       <c r="F456" s="3" t="n">
-        <v>-3.32218355843438</v>
+        <v>2.7932560514579</v>
       </c>
       <c r="G456" s="3" t="n">
-        <v>-4.41490722176959</v>
+        <v>3.79236509913152</v>
       </c>
     </row>
     <row r="457">
@@ -9516,13 +9444,13 @@
         <v>54.2861174906517</v>
       </c>
       <c r="E457" s="3" t="n">
-        <v>-3.92955393578687</v>
+        <v>2.91404761480862</v>
       </c>
       <c r="F457" s="3" t="n">
-        <v>-2.91384563303976</v>
+        <v>2.27339591858602</v>
       </c>
       <c r="G457" s="3" t="n">
-        <v>-4.10595479152078</v>
+        <v>3.42377836806627</v>
       </c>
     </row>
     <row r="458">
@@ -9539,13 +9467,13 @@
         <v>54.636087893084</v>
       </c>
       <c r="E458" s="3" t="n">
-        <v>-3.89538486964393</v>
+        <v>3.33274100399761</v>
       </c>
       <c r="F458" s="3" t="n">
-        <v>-2.82800380660417</v>
+        <v>2.91394626993513</v>
       </c>
       <c r="G458" s="3" t="n">
-        <v>-4.28827854139524</v>
+        <v>4.12394115024419</v>
       </c>
     </row>
     <row r="459">
@@ -9562,13 +9490,13 @@
         <v>54.9420780577781</v>
       </c>
       <c r="E459" s="3" t="n">
-        <v>-3.82851035843422</v>
+        <v>3.93500008884604</v>
       </c>
       <c r="F459" s="3" t="n">
-        <v>-3.15912603918724</v>
+        <v>3.71629784073437</v>
       </c>
       <c r="G459" s="3" t="n">
-        <v>-4.57038836923856</v>
+        <v>4.90539405742485</v>
       </c>
     </row>
     <row r="460">
@@ -9585,13 +9513,13 @@
         <v>54.9612609274297</v>
       </c>
       <c r="E460" s="3" t="n">
-        <v>-3.94982784062996</v>
+        <v>3.74837287145044</v>
       </c>
       <c r="F460" s="3" t="n">
-        <v>-3.18771940064541</v>
+        <v>3.3587636758569</v>
       </c>
       <c r="G460" s="3" t="n">
-        <v>-5.15215864224009</v>
+        <v>4.72403740717335</v>
       </c>
     </row>
     <row r="461">
@@ -9608,13 +9536,13 @@
         <v>55.0267634091685</v>
       </c>
       <c r="E461" s="3" t="n">
-        <v>-4.03700795131073</v>
+        <v>3.41243674959018</v>
       </c>
       <c r="F461" s="3" t="n">
-        <v>-3.38489445087036</v>
+        <v>2.74759309075443</v>
       </c>
       <c r="G461" s="3" t="n">
-        <v>-5.55082636000068</v>
+        <v>4.15246056977909</v>
       </c>
     </row>
     <row r="462">
@@ -9631,13 +9559,13 @@
         <v>55.2185921056885</v>
       </c>
       <c r="E462" s="3" t="n">
-        <v>-3.83888156763881</v>
+        <v>3.19653554926946</v>
       </c>
       <c r="F462" s="3" t="n">
-        <v>-3.61745534159369</v>
+        <v>1.97688804653884</v>
       </c>
       <c r="G462" s="3" t="n">
-        <v>-5.21395528141936</v>
+        <v>3.75931917287879</v>
       </c>
     </row>
     <row r="463">
@@ -9654,13 +9582,13 @@
         <v>55.3757980618615</v>
       </c>
       <c r="E463" s="3" t="n">
-        <v>-3.79765576804415</v>
+        <v>2.99587868540607</v>
       </c>
       <c r="F463" s="3" t="n">
-        <v>-3.41823667393263</v>
+        <v>1.93507186535009</v>
       </c>
       <c r="G463" s="3" t="n">
-        <v>-4.74519524836634</v>
+        <v>3.31625304433554</v>
       </c>
     </row>
     <row r="464">
@@ -9677,13 +9605,13 @@
         <v>55.4043384289045</v>
       </c>
       <c r="E464" s="3" t="n">
-        <v>-3.83007040691373</v>
+        <v>3.18386559362542</v>
       </c>
       <c r="F464" s="3" t="n">
-        <v>-3.21613880702282</v>
+        <v>2.26224101331667</v>
       </c>
       <c r="G464" s="3" t="n">
-        <v>-4.7168065401239</v>
+        <v>3.08694100338547</v>
       </c>
     </row>
     <row r="465">
@@ -9700,13 +9628,13 @@
         <v>55.540957890817</v>
       </c>
       <c r="E465" s="3" t="n">
-        <v>-3.97421423779866</v>
+        <v>3.0634554091191</v>
       </c>
       <c r="F465" s="3" t="n">
-        <v>-3.42899677446108</v>
+        <v>1.97729257641888</v>
       </c>
       <c r="G465" s="3" t="n">
-        <v>-4.9567654123299</v>
+        <v>2.68234032246906</v>
       </c>
     </row>
     <row r="466">
@@ -9723,13 +9651,13 @@
         <v>55.8609843015974</v>
       </c>
       <c r="E466" s="3" t="n">
-        <v>-3.87579846173933</v>
+        <v>3.465845808449</v>
       </c>
       <c r="F466" s="3" t="n">
-        <v>-3.37464770161368</v>
+        <v>2.49034107795325</v>
       </c>
       <c r="G466" s="3" t="n">
-        <v>-5.09149589023573</v>
+        <v>3.20168728228309</v>
       </c>
     </row>
     <row r="467">
@@ -9746,13 +9674,13 @@
         <v>56.6063089688092</v>
       </c>
       <c r="E467" s="3" t="n">
-        <v>-3.65351809781035</v>
+        <v>4.09314838754813</v>
       </c>
       <c r="F467" s="3" t="n">
-        <v>-3.13407085796458</v>
+        <v>3.37702228660148</v>
       </c>
       <c r="G467" s="3" t="n">
-        <v>-4.51664838330375</v>
+        <v>4.27760013100826</v>
       </c>
     </row>
     <row r="468">
@@ -9769,13 +9697,13 @@
         <v>56.7078378155045</v>
       </c>
       <c r="E468" s="3" t="n">
-        <v>-3.60792777701693</v>
+        <v>4.29224937916663</v>
       </c>
       <c r="F468" s="3" t="n">
-        <v>-3.1758851362382</v>
+        <v>3.43634525552445</v>
       </c>
       <c r="G468" s="3" t="n">
-        <v>-4.53675480257942</v>
+        <v>4.61882401685034</v>
       </c>
     </row>
     <row r="469">
@@ -9792,13 +9720,13 @@
         <v>56.6105198426352</v>
       </c>
       <c r="E469" s="3" t="n">
-        <v>-3.78097835214031</v>
+        <v>4.09028384562757</v>
       </c>
       <c r="F469" s="3" t="n">
-        <v>-3.97399431125611</v>
+        <v>3.00129884847038</v>
       </c>
       <c r="G469" s="3" t="n">
-        <v>-4.91402615365238</v>
+        <v>4.28176200367207</v>
       </c>
     </row>
     <row r="470">
@@ -9815,13 +9743,13 @@
         <v>57.0840092106316</v>
       </c>
       <c r="E470" s="3" t="n">
-        <v>-3.62285368417745</v>
+        <v>4.0532755522305</v>
       </c>
       <c r="F470" s="3" t="n">
-        <v>-3.70685740236093</v>
+        <v>2.91030741097029</v>
       </c>
       <c r="G470" s="3" t="n">
-        <v>-4.49400382002093</v>
+        <v>4.48041104688512</v>
       </c>
     </row>
     <row r="471">
@@ -9838,13 +9766,13 @@
         <v>57.5734063241935</v>
       </c>
       <c r="E471" s="3" t="n">
-        <v>-3.57205143246714</v>
+        <v>3.98092030465911</v>
       </c>
       <c r="F471" s="3" t="n">
-        <v>-3.3442088091353</v>
+        <v>3.26218249585977</v>
       </c>
       <c r="G471" s="3" t="n">
-        <v>-4.09411874736995</v>
+        <v>4.78927692477931</v>
       </c>
     </row>
     <row r="472">
@@ -9861,13 +9789,13 @@
         <v>57.9467704701042</v>
       </c>
       <c r="E472" s="3" t="n">
-        <v>-3.58912749662091</v>
+        <v>4.11225482665065</v>
       </c>
       <c r="F472" s="3" t="n">
-        <v>-3.2947627303154</v>
+        <v>3.29268082614165</v>
       </c>
       <c r="G472" s="3" t="n">
-        <v>-3.80654281098449</v>
+        <v>5.43202519792356</v>
       </c>
     </row>
     <row r="473">
@@ -9884,13 +9812,13 @@
         <v>58.26071450758</v>
       </c>
       <c r="E473" s="3" t="n">
-        <v>-4.07570740281461</v>
+        <v>4.20683834999898</v>
       </c>
       <c r="F473" s="3" t="n">
-        <v>-3.92283832182108</v>
+        <v>3.50348367538564</v>
       </c>
       <c r="G473" s="3" t="n">
-        <v>-4.16519155879091</v>
+        <v>5.87705127115046</v>
       </c>
     </row>
     <row r="474">
@@ -9907,13 +9835,13 @@
         <v>58.2560357588844</v>
       </c>
       <c r="E474" s="3" t="n">
-        <v>-4.350651384191</v>
+        <v>3.99213489840911</v>
       </c>
       <c r="F474" s="3" t="n">
-        <v>-4.04411764705923</v>
+        <v>3.75322663913313</v>
       </c>
       <c r="G474" s="3" t="n">
-        <v>-4.66667177103777</v>
+        <v>5.50076258261389</v>
       </c>
     </row>
     <row r="475">
@@ -9930,13 +9858,13 @@
         <v>58.1343882927982</v>
       </c>
       <c r="E475" s="3" t="n">
-        <v>-4.71431930402144</v>
+        <v>3.94757092289511</v>
       </c>
       <c r="F475" s="3" t="n">
-        <v>-4.15028084308495</v>
+        <v>3.5392154338624</v>
       </c>
       <c r="G475" s="3" t="n">
-        <v>-5.16562356892115</v>
+        <v>4.98158099293668</v>
       </c>
     </row>
     <row r="476">
@@ -9953,13 +9881,13 @@
         <v>58.1470209142763</v>
       </c>
       <c r="E476" s="3" t="n">
-        <v>-4.99305327900909</v>
+        <v>3.98260706139593</v>
       </c>
       <c r="F476" s="3" t="n">
-        <v>-4.77715062688724</v>
+        <v>3.32301146842051</v>
       </c>
       <c r="G476" s="3" t="n">
-        <v>-5.78500492760212</v>
+        <v>4.95030274369441</v>
       </c>
     </row>
     <row r="477">
@@ -9976,13 +9904,13 @@
         <v>58.4375712082744</v>
       </c>
       <c r="E477" s="3" t="n">
-        <v>-5.11829359165358</v>
+        <v>4.13869483728091</v>
       </c>
       <c r="F477" s="3" t="n">
-        <v>-4.89861410435906</v>
+        <v>3.55075194409316</v>
       </c>
       <c r="G477" s="3" t="n">
-        <v>-5.94383740106716</v>
+        <v>5.21527432629374</v>
       </c>
     </row>
     <row r="478">
@@ -9999,13 +9927,13 @@
         <v>58.8577228411404</v>
       </c>
       <c r="E478" s="3" t="n">
-        <v>-5.27875532505995</v>
+        <v>4.0320735046071</v>
       </c>
       <c r="F478" s="3" t="n">
-        <v>-5.11467154597435</v>
+        <v>3.49250752658838</v>
       </c>
       <c r="G478" s="3" t="n">
-        <v>-5.26046255921322</v>
+        <v>5.36463611769424</v>
       </c>
     </row>
     <row r="479">
@@ -10022,13 +9950,13 @@
         <v>59.2839568473118</v>
       </c>
       <c r="E479" s="3" t="n">
-        <v>-5.18936984033189</v>
+        <v>3.79206176051075</v>
       </c>
       <c r="F479" s="3" t="n">
-        <v>-4.77818091219148</v>
+        <v>3.23547287031032</v>
       </c>
       <c r="G479" s="3" t="n">
-        <v>-4.95945874993389</v>
+        <v>4.73029937348153</v>
       </c>
     </row>
     <row r="480">
@@ -10045,13 +9973,13 @@
         <v>59.4027970641802</v>
       </c>
       <c r="E480" s="3" t="n">
-        <v>-5.4641106069374</v>
+        <v>3.7429714849067</v>
       </c>
       <c r="F480" s="3" t="n">
-        <v>-4.97011419401293</v>
+        <v>3.28005594547069</v>
       </c>
       <c r="G480" s="3" t="n">
-        <v>-5.44061131468473</v>
+        <v>4.75235761490957</v>
       </c>
     </row>
     <row r="481">
@@ -10068,13 +9996,13 @@
         <v>59.5361414020052</v>
       </c>
       <c r="E481" s="3" t="n">
-        <v>-5.86716450493376</v>
+        <v>3.92955393578813</v>
       </c>
       <c r="F481" s="3" t="n">
-        <v>-4.62497190292788</v>
+        <v>4.13845633040004</v>
       </c>
       <c r="G481" s="3" t="n">
-        <v>-5.80641340715974</v>
+        <v>5.16798214802228</v>
       </c>
     </row>
     <row r="482">
@@ -10091,13 +10019,13 @@
         <v>59.7700788367863</v>
       </c>
       <c r="E482" s="3" t="n">
-        <v>-6.12809413805184</v>
+        <v>3.75903813576879</v>
       </c>
       <c r="F482" s="3" t="n">
-        <v>-5.05916863638896</v>
+        <v>3.84955491363497</v>
       </c>
       <c r="G482" s="3" t="n">
-        <v>-6.00544477963408</v>
+        <v>4.70546771906559</v>
       </c>
     </row>
     <row r="483">
@@ -10114,13 +10042,13 @@
         <v>60.0311530140021</v>
       </c>
       <c r="E483" s="3" t="n">
-        <v>-5.91104713174381</v>
+        <v>3.70437356132851</v>
       </c>
       <c r="F483" s="3" t="n">
-        <v>-4.80195583984163</v>
+        <v>3.45991561181425</v>
       </c>
       <c r="G483" s="3" t="n">
-        <v>-5.3734733612598</v>
+        <v>4.26889226593461</v>
       </c>
     </row>
     <row r="484">
@@ -10137,13 +10065,13 @@
         <v>60.2398252058262</v>
       </c>
       <c r="E484" s="3" t="n">
-        <v>-5.83923135888974</v>
+        <v>3.72274143302158</v>
       </c>
       <c r="F484" s="3" t="n">
-        <v>-4.7694008876873</v>
+        <v>3.40701581769269</v>
       </c>
       <c r="G484" s="3" t="n">
-        <v>-5.35863924376306</v>
+        <v>3.95717434659284</v>
       </c>
     </row>
     <row r="485">
@@ -10160,13 +10088,13 @@
         <v>60.7928533016484</v>
       </c>
       <c r="E485" s="3" t="n">
-        <v>-5.69927482610654</v>
+        <v>4.24887929059818</v>
       </c>
       <c r="F485" s="3" t="n">
-        <v>-4.12876029890876</v>
+        <v>4.08300812940441</v>
       </c>
       <c r="G485" s="3" t="n">
-        <v>-4.98914132366219</v>
+        <v>4.34621994506943</v>
       </c>
     </row>
     <row r="486">
@@ -10183,13 +10111,13 @@
         <v>61.1077330888635</v>
       </c>
       <c r="E486" s="3" t="n">
-        <v>-5.81433933325004</v>
+        <v>4.54854261649609</v>
       </c>
       <c r="F486" s="3" t="n">
-        <v>-4.23848932376151</v>
+        <v>4.21455938697362</v>
       </c>
       <c r="G486" s="3" t="n">
-        <v>-5.22194727255558</v>
+        <v>4.89511051143605</v>
       </c>
     </row>
     <row r="487">
@@ -10206,13 +10134,13 @@
         <v>61.300965409993</v>
       </c>
       <c r="E487" s="3" t="n">
-        <v>-5.64126077889007</v>
+        <v>4.9475632325733</v>
       </c>
       <c r="F487" s="3" t="n">
-        <v>-4.25803801656748</v>
+        <v>4.3299874841475</v>
       </c>
       <c r="G487" s="3" t="n">
-        <v>-4.86148930762771</v>
+        <v>5.44699481698525</v>
       </c>
     </row>
     <row r="488">
@@ -10229,13 +10157,13 @@
         <v>61.7173740439027</v>
       </c>
       <c r="E488" s="3" t="n">
-        <v>-5.42493743863813</v>
+        <v>5.25546125976692</v>
       </c>
       <c r="F488" s="3" t="n">
-        <v>-3.78770592798802</v>
+        <v>5.01681125731586</v>
       </c>
       <c r="G488" s="3" t="n">
-        <v>-4.19783571791742</v>
+        <v>6.14021677033123</v>
       </c>
     </row>
     <row r="489">
@@ -10252,13 +10180,13 @@
         <v>62.1305075537256</v>
       </c>
       <c r="E489" s="3" t="n">
-        <v>-5.15621779204347</v>
+        <v>5.39439454179476</v>
       </c>
       <c r="F489" s="3" t="n">
-        <v>-3.89883292011814</v>
+        <v>5.15093871474652</v>
       </c>
       <c r="G489" s="3" t="n">
-        <v>-4.08040912439891</v>
+        <v>6.31945556445082</v>
       </c>
     </row>
     <row r="490">
@@ -10275,13 +10203,13 @@
         <v>62.1258288050299</v>
       </c>
       <c r="E490" s="3" t="n">
-        <v>-4.83618657324755</v>
+        <v>5.5729370355883</v>
       </c>
       <c r="F490" s="3" t="n">
-        <v>-3.83785368934774</v>
+        <v>5.39037133486084</v>
       </c>
       <c r="G490" s="3" t="n">
-        <v>-4.34052792346369</v>
+        <v>5.55255250480937</v>
       </c>
     </row>
     <row r="491">
@@ -10298,13 +10226,13 @@
         <v>62.3775454848544</v>
       </c>
       <c r="E491" s="3" t="n">
-        <v>-4.66589693373519</v>
+        <v>5.47340507239813</v>
       </c>
       <c r="F491" s="3" t="n">
-        <v>-4.17648989823616</v>
+        <v>5.0179475229152</v>
       </c>
       <c r="G491" s="3" t="n">
-        <v>-4.21997916591896</v>
+        <v>5.21825600391395</v>
       </c>
     </row>
     <row r="492">
@@ -10321,13 +10249,13 @@
         <v>62.8206229863299</v>
       </c>
       <c r="E492" s="3" t="n">
-        <v>-4.30575995570389</v>
+        <v>5.7799325124225</v>
       </c>
       <c r="F492" s="3" t="n">
-        <v>-3.95595067905687</v>
+        <v>5.23005384238797</v>
       </c>
       <c r="G492" s="3" t="n">
-        <v>-3.96326416754245</v>
+        <v>5.75364476264812</v>
       </c>
     </row>
     <row r="493">
@@ -10344,13 +10272,13 @@
         <v>63.2061518788484</v>
       </c>
       <c r="E493" s="3" t="n">
-        <v>-3.71747481336557</v>
+        <v>6.23285644597551</v>
       </c>
       <c r="F493" s="3" t="n">
-        <v>-3.880052151238</v>
+        <v>4.84924827306012</v>
       </c>
       <c r="G493" s="3" t="n">
-        <v>-3.42431477960007</v>
+        <v>6.16434050044028</v>
       </c>
     </row>
     <row r="494">
@@ -10367,13 +10295,13 @@
         <v>63.5888735221504</v>
       </c>
       <c r="E494" s="3" t="n">
-        <v>-3.45024216657867</v>
+        <v>6.52814500971575</v>
       </c>
       <c r="F494" s="3" t="n">
-        <v>-3.78324320319943</v>
+        <v>5.3287595692237</v>
       </c>
       <c r="G494" s="3" t="n">
-        <v>-2.96440147934488</v>
+        <v>6.38914112158369</v>
       </c>
     </row>
     <row r="495">
@@ -10390,13 +10318,13 @@
         <v>63.4400893136294</v>
       </c>
       <c r="E495" s="3" t="n">
-        <v>-4.26713888908711</v>
+        <v>6.28240292993854</v>
       </c>
       <c r="F495" s="3" t="n">
-        <v>-5.31541630876319</v>
+        <v>5.04417489057123</v>
       </c>
       <c r="G495" s="3" t="n">
-        <v>-4.63691669304128</v>
+        <v>5.67861206802438</v>
       </c>
     </row>
     <row r="496">
@@ -10413,13 +10341,13 @@
         <v>63.6506330049321</v>
       </c>
       <c r="E496" s="3" t="n">
-        <v>-4.60750974392468</v>
+        <v>6.20134206969543</v>
       </c>
       <c r="F496" s="3" t="n">
-        <v>-5.8060222924636</v>
+        <v>5.00826512921795</v>
       </c>
       <c r="G496" s="3" t="n">
-        <v>-4.8916729003982</v>
+        <v>5.66204796818701</v>
       </c>
     </row>
     <row r="497">
@@ -10436,13 +10364,13 @@
         <v>63.9851635366692</v>
       </c>
       <c r="E497" s="3" t="n">
-        <v>-4.73505008565034</v>
+        <v>6.04372322227311</v>
       </c>
       <c r="F497" s="3" t="n">
-        <v>-6.20664371104576</v>
+        <v>4.3065681760051</v>
       </c>
       <c r="G497" s="3" t="n">
-        <v>-4.84152663257139</v>
+        <v>5.2511274954983</v>
       </c>
     </row>
     <row r="498">
@@ -10459,13 +10387,13 @@
         <v>64.4745606502304</v>
       </c>
       <c r="E498" s="3" t="n">
-        <v>-4.09603620805473</v>
+        <v>6.17327445822404</v>
       </c>
       <c r="F498" s="3" t="n">
-        <v>-5.47515973117626</v>
+        <v>4.42608861726448</v>
       </c>
       <c r="G498" s="3" t="n">
-        <v>-3.99612648827217</v>
+        <v>5.50965874723388</v>
       </c>
     </row>
     <row r="499">
@@ -10482,13 +10410,13 @@
         <v>64.4333876617093</v>
       </c>
       <c r="E499" s="3" t="n">
-        <v>-3.7690194571362</v>
+        <v>5.97852496277103</v>
       </c>
       <c r="F499" s="3" t="n">
-        <v>-5.03676629924427</v>
+        <v>4.44741044402694</v>
       </c>
       <c r="G499" s="3" t="n">
-        <v>-3.57848010866357</v>
+        <v>5.10990688444473</v>
       </c>
     </row>
     <row r="500">
@@ -10505,13 +10433,13 @@
         <v>64.4216907899704</v>
       </c>
       <c r="E500" s="3" t="n">
-        <v>-3.56161457962512</v>
+        <v>5.73611826597349</v>
       </c>
       <c r="F500" s="3" t="n">
-        <v>-4.91900491755843</v>
+        <v>3.93682113551208</v>
       </c>
       <c r="G500" s="3" t="n">
-        <v>-3.67758679790395</v>
+        <v>4.38177545296075</v>
       </c>
     </row>
     <row r="501">
@@ -10528,13 +10456,13 @@
         <v>64.7735326918806</v>
       </c>
       <c r="E501" s="3" t="n">
-        <v>-3.50843544663482</v>
+        <v>5.43653750620978</v>
       </c>
       <c r="F501" s="3" t="n">
-        <v>-4.6137207541727</v>
+        <v>4.05700891944145</v>
       </c>
       <c r="G501" s="3" t="n">
-        <v>-3.57244847497044</v>
+        <v>4.25398929160448</v>
       </c>
     </row>
     <row r="502">
@@ -10551,13 +10479,13 @@
         <v>64.9447748941407</v>
       </c>
       <c r="E502" s="3" t="n">
-        <v>-3.54547128912069</v>
+        <v>5.08195962215192</v>
       </c>
       <c r="F502" s="3" t="n">
-        <v>-4.46048850574704</v>
+        <v>3.9910233252797</v>
       </c>
       <c r="G502" s="3" t="n">
-        <v>-3.54795224925941</v>
+        <v>4.53747844227164</v>
       </c>
     </row>
     <row r="503">
@@ -10574,13 +10502,13 @@
         <v>65.1258424686611</v>
       </c>
       <c r="E503" s="3" t="n">
-        <v>-3.56715008526793</v>
+        <v>4.89425796610476</v>
       </c>
       <c r="F503" s="3" t="n">
-        <v>-4.08186632317149</v>
+        <v>4.35852317849843</v>
       </c>
       <c r="G503" s="3" t="n">
-        <v>-3.49831185307911</v>
+        <v>4.40590754644876</v>
       </c>
     </row>
     <row r="504">
@@ -10597,13 +10525,13 @@
         <v>65.4131176385718</v>
       </c>
       <c r="E504" s="3" t="n">
-        <v>-3.86883500721376</v>
+        <v>4.4994975180437</v>
       </c>
       <c r="F504" s="3" t="n">
-        <v>-4.23820660544117</v>
+        <v>4.11889201572246</v>
       </c>
       <c r="G504" s="3" t="n">
-        <v>-3.45482418584109</v>
+        <v>4.12682098489543</v>
       </c>
     </row>
     <row r="505">
@@ -10620,13 +10548,13 @@
         <v>65.4472725040497</v>
       </c>
       <c r="E505" s="3" t="n">
-        <v>-4.13823770548758</v>
+        <v>3.86100676748933</v>
       </c>
       <c r="F505" s="3" t="n">
-        <v>-4.78267963424034</v>
+        <v>4.03667733709447</v>
       </c>
       <c r="G505" s="3" t="n">
-        <v>-4.1109412595369</v>
+        <v>3.54573179758992</v>
       </c>
     </row>
     <row r="506">
@@ -10643,13 +10571,13 @@
         <v>65.5314899805712</v>
       </c>
       <c r="E506" s="3" t="n">
-        <v>-4.21601366159975</v>
+        <v>3.57353787725849</v>
       </c>
       <c r="F506" s="3" t="n">
-        <v>-4.75484904289249</v>
+        <v>3.93200033876555</v>
       </c>
       <c r="G506" s="3" t="n">
-        <v>-4.54049780540333</v>
+        <v>3.05496284305793</v>
       </c>
     </row>
     <row r="507">
@@ -10666,13 +10594,13 @@
         <v>66.524788328651</v>
       </c>
       <c r="E507" s="3" t="n">
-        <v>-3.64421175741904</v>
+        <v>4.45733976773486</v>
       </c>
       <c r="F507" s="3" t="n">
-        <v>-3.54515041300175</v>
+        <v>5.61381388769324</v>
       </c>
       <c r="G507" s="3" t="n">
-        <v>-3.49767627820543</v>
+        <v>4.86238126143193</v>
       </c>
     </row>
     <row r="508">
@@ -10689,13 +10617,13 @@
         <v>66.9243534672566</v>
       </c>
       <c r="E508" s="3" t="n">
-        <v>-3.44911728093809</v>
+        <v>4.83005499862317</v>
       </c>
       <c r="F508" s="3" t="n">
-        <v>-3.11180551586663</v>
+        <v>6.16389968209088</v>
       </c>
       <c r="G508" s="3" t="n">
-        <v>-3.16866349198563</v>
+        <v>5.14326458005661</v>
       </c>
     </row>
     <row r="509">
@@ -10712,13 +10640,13 @@
         <v>67.2406368790805</v>
       </c>
       <c r="E509" s="3" t="n">
-        <v>-2.94984632728257</v>
+        <v>4.97040106556241</v>
       </c>
       <c r="F509" s="3" t="n">
-        <v>-2.8228303716933</v>
+        <v>6.61735964744092</v>
       </c>
       <c r="G509" s="3" t="n">
-        <v>-2.99528464867631</v>
+        <v>5.08785656310096</v>
       </c>
     </row>
     <row r="510">
@@ -10735,13 +10663,13 @@
         <v>67.1582909020376</v>
       </c>
       <c r="E510" s="3" t="n">
-        <v>-3.25139925514387</v>
+        <v>4.27097697123415</v>
       </c>
       <c r="F510" s="3" t="n">
-        <v>-3.29940537033945</v>
+        <v>5.79229725816537</v>
       </c>
       <c r="G510" s="3" t="n">
-        <v>-3.74919787801899</v>
+        <v>4.16246380702963</v>
       </c>
     </row>
     <row r="511">
@@ -10758,13 +10686,13 @@
         <v>66.8246961200398</v>
       </c>
       <c r="E511" s="3" t="n">
-        <v>-3.14703283216513</v>
+        <v>3.91663831738407</v>
       </c>
       <c r="F511" s="3" t="n">
-        <v>-3.35790783652298</v>
+        <v>5.30391194882425</v>
       </c>
       <c r="G511" s="3" t="n">
-        <v>-3.84759980531363</v>
+        <v>3.7112878045237</v>
       </c>
     </row>
     <row r="512">
@@ -10781,13 +10709,13 @@
         <v>66.8813089792569</v>
       </c>
       <c r="E512" s="3" t="n">
-        <v>-3.17252184057336</v>
+        <v>3.69315036134217</v>
       </c>
       <c r="F512" s="3" t="n">
-        <v>-3.39426521106391</v>
+        <v>5.17348910083801</v>
       </c>
       <c r="G512" s="3" t="n">
-        <v>-3.89093072045279</v>
+        <v>3.81799694966938</v>
       </c>
     </row>
     <row r="513">
@@ -10804,13 +10732,13 @@
         <v>67.1732628978632</v>
       </c>
       <c r="E513" s="3" t="n">
-        <v>-3.42564897260562</v>
+        <v>3.63600223799299</v>
       </c>
       <c r="F513" s="3" t="n">
-        <v>-3.56331669546297</v>
+        <v>4.83688093366377</v>
       </c>
       <c r="G513" s="3" t="n">
-        <v>-4.11490793457585</v>
+        <v>3.70480056630198</v>
       </c>
     </row>
     <row r="514">
@@ -10827,13 +10755,13 @@
         <v>67.3337439781231</v>
       </c>
       <c r="E514" s="3" t="n">
-        <v>-3.31035518986187</v>
+        <v>3.67579556554383</v>
       </c>
       <c r="F514" s="3" t="n">
-        <v>-3.20835402421625</v>
+        <v>4.66873698220172</v>
       </c>
       <c r="G514" s="3" t="n">
-        <v>-4.13374380126211</v>
+        <v>3.67846233646414</v>
       </c>
     </row>
     <row r="515">
@@ -10850,13 +10778,13 @@
         <v>67.4867390604701</v>
       </c>
       <c r="E515" s="3" t="n">
-        <v>-3.0413730008006</v>
+        <v>3.69910262781001</v>
       </c>
       <c r="F515" s="3" t="n">
-        <v>-3.05338109113354</v>
+        <v>4.25557312960685</v>
       </c>
       <c r="G515" s="3" t="n">
-        <v>-3.90460808863479</v>
+        <v>3.62513021301041</v>
       </c>
     </row>
     <row r="516">
@@ -10873,13 +10801,13 @@
         <v>67.7538956109898</v>
       </c>
       <c r="E516" s="3" t="n">
-        <v>-3.09668801346155</v>
+        <v>4.02453773186258</v>
       </c>
       <c r="F516" s="3" t="n">
-        <v>-2.93177177945456</v>
+        <v>4.42578031927501</v>
       </c>
       <c r="G516" s="3" t="n">
-        <v>-4.09332586032155</v>
+        <v>3.57845346150834</v>
       </c>
     </row>
     <row r="517">
@@ -10896,13 +10824,13 @@
         <v>68.253118096812</v>
       </c>
       <c r="E517" s="3" t="n">
-        <v>-3.36548430776378</v>
+        <v>4.31688048126408</v>
       </c>
       <c r="F517" s="3" t="n">
-        <v>-2.76340054475679</v>
+        <v>5.02290929409541</v>
       </c>
       <c r="G517" s="3" t="n">
-        <v>-3.63754174869387</v>
+        <v>4.28718491299798</v>
       </c>
     </row>
     <row r="518">
@@ -10919,13 +10847,13 @@
         <v>68.6484723615922</v>
       </c>
       <c r="E518" s="3" t="n">
-        <v>-3.67829177091871</v>
+        <v>4.40158509033521</v>
       </c>
       <c r="F518" s="3" t="n">
-        <v>-2.96412959070261</v>
+        <v>4.99222164604871</v>
       </c>
       <c r="G518" s="3" t="n">
-        <v>-3.8730683861304</v>
+        <v>4.75646499407403</v>
       </c>
     </row>
     <row r="519">
@@ -10942,13 +10870,13 @@
         <v>68.935944506823</v>
       </c>
       <c r="E519" s="3" t="n">
-        <v>-3.88937900349055</v>
+        <v>3.78203720179688</v>
       </c>
       <c r="F519" s="3" t="n">
-        <v>-2.99707460720305</v>
+        <v>3.67545066752106</v>
       </c>
       <c r="G519" s="3" t="n">
-        <v>-4.20053033131341</v>
+        <v>3.62444772655304</v>
       </c>
     </row>
     <row r="520">
@@ -10965,13 +10893,13 @@
         <v>69.1143547953792</v>
       </c>
       <c r="E520" s="3" t="n">
-        <v>-3.72454448017153</v>
+        <v>3.57233117274973</v>
       </c>
       <c r="F520" s="3" t="n">
-        <v>-3.03001014835943</v>
+        <v>3.21174889514142</v>
       </c>
       <c r="G520" s="3" t="n">
-        <v>-4.17733124498616</v>
+        <v>3.27235335817488</v>
       </c>
     </row>
     <row r="521">
@@ -10988,13 +10916,13 @@
         <v>69.316874582389</v>
       </c>
       <c r="E521" s="3" t="n">
-        <v>-3.59520257087108</v>
+        <v>3.03950711632084</v>
       </c>
       <c r="F521" s="3" t="n">
-        <v>-2.87090112520026</v>
+        <v>2.90482876018139</v>
       </c>
       <c r="G521" s="3" t="n">
-        <v>-4.11541063584487</v>
+        <v>3.08777221584355</v>
       </c>
     </row>
     <row r="522">
@@ -11011,13 +10939,13 @@
         <v>69.7742662101935</v>
       </c>
       <c r="E522" s="3" t="n">
-        <v>-3.2994972560157</v>
+        <v>3.36066798910963</v>
       </c>
       <c r="F522" s="3" t="n">
-        <v>-2.66241092350268</v>
+        <v>3.41198043608248</v>
       </c>
       <c r="G522" s="3" t="n">
-        <v>-3.80626780626778</v>
+        <v>3.89523806073588</v>
       </c>
     </row>
     <row r="523">
@@ -11034,13 +10962,13 @@
         <v>69.4987290850101</v>
       </c>
       <c r="E523" s="3" t="n">
-        <v>-3.70840912809561</v>
+        <v>3.24928902458061</v>
       </c>
       <c r="F523" s="3" t="n">
-        <v>-2.91384728085892</v>
+        <v>3.47458106643928</v>
       </c>
       <c r="G523" s="3" t="n">
-        <v>-4.89961353567719</v>
+        <v>4.0015639729462</v>
       </c>
     </row>
     <row r="524">
@@ -11057,13 +10985,13 @@
         <v>69.5889674935077</v>
       </c>
       <c r="E524" s="3" t="n">
-        <v>-4.15509015309741</v>
+        <v>3.27646851996888</v>
       </c>
       <c r="F524" s="3" t="n">
-        <v>-3.47569221326012</v>
+        <v>3.51352351750098</v>
       </c>
       <c r="G524" s="3" t="n">
-        <v>-5.58774602343876</v>
+        <v>4.04845323091774</v>
       </c>
     </row>
     <row r="525">
@@ -11080,13 +11008,13 @@
         <v>70.0560029206935</v>
       </c>
       <c r="E525" s="3" t="n">
-        <v>-4.23287984451819</v>
+        <v>3.54716230154515</v>
       </c>
       <c r="F525" s="3" t="n">
-        <v>-3.67498571156416</v>
+        <v>3.69498055445394</v>
       </c>
       <c r="G525" s="3" t="n">
-        <v>-5.6620750429016</v>
+        <v>4.29149917462475</v>
       </c>
     </row>
     <row r="526">
@@ -11103,13 +11031,13 @@
         <v>70.2371685805016</v>
       </c>
       <c r="E526" s="3" t="n">
-        <v>-4.36839255692014</v>
+        <v>3.42369154045623</v>
       </c>
       <c r="F526" s="3" t="n">
-        <v>-3.95874095321309</v>
+        <v>3.31470137931009</v>
       </c>
       <c r="G526" s="3" t="n">
-        <v>-5.55828277682578</v>
+        <v>4.31199043873431</v>
       </c>
     </row>
     <row r="527">
@@ -11126,13 +11054,13 @@
         <v>70.2289024667461</v>
       </c>
       <c r="E527" s="3" t="n">
-        <v>-4.5544385916798</v>
+        <v>3.13677399828043</v>
       </c>
       <c r="F527" s="3" t="n">
-        <v>-4.13907911164918</v>
+        <v>3.14954881923613</v>
       </c>
       <c r="G527" s="3" t="n">
-        <v>-6.26913423614751</v>
+        <v>4.06326256750817</v>
       </c>
     </row>
     <row r="528">
@@ -11149,13 +11077,13 @@
         <v>70.645652368586</v>
       </c>
       <c r="E528" s="3" t="n">
-        <v>-4.39413613353656</v>
+        <v>3.19564723844705</v>
       </c>
       <c r="F528" s="3" t="n">
-        <v>-4.20469975859983</v>
+        <v>3.02032068906561</v>
       </c>
       <c r="G528" s="3" t="n">
-        <v>-5.83325681755575</v>
+        <v>4.268030246112</v>
       </c>
     </row>
     <row r="529">
@@ -11172,13 +11100,13 @@
         <v>70.8295733996459</v>
       </c>
       <c r="E529" s="3" t="n">
-        <v>-4.01214953271031</v>
+        <v>3.48269382182476</v>
       </c>
       <c r="F529" s="3" t="n">
-        <v>-3.91293691791416</v>
+        <v>2.84193458043414</v>
       </c>
       <c r="G529" s="3" t="n">
-        <v>-5.58549955466589</v>
+        <v>3.77485362526497</v>
       </c>
     </row>
     <row r="530">
@@ -11195,13 +11123,13 @@
         <v>71.4144009478477</v>
       </c>
       <c r="E530" s="3" t="n">
-        <v>-3.44534994312142</v>
+        <v>3.81875678758794</v>
       </c>
       <c r="F530" s="3" t="n">
-        <v>-3.31036041125307</v>
+        <v>3.05467408928257</v>
       </c>
       <c r="G530" s="3" t="n">
-        <v>-5.29811003626469</v>
+        <v>4.02911891715014</v>
       </c>
     </row>
     <row r="531">
@@ -11218,13 +11146,13 @@
         <v>71.9585867700849</v>
       </c>
       <c r="E531" s="3" t="n">
-        <v>-3.15199019298275</v>
+        <v>4.0467733567467</v>
       </c>
       <c r="F531" s="3" t="n">
-        <v>-3.2456395212612</v>
+        <v>3.08967445576194</v>
       </c>
       <c r="G531" s="3" t="n">
-        <v>-5.59832998969801</v>
+        <v>4.38471146640014</v>
       </c>
     </row>
     <row r="532">
@@ -11241,13 +11169,13 @@
         <v>72.1273532592598</v>
       </c>
       <c r="E532" s="3" t="n">
-        <v>-3.43043028241903</v>
+        <v>3.86863345393826</v>
       </c>
       <c r="F532" s="3" t="n">
-        <v>-3.56060959127547</v>
+        <v>3.12468852785817</v>
       </c>
       <c r="G532" s="3" t="n">
-        <v>-5.8152608996789</v>
+        <v>4.35943947216308</v>
       </c>
     </row>
     <row r="533">
@@ -11264,13 +11192,13 @@
         <v>72.2919866915569</v>
       </c>
       <c r="E533" s="3" t="n">
-        <v>-4.07882424175708</v>
+        <v>3.72927765707309</v>
       </c>
       <c r="F533" s="3" t="n">
-        <v>-4.16801531447379</v>
+        <v>2.95575801532029</v>
       </c>
       <c r="G533" s="3" t="n">
-        <v>-5.95557068991774</v>
+        <v>4.29204595142518</v>
       </c>
     </row>
     <row r="534">
@@ -11287,13 +11215,13 @@
         <v>72.5351482045312</v>
       </c>
       <c r="E534" s="3" t="n">
-        <v>-4.44285530923958</v>
+        <v>3.41207869906444</v>
       </c>
       <c r="F534" s="3" t="n">
-        <v>-4.34537974800303</v>
+        <v>2.7352340948267</v>
       </c>
       <c r="G534" s="3" t="n">
-        <v>-5.96954949323577</v>
+        <v>3.95687714725741</v>
       </c>
     </row>
     <row r="535">
@@ -11310,13 +11238,13 @@
         <v>73.0793340267684</v>
       </c>
       <c r="E535" s="3" t="n">
-        <v>-4.4264149902034</v>
+        <v>3.85122843492001</v>
       </c>
       <c r="F535" s="3" t="n">
-        <v>-4.44849690539345</v>
+        <v>3.00130059668584</v>
       </c>
       <c r="G535" s="3" t="n">
-        <v>-5.68268700769914</v>
+        <v>5.15204376957532</v>
       </c>
     </row>
     <row r="536">
@@ -11333,13 +11261,13 @@
         <v>73.7075586721866</v>
       </c>
       <c r="E536" s="3" t="n">
-        <v>-3.92747020111369</v>
+        <v>4.33522255875094</v>
       </c>
       <c r="F536" s="3" t="n">
-        <v>-3.77278390475754</v>
+        <v>3.60084655664072</v>
       </c>
       <c r="G536" s="3" t="n">
-        <v>-4.89133816274835</v>
+        <v>5.9184542133969</v>
       </c>
     </row>
     <row r="537">
@@ -11356,13 +11284,13 @@
         <v>74.2606994509923</v>
       </c>
       <c r="E537" s="3" t="n">
-        <v>-3.3560754633593</v>
+        <v>4.41997194616057</v>
       </c>
       <c r="F537" s="3" t="n">
-        <v>-2.89430112201572</v>
+        <v>3.81519352860906</v>
       </c>
       <c r="G537" s="3" t="n">
-        <v>-4.15288594900245</v>
+        <v>6.00190755253152</v>
       </c>
     </row>
     <row r="538">
@@ -11379,13 +11307,13 @@
         <v>74.3709143010656</v>
       </c>
       <c r="E538" s="3" t="n">
-        <v>-3.34104555720823</v>
+        <v>4.56793802145408</v>
       </c>
       <c r="F538" s="3" t="n">
-        <v>-2.83504678934648</v>
+        <v>4.1219169682944</v>
       </c>
       <c r="G538" s="3" t="n">
-        <v>-4.59674640133612</v>
+        <v>5.88541053705225</v>
       </c>
     </row>
     <row r="539">
@@ -11402,13 +11330,13 @@
         <v>74.9261216083102</v>
       </c>
       <c r="E539" s="3" t="n">
-        <v>-3.27912337187181</v>
+        <v>4.77176573166742</v>
       </c>
       <c r="F539" s="3" t="n">
-        <v>-2.91376254625929</v>
+        <v>4.31779610845797</v>
       </c>
       <c r="G539" s="3" t="n">
-        <v>-4.52402896642533</v>
+        <v>6.68844161958568</v>
       </c>
     </row>
     <row r="540">
@@ -11425,13 +11353,13 @@
         <v>75.0218707593114</v>
       </c>
       <c r="E540" s="3" t="n">
-        <v>-3.24994537906933</v>
+        <v>4.59609479568537</v>
       </c>
       <c r="F540" s="3" t="n">
-        <v>-2.68683012773453</v>
+        <v>4.38925474214722</v>
       </c>
       <c r="G540" s="3" t="n">
-        <v>-5.35655317447908</v>
+        <v>6.19460397632534</v>
       </c>
     </row>
     <row r="541">
@@ -11448,13 +11376,13 @@
         <v>75.0198042308725</v>
       </c>
       <c r="E541" s="3" t="n">
-        <v>-3.49231546287617</v>
+        <v>4.17985142200632</v>
       </c>
       <c r="F541" s="3" t="n">
-        <v>-2.99649783743742</v>
+        <v>4.07228277397904</v>
       </c>
       <c r="G541" s="3" t="n">
-        <v>-5.36902837877768</v>
+        <v>5.91593402318522</v>
       </c>
     </row>
     <row r="542">
@@ -11471,13 +11399,13 @@
         <v>75.4096892630071</v>
       </c>
       <c r="E542" s="3" t="n">
-        <v>-3.8221472898805</v>
+        <v>3.56829002134214</v>
       </c>
       <c r="F542" s="3" t="n">
-        <v>-3.57512482977752</v>
+        <v>3.42369712549673</v>
       </c>
       <c r="G542" s="3" t="n">
-        <v>-4.68673817649918</v>
+        <v>5.59451351846676</v>
       </c>
     </row>
     <row r="543">
@@ -11494,13 +11422,13 @@
         <v>76.2259679963629</v>
       </c>
       <c r="E543" s="3" t="n">
-        <v>-4.29047597884545</v>
+        <v>3.25457404779252</v>
       </c>
       <c r="F543" s="3" t="n">
-        <v>-3.97778917717361</v>
+        <v>3.35451498537309</v>
       </c>
       <c r="G543" s="3" t="n">
-        <v>-4.46104036261599</v>
+        <v>5.93032939892595</v>
       </c>
     </row>
     <row r="544">
@@ -11517,13 +11445,13 @@
         <v>76.5807220450366</v>
       </c>
       <c r="E544" s="3" t="n">
-        <v>-4.06241688092926</v>
+        <v>3.55228908283569</v>
       </c>
       <c r="F544" s="3" t="n">
-        <v>-3.88973993747042</v>
+        <v>3.69206978205179</v>
       </c>
       <c r="G544" s="3" t="n">
-        <v>-4.80785697160664</v>
+        <v>6.1743133284945</v>
       </c>
     </row>
     <row r="545">
@@ -11540,13 +11468,13 @@
         <v>76.8700360264791</v>
       </c>
       <c r="E545" s="3" t="n">
-        <v>-3.62249003085788</v>
+        <v>4.25226672787793</v>
       </c>
       <c r="F545" s="3" t="n">
-        <v>-2.99885177078476</v>
+        <v>4.3492945785806</v>
       </c>
       <c r="G545" s="3" t="n">
-        <v>-4.74999573225911</v>
+        <v>6.33272032549754</v>
       </c>
     </row>
     <row r="546">
@@ -11563,13 +11491,13 @@
         <v>77.1400624091589</v>
       </c>
       <c r="E546" s="3" t="n">
-        <v>-3.37856990999925</v>
+        <v>4.64942242007904</v>
       </c>
       <c r="F546" s="3" t="n">
-        <v>-2.75899183783292</v>
+        <v>4.54278082601276</v>
       </c>
       <c r="G546" s="3" t="n">
-        <v>-4.72280833106453</v>
+        <v>6.34852801519477</v>
       </c>
     </row>
     <row r="547">
@@ -11586,13 +11514,13 @@
         <v>77.4824172871993</v>
       </c>
       <c r="E547" s="3" t="n">
-        <v>-3.39118611533232</v>
+        <v>4.63142089914246</v>
       </c>
       <c r="F547" s="3" t="n">
-        <v>-2.94709179158512</v>
+        <v>4.65560117980452</v>
       </c>
       <c r="G547" s="3" t="n">
-        <v>-4.42599689016142</v>
+        <v>6.02507305118309</v>
       </c>
     </row>
     <row r="548">
@@ -11609,13 +11537,13 @@
         <v>77.4982606718973</v>
       </c>
       <c r="E548" s="3" t="n">
-        <v>-3.61686272422429</v>
+        <v>4.08802621242021</v>
       </c>
       <c r="F548" s="3" t="n">
-        <v>-3.46821324210677</v>
+        <v>3.9207035783134</v>
       </c>
       <c r="G548" s="3" t="n">
-        <v>-4.86076463176408</v>
+        <v>5.14289452533601</v>
       </c>
     </row>
     <row r="549">
@@ -11632,13 +11560,13 @@
         <v>77.4782842303215</v>
       </c>
       <c r="E549" s="3" t="n">
-        <v>-3.9130511713498</v>
+        <v>3.47261918372004</v>
       </c>
       <c r="F549" s="3" t="n">
-        <v>-3.90823600519082</v>
+        <v>2.98056772718611</v>
       </c>
       <c r="G549" s="3" t="n">
-        <v>-5.18595946993956</v>
+        <v>4.33282315291499</v>
       </c>
     </row>
     <row r="550">
@@ -11655,13 +11583,13 @@
         <v>77.9542746140758</v>
       </c>
       <c r="E550" s="3" t="n">
-        <v>-3.98455543997597</v>
+        <v>3.45652979226632</v>
       </c>
       <c r="F550" s="3" t="n">
-        <v>-3.95326986828344</v>
+        <v>2.91776684459479</v>
       </c>
       <c r="G550" s="3" t="n">
-        <v>-4.00871977131803</v>
+        <v>4.81822812948645</v>
       </c>
     </row>
     <row r="551">
@@ -11678,13 +11606,13 @@
         <v>78.4764174662984</v>
       </c>
       <c r="E551" s="3" t="n">
-        <v>-4.0469022898218</v>
+        <v>3.39029533869855</v>
       </c>
       <c r="F551" s="3" t="n">
-        <v>-4.08423908256554</v>
+        <v>3.00121069955732</v>
       </c>
       <c r="G551" s="3" t="n">
-        <v>-3.43538625845492</v>
+        <v>4.73839534434735</v>
       </c>
     </row>
     <row r="552">
@@ -11701,13 +11629,13 @@
         <v>79.2678978583877</v>
       </c>
       <c r="E552" s="3" t="n">
-        <v>-4.12066091176488</v>
+        <v>3.35911477445952</v>
       </c>
       <c r="F552" s="3" t="n">
-        <v>-4.12106281893369</v>
+        <v>2.76101388050691</v>
       </c>
       <c r="G552" s="3" t="n">
-        <v>-2.97547279579776</v>
+        <v>5.65971903406488</v>
       </c>
     </row>
     <row r="553">
@@ -11724,13 +11652,13 @@
         <v>79.2761639721432</v>
       </c>
       <c r="E553" s="3" t="n">
-        <v>-4.00110829227742</v>
+        <v>3.61869158878512</v>
       </c>
       <c r="F553" s="3" t="n">
-        <v>-3.97242832682101</v>
+        <v>3.08906149843515</v>
       </c>
       <c r="G553" s="3" t="n">
-        <v>-3.1743494392516</v>
+        <v>5.67364815852065</v>
       </c>
     </row>
     <row r="554">
@@ -11747,13 +11675,13 @@
         <v>79.1177301251627</v>
       </c>
       <c r="E554" s="3" t="n">
-        <v>-3.92128141721024</v>
+        <v>3.97404098987368</v>
       </c>
       <c r="F554" s="3" t="n">
-        <v>-3.80668768393749</v>
+        <v>3.70767898165927</v>
       </c>
       <c r="G554" s="3" t="n">
-        <v>-3.74684689969581</v>
+        <v>4.91719419400209</v>
       </c>
     </row>
     <row r="555">
@@ -11770,13 +11698,13 @@
         <v>79.7852188109195</v>
       </c>
       <c r="E555" s="3" t="n">
-        <v>-2.97445538748121</v>
+        <v>4.48280985902421</v>
       </c>
       <c r="F555" s="3" t="n">
-        <v>-2.95967023562085</v>
+        <v>4.14257195609997</v>
       </c>
       <c r="G555" s="3" t="n">
-        <v>-3.05178662604323</v>
+        <v>4.66934157494259</v>
       </c>
     </row>
     <row r="556">
@@ -11793,13 +11721,13 @@
         <v>80.4485744397986</v>
       </c>
       <c r="E556" s="3" t="n">
-        <v>-2.91287207120347</v>
+        <v>4.23443737986113</v>
       </c>
       <c r="F556" s="3" t="n">
-        <v>-2.99462080592324</v>
+        <v>4.04716409563322</v>
       </c>
       <c r="G556" s="3" t="n">
-        <v>-2.3830021982798</v>
+        <v>5.05068676747047</v>
       </c>
     </row>
     <row r="557">
@@ -11816,13 +11744,13 @@
         <v>80.7034462805933</v>
       </c>
       <c r="E557" s="3" t="n">
-        <v>-3.0416555933714</v>
+        <v>3.75864663033703</v>
       </c>
       <c r="F557" s="3" t="n">
-        <v>-3.23683867887674</v>
+        <v>3.09156316758068</v>
       </c>
       <c r="G557" s="3" t="n">
-        <v>-2.64821970169089</v>
+        <v>4.9868719364119</v>
       </c>
     </row>
     <row r="558">
@@ -11839,13 +11767,13 @@
         <v>80.9638288638916</v>
       </c>
       <c r="E558" s="3" t="n">
-        <v>-2.97133525291157</v>
+        <v>3.49670865650837</v>
       </c>
       <c r="F558" s="3" t="n">
-        <v>-3.22048611111118</v>
+        <v>2.83727193904839</v>
       </c>
       <c r="G558" s="3" t="n">
-        <v>-2.94302229562341</v>
+        <v>4.95691387239363</v>
       </c>
     </row>
     <row r="559">
@@ -11862,13 +11790,13 @@
         <v>81.0705994999001</v>
       </c>
       <c r="E559" s="3" t="n">
-        <v>-2.79620607442725</v>
+        <v>3.51022435632089</v>
       </c>
       <c r="F559" s="3" t="n">
-        <v>-2.80871544489435</v>
+        <v>3.03658267020337</v>
       </c>
       <c r="G559" s="3" t="n">
-        <v>-3.1549063978606</v>
+        <v>4.63096317633032</v>
       </c>
     </row>
     <row r="560">
@@ -11885,13 +11813,13 @@
         <v>81.4577291607828</v>
       </c>
       <c r="E560" s="3" t="n">
-        <v>-2.79066558581548</v>
+        <v>3.75258870633726</v>
       </c>
       <c r="F560" s="3" t="n">
-        <v>-2.77854767184031</v>
+        <v>3.59281989755895</v>
       </c>
       <c r="G560" s="3" t="n">
-        <v>-3.2869340486784</v>
+        <v>5.1091062619439</v>
       </c>
     </row>
     <row r="561">
@@ -11908,13 +11836,13 @@
         <v>81.7160452156422</v>
       </c>
       <c r="E561" s="3" t="n">
-        <v>-2.66602369798835</v>
+        <v>4.07240652247982</v>
       </c>
       <c r="F561" s="3" t="n">
-        <v>-2.79419388284086</v>
+        <v>4.06719144567056</v>
       </c>
       <c r="G561" s="3" t="n">
-        <v>-3.70791259456479</v>
+        <v>5.46961129485393</v>
       </c>
     </row>
     <row r="562">
@@ -11931,13 +11859,13 @@
         <v>81.2097457481177</v>
       </c>
       <c r="E562" s="3" t="n">
-        <v>-2.52206267776899</v>
+        <v>4.14991094217663</v>
       </c>
       <c r="F562" s="3" t="n">
-        <v>-2.61633678322645</v>
+        <v>4.11598589859541</v>
       </c>
       <c r="G562" s="3" t="n">
-        <v>-3.98967359437103</v>
+        <v>4.17612908356673</v>
       </c>
     </row>
     <row r="563">
@@ -11954,13 +11882,13 @@
         <v>81.2682973872192</v>
       </c>
       <c r="E563" s="3" t="n">
-        <v>-2.45700245700241</v>
+        <v>4.21758378457491</v>
       </c>
       <c r="F563" s="3" t="n">
-        <v>-2.63367780112346</v>
+        <v>4.25815219886678</v>
       </c>
       <c r="G563" s="3" t="n">
-        <v>-4.50063947935045</v>
+        <v>3.55760368663589</v>
       </c>
     </row>
     <row r="564">
@@ -11977,13 +11905,13 @@
         <v>81.6988241453183</v>
       </c>
       <c r="E564" s="3" t="n">
-        <v>-2.41972574738099</v>
+        <v>4.29775690044416</v>
       </c>
       <c r="F564" s="3" t="n">
-        <v>-2.90864049886812</v>
+        <v>4.29819409778303</v>
       </c>
       <c r="G564" s="3" t="n">
-        <v>-4.57175041235863</v>
+        <v>3.06672228305267</v>
       </c>
     </row>
     <row r="565">
@@ -12000,13 +11928,13 @@
         <v>81.8751679054357</v>
       </c>
       <c r="E565" s="3" t="n">
-        <v>-2.16686008589511</v>
+        <v>4.16786925463595</v>
       </c>
       <c r="F565" s="3" t="n">
-        <v>-2.59412579756751</v>
+        <v>4.13675807646245</v>
       </c>
       <c r="G565" s="3" t="n">
-        <v>-4.4411213751075</v>
+        <v>3.27841787880374</v>
       </c>
     </row>
     <row r="566">
@@ -12023,13 +11951,13 @@
         <v>82.1975463419002</v>
       </c>
       <c r="E566" s="3" t="n">
-        <v>-2.08635642695645</v>
+        <v>4.08132151953227</v>
       </c>
       <c r="F566" s="3" t="n">
-        <v>-2.49989356720173</v>
+        <v>3.95733091239219</v>
       </c>
       <c r="G566" s="3" t="n">
-        <v>-3.99771513162136</v>
+        <v>3.89270042487986</v>
       </c>
     </row>
     <row r="567">
@@ -12046,13 +11974,13 @@
         <v>82.2967397069663</v>
       </c>
       <c r="E567" s="3" t="n">
-        <v>-2.54656088213545</v>
+        <v>3.06564152704321</v>
       </c>
       <c r="F567" s="3" t="n">
-        <v>-3.12111341427297</v>
+        <v>3.04993835326728</v>
       </c>
       <c r="G567" s="3" t="n">
-        <v>-3.67028696290199</v>
+        <v>3.14785236347948</v>
       </c>
     </row>
     <row r="568">
@@ -12069,13 +11997,13 @@
         <v>82.4124652995433</v>
       </c>
       <c r="E568" s="3" t="n">
-        <v>-2.7873310740136</v>
+        <v>3.00026598102661</v>
       </c>
       <c r="F568" s="3" t="n">
-        <v>-2.92475113885601</v>
+        <v>3.08706674908406</v>
       </c>
       <c r="G568" s="3" t="n">
-        <v>-4.37448046550287</v>
+        <v>2.4411754632325</v>
       </c>
     </row>
     <row r="569">
@@ -12092,13 +12020,13 @@
         <v>82.898788325492</v>
       </c>
       <c r="E569" s="3" t="n">
-        <v>-2.53507240079879</v>
+        <v>3.13707459836068</v>
       </c>
       <c r="F569" s="3" t="n">
-        <v>-3.15489500495975</v>
+        <v>3.34511464351066</v>
       </c>
       <c r="G569" s="3" t="n">
-        <v>-4.27080516092087</v>
+        <v>2.72025811297556</v>
       </c>
     </row>
     <row r="570">
@@ -12115,13 +12043,13 @@
         <v>83.4188646492757</v>
       </c>
       <c r="E570" s="3" t="n">
-        <v>-2.47858376221689</v>
+        <v>3.06232726241935</v>
       </c>
       <c r="F570" s="3" t="n">
-        <v>-3.34435252462532</v>
+        <v>3.32765270427848</v>
       </c>
       <c r="G570" s="3" t="n">
-        <v>-4.05792967945366</v>
+        <v>3.03226245575818</v>
       </c>
     </row>
     <row r="571">
@@ -12138,13 +12066,13 @@
         <v>83.7116228447831</v>
       </c>
       <c r="E571" s="3" t="n">
-        <v>-2.53094215711039</v>
+        <v>2.87664293902794</v>
       </c>
       <c r="F571" s="3" t="n">
-        <v>-3.4831460674157</v>
+        <v>2.8898840649666</v>
       </c>
       <c r="G571" s="3" t="n">
-        <v>-3.5829610999595</v>
+        <v>3.25768325530422</v>
       </c>
     </row>
     <row r="572">
@@ -12161,13 +12089,13 @@
         <v>84.2261884260631</v>
       </c>
       <c r="E572" s="3" t="n">
-        <v>-2.47516841742289</v>
+        <v>2.87077943968339</v>
       </c>
       <c r="F572" s="3" t="n">
-        <v>-3.20265602468226</v>
+        <v>2.85795738008692</v>
       </c>
       <c r="G572" s="3" t="n">
-        <v>-3.33006546282527</v>
+        <v>3.39864527749829</v>
       </c>
     </row>
     <row r="573">
@@ -12184,13 +12112,13 @@
         <v>84.8626791852367</v>
       </c>
       <c r="E573" s="3" t="n">
-        <v>-2.58617073927742</v>
+        <v>2.7390473494231</v>
       </c>
       <c r="F573" s="3" t="n">
-        <v>-3.11806805340472</v>
+        <v>2.87451335928752</v>
       </c>
       <c r="G573" s="3" t="n">
-        <v>-3.82225275583178</v>
+        <v>3.85069292241296</v>
       </c>
     </row>
     <row r="574">
@@ -12207,13 +12135,13 @@
         <v>84.5843866888015</v>
       </c>
       <c r="E574" s="3" t="n">
-        <v>-2.65502271073299</v>
+        <v>2.58731641954204</v>
       </c>
       <c r="F574" s="3" t="n">
-        <v>-3.2058887422087</v>
+        <v>2.68662802035136</v>
       </c>
       <c r="G574" s="3" t="n">
-        <v>-4.64904992273585</v>
+        <v>4.15546300458898</v>
       </c>
     </row>
     <row r="575">
@@ -12230,13 +12158,13 @@
         <v>85.0982634272685</v>
       </c>
       <c r="E575" s="3" t="n">
-        <v>-2.8833442802864</v>
+        <v>2.51889168765738</v>
       </c>
       <c r="F575" s="3" t="n">
-        <v>-3.08679427189394</v>
+        <v>2.70491658886325</v>
       </c>
       <c r="G575" s="3" t="n">
-        <v>-4.45999767990417</v>
+        <v>4.71274305378966</v>
       </c>
     </row>
     <row r="576">
@@ -12253,13 +12181,13 @@
         <v>85.6128290085485</v>
       </c>
       <c r="E576" s="3" t="n">
-        <v>-2.97255530671786</v>
+        <v>2.47972837329471</v>
       </c>
       <c r="F576" s="3" t="n">
-        <v>-2.90783024110276</v>
+        <v>2.99577687840926</v>
       </c>
       <c r="G576" s="3" t="n">
-        <v>-4.41821118203498</v>
+        <v>4.79077257742209</v>
       </c>
     </row>
     <row r="577">
@@ -12276,13 +12204,13 @@
         <v>85.6803356042185</v>
       </c>
       <c r="E577" s="3" t="n">
-        <v>-3.19959328593798</v>
+        <v>2.2148528482246</v>
       </c>
       <c r="F577" s="3" t="n">
-        <v>-3.22559284857011</v>
+        <v>2.66321289019624</v>
       </c>
       <c r="G577" s="3" t="n">
-        <v>-4.24121577926273</v>
+        <v>4.64752353629088</v>
       </c>
     </row>
     <row r="578">
@@ -12299,13 +12227,13 @@
         <v>85.6204062794911</v>
       </c>
       <c r="E578" s="3" t="n">
-        <v>-3.25103048606294</v>
+        <v>2.13081277626037</v>
       </c>
       <c r="F578" s="3" t="n">
-        <v>-3.20998846217241</v>
+        <v>2.56399060335875</v>
       </c>
       <c r="G578" s="3" t="n">
-        <v>-4.91577546243173</v>
+        <v>4.16418748481071</v>
       </c>
     </row>
     <row r="579">
@@ -12322,13 +12250,13 @@
         <v>85.4323521915534</v>
       </c>
       <c r="E579" s="3" t="n">
-        <v>-4.50569030000482</v>
+        <v>2.61310519688847</v>
       </c>
       <c r="F579" s="3" t="n">
-        <v>-4.20013454695773</v>
+        <v>3.22166524024936</v>
       </c>
       <c r="G579" s="3" t="n">
-        <v>-6.95460376763971</v>
+        <v>3.81012965489527</v>
       </c>
     </row>
     <row r="580">
@@ -12345,13 +12273,13 @@
         <v>86.1825020148652</v>
       </c>
       <c r="E580" s="3" t="n">
-        <v>-4.63859940311853</v>
+        <v>2.8672508478661</v>
       </c>
       <c r="F580" s="3" t="n">
-        <v>-4.511035927179</v>
+        <v>3.01287009115945</v>
       </c>
       <c r="G580" s="3" t="n">
-        <v>-6.99444696367109</v>
+        <v>4.57459524068233</v>
       </c>
     </row>
     <row r="581">
@@ -12368,13 +12296,13 @@
         <v>86.5971853882663</v>
       </c>
       <c r="E581" s="3" t="n">
-        <v>-5.08061893771766</v>
+        <v>2.60100988452339</v>
       </c>
       <c r="F581" s="3" t="n">
-        <v>-4.79551820728296</v>
+        <v>3.25767110802484</v>
       </c>
       <c r="G581" s="3" t="n">
-        <v>-7.39641265515081</v>
+        <v>4.46134031326608</v>
       </c>
     </row>
     <row r="582">
@@ -12391,13 +12319,13 @@
         <v>86.9471175372492</v>
       </c>
       <c r="E582" s="3" t="n">
-        <v>-5.49737805167861</v>
+        <v>2.54157892474967</v>
       </c>
       <c r="F582" s="3" t="n">
-        <v>-4.88176659776705</v>
+        <v>3.46006944444439</v>
       </c>
       <c r="G582" s="3" t="n">
-        <v>-7.56488370730563</v>
+        <v>4.22956234516929</v>
       </c>
     </row>
     <row r="583">
@@ -12414,13 +12342,13 @@
         <v>86.8224369881037</v>
       </c>
       <c r="E583" s="3" t="n">
-        <v>-5.80612414843239</v>
+        <v>2.59666217476937</v>
       </c>
       <c r="F583" s="3" t="n">
-        <v>-4.86598596043396</v>
+        <v>3.60884749708961</v>
       </c>
       <c r="G583" s="3" t="n">
-        <v>-7.99859852991621</v>
+        <v>3.7161077967496</v>
       </c>
     </row>
     <row r="584">
@@ -12437,13 +12365,13 @@
         <v>87.1275943542443</v>
       </c>
       <c r="E584" s="3" t="n">
-        <v>-5.93870641098669</v>
+        <v>2.53798789216786</v>
       </c>
       <c r="F584" s="3" t="n">
-        <v>-5.24400803959426</v>
+        <v>3.30861973392462</v>
       </c>
       <c r="G584" s="3" t="n">
-        <v>-7.9319556561679</v>
+        <v>3.44477885370316</v>
       </c>
     </row>
     <row r="585">
@@ -12460,13 +12388,13 @@
         <v>88.2352535974816</v>
       </c>
       <c r="E585" s="3" t="n">
-        <v>-6.04873666125502</v>
+        <v>2.65482915403692</v>
       </c>
       <c r="F585" s="3" t="n">
-        <v>-5.4543871728515</v>
+        <v>3.21842059789179</v>
       </c>
       <c r="G585" s="3" t="n">
-        <v>-6.98221586411731</v>
+        <v>3.97415500503266</v>
       </c>
     </row>
     <row r="586">
@@ -12483,13 +12411,13 @@
         <v>88.7084886099841</v>
       </c>
       <c r="E586" s="3" t="n">
-        <v>-6.24720616721425</v>
+        <v>2.72743677657186</v>
       </c>
       <c r="F586" s="3" t="n">
-        <v>-5.64240833155953</v>
+        <v>3.31207002218397</v>
       </c>
       <c r="G586" s="3" t="n">
-        <v>-6.47993493195452</v>
+        <v>4.87572480291876</v>
       </c>
     </row>
     <row r="587">
@@ -12506,13 +12434,13 @@
         <v>89.0708199296003</v>
       </c>
       <c r="E587" s="3" t="n">
-        <v>-5.9689474013384</v>
+        <v>2.96894931041281</v>
       </c>
       <c r="F587" s="3" t="n">
-        <v>-5.42148786316187</v>
+        <v>3.18511213069772</v>
       </c>
       <c r="G587" s="3" t="n">
-        <v>-6.39975098808506</v>
+        <v>4.66819925852782</v>
       </c>
     </row>
     <row r="588">
@@ -12529,13 +12457,13 @@
         <v>89.5702309689952</v>
       </c>
       <c r="E588" s="3" t="n">
-        <v>-5.98988478600336</v>
+        <v>3.06362320074958</v>
       </c>
       <c r="F588" s="3" t="n">
-        <v>-5.40705930348421</v>
+        <v>2.99491735360697</v>
       </c>
       <c r="G588" s="3" t="n">
-        <v>-5.92805880310217</v>
+        <v>4.62244035885271</v>
       </c>
     </row>
     <row r="589">
@@ -12552,13 +12480,13 @@
         <v>89.4751706608069</v>
       </c>
       <c r="E589" s="3" t="n">
-        <v>-6.22174033404085</v>
+        <v>3.30535107707681</v>
       </c>
       <c r="F589" s="3" t="n">
-        <v>-5.64203094369678</v>
+        <v>3.33310525325441</v>
       </c>
       <c r="G589" s="3" t="n">
-        <v>-6.4455024092307</v>
+        <v>4.42906184928804</v>
       </c>
     </row>
     <row r="590">
@@ -12575,13 +12503,13 @@
         <v>90.0469101955625</v>
       </c>
       <c r="E590" s="3" t="n">
-        <v>-6.34340623638316</v>
+        <v>3.36027401883037</v>
       </c>
       <c r="F590" s="3" t="n">
-        <v>-5.79631383631197</v>
+        <v>3.31644599599812</v>
       </c>
       <c r="G590" s="3" t="n">
-        <v>-6.58710876089748</v>
+        <v>5.16991697238849</v>
       </c>
     </row>
     <row r="591">
@@ -12598,13 +12526,13 @@
         <v>91.8179250676788</v>
       </c>
       <c r="E591" s="3" t="n">
-        <v>-5.25443319037625</v>
+        <v>4.71828144960666</v>
       </c>
       <c r="F591" s="3" t="n">
-        <v>-4.55941394434942</v>
+        <v>4.38428021489914</v>
       </c>
       <c r="G591" s="3" t="n">
-        <v>-5.84059168838879</v>
+        <v>7.47442006724559</v>
       </c>
     </row>
     <row r="592">
@@ -12621,13 +12549,13 @@
         <v>92.6638240419918</v>
       </c>
       <c r="E592" s="3" t="n">
-        <v>-5.06859380799791</v>
+        <v>4.86423162210792</v>
       </c>
       <c r="F592" s="3" t="n">
-        <v>-4.32369942196532</v>
+        <v>4.7241437489455</v>
       </c>
       <c r="G592" s="3" t="n">
-        <v>-6.31067961165052</v>
+        <v>7.52046166634692</v>
       </c>
     </row>
     <row r="593">
@@ -12644,13 +12572,13 @@
         <v>93.5138560731827</v>
       </c>
       <c r="E593" s="3" t="n">
-        <v>-4.79401371228368</v>
+        <v>5.35256222792262</v>
       </c>
       <c r="F593" s="3" t="n">
-        <v>-4.05804891158286</v>
+        <v>5.03707190773219</v>
       </c>
       <c r="G593" s="3" t="n">
-        <v>-5.68443138317455</v>
+        <v>7.98717724358462</v>
       </c>
     </row>
     <row r="594">
@@ -12667,13 +12595,13 @@
         <v>94.0628637951106</v>
       </c>
       <c r="E594" s="3" t="n">
-        <v>-4.35270140241079</v>
+        <v>5.81716987141885</v>
       </c>
       <c r="F594" s="3" t="n">
-        <v>-3.68420243512486</v>
+        <v>5.13231419797631</v>
       </c>
       <c r="G594" s="3" t="n">
-        <v>-5.30899811383561</v>
+        <v>8.18399328167829</v>
       </c>
     </row>
     <row r="595">
@@ -12690,13 +12618,13 @@
         <v>94.370776532503</v>
       </c>
       <c r="E595" s="3" t="n">
-        <v>-4.31196072032969</v>
+        <v>6.1640144817714</v>
       </c>
       <c r="F595" s="3" t="n">
-        <v>-4.06220344690356</v>
+        <v>5.11487506288781</v>
       </c>
       <c r="G595" s="3" t="n">
-        <v>-4.90935088011555</v>
+        <v>8.6939963979974</v>
       </c>
     </row>
     <row r="596">
@@ -12713,13 +12641,13 @@
         <v>94.6339144870532</v>
       </c>
       <c r="E596" s="3" t="n">
-        <v>-4.44051344854178</v>
+        <v>6.31365589860478</v>
       </c>
       <c r="F596" s="3" t="n">
-        <v>-4.01034040995608</v>
+        <v>5.53422314631618</v>
       </c>
       <c r="G596" s="3" t="n">
-        <v>-4.78167452176327</v>
+        <v>8.61531893362009</v>
       </c>
     </row>
     <row r="597">
@@ -12736,13 +12664,13 @@
         <v>94.8584772440777</v>
       </c>
       <c r="E597" s="3" t="n">
-        <v>-4.59053620169787</v>
+        <v>6.43816426336499</v>
       </c>
       <c r="F597" s="3" t="n">
-        <v>-4.04529024027221</v>
+        <v>5.7690536977357</v>
       </c>
       <c r="G597" s="3" t="n">
-        <v>-5.11210947728181</v>
+        <v>7.50632357992695</v>
       </c>
     </row>
     <row r="598">
@@ -12759,13 +12687,13 @@
         <v>94.8550330300129</v>
       </c>
       <c r="E598" s="3" t="n">
-        <v>-4.67523021304572</v>
+        <v>6.66348800053527</v>
       </c>
       <c r="F598" s="3" t="n">
-        <v>-4.13181273390046</v>
+        <v>5.97981384623103</v>
       </c>
       <c r="G598" s="3" t="n">
-        <v>-5.5238164659586</v>
+        <v>6.92892474704727</v>
       </c>
     </row>
     <row r="599">
@@ -12782,13 +12710,13 @@
         <v>95.1608792389665</v>
       </c>
       <c r="E599" s="3" t="n">
-        <v>-4.77965532537571</v>
+        <v>6.34784705305251</v>
       </c>
       <c r="F599" s="3" t="n">
-        <v>-4.46431271381709</v>
+        <v>5.73226173754768</v>
       </c>
       <c r="G599" s="3" t="n">
-        <v>-5.55126422874874</v>
+        <v>6.83732260933452</v>
       </c>
     </row>
     <row r="600">
@@ -12805,13 +12733,13 @@
         <v>95.2146089783772</v>
       </c>
       <c r="E600" s="3" t="n">
-        <v>-4.67441923624763</v>
+        <v>6.37153222540841</v>
       </c>
       <c r="F600" s="3" t="n">
-        <v>-4.46687803156479</v>
+        <v>5.71613406208797</v>
       </c>
       <c r="G600" s="3" t="n">
-        <v>-5.75050584180274</v>
+        <v>6.30162270245322</v>
       </c>
     </row>
     <row r="601">
@@ -12828,13 +12756,13 @@
         <v>95.6396249939726</v>
       </c>
       <c r="E601" s="3" t="n">
-        <v>-4.50409666498393</v>
+        <v>6.63452313596229</v>
       </c>
       <c r="F601" s="3" t="n">
-        <v>-4.34585586813139</v>
+        <v>5.97938997641014</v>
       </c>
       <c r="G601" s="3" t="n">
-        <v>-5.72825798269844</v>
+        <v>6.88956979644628</v>
       </c>
     </row>
     <row r="602">
@@ -12851,13 +12779,13 @@
         <v>96.396663245414</v>
       </c>
       <c r="E602" s="3" t="n">
-        <v>-4.6079567212616</v>
+        <v>6.77304819817974</v>
       </c>
       <c r="F602" s="3" t="n">
-        <v>-4.1989662628747</v>
+        <v>6.15295862864678</v>
       </c>
       <c r="G602" s="3" t="n">
-        <v>-5.9397923135182</v>
+        <v>7.05160569758718</v>
       </c>
     </row>
     <row r="603">
@@ -12874,13 +12802,13 @@
         <v>97.5132774452198</v>
       </c>
       <c r="E603" s="3" t="n">
-        <v>-4.18299288173449</v>
+        <v>5.54583540666784</v>
       </c>
       <c r="F603" s="3" t="n">
-        <v>-3.85782632172251</v>
+        <v>4.77722752214751</v>
       </c>
       <c r="G603" s="3" t="n">
-        <v>-4.86695143000155</v>
+        <v>6.202876370102</v>
       </c>
     </row>
     <row r="604">
@@ -12897,13 +12825,13 @@
         <v>98.9054287702089</v>
       </c>
       <c r="E604" s="3" t="n">
-        <v>-3.79090359662054</v>
+        <v>5.3392170318709</v>
       </c>
       <c r="F604" s="3" t="n">
-        <v>-3.86886105557608</v>
+        <v>4.51909134847752</v>
       </c>
       <c r="G604" s="3" t="n">
-        <v>-3.60094661773012</v>
+        <v>6.73575129533683</v>
       </c>
     </row>
     <row r="605">
@@ -12920,13 +12848,13 @@
         <v>99.1499679688092</v>
       </c>
       <c r="E605" s="3" t="n">
-        <v>-3.85001644769049</v>
+        <v>5.03541205675448</v>
       </c>
       <c r="F605" s="3" t="n">
-        <v>-4.26351203857119</v>
+        <v>4.22969187675064</v>
       </c>
       <c r="G605" s="3" t="n">
-        <v>-3.88440147657532</v>
+        <v>6.02703399506459</v>
       </c>
     </row>
     <row r="606">
@@ -12943,13 +12871,13 @@
         <v>99.336644371121</v>
       </c>
       <c r="E606" s="3" t="n">
-        <v>-4.22690107687891</v>
+        <v>4.55078341597877</v>
       </c>
       <c r="F606" s="3" t="n">
-        <v>-4.70801394350462</v>
+        <v>3.82512788999467</v>
       </c>
       <c r="G606" s="3" t="n">
-        <v>-4.29534720254252</v>
+        <v>5.60665534009026</v>
       </c>
     </row>
     <row r="607">
@@ -12966,13 +12894,13 @@
         <v>99.2429617485586</v>
       </c>
       <c r="E607" s="3" t="n">
-        <v>-4.10616743377864</v>
+        <v>4.50626928170927</v>
       </c>
       <c r="F607" s="3" t="n">
-        <v>-4.45589003771794</v>
+        <v>4.23420548819395</v>
       </c>
       <c r="G607" s="3" t="n">
-        <v>-4.3865257345576</v>
+        <v>5.16281140738259</v>
       </c>
     </row>
     <row r="608">
@@ -12989,13 +12917,13 @@
         <v>99.386241053654</v>
       </c>
       <c r="E608" s="3" t="n">
-        <v>-3.79726335028723</v>
+        <v>4.64685779381055</v>
       </c>
       <c r="F608" s="3" t="n">
-        <v>-4.17460322396938</v>
+        <v>4.17788793822542</v>
       </c>
       <c r="G608" s="3" t="n">
-        <v>-4.4739659810517</v>
+        <v>5.02180068568436</v>
       </c>
     </row>
     <row r="609">
@@ -13012,13 +12940,13 @@
         <v>99.9690020734169</v>
       </c>
       <c r="E609" s="3" t="n">
-        <v>-3.64356273736003</v>
+        <v>4.81140551361066</v>
       </c>
       <c r="F609" s="3" t="n">
-        <v>-3.86669263737703</v>
+        <v>4.21583291784393</v>
       </c>
       <c r="G609" s="3" t="n">
-        <v>-4.00979204626539</v>
+        <v>5.3875256885997</v>
       </c>
     </row>
     <row r="610">
@@ -13035,13 +12963,13 @@
         <v>100.401</v>
       </c>
       <c r="E610" s="3" t="n">
-        <v>-3.06549628629305</v>
+        <v>4.90452819712506</v>
       </c>
       <c r="F610" s="3" t="n">
-        <v>-3.41913214041902</v>
+        <v>4.30988928833282</v>
       </c>
       <c r="G610" s="3" t="n">
-        <v>-3.58480419459543</v>
+        <v>5.84678197121318</v>
       </c>
     </row>
     <row r="611">
@@ -13058,13 +12986,13 @@
         <v>100.754</v>
       </c>
       <c r="E611" s="3" t="n">
-        <v>-2.91027688518596</v>
+        <v>5.0195736443805</v>
       </c>
       <c r="F611" s="3" t="n">
-        <v>-2.91095232607275</v>
+        <v>4.6729267780782</v>
       </c>
       <c r="G611" s="3" t="n">
-        <v>-3.45164628770745</v>
+        <v>5.87754212210265</v>
       </c>
     </row>
     <row r="612">
@@ -13081,13 +13009,13 @@
         <v>101.024</v>
       </c>
       <c r="E612" s="3" t="n">
-        <v>-2.9310163344593</v>
+        <v>4.90363572799242</v>
       </c>
       <c r="F612" s="3" t="n">
-        <v>-3.10972518485217</v>
+        <v>4.67573752383039</v>
       </c>
       <c r="G612" s="3" t="n">
-        <v>-3.66096716668415</v>
+        <v>6.10136520430609</v>
       </c>
     </row>
     <row r="613">
@@ -13104,13 +13032,13 @@
         <v>101.451</v>
       </c>
       <c r="E613" s="3" t="n">
-        <v>-2.88857669014486</v>
+        <v>4.7165339115991</v>
       </c>
       <c r="F613" s="3" t="n">
-        <v>-3.27336759946698</v>
+        <v>4.54330118948134</v>
       </c>
       <c r="G613" s="3" t="n">
-        <v>-3.11795714122006</v>
+        <v>6.07632558826285</v>
       </c>
     </row>
     <row r="614">
@@ -13127,13 +13055,13 @@
         <v>102.484</v>
       </c>
       <c r="E614" s="3" t="n">
-        <v>-2.75076934695188</v>
+        <v>4.8305461995368</v>
       </c>
       <c r="F614" s="3" t="n">
-        <v>-3.48984531598654</v>
+        <v>4.38300725897856</v>
       </c>
       <c r="G614" s="3" t="n">
-        <v>-2.73984303081493</v>
+        <v>6.31488326425613</v>
       </c>
     </row>
     <row r="615">
@@ -13150,13 +13078,13 @@
         <v>102.502</v>
       </c>
       <c r="E615" s="3" t="n">
-        <v>-3.13677229043562</v>
+        <v>4.36560586428199</v>
       </c>
       <c r="F615" s="3" t="n">
-        <v>-3.52251783942158</v>
+        <v>4.01262648235106</v>
       </c>
       <c r="G615" s="3" t="n">
-        <v>-3.60555221185676</v>
+        <v>5.11594183426223</v>
       </c>
     </row>
     <row r="616">
@@ -13173,13 +13101,13 @@
         <v>102.6</v>
       </c>
       <c r="E616" s="3" t="n">
-        <v>-3.56444535920442</v>
+        <v>3.94027564787252</v>
       </c>
       <c r="F616" s="3" t="n">
-        <v>-3.38858403575266</v>
+        <v>4.02456591907516</v>
       </c>
       <c r="G616" s="3" t="n">
-        <v>-4.04758342061948</v>
+        <v>3.73545848365395</v>
       </c>
     </row>
     <row r="617">
@@ -13196,13 +13124,13 @@
         <v>103.157</v>
       </c>
       <c r="E617" s="3" t="n">
-        <v>-3.14682041970085</v>
+        <v>4.004177957655</v>
       </c>
       <c r="F617" s="3" t="n">
-        <v>-2.73958411813455</v>
+        <v>4.453382539256</v>
       </c>
       <c r="G617" s="3" t="n">
-        <v>-3.16169913165925</v>
+        <v>4.04138509903638</v>
       </c>
     </row>
     <row r="618">
@@ -13219,13 +13147,13 @@
         <v>103.795</v>
       </c>
       <c r="E618" s="3" t="n">
-        <v>-2.10297385466407</v>
+        <v>4.41345338556072</v>
       </c>
       <c r="F618" s="3" t="n">
-        <v>-1.76758821355119</v>
+        <v>4.94061897368094</v>
       </c>
       <c r="G618" s="3" t="n">
-        <v>-1.52090172489041</v>
+        <v>4.48812787778761</v>
       </c>
     </row>
     <row r="619">
@@ -13242,13 +13170,13 @@
         <v>103.796</v>
       </c>
       <c r="E619" s="3" t="n">
-        <v>-2.75899097605546</v>
+        <v>4.28199324596088</v>
       </c>
       <c r="F619" s="3" t="n">
-        <v>-2.58760613594783</v>
+        <v>4.66369935255766</v>
       </c>
       <c r="G619" s="3" t="n">
-        <v>-1.4685361153565</v>
+        <v>4.58776942084513</v>
       </c>
     </row>
     <row r="620">
@@ -13265,13 +13193,13 @@
         <v>104.041</v>
       </c>
       <c r="E620" s="3" t="n">
-        <v>-3.22644107810347</v>
+        <v>3.94714691341223</v>
       </c>
       <c r="F620" s="3" t="n">
-        <v>-2.9509023652057</v>
+        <v>4.35646849835283</v>
       </c>
       <c r="G620" s="3" t="n">
-        <v>-1.99327411287056</v>
+        <v>4.68350437344049</v>
       </c>
     </row>
     <row r="621">
@@ -13288,13 +13216,13 @@
         <v>104.145</v>
       </c>
       <c r="E621" s="3" t="n">
-        <v>-3.49670526041473</v>
+        <v>3.78133816574053</v>
       </c>
       <c r="F621" s="3" t="n">
-        <v>-3.18757738533008</v>
+        <v>4.02221950274897</v>
       </c>
       <c r="G621" s="3" t="n">
-        <v>-2.53249852598478</v>
+        <v>4.17729280073862</v>
       </c>
     </row>
     <row r="622">
@@ -13311,13 +13239,13 @@
         <v>104.134</v>
       </c>
       <c r="E622" s="3" t="n">
-        <v>-3.89090268571481</v>
+        <v>3.16244079130676</v>
       </c>
       <c r="F622" s="3" t="n">
-        <v>-3.65096716816127</v>
+        <v>3.54017541589096</v>
       </c>
       <c r="G622" s="3" t="n">
-        <v>-3.23377999145092</v>
+        <v>3.71809045726637</v>
       </c>
     </row>
     <row r="623">
@@ -13334,13 +13262,13 @@
         <v>104.356</v>
       </c>
       <c r="E623" s="3" t="n">
-        <v>-3.85888969051188</v>
+        <v>2.99751280755471</v>
       </c>
       <c r="F623" s="3" t="n">
-        <v>-3.94553555779006</v>
+        <v>2.99822935316985</v>
       </c>
       <c r="G623" s="3" t="n">
-        <v>-3.01486988847584</v>
+        <v>3.57504416698096</v>
       </c>
     </row>
     <row r="624">
@@ -13357,13 +13285,13 @@
         <v>104.863</v>
       </c>
       <c r="E624" s="3" t="n">
-        <v>-3.92648978616214</v>
+        <v>3.01951892744479</v>
       </c>
       <c r="F624" s="3" t="n">
-        <v>-3.98769343803095</v>
+        <v>3.20953283576195</v>
       </c>
       <c r="G624" s="3" t="n">
-        <v>-3.38235023126394</v>
+        <v>3.80008710801394</v>
       </c>
     </row>
     <row r="625">
@@ -13380,13 +13308,13 @@
         <v>104.716</v>
       </c>
       <c r="E625" s="3" t="n">
-        <v>-3.224443301242</v>
+        <v>2.97449732656911</v>
       </c>
       <c r="F625" s="3" t="n">
-        <v>-3.42773626009982</v>
+        <v>3.38414304130052</v>
       </c>
       <c r="G625" s="3" t="n">
-        <v>-3.35394554683894</v>
+        <v>3.21830243171581</v>
       </c>
     </row>
     <row r="626">
@@ -13403,13 +13331,13 @@
         <v>105.371</v>
       </c>
       <c r="E626" s="3" t="n">
-        <v>-3.05387522764503</v>
+        <v>2.8285769753446</v>
       </c>
       <c r="F626" s="3" t="n">
-        <v>-3.23601796872857</v>
+        <v>3.61603950114133</v>
       </c>
       <c r="G626" s="3" t="n">
-        <v>-3.41530931189675</v>
+        <v>2.81702509660045</v>
       </c>
     </row>
     <row r="627">
@@ -13426,13 +13354,13 @@
         <v>106.336</v>
       </c>
       <c r="E627" s="3" t="n">
-        <v>-3.41439070864712</v>
+        <v>3.23835201924196</v>
       </c>
       <c r="F627" s="3" t="n">
-        <v>-4.0378388673735</v>
+        <v>3.65112952839985</v>
       </c>
       <c r="G627" s="3" t="n">
-        <v>-4.0436034182481</v>
+        <v>3.74041482117422</v>
       </c>
     </row>
     <row r="628">
@@ -13449,13 +13377,13 @@
         <v>106.928</v>
       </c>
       <c r="E628" s="3" t="n">
-        <v>-3.6228551849748</v>
+        <v>3.69619418116203</v>
       </c>
       <c r="F628" s="3" t="n">
-        <v>-4.38490525215008</v>
+        <v>3.50743646797049</v>
       </c>
       <c r="G628" s="3" t="n">
-        <v>-4.03503733486503</v>
+        <v>4.21832358674463</v>
       </c>
     </row>
     <row r="629">
@@ -13472,13 +13400,13 @@
         <v>106.525</v>
       </c>
       <c r="E629" s="3" t="n">
-        <v>-4.45879238803835</v>
+        <v>3.24906258456066</v>
       </c>
       <c r="F629" s="3" t="n">
-        <v>-5.00541246566887</v>
+        <v>2.81675139191477</v>
       </c>
       <c r="G629" s="3" t="n">
-        <v>-5.02745979102028</v>
+        <v>3.26492627742181</v>
       </c>
     </row>
     <row r="630">
@@ -13495,13 +13423,13 @@
         <v>105.398</v>
       </c>
       <c r="E630" s="3" t="n">
-        <v>-5.73580533024334</v>
+        <v>2.14814886362538</v>
       </c>
       <c r="F630" s="3" t="n">
-        <v>-6.15238196890454</v>
+        <v>1.79939409142658</v>
       </c>
       <c r="G630" s="3" t="n">
-        <v>-6.3228811149033</v>
+        <v>1.54439038489329</v>
       </c>
     </row>
     <row r="631">
@@ -13518,13 +13446,13 @@
         <v>105.343</v>
       </c>
       <c r="E631" s="3" t="n">
-        <v>-5.56578514308079</v>
+        <v>2.83727102767526</v>
       </c>
       <c r="F631" s="3" t="n">
-        <v>-5.97238763177629</v>
+        <v>2.65634179933929</v>
       </c>
       <c r="G631" s="3" t="n">
-        <v>-7.06068145324934</v>
+        <v>1.49042352306448</v>
       </c>
     </row>
     <row r="632">
@@ -13541,13 +13469,13 @@
         <v>106.157</v>
       </c>
       <c r="E632" s="3" t="n">
-        <v>-5.55221292183546</v>
+        <v>3.33401097784101</v>
       </c>
       <c r="F632" s="3" t="n">
-        <v>-6.10791467864159</v>
+        <v>3.04062833877163</v>
       </c>
       <c r="G632" s="3" t="n">
-        <v>-6.79970500956963</v>
+        <v>2.03381359271826</v>
       </c>
     </row>
     <row r="633">
@@ -13564,13 +13492,13 @@
         <v>106.851</v>
       </c>
       <c r="E633" s="3" t="n">
-        <v>-5.48723632589152</v>
+        <v>3.62340505560004</v>
       </c>
       <c r="F633" s="3" t="n">
-        <v>-6.0884237766762</v>
+        <v>3.29252930485706</v>
       </c>
       <c r="G633" s="3" t="n">
-        <v>-6.94448073154801</v>
+        <v>2.59830044649287</v>
       </c>
     </row>
     <row r="634">
@@ -13587,13 +13515,13 @@
         <v>107.614</v>
       </c>
       <c r="E634" s="3" t="n">
-        <v>-5.29592006953529</v>
+        <v>4.04842288029323</v>
       </c>
       <c r="F634" s="3" t="n">
-        <v>-6.04251170725763</v>
+        <v>3.7893137697951</v>
       </c>
       <c r="G634" s="3" t="n">
-        <v>-6.3745747818446</v>
+        <v>3.34184800353392</v>
       </c>
     </row>
     <row r="635">
@@ -13610,13 +13538,13 @@
         <v>107.6</v>
       </c>
       <c r="E635" s="3" t="n">
-        <v>-5.66050907060147</v>
+        <v>4.01377691404823</v>
       </c>
       <c r="F635" s="3" t="n">
-        <v>-6.23561975607647</v>
+        <v>4.10760247397335</v>
       </c>
       <c r="G635" s="3" t="n">
-        <v>-6.74131983567058</v>
+        <v>3.1085898271302</v>
       </c>
     </row>
     <row r="636">
@@ -13633,13 +13561,13 @@
         <v>108.534</v>
       </c>
       <c r="E636" s="3" t="n">
-        <v>-5.87308867178373</v>
+        <v>4.08696401060256</v>
       </c>
       <c r="F636" s="3" t="n">
-        <v>-6.36689626705879</v>
+        <v>4.15331490391513</v>
       </c>
       <c r="G636" s="3" t="n">
-        <v>-6.69601024732854</v>
+        <v>3.50075813203896</v>
       </c>
     </row>
     <row r="637">
@@ -13656,13 +13584,13 @@
         <v>108.35</v>
       </c>
       <c r="E637" s="3" t="n">
-        <v>-6.86834810581431</v>
+        <v>3.33187781216182</v>
       </c>
       <c r="F637" s="3" t="n">
-        <v>-6.90177486436065</v>
+        <v>3.54940034266134</v>
       </c>
       <c r="G637" s="3" t="n">
-        <v>-7.61583192646783</v>
+        <v>3.47033882119256</v>
       </c>
     </row>
     <row r="638">
@@ -13679,13 +13607,13 @@
         <v>109.097</v>
       </c>
       <c r="E638" s="3" t="n">
-        <v>-6.85119514440619</v>
+        <v>3.15007457473522</v>
       </c>
       <c r="F638" s="3" t="n">
-        <v>-6.76680826381425</v>
+        <v>3.3442381150486</v>
       </c>
       <c r="G638" s="3" t="n">
-        <v>-7.6951062677677</v>
+        <v>3.5360772888176</v>
       </c>
     </row>
     <row r="639">
@@ -13702,13 +13630,13 @@
         <v>110.817</v>
       </c>
       <c r="E639" s="3" t="n">
-        <v>-6.60327791054389</v>
+        <v>3.53509258128457</v>
       </c>
       <c r="F639" s="3" t="n">
-        <v>-6.41990816577689</v>
+        <v>4.20774065497849</v>
       </c>
       <c r="G639" s="3" t="n">
-        <v>-6.66391530291673</v>
+        <v>4.21400090279866</v>
       </c>
     </row>
     <row r="640">
@@ -13725,13 +13653,13 @@
         <v>111.424</v>
       </c>
       <c r="E640" s="3" t="n">
-        <v>-6.78595742177323</v>
+        <v>3.75903975151792</v>
       </c>
       <c r="F640" s="3" t="n">
-        <v>-6.8357619787511</v>
+        <v>4.58599686975543</v>
       </c>
       <c r="G640" s="3" t="n">
-        <v>-7.07852425111749</v>
+        <v>4.20469848870269</v>
       </c>
     </row>
     <row r="641">
@@ -13748,13 +13676,13 @@
         <v>112.164</v>
       </c>
       <c r="E641" s="3" t="n">
-        <v>-6.93664228230928</v>
+        <v>4.66687882588592</v>
       </c>
       <c r="F641" s="3" t="n">
-        <v>-7.10088677975117</v>
+        <v>5.26915542831312</v>
       </c>
       <c r="G641" s="3" t="n">
-        <v>-7.56526898734177</v>
+        <v>5.29359305327388</v>
       </c>
     </row>
     <row r="642">
@@ -13771,13 +13699,13 @@
         <v>112.512</v>
       </c>
       <c r="E642" s="3" t="n">
-        <v>-7.13440223824384</v>
+        <v>6.08481868469577</v>
       </c>
       <c r="F642" s="3" t="n">
-        <v>-7.2192513368984</v>
+        <v>6.55571457004482</v>
       </c>
       <c r="G642" s="3" t="n">
-        <v>-8.77750571599993</v>
+        <v>6.74965369361848</v>
       </c>
     </row>
     <row r="643">
@@ -13794,13 +13722,13 @@
         <v>113.346</v>
       </c>
       <c r="E643" s="3" t="n">
-        <v>-7.10862487812134</v>
+        <v>5.89382264840526</v>
       </c>
       <c r="F643" s="3" t="n">
-        <v>-6.81567827959818</v>
+        <v>6.35173804944411</v>
       </c>
       <c r="G643" s="3" t="n">
-        <v>-8.34950514263535</v>
+        <v>7.59708760904854</v>
       </c>
     </row>
     <row r="644">
@@ -13817,13 +13745,13 @@
         <v>113.902</v>
       </c>
       <c r="E644" s="3" t="n">
-        <v>-7.39569335649438</v>
+        <v>5.87860562285116</v>
       </c>
       <c r="F644" s="3" t="n">
-        <v>-7.10392308632419</v>
+        <v>6.50524978515115</v>
       </c>
       <c r="G644" s="3" t="n">
-        <v>-9.15529466187062</v>
+        <v>7.29579773354561</v>
       </c>
     </row>
     <row r="645">
@@ -13840,13 +13768,13 @@
         <v>114.825</v>
       </c>
       <c r="E645" s="3" t="n">
-        <v>-7.53651950418063</v>
+        <v>5.80581512229628</v>
       </c>
       <c r="F645" s="3" t="n">
-        <v>-7.2884666823373</v>
+        <v>6.48314512600425</v>
       </c>
       <c r="G645" s="3" t="n">
-        <v>-9.28805043371095</v>
+        <v>7.46272847235872</v>
       </c>
     </row>
     <row r="646">
@@ -13863,13 +13791,13 @@
         <v>114.941</v>
       </c>
       <c r="E646" s="3" t="n">
-        <v>-7.99980614363142</v>
+        <v>5.59207171794895</v>
       </c>
       <c r="F646" s="3" t="n">
-        <v>-7.47163003471244</v>
+        <v>6.43111242866672</v>
       </c>
       <c r="G646" s="3" t="n">
-        <v>-8.99078355609045</v>
+        <v>6.80859367740256</v>
       </c>
     </row>
     <row r="647">
@@ -13886,13 +13814,13 @@
         <v>115.378</v>
       </c>
       <c r="E647" s="3" t="n">
-        <v>-8.00346790183911</v>
+        <v>6.00014799193442</v>
       </c>
       <c r="F647" s="3" t="n">
-        <v>-7.33853774265425</v>
+        <v>6.65030765398844</v>
       </c>
       <c r="G647" s="3" t="n">
-        <v>-9.22623028205027</v>
+        <v>7.22862453531599</v>
       </c>
     </row>
     <row r="648">
@@ -13909,13 +13837,13 @@
         <v>116.323</v>
       </c>
       <c r="E648" s="3" t="n">
-        <v>-7.75487723107378</v>
+        <v>6.2395425377388</v>
       </c>
       <c r="F648" s="3" t="n">
-        <v>-7.34608673481583</v>
+        <v>6.79983468797354</v>
       </c>
       <c r="G648" s="3" t="n">
-        <v>-8.86777079644632</v>
+        <v>7.17655296957633</v>
       </c>
     </row>
     <row r="649">
@@ -13932,13 +13860,13 @@
         <v>117.282</v>
       </c>
       <c r="E649" s="3" t="n">
-        <v>-7.23271188996564</v>
+        <v>7.37488057617404</v>
       </c>
       <c r="F649" s="3" t="n">
-        <v>-7.171058380534</v>
+        <v>7.41343334344464</v>
       </c>
       <c r="G649" s="3" t="n">
-        <v>-8.2931940447892</v>
+        <v>8.24365482233502</v>
       </c>
     </row>
     <row r="650">
@@ -13955,13 +13883,13 @@
         <v>118.192</v>
       </c>
       <c r="E650" s="3" t="n">
-        <v>-7.2502727747118</v>
+        <v>7.35510794263803</v>
       </c>
       <c r="F650" s="3" t="n">
-        <v>-7.34101579172003</v>
+        <v>7.25793908564423</v>
       </c>
       <c r="G650" s="3" t="n">
-        <v>-7.91573173772128</v>
+        <v>8.33661787216879</v>
       </c>
     </row>
     <row r="651">
@@ -13978,13 +13906,13 @@
         <v>118.729</v>
       </c>
       <c r="E651" s="3" t="n">
-        <v>-7.33021297983288</v>
+        <v>7.07013882587788</v>
       </c>
       <c r="F651" s="3" t="n">
-        <v>-7.59644568533493</v>
+        <v>6.86033539820601</v>
       </c>
       <c r="G651" s="3" t="n">
-        <v>-8.14785588847371</v>
+        <v>7.13969878267775</v>
       </c>
     </row>
     <row r="652">
@@ -14001,13 +13929,13 @@
         <v>119.912</v>
       </c>
       <c r="E652" s="3" t="n">
-        <v>-7.07948705933805</v>
+        <v>7.27997331097225</v>
       </c>
       <c r="F652" s="3" t="n">
-        <v>-7.30129318063266</v>
+        <v>7.3373239817536</v>
       </c>
       <c r="G652" s="3" t="n">
-        <v>-7.67762003018077</v>
+        <v>7.61774842044802</v>
       </c>
     </row>
     <row r="653">
@@ -14024,13 +13952,13 @@
         <v>121.344</v>
       </c>
       <c r="E653" s="3" t="n">
-        <v>-6.41020648186371</v>
+        <v>7.45367720703964</v>
       </c>
       <c r="F653" s="3" t="n">
-        <v>-6.52418797243651</v>
+        <v>7.64365399583107</v>
       </c>
       <c r="G653" s="3" t="n">
-        <v>-7.07021198382551</v>
+        <v>8.18444420669733</v>
       </c>
     </row>
     <row r="654">
@@ -14047,13 +13975,13 @@
         <v>123.338</v>
       </c>
       <c r="E654" s="3" t="n">
-        <v>-5.88487336693596</v>
+        <v>7.68250289687138</v>
       </c>
       <c r="F654" s="3" t="n">
-        <v>-6.00318039017956</v>
+        <v>7.78097982708934</v>
       </c>
       <c r="G654" s="3" t="n">
-        <v>-5.95510415713545</v>
+        <v>9.62208475540387</v>
       </c>
     </row>
     <row r="655">
@@ -14070,13 +13998,13 @@
         <v>123.672</v>
       </c>
       <c r="E655" s="3" t="n">
-        <v>-5.51356922019924</v>
+        <v>7.65262099822985</v>
       </c>
       <c r="F655" s="3" t="n">
-        <v>-5.7993572617803</v>
+        <v>7.31418993427726</v>
       </c>
       <c r="G655" s="3" t="n">
-        <v>-5.67094052949118</v>
+        <v>9.11015827642792</v>
       </c>
     </row>
     <row r="656">
@@ -14093,13 +14021,13 @@
         <v>125.381</v>
       </c>
       <c r="E656" s="3" t="n">
-        <v>-4.81226699112421</v>
+        <v>7.98633845936045</v>
       </c>
       <c r="F656" s="3" t="n">
-        <v>-5.24369436488145</v>
+        <v>7.64717232669099</v>
       </c>
       <c r="G656" s="3" t="n">
-        <v>-4.63147486118506</v>
+        <v>10.0779617565978</v>
       </c>
     </row>
     <row r="657">
@@ -14116,13 +14044,13 @@
         <v>126.582</v>
       </c>
       <c r="E657" s="3" t="n">
-        <v>-4.56718827620467</v>
+        <v>8.15080663605494</v>
       </c>
       <c r="F657" s="3" t="n">
-        <v>-5.34670328827239</v>
+        <v>7.86144551979788</v>
       </c>
       <c r="G657" s="3" t="n">
-        <v>-4.2336848794807</v>
+        <v>10.2390594382756</v>
       </c>
     </row>
     <row r="658">
@@ -14138,9 +14066,15 @@
       <c r="D658" s="3" t="n">
         <v>126.296</v>
       </c>
-      <c r="E658" s="3"/>
-      <c r="F658" s="3"/>
-      <c r="G658" s="3"/>
+      <c r="E658" s="3" t="n">
+        <v>8.69542313804335</v>
+      </c>
+      <c r="F658" s="3" t="n">
+        <v>8.0749612659506</v>
+      </c>
+      <c r="G658" s="3" t="n">
+        <v>9.87898139045249</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="5" t="n">
@@ -14155,9 +14089,15 @@
       <c r="D659" s="3" t="n">
         <v>127.105</v>
       </c>
-      <c r="E659" s="3"/>
-      <c r="F659" s="3"/>
-      <c r="G659" s="3"/>
+      <c r="E659" s="3" t="n">
+        <v>8.69974956588511</v>
+      </c>
+      <c r="F659" s="3" t="n">
+        <v>7.91973012715164</v>
+      </c>
+      <c r="G659" s="3" t="n">
+        <v>10.1639827350101</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="5" t="n">
@@ -14172,9 +14112,15 @@
       <c r="D660" s="3" t="n">
         <v>127.642</v>
       </c>
-      <c r="E660" s="3"/>
-      <c r="F660" s="3"/>
-      <c r="G660" s="3"/>
+      <c r="E660" s="3" t="n">
+        <v>8.4068154481183</v>
+      </c>
+      <c r="F660" s="3" t="n">
+        <v>7.92852290414399</v>
+      </c>
+      <c r="G660" s="3" t="n">
+        <v>9.73066375523328</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="5" t="n">
@@ -14189,9 +14135,15 @@
       <c r="D661" s="3" t="n">
         <v>127.888</v>
       </c>
-      <c r="E661" s="3"/>
-      <c r="F661" s="3"/>
-      <c r="G661" s="3"/>
+      <c r="E661" s="3" t="n">
+        <v>7.79661886999077</v>
+      </c>
+      <c r="F661" s="3" t="n">
+        <v>7.72502438940901</v>
+      </c>
+      <c r="G661" s="3" t="n">
+        <v>9.04316092836071</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="5" t="n">
@@ -14206,9 +14158,15 @@
       <c r="D662" s="3" t="n">
         <v>128.352</v>
       </c>
-      <c r="E662" s="3"/>
-      <c r="F662" s="3"/>
-      <c r="G662" s="3"/>
+      <c r="E662" s="3" t="n">
+        <v>7.81702867664609</v>
+      </c>
+      <c r="F662" s="3" t="n">
+        <v>7.92261630584985</v>
+      </c>
+      <c r="G662" s="3" t="n">
+        <v>8.59618248273997</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="5" t="n">
@@ -14223,9 +14181,15 @@
       <c r="D663" s="3" t="n">
         <v>129.261</v>
       </c>
-      <c r="E663" s="3"/>
-      <c r="F663" s="3"/>
-      <c r="G663" s="3"/>
+      <c r="E663" s="3" t="n">
+        <v>7.91003542312843</v>
+      </c>
+      <c r="F663" s="3" t="n">
+        <v>8.22094533232616</v>
+      </c>
+      <c r="G663" s="3" t="n">
+        <v>8.87062133093011</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="5" t="n">
@@ -14240,9 +14204,15 @@
       <c r="D664" s="3" t="n">
         <v>129.884</v>
       </c>
-      <c r="E664" s="3"/>
-      <c r="F664" s="3"/>
-      <c r="G664" s="3"/>
+      <c r="E664" s="3" t="n">
+        <v>7.61886351602357</v>
+      </c>
+      <c r="F664" s="3" t="n">
+        <v>7.87637004997273</v>
+      </c>
+      <c r="G664" s="3" t="n">
+        <v>8.31609847221293</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="5" t="n">
@@ -14257,9 +14227,15 @@
       <c r="D665" s="3" t="n">
         <v>130.576</v>
       </c>
-      <c r="E665" s="3"/>
-      <c r="F665" s="3"/>
-      <c r="G665" s="3"/>
+      <c r="E665" s="3" t="n">
+        <v>6.84925806639536</v>
+      </c>
+      <c r="F665" s="3" t="n">
+        <v>6.97954672007846</v>
+      </c>
+      <c r="G665" s="3" t="n">
+        <v>7.60812236286921</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="5" t="n">
@@ -14274,9 +14250,15 @@
       <c r="D666" s="3" t="n">
         <v>131.148</v>
       </c>
-      <c r="E666" s="3"/>
-      <c r="F666" s="3"/>
-      <c r="G666" s="3"/>
+      <c r="E666" s="3" t="n">
+        <v>6.25284540059101</v>
+      </c>
+      <c r="F666" s="3" t="n">
+        <v>6.38657820030368</v>
+      </c>
+      <c r="G666" s="3" t="n">
+        <v>6.33219283594675</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="5" t="n">
@@ -14291,9 +14273,15 @@
       <c r="D667" s="3" t="n">
         <v>131.107</v>
       </c>
-      <c r="E667" s="3"/>
-      <c r="F667" s="3"/>
-      <c r="G667" s="3"/>
+      <c r="E667" s="3" t="n">
+        <v>5.83530267224142</v>
+      </c>
+      <c r="F667" s="3" t="n">
+        <v>6.156388208408</v>
+      </c>
+      <c r="G667" s="3" t="n">
+        <v>6.01187010802768</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="5" t="n">
@@ -14308,9 +14296,15 @@
       <c r="D668" s="3" t="n">
         <v>131.47</v>
       </c>
-      <c r="E668" s="3"/>
-      <c r="F668" s="3"/>
-      <c r="G668" s="3"/>
+      <c r="E668" s="3" t="n">
+        <v>5.05555373471862</v>
+      </c>
+      <c r="F668" s="3" t="n">
+        <v>5.53387379313153</v>
+      </c>
+      <c r="G668" s="3" t="n">
+        <v>4.85639769981097</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="5" t="n">
@@ -14325,9 +14319,15 @@
       <c r="D669" s="3" t="n">
         <v>132.178</v>
       </c>
-      <c r="E669" s="3"/>
-      <c r="F669" s="3"/>
-      <c r="G669" s="3"/>
+      <c r="E669" s="3" t="n">
+        <v>4.78576308683345</v>
+      </c>
+      <c r="F669" s="3" t="n">
+        <v>5.6487237888355</v>
+      </c>
+      <c r="G669" s="3" t="n">
+        <v>4.4208497258694</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-julio 2023</t>
+    <t xml:space="preserve">enero 1969-agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 12668</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14330,13 +14330,27 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="4"/>
-      <c r="B670" s="3"/>
-      <c r="C670" s="3"/>
-      <c r="D670" s="3"/>
-      <c r="E670" s="3"/>
-      <c r="F670" s="3"/>
-      <c r="G670" s="3"/>
+      <c r="A670" s="5" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B670" s="3" t="n">
+        <v>129.545</v>
+      </c>
+      <c r="C670" s="3" t="n">
+        <v>130.779</v>
+      </c>
+      <c r="D670" s="3" t="n">
+        <v>133.224</v>
+      </c>
+      <c r="E670" s="3" t="n">
+        <v>4.63801361840988</v>
+      </c>
+      <c r="F670" s="3" t="n">
+        <v>5.32847949872346</v>
+      </c>
+      <c r="G670" s="3" t="n">
+        <v>5.48552606575028</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-agosto 2023</t>
+    <t xml:space="preserve">enero 1969-septiembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 10303</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12668</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14353,13 +14353,27 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="4"/>
-      <c r="B671" s="3"/>
-      <c r="C671" s="3"/>
-      <c r="D671" s="3"/>
-      <c r="E671" s="3"/>
-      <c r="F671" s="3"/>
-      <c r="G671" s="3"/>
+      <c r="A671" s="5" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B671" s="3" t="n">
+        <v>130.12</v>
+      </c>
+      <c r="C671" s="3" t="n">
+        <v>131.644</v>
+      </c>
+      <c r="D671" s="3" t="n">
+        <v>133.671</v>
+      </c>
+      <c r="E671" s="3" t="n">
+        <v>4.45448780213693</v>
+      </c>
+      <c r="F671" s="3" t="n">
+        <v>5.51271981148711</v>
+      </c>
+      <c r="G671" s="3" t="n">
+        <v>5.1658077967035</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-septiembre 2023</t>
+    <t xml:space="preserve">enero 1969-octubre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12668</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 12668</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14376,13 +14376,27 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="4"/>
-      <c r="B672" s="3"/>
-      <c r="C672" s="3"/>
-      <c r="D672" s="3"/>
-      <c r="E672" s="3"/>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3"/>
+      <c r="A672" s="5" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B672" s="3" t="n">
+        <v>130.609</v>
+      </c>
+      <c r="C672" s="3" t="n">
+        <v>131.737</v>
+      </c>
+      <c r="D672" s="3" t="n">
+        <v>134.929</v>
+      </c>
+      <c r="E672" s="3" t="n">
+        <v>4.25700054280151</v>
+      </c>
+      <c r="F672" s="3" t="n">
+        <v>4.96219394625086</v>
+      </c>
+      <c r="G672" s="3" t="n">
+        <v>5.70893593017974</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 12668</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 26862</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-octubre 2023</t>
+    <t xml:space="preserve">enero 1969-noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 26862</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de mayo 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14399,13 +14399,27 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="4"/>
-      <c r="B673" s="3"/>
-      <c r="C673" s="3"/>
-      <c r="D673" s="3"/>
-      <c r="E673" s="3"/>
-      <c r="F673" s="3"/>
-      <c r="G673" s="3"/>
+      <c r="A673" s="5" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B673" s="3" t="n">
+        <v>131.445</v>
+      </c>
+      <c r="C673" s="3" t="n">
+        <v>132.022</v>
+      </c>
+      <c r="D673" s="3" t="n">
+        <v>135.269</v>
+      </c>
+      <c r="E673" s="3" t="n">
+        <v>4.32391247410653</v>
+      </c>
+      <c r="F673" s="3" t="n">
+        <v>4.87841691756499</v>
+      </c>
+      <c r="G673" s="3" t="n">
+        <v>5.77145627423996</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-diciembre 2023</t>
+    <t xml:space="preserve">enero 1969-enero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 23313</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 18582</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -5028,14 +5028,14 @@
         <v>5.94513902207915</v>
       </c>
       <c r="C251" s="3" t="n">
-        <v>6.43368614091755</v>
+        <v>6.43368614091754</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3" t="n">
         <v>95.2374420015798</v>
       </c>
       <c r="F251" s="3" t="n">
-        <v>93.4153539092553</v>
+        <v>93.415353909255</v>
       </c>
       <c r="G251" s="3"/>
     </row>
@@ -5263,7 +5263,7 @@
         <v>17.295706107192</v>
       </c>
       <c r="F263" s="3" t="n">
-        <v>19.8607001308475</v>
+        <v>19.8607001308477</v>
       </c>
       <c r="G263" s="3"/>
     </row>
@@ -6127,14 +6127,14 @@
         <v>34151</v>
       </c>
       <c r="B309" s="3" t="n">
-        <v>13.4501234404209</v>
+        <v>13.4501234404208</v>
       </c>
       <c r="C309" s="3" t="n">
         <v>14.3933826677682</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="3" t="n">
-        <v>9.7049313887319</v>
+        <v>9.70493138873108</v>
       </c>
       <c r="F309" s="3" t="n">
         <v>9.85859331140708</v>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3" t="n">
-        <v>6.81185814765972</v>
+        <v>6.81185814766052</v>
       </c>
       <c r="F321" s="3" t="n">
         <v>6.41705235392465</v>
@@ -7759,7 +7759,7 @@
         <v>43.508851226519</v>
       </c>
       <c r="C384" s="3" t="n">
-        <v>45.2025750405084</v>
+        <v>45.2025750405083</v>
       </c>
       <c r="D384" s="3" t="n">
         <v>38.9638749353431</v>
@@ -7768,7 +7768,7 @@
         <v>14.9134810439098</v>
       </c>
       <c r="F384" s="3" t="n">
-        <v>14.6822977524434</v>
+        <v>14.6822977524432</v>
       </c>
       <c r="G384" s="3" t="n">
         <v>14.6703309494202</v>
@@ -8044,7 +8044,7 @@
         <v>8.9091862691419</v>
       </c>
       <c r="F396" s="3" t="n">
-        <v>8.79860224106441</v>
+        <v>8.79860224106466</v>
       </c>
       <c r="G396" s="3" t="n">
         <v>8.917255665067</v>
@@ -11764,7 +11764,7 @@
         <v>84.6410215531312</v>
       </c>
       <c r="D558" s="3" t="n">
-        <v>80.9638288638916</v>
+        <v>80.9638288638915</v>
       </c>
       <c r="E558" s="3" t="n">
         <v>3.49670865650837</v>
@@ -11773,7 +11773,7 @@
         <v>2.83727193904839</v>
       </c>
       <c r="G558" s="3" t="n">
-        <v>4.95691387239363</v>
+        <v>4.9569138723935</v>
       </c>
     </row>
     <row r="559">
@@ -12049,7 +12049,7 @@
         <v>3.32765270427848</v>
       </c>
       <c r="G570" s="3" t="n">
-        <v>3.03226245575818</v>
+        <v>3.03226245575834</v>
       </c>
     </row>
     <row r="571">
@@ -14445,13 +14445,27 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="4"/>
-      <c r="B675" s="3"/>
-      <c r="C675" s="3"/>
-      <c r="D675" s="3"/>
-      <c r="E675" s="3"/>
-      <c r="F675" s="3"/>
-      <c r="G675" s="3"/>
+      <c r="A675" s="5" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B675" s="3" t="n">
+        <v>133.555</v>
+      </c>
+      <c r="C675" s="3" t="n">
+        <v>133.493</v>
+      </c>
+      <c r="D675" s="3" t="n">
+        <v>137.906</v>
+      </c>
+      <c r="E675" s="3" t="n">
+        <v>4.88392913237419</v>
+      </c>
+      <c r="F675" s="3" t="n">
+        <v>4.69464421561168</v>
+      </c>
+      <c r="G675" s="3" t="n">
+        <v>6.68801881464633</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-enero 2024</t>
+    <t xml:space="preserve">enero 1969-febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 18582</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14468,13 +14468,27 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="4"/>
-      <c r="B676" s="3"/>
-      <c r="C676" s="3"/>
-      <c r="D676" s="3"/>
-      <c r="E676" s="3"/>
-      <c r="F676" s="3"/>
-      <c r="G676" s="3"/>
+      <c r="A676" s="5" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B676" s="3" t="n">
+        <v>133.681</v>
+      </c>
+      <c r="C676" s="3" t="n">
+        <v>134.117</v>
+      </c>
+      <c r="D676" s="3" t="n">
+        <v>138.003</v>
+      </c>
+      <c r="E676" s="3" t="n">
+        <v>4.40076222607502</v>
+      </c>
+      <c r="F676" s="3" t="n">
+        <v>4.41752372647788</v>
+      </c>
+      <c r="G676" s="3" t="n">
+        <v>6.25096239721599</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-febrero 2024</t>
+    <t xml:space="preserve">enero 1969-marzo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 10303</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14491,13 +14491,27 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="4"/>
-      <c r="B677" s="3"/>
-      <c r="C677" s="3"/>
-      <c r="D677" s="3"/>
-      <c r="E677" s="3"/>
-      <c r="F677" s="3"/>
-      <c r="G677" s="3"/>
+      <c r="A677" s="5" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B677" s="3" t="n">
+        <v>134.065</v>
+      </c>
+      <c r="C677" s="3" t="n">
+        <v>134.376</v>
+      </c>
+      <c r="D677" s="3" t="n">
+        <v>138.205</v>
+      </c>
+      <c r="E677" s="3" t="n">
+        <v>4.42093948858546</v>
+      </c>
+      <c r="F677" s="3" t="n">
+        <v>4.39322255109889</v>
+      </c>
+      <c r="G677" s="3" t="n">
+        <v>5.84257443940694</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-marzo 2024</t>
+    <t xml:space="preserve">enero 1969-abril 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14514,13 +14514,27 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="4"/>
-      <c r="B678" s="3"/>
-      <c r="C678" s="3"/>
-      <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
+      <c r="A678" s="5" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B678" s="3" t="n">
+        <v>134.336</v>
+      </c>
+      <c r="C678" s="3" t="n">
+        <v>134.656</v>
+      </c>
+      <c r="D678" s="3" t="n">
+        <v>139.141</v>
+      </c>
+      <c r="E678" s="3" t="n">
+        <v>4.65321003716026</v>
+      </c>
+      <c r="F678" s="3" t="n">
+        <v>4.45332195632782</v>
+      </c>
+      <c r="G678" s="3" t="n">
+        <v>6.09464116875591</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-abril 2024</t>
+    <t xml:space="preserve">enero 1969-mayo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 10303</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14537,13 +14537,27 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="4"/>
-      <c r="B679" s="3"/>
-      <c r="C679" s="3"/>
-      <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
+      <c r="A679" s="5" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B679" s="3" t="n">
+        <v>134.087</v>
+      </c>
+      <c r="C679" s="3" t="n">
+        <v>135.117</v>
+      </c>
+      <c r="D679" s="3" t="n">
+        <v>138.609</v>
+      </c>
+      <c r="E679" s="3" t="n">
+        <v>4.68676805846162</v>
+      </c>
+      <c r="F679" s="3" t="n">
+        <v>4.63236148216981</v>
+      </c>
+      <c r="G679" s="3" t="n">
+        <v>5.72204382679797</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-mayo 2024</t>
+    <t xml:space="preserve">enero 1969-junio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de noviembre 10303</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14560,13 +14560,27 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="4"/>
-      <c r="B680" s="3"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
+      <c r="A680" s="5" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B680" s="3" t="n">
+        <v>134.594</v>
+      </c>
+      <c r="C680" s="3" t="n">
+        <v>135.825</v>
+      </c>
+      <c r="D680" s="3" t="n">
+        <v>139.11</v>
+      </c>
+      <c r="E680" s="3" t="n">
+        <v>4.97605565694854</v>
+      </c>
+      <c r="F680" s="3" t="n">
+        <v>4.86230670053349</v>
+      </c>
+      <c r="G680" s="3" t="n">
+        <v>5.81121168327376</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-junio 2024</t>
+    <t xml:space="preserve">enero 1969-julio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 11486</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14583,13 +14583,27 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="4"/>
-      <c r="B681" s="3"/>
-      <c r="C681" s="3"/>
-      <c r="D681" s="3"/>
-      <c r="E681" s="3"/>
-      <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
+      <c r="A681" s="5" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B681" s="3" t="n">
+        <v>136.003</v>
+      </c>
+      <c r="C681" s="3" t="n">
+        <v>137.647</v>
+      </c>
+      <c r="D681" s="3" t="n">
+        <v>141.065</v>
+      </c>
+      <c r="E681" s="3" t="n">
+        <v>5.56616368604073</v>
+      </c>
+      <c r="F681" s="3" t="n">
+        <v>5.60448665817617</v>
+      </c>
+      <c r="G681" s="3" t="n">
+        <v>6.72350920728109</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-julio 2024</t>
+    <t xml:space="preserve">enero 1969-agosto 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 11486</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-agosto 2024</t>
+    <t xml:space="preserve">enero 1969-septiembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de agosto 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12669</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14401,13 +14401,27 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="4"/>
-      <c r="B671" s="3"/>
-      <c r="C671" s="3"/>
-      <c r="D671" s="3"/>
-      <c r="E671" s="3"/>
-      <c r="F671" s="3"/>
-      <c r="G671" s="3"/>
+      <c r="A671" s="5" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B671" s="3" t="n">
+        <v>136.08</v>
+      </c>
+      <c r="C671" s="3" t="n">
+        <v>137.496</v>
+      </c>
+      <c r="D671" s="3" t="n">
+        <v>141.427</v>
+      </c>
+      <c r="E671" s="3" t="n">
+        <v>4.58038733476791</v>
+      </c>
+      <c r="F671" s="3" t="n">
+        <v>4.44532223268816</v>
+      </c>
+      <c r="G671" s="3" t="n">
+        <v>5.80230566091373</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-septiembre 2024</t>
+    <t xml:space="preserve">enero 1969-octubre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 12669</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 10304</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14424,13 +14424,27 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="4"/>
-      <c r="B672" s="3"/>
-      <c r="C672" s="3"/>
-      <c r="D672" s="3"/>
-      <c r="E672" s="3"/>
-      <c r="F672" s="3"/>
-      <c r="G672" s="3"/>
+      <c r="A672" s="5" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B672" s="3" t="n">
+        <v>136.828</v>
+      </c>
+      <c r="C672" s="3" t="n">
+        <v>137.883</v>
+      </c>
+      <c r="D672" s="3" t="n">
+        <v>141.794</v>
+      </c>
+      <c r="E672" s="3" t="n">
+        <v>4.76154016951358</v>
+      </c>
+      <c r="F672" s="3" t="n">
+        <v>4.66535597440356</v>
+      </c>
+      <c r="G672" s="3" t="n">
+        <v>5.0878610232048</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-octubre 2024</t>
+    <t xml:space="preserve">enero 1969-noviembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de abril 10304</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 37508</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14447,13 +14447,27 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="4"/>
-      <c r="B673" s="3"/>
-      <c r="C673" s="3"/>
-      <c r="D673" s="3"/>
-      <c r="E673" s="3"/>
-      <c r="F673" s="3"/>
-      <c r="G673" s="3"/>
+      <c r="A673" s="5" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B673" s="3" t="n">
+        <v>137.424</v>
+      </c>
+      <c r="C673" s="3" t="n">
+        <v>138.064</v>
+      </c>
+      <c r="D673" s="3" t="n">
+        <v>142.284</v>
+      </c>
+      <c r="E673" s="3" t="n">
+        <v>4.54867054661647</v>
+      </c>
+      <c r="F673" s="3" t="n">
+        <v>4.57650997561012</v>
+      </c>
+      <c r="G673" s="3" t="n">
+        <v>5.18596278526491</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-noviembre 2024</t>
+    <t xml:space="preserve">enero 1969-diciembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de marzo 37508</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 35142</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14470,13 +14470,27 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="4"/>
-      <c r="B674" s="3"/>
-      <c r="C674" s="3"/>
-      <c r="D674" s="3"/>
-      <c r="E674" s="3"/>
-      <c r="F674" s="3"/>
-      <c r="G674" s="3"/>
+      <c r="A674" s="5" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B674" s="3" t="n">
+        <v>137.949</v>
+      </c>
+      <c r="C674" s="3" t="n">
+        <v>138.608</v>
+      </c>
+      <c r="D674" s="3" t="n">
+        <v>142.896</v>
+      </c>
+      <c r="E674" s="3" t="n">
+        <v>4.21233937434373</v>
+      </c>
+      <c r="F674" s="3" t="n">
+        <v>4.6801247630484</v>
+      </c>
+      <c r="G674" s="3" t="n">
+        <v>5.05436660515655</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-diciembre 2024</t>
+    <t xml:space="preserve">enero 1969-enero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 35142</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 35142</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14493,13 +14493,27 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="4"/>
-      <c r="B675" s="3"/>
-      <c r="C675" s="3"/>
-      <c r="D675" s="3"/>
-      <c r="E675" s="3"/>
-      <c r="F675" s="3"/>
-      <c r="G675" s="3"/>
+      <c r="A675" s="5" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B675" s="3" t="n">
+        <v>138.343</v>
+      </c>
+      <c r="C675" s="3" t="n">
+        <v>139.011</v>
+      </c>
+      <c r="D675" s="3" t="n">
+        <v>143.466</v>
+      </c>
+      <c r="E675" s="3" t="n">
+        <v>3.5850398712141</v>
+      </c>
+      <c r="F675" s="3" t="n">
+        <v>4.13355007378664</v>
+      </c>
+      <c r="G675" s="3" t="n">
+        <v>4.03173175931433</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-enero 2025</t>
+    <t xml:space="preserve">enero 1969-febrero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 35142</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 30411</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14516,13 +14516,27 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="4"/>
-      <c r="B676" s="3"/>
-      <c r="C676" s="3"/>
-      <c r="D676" s="3"/>
-      <c r="E676" s="3"/>
-      <c r="F676" s="3"/>
-      <c r="G676" s="3"/>
+      <c r="A676" s="5" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B676" s="3" t="n">
+        <v>138.726</v>
+      </c>
+      <c r="C676" s="3" t="n">
+        <v>139.589</v>
+      </c>
+      <c r="D676" s="3" t="n">
+        <v>143.99</v>
+      </c>
+      <c r="E676" s="3" t="n">
+        <v>3.77390953089818</v>
+      </c>
+      <c r="F676" s="3" t="n">
+        <v>4.08001968430549</v>
+      </c>
+      <c r="G676" s="3" t="n">
+        <v>4.3383114859822</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-febrero 2025</t>
+    <t xml:space="preserve">enero 1969-marzo 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de octubre 30411</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 29229</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14539,13 +14539,27 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="4"/>
-      <c r="B677" s="3"/>
-      <c r="C677" s="3"/>
-      <c r="D677" s="3"/>
-      <c r="E677" s="3"/>
-      <c r="F677" s="3"/>
-      <c r="G677" s="3"/>
+      <c r="A677" s="5" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B677" s="3" t="n">
+        <v>139.161</v>
+      </c>
+      <c r="C677" s="3" t="n">
+        <v>140.482</v>
+      </c>
+      <c r="D677" s="3" t="n">
+        <v>143.704</v>
+      </c>
+      <c r="E677" s="3" t="n">
+        <v>3.80114123745945</v>
+      </c>
+      <c r="F677" s="3" t="n">
+        <v>4.54396618443769</v>
+      </c>
+      <c r="G677" s="3" t="n">
+        <v>3.97887196555839</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de febrero 29229</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 36325</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-marzo 2025</t>
+    <t xml:space="preserve">enero 1969-abril 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de septiembre 36325</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 11487</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14562,13 +14562,27 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="4"/>
-      <c r="B678" s="3"/>
-      <c r="C678" s="3"/>
-      <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
-      <c r="F678" s="3"/>
-      <c r="G678" s="3"/>
+      <c r="A678" s="5" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B678" s="3" t="n">
+        <v>139.62</v>
+      </c>
+      <c r="C678" s="3" t="n">
+        <v>141.266</v>
+      </c>
+      <c r="D678" s="3" t="n">
+        <v>145.258</v>
+      </c>
+      <c r="E678" s="3" t="n">
+        <v>3.93342067651261</v>
+      </c>
+      <c r="F678" s="3" t="n">
+        <v>4.90880465779466</v>
+      </c>
+      <c r="G678" s="3" t="n">
+        <v>4.39625990901318</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-abril 2025</t>
+    <t xml:space="preserve">enero 1969-mayo 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de julio 11487</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 15035</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14585,13 +14585,27 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="4"/>
-      <c r="B679" s="3"/>
-      <c r="C679" s="3"/>
-      <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
+      <c r="A679" s="5" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B679" s="3" t="n">
+        <v>140.012</v>
+      </c>
+      <c r="C679" s="3" t="n">
+        <v>141.799</v>
+      </c>
+      <c r="D679" s="3" t="n">
+        <v>145.69</v>
+      </c>
+      <c r="E679" s="3" t="n">
+        <v>4.41877288626042</v>
+      </c>
+      <c r="F679" s="3" t="n">
+        <v>4.94534366511987</v>
+      </c>
+      <c r="G679" s="3" t="n">
+        <v>5.1086148807076</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-mayo 2025</t>
+    <t xml:space="preserve">enero 1969-junio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de diciembre 15035</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12670</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14608,13 +14608,27 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="4"/>
-      <c r="B680" s="3"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
+      <c r="A680" s="5" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B680" s="3" t="n">
+        <v>140.405</v>
+      </c>
+      <c r="C680" s="3" t="n">
+        <v>142.226</v>
+      </c>
+      <c r="D680" s="3" t="n">
+        <v>146.564</v>
+      </c>
+      <c r="E680" s="3" t="n">
+        <v>4.31742871153247</v>
+      </c>
+      <c r="F680" s="3" t="n">
+        <v>4.71268175961717</v>
+      </c>
+      <c r="G680" s="3" t="n">
+        <v>5.35834950758391</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="4"/>

--- a/HistINPC.xlsx
+++ b/HistINPC.xlsx
@@ -65,13 +65,13 @@
     <t xml:space="preserve">Base segunda quincena de julio 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 1969-junio 2025</t>
+    <t xml:space="preserve">enero 1969-julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima fecha de actualización 9 de junio 12670</t>
+    <t xml:space="preserve">Próxima fecha de actualización 9 de enero 10305</t>
   </si>
   <si>
     <t xml:space="preserve">Fuente: INEGI, INPC</t>
@@ -14631,13 +14631,27 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="4"/>
-      <c r="B681" s="3"/>
-      <c r="C681" s="3"/>
-      <c r="D681" s="3"/>
-      <c r="E681" s="3"/>
-      <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
+      <c r="A681" s="5" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B681" s="3" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="C681" s="3" t="n">
+        <v>142.577</v>
+      </c>
+      <c r="D681" s="3" t="n">
+        <v>147.447</v>
+      </c>
+      <c r="E681" s="3" t="n">
+        <v>3.51242252009147</v>
+      </c>
+      <c r="F681" s="3" t="n">
+        <v>3.58162546223311</v>
+      </c>
+      <c r="G681" s="3" t="n">
+        <v>4.52415553113814</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
